--- a/QuantLibXL/Data2/XLS/EUR_YC6MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR_YC6MBootstrapping.xlsx
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="217">
   <si>
     <t>60Y</t>
   </si>
@@ -591,9 +591,6 @@
     <t>EUR_YC6MRH_5MD</t>
   </si>
   <si>
-    <t>EUR_YC6MRH_TOM6F1</t>
-  </si>
-  <si>
     <t>EUR_YC6MRH_1x7F</t>
   </si>
   <si>
@@ -838,6 +835,39 @@
   </si>
   <si>
     <t>EUR_YCRH_Swaps</t>
+  </si>
+  <si>
+    <t>EUR_YC6MRH_SND</t>
+  </si>
+  <si>
+    <t>EUR_YC6MRH_7x13F</t>
+  </si>
+  <si>
+    <t>EUR_YC6MRH_8x14F</t>
+  </si>
+  <si>
+    <t>EUR_YC6MRH_9x15F</t>
+  </si>
+  <si>
+    <t>EUR_YC6MRH_10x16F</t>
+  </si>
+  <si>
+    <t>EUR_YC6MRH_11x17F</t>
+  </si>
+  <si>
+    <t>EUR_YC6MRH_13x19F</t>
+  </si>
+  <si>
+    <t>EUR_YC6MRH_14x20F</t>
+  </si>
+  <si>
+    <t>EUR_YC6MRH_15x21F</t>
+  </si>
+  <si>
+    <t>EUR_YC6MRH_16x22F</t>
+  </si>
+  <si>
+    <t>EUR_YC6MRH_17x23F</t>
   </si>
 </sst>
 </file>
@@ -2354,7 +2384,7 @@
       <c r="E2" s="206"/>
       <c r="F2" s="207"/>
       <c r="K2" s="205" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L2" s="206"/>
       <c r="M2" s="206"/>
@@ -2387,7 +2417,7 @@
       <c r="I4" s="201"/>
       <c r="K4" s="133"/>
       <c r="L4" s="132" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M4" s="126" t="b">
         <v>1</v>
@@ -2412,7 +2442,7 @@
       </c>
       <c r="K5" s="133"/>
       <c r="L5" s="132" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M5" s="134" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
@@ -2437,7 +2467,7 @@
       <c r="I6" s="199"/>
       <c r="K6" s="133"/>
       <c r="L6" s="132" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M6" s="123" t="b">
         <v>1</v>
@@ -2498,7 +2528,7 @@
       <c r="E9" s="58"/>
       <c r="F9" s="57"/>
       <c r="K9" s="205" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L9" s="206"/>
       <c r="M9" s="206"/>
@@ -2525,16 +2555,16 @@
         <v>100</v>
       </c>
       <c r="D11" s="86">
-        <v>41652.126562500001</v>
+        <v>41662.58520833333</v>
       </c>
       <c r="E11" s="58"/>
       <c r="F11" s="57"/>
       <c r="K11" s="125"/>
       <c r="L11" s="124" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M11" s="126" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N11" s="122"/>
     </row>
@@ -2550,10 +2580,10 @@
       <c r="F12" s="57"/>
       <c r="K12" s="125"/>
       <c r="L12" s="124" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M12" s="123" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N12" s="122"/>
     </row>
@@ -2565,10 +2595,10 @@
       <c r="F13" s="57"/>
       <c r="K13" s="125"/>
       <c r="L13" s="124" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M13" s="126" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N13" s="122"/>
     </row>
@@ -2585,10 +2615,10 @@
       <c r="F14" s="57"/>
       <c r="K14" s="125"/>
       <c r="L14" s="124" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M14" s="126" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N14" s="122"/>
     </row>
@@ -2605,7 +2635,7 @@
       <c r="F15" s="57"/>
       <c r="K15" s="125"/>
       <c r="L15" s="124" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M15" s="126" t="str">
         <f>PROPER(Currency)&amp;"YC"</f>
@@ -2626,7 +2656,7 @@
       <c r="F16" s="57"/>
       <c r="K16" s="125"/>
       <c r="L16" s="124" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M16" s="126" t="str">
         <f>PROPER(Currency)&amp;"YCSTD"</f>
@@ -2759,7 +2789,7 @@
       <c r="B27" s="61"/>
       <c r="C27" s="65">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="D27" s="64">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
@@ -2772,11 +2802,11 @@
       <c r="B28" s="61"/>
       <c r="C28" s="63">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>63569</v>
+        <v>63576</v>
       </c>
       <c r="D28" s="62">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.19840091126141576</v>
+        <v>0.19838653048684229</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="57"/>
@@ -3003,11 +3033,11 @@
       </c>
       <c r="K4" s="11">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L4" s="10">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41655</v>
+        <v>41661</v>
       </c>
       <c r="M4" s="1">
         <v>30</v>
@@ -3042,11 +3072,11 @@
       </c>
       <c r="K5" s="11">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L5" s="10">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>41661</v>
+        <v>41667</v>
       </c>
       <c r="M5" s="1">
         <v>40</v>
@@ -3081,11 +3111,11 @@
       </c>
       <c r="K6" s="11">
         <f>_xll.qlRateHelperEarliestDate($E6,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L6" s="10">
         <f>_xll.qlRateHelperLatestDate($E6,Trigger)</f>
-        <v>41668</v>
+        <v>41674</v>
       </c>
       <c r="M6" s="1">
         <v>50</v>
@@ -3120,11 +3150,11 @@
       </c>
       <c r="K7" s="11">
         <f>_xll.qlRateHelperEarliestDate($E7,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L7" s="10">
         <f>_xll.qlRateHelperLatestDate($E7,Trigger)</f>
-        <v>41675</v>
+        <v>41681</v>
       </c>
       <c r="M7" s="1">
         <v>60</v>
@@ -3159,11 +3189,11 @@
       </c>
       <c r="K8" s="11">
         <f>_xll.qlRateHelperEarliestDate($E8,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L8" s="10">
         <f>_xll.qlRateHelperLatestDate($E8,Trigger)</f>
-        <v>41687</v>
+        <v>41691</v>
       </c>
       <c r="M8" s="1">
         <v>70</v>
@@ -3198,11 +3228,11 @@
       </c>
       <c r="K9" s="11">
         <f>_xll.qlRateHelperEarliestDate($E9,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L9" s="10">
         <f>_xll.qlRateHelperLatestDate($E9,Trigger)</f>
-        <v>41715</v>
+        <v>41719</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
@@ -3231,11 +3261,11 @@
       </c>
       <c r="K10" s="11">
         <f>_xll.qlRateHelperEarliestDate($E10,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L10" s="10">
         <f>_xll.qlRateHelperLatestDate($E10,Trigger)</f>
-        <v>41744</v>
+        <v>41751</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
@@ -3264,11 +3294,11 @@
       </c>
       <c r="K11" s="11">
         <f>_xll.qlRateHelperEarliestDate($E11,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L11" s="10">
         <f>_xll.qlRateHelperLatestDate($E11,Trigger)</f>
-        <v>41774</v>
+        <v>41780</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
@@ -3297,11 +3327,11 @@
       </c>
       <c r="K12" s="11">
         <f>_xll.qlRateHelperEarliestDate($E12,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L12" s="10">
         <f>_xll.qlRateHelperLatestDate($E12,Trigger)</f>
-        <v>41806</v>
+        <v>41813</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
@@ -3330,11 +3360,11 @@
       </c>
       <c r="K13" s="11">
         <f>_xll.qlRateHelperEarliestDate($E13,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L13" s="10">
         <f>_xll.qlRateHelperLatestDate($E13,Trigger)</f>
-        <v>41835</v>
+        <v>41841</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
@@ -3434,11 +3464,11 @@
       </c>
       <c r="K16" s="19">
         <f>_xll.qlRateHelperEarliestDate($E16,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L16" s="18">
         <f>_xll.qlRateHelperLatestDate($E16,Trigger)</f>
-        <v>41835</v>
+        <v>41841</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
@@ -3472,11 +3502,11 @@
       </c>
       <c r="K17" s="4">
         <f>_xll.qlRateHelperEarliestDate($E17,Trigger)</f>
-        <v>41655</v>
+        <v>41661</v>
       </c>
       <c r="L17" s="3">
         <f>_xll.qlRateHelperLatestDate($E17,Trigger)</f>
-        <v>41836</v>
+        <v>41842</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
@@ -3510,11 +3540,11 @@
       </c>
       <c r="K18" s="11">
         <f>_xll.qlRateHelperEarliestDate($E18,Trigger)</f>
-        <v>41687</v>
+        <v>41691</v>
       </c>
       <c r="L18" s="10">
         <f>_xll.qlRateHelperLatestDate($E18,Trigger)</f>
-        <v>41869</v>
+        <v>41872</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
@@ -3548,11 +3578,11 @@
       </c>
       <c r="K19" s="11">
         <f>_xll.qlRateHelperEarliestDate($E19,Trigger)</f>
-        <v>41715</v>
+        <v>41719</v>
       </c>
       <c r="L19" s="10">
         <f>_xll.qlRateHelperLatestDate($E19,Trigger)</f>
-        <v>41899</v>
+        <v>41904</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
@@ -3586,11 +3616,11 @@
       </c>
       <c r="K20" s="11">
         <f>_xll.qlRateHelperEarliestDate($E20,Trigger)</f>
-        <v>41744</v>
+        <v>41751</v>
       </c>
       <c r="L20" s="10">
         <f>_xll.qlRateHelperLatestDate($E20,Trigger)</f>
-        <v>41927</v>
+        <v>41934</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
@@ -3624,11 +3654,11 @@
       </c>
       <c r="K21" s="11">
         <f>_xll.qlRateHelperEarliestDate($E21,Trigger)</f>
-        <v>41774</v>
+        <v>41780</v>
       </c>
       <c r="L21" s="10">
         <f>_xll.qlRateHelperLatestDate($E21,Trigger)</f>
-        <v>41960</v>
+        <v>41964</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
@@ -3662,11 +3692,11 @@
       </c>
       <c r="K22" s="11">
         <f>_xll.qlRateHelperEarliestDate($E22,Trigger)</f>
-        <v>41806</v>
+        <v>41813</v>
       </c>
       <c r="L22" s="10">
         <f>_xll.qlRateHelperLatestDate($E22,Trigger)</f>
-        <v>41989</v>
+        <v>41996</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
@@ -3700,11 +3730,11 @@
       </c>
       <c r="K23" s="11">
         <f>_xll.qlRateHelperEarliestDate($E23,Trigger)</f>
-        <v>41835</v>
+        <v>41841</v>
       </c>
       <c r="L23" s="10">
         <f>_xll.qlRateHelperLatestDate($E23,Trigger)</f>
-        <v>42019</v>
+        <v>42025</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
@@ -3738,11 +3768,11 @@
       </c>
       <c r="K24" s="11">
         <f>_xll.qlRateHelperEarliestDate($E24,Trigger)</f>
-        <v>41866</v>
+        <v>41872</v>
       </c>
       <c r="L24" s="10">
         <f>_xll.qlRateHelperLatestDate($E24,Trigger)</f>
-        <v>42051</v>
+        <v>42058</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
@@ -3776,11 +3806,11 @@
       </c>
       <c r="K25" s="11">
         <f>_xll.qlRateHelperEarliestDate($E25,Trigger)</f>
-        <v>41897</v>
+        <v>41904</v>
       </c>
       <c r="L25" s="10">
         <f>_xll.qlRateHelperLatestDate($E25,Trigger)</f>
-        <v>42079</v>
+        <v>42086</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
@@ -3814,11 +3844,11 @@
       </c>
       <c r="K26" s="11">
         <f>_xll.qlRateHelperEarliestDate($E26,Trigger)</f>
-        <v>41927</v>
+        <v>41933</v>
       </c>
       <c r="L26" s="10">
         <f>_xll.qlRateHelperLatestDate($E26,Trigger)</f>
-        <v>42109</v>
+        <v>42115</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
@@ -3852,11 +3882,11 @@
       </c>
       <c r="K27" s="11">
         <f>_xll.qlRateHelperEarliestDate($E27,Trigger)</f>
-        <v>41960</v>
+        <v>41964</v>
       </c>
       <c r="L27" s="10">
         <f>_xll.qlRateHelperLatestDate($E27,Trigger)</f>
-        <v>42142</v>
+        <v>42145</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
@@ -3890,11 +3920,11 @@
       </c>
       <c r="K28" s="11">
         <f>_xll.qlRateHelperEarliestDate($E28,Trigger)</f>
-        <v>41988</v>
+        <v>41995</v>
       </c>
       <c r="L28" s="10">
         <f>_xll.qlRateHelperLatestDate($E28,Trigger)</f>
-        <v>42170</v>
+        <v>42177</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
@@ -3928,11 +3958,11 @@
       </c>
       <c r="K29" s="11">
         <f>_xll.qlRateHelperEarliestDate($E29,Trigger)</f>
-        <v>42019</v>
+        <v>42025</v>
       </c>
       <c r="L29" s="10">
         <f>_xll.qlRateHelperLatestDate($E29,Trigger)</f>
-        <v>42200</v>
+        <v>42206</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
@@ -3966,11 +3996,11 @@
       </c>
       <c r="K30" s="11">
         <f>_xll.qlRateHelperEarliestDate($E30,Trigger)</f>
-        <v>42051</v>
+        <v>42058</v>
       </c>
       <c r="L30" s="10">
         <f>_xll.qlRateHelperLatestDate($E30,Trigger)</f>
-        <v>42233</v>
+        <v>42240</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.2">
@@ -4004,11 +4034,11 @@
       </c>
       <c r="K31" s="11">
         <f>_xll.qlRateHelperEarliestDate($E31,Trigger)</f>
-        <v>42079</v>
+        <v>42086</v>
       </c>
       <c r="L31" s="10">
         <f>_xll.qlRateHelperLatestDate($E31,Trigger)</f>
-        <v>42263</v>
+        <v>42270</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
@@ -4042,11 +4072,11 @@
       </c>
       <c r="K32" s="11">
         <f>_xll.qlRateHelperEarliestDate($E32,Trigger)</f>
-        <v>42109</v>
+        <v>42115</v>
       </c>
       <c r="L32" s="10">
         <f>_xll.qlRateHelperLatestDate($E32,Trigger)</f>
-        <v>42292</v>
+        <v>42298</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -4080,11 +4110,11 @@
       </c>
       <c r="K33" s="11">
         <f>_xll.qlRateHelperEarliestDate($E33,Trigger)</f>
-        <v>42139</v>
+        <v>42145</v>
       </c>
       <c r="L33" s="10">
         <f>_xll.qlRateHelperLatestDate($E33,Trigger)</f>
-        <v>42324</v>
+        <v>42331</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -4118,11 +4148,11 @@
       </c>
       <c r="K34" s="11">
         <f>_xll.qlRateHelperEarliestDate($E34,Trigger)</f>
-        <v>42170</v>
+        <v>42177</v>
       </c>
       <c r="L34" s="10">
         <f>_xll.qlRateHelperLatestDate($E34,Trigger)</f>
-        <v>42353</v>
+        <v>42360</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -4156,11 +4186,11 @@
       </c>
       <c r="K35" s="4">
         <f>_xll.qlRateHelperEarliestDate($E35,Trigger)</f>
-        <v>42200</v>
+        <v>42206</v>
       </c>
       <c r="L35" s="3">
         <f>_xll.qlRateHelperLatestDate($E35,Trigger)</f>
-        <v>42384</v>
+        <v>42390</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4174,11 +4204,11 @@
       </c>
       <c r="D36" s="14" t="str">
         <f t="array" ref="D36:D77">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$A36:$A77)</f>
-        <v>F4</v>
+        <v>G4</v>
       </c>
       <c r="E36" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC6MRH_IMMFRA6MF4</v>
+        <v>EUR_YC6MRH_IMMFRA6MG4</v>
       </c>
       <c r="F36" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E36,Trigger)</f>
@@ -4216,11 +4246,11 @@
         <v>IMMFRA6M</v>
       </c>
       <c r="D37" s="14" t="str">
-        <v>G4</v>
+        <v>H4</v>
       </c>
       <c r="E37" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC6MRH_IMMFRA6MG4</v>
+        <v>EUR_YC6MRH_IMMFRA6MH4</v>
       </c>
       <c r="F37" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E37,Trigger)</f>
@@ -4258,11 +4288,11 @@
         <v>IMMFRA6M</v>
       </c>
       <c r="D38" s="14" t="str">
-        <v>H4</v>
+        <v>J4</v>
       </c>
       <c r="E38" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC6MRH_IMMFRA6MH4</v>
+        <v>EUR_YC6MRH_IMMFRA6MJ4</v>
       </c>
       <c r="F38" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
@@ -4300,11 +4330,11 @@
         <v>IMMFRA6M</v>
       </c>
       <c r="D39" s="14" t="str">
-        <v>J4</v>
+        <v>K4</v>
       </c>
       <c r="E39" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC6MRH_IMMFRA6MJ4</v>
+        <v>EUR_YC6MRH_IMMFRA6MK4</v>
       </c>
       <c r="F39" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
@@ -4342,11 +4372,11 @@
         <v>IMMFRA6M</v>
       </c>
       <c r="D40" s="14" t="str">
-        <v>K4</v>
+        <v>M4</v>
       </c>
       <c r="E40" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC6MRH_IMMFRA6MK4</v>
+        <v>EUR_YC6MRH_IMMFRA6MM4</v>
       </c>
       <c r="F40" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
@@ -4384,11 +4414,11 @@
         <v>IMMFRA6M</v>
       </c>
       <c r="D41" s="14" t="str">
-        <v>M4</v>
+        <v>N4</v>
       </c>
       <c r="E41" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC6MRH_IMMFRA6MM4</v>
+        <v>EUR_YC6MRH_IMMFRA6MN4</v>
       </c>
       <c r="F41" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
@@ -4426,11 +4456,11 @@
         <v>IMMFRA6M</v>
       </c>
       <c r="D42" s="14" t="str">
-        <v>N4</v>
+        <v>Q4</v>
       </c>
       <c r="E42" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC6MRH_IMMFRA6MN4</v>
+        <v>EUR_YC6MRH_IMMFRA6MQ4</v>
       </c>
       <c r="F42" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
@@ -4468,11 +4498,11 @@
         <v>IMMFRA6M</v>
       </c>
       <c r="D43" s="14" t="str">
-        <v>Q4</v>
+        <v>U4</v>
       </c>
       <c r="E43" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC6MRH_IMMFRA6MQ4</v>
+        <v>EUR_YC6MRH_IMMFRA6MU4</v>
       </c>
       <c r="F43" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
@@ -4510,11 +4540,11 @@
         <v>IMMFRA6M</v>
       </c>
       <c r="D44" s="14" t="str">
-        <v>U4</v>
+        <v>V4</v>
       </c>
       <c r="E44" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC6MRH_IMMFRA6MU4</v>
+        <v>EUR_YC6MRH_IMMFRA6MV4</v>
       </c>
       <c r="F44" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
@@ -4552,11 +4582,11 @@
         <v>IMMFRA6M</v>
       </c>
       <c r="D45" s="14" t="str">
-        <v>V4</v>
+        <v>X4</v>
       </c>
       <c r="E45" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC6MRH_IMMFRA6MV4</v>
+        <v>EUR_YC6MRH_IMMFRA6MX4</v>
       </c>
       <c r="F45" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
@@ -4594,11 +4624,11 @@
         <v>IMMFRA6M</v>
       </c>
       <c r="D46" s="14" t="str">
-        <v>X4</v>
+        <v>Z4</v>
       </c>
       <c r="E46" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC6MRH_IMMFRA6MX4</v>
+        <v>EUR_YC6MRH_IMMFRA6MZ4</v>
       </c>
       <c r="F46" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
@@ -4636,11 +4666,11 @@
         <v>IMMFRA6M</v>
       </c>
       <c r="D47" s="14" t="str">
-        <v>Z4</v>
+        <v>F5</v>
       </c>
       <c r="E47" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC6MRH_IMMFRA6MZ4</v>
+        <v>EUR_YC6MRH_IMMFRA6MF5</v>
       </c>
       <c r="F47" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
@@ -6650,11 +6680,11 @@
       </c>
       <c r="K96" s="11">
         <f>_xll.qlRateHelperEarliestDate($E96,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L96" s="10">
         <f>_xll.qlRateHelperLatestDate($E96,Trigger)</f>
-        <v>42019</v>
+        <v>42025</v>
       </c>
       <c r="N96" s="17" t="e">
         <f t="shared" ref="N96:N132" si="7">IF(G96=G133,F96-F133,"--")</f>
@@ -6696,11 +6726,11 @@
       </c>
       <c r="K97" s="11">
         <f>_xll.qlRateHelperEarliestDate($E97,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L97" s="10">
         <f>_xll.qlRateHelperLatestDate($E97,Trigger)</f>
-        <v>42109</v>
+        <v>42115</v>
       </c>
       <c r="N97" s="17" t="e">
         <f t="shared" si="7"/>
@@ -6742,11 +6772,11 @@
       </c>
       <c r="K98" s="11">
         <f>_xll.qlRateHelperEarliestDate($E98,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L98" s="10">
         <f>_xll.qlRateHelperLatestDate($E98,Trigger)</f>
-        <v>42200</v>
+        <v>42206</v>
       </c>
       <c r="N98" s="17" t="e">
         <f t="shared" si="7"/>
@@ -6788,11 +6818,11 @@
       </c>
       <c r="K99" s="11">
         <f>_xll.qlRateHelperEarliestDate($E99,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L99" s="10">
         <f>_xll.qlRateHelperLatestDate($E99,Trigger)</f>
-        <v>42292</v>
+        <v>42298</v>
       </c>
       <c r="N99" s="17" t="e">
         <f t="shared" si="7"/>
@@ -6834,11 +6864,11 @@
       </c>
       <c r="K100" s="11">
         <f>_xll.qlRateHelperEarliestDate($E100,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L100" s="10">
         <f>_xll.qlRateHelperLatestDate($E100,Trigger)</f>
-        <v>42384</v>
+        <v>42390</v>
       </c>
       <c r="N100" s="17" t="e">
         <f t="shared" si="7"/>
@@ -6880,11 +6910,11 @@
       </c>
       <c r="K101" s="11">
         <f>_xll.qlRateHelperEarliestDate($E101,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L101" s="10">
         <f>_xll.qlRateHelperLatestDate($E101,Trigger)</f>
-        <v>42751</v>
+        <v>42758</v>
       </c>
       <c r="N101" s="17" t="e">
         <f t="shared" si="7"/>
@@ -6926,11 +6956,11 @@
       </c>
       <c r="K102" s="11">
         <f>_xll.qlRateHelperEarliestDate($E102,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L102" s="10">
         <f>_xll.qlRateHelperLatestDate($E102,Trigger)</f>
-        <v>43115</v>
+        <v>43122</v>
       </c>
       <c r="N102" s="17" t="e">
         <f t="shared" si="7"/>
@@ -6972,11 +7002,11 @@
       </c>
       <c r="K103" s="11">
         <f>_xll.qlRateHelperEarliestDate($E103,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L103" s="10">
         <f>_xll.qlRateHelperLatestDate($E103,Trigger)</f>
-        <v>43480</v>
+        <v>43486</v>
       </c>
       <c r="N103" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7018,11 +7048,11 @@
       </c>
       <c r="K104" s="11">
         <f>_xll.qlRateHelperEarliestDate($E104,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L104" s="10">
         <f>_xll.qlRateHelperLatestDate($E104,Trigger)</f>
-        <v>43845</v>
+        <v>43851</v>
       </c>
       <c r="N104" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7064,11 +7094,11 @@
       </c>
       <c r="K105" s="11">
         <f>_xll.qlRateHelperEarliestDate($E105,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L105" s="10">
         <f>_xll.qlRateHelperLatestDate($E105,Trigger)</f>
-        <v>44211</v>
+        <v>44217</v>
       </c>
       <c r="N105" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7110,11 +7140,11 @@
       </c>
       <c r="K106" s="11">
         <f>_xll.qlRateHelperEarliestDate($E106,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L106" s="10">
         <f>_xll.qlRateHelperLatestDate($E106,Trigger)</f>
-        <v>44578</v>
+        <v>44582</v>
       </c>
       <c r="N106" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7156,11 +7186,11 @@
       </c>
       <c r="K107" s="11">
         <f>_xll.qlRateHelperEarliestDate($E107,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L107" s="10">
         <f>_xll.qlRateHelperLatestDate($E107,Trigger)</f>
-        <v>44942</v>
+        <v>44949</v>
       </c>
       <c r="N107" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7202,11 +7232,11 @@
       </c>
       <c r="K108" s="11">
         <f>_xll.qlRateHelperEarliestDate($E108,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L108" s="10">
         <f>_xll.qlRateHelperLatestDate($E108,Trigger)</f>
-        <v>45306</v>
+        <v>45313</v>
       </c>
       <c r="N108" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7248,11 +7278,11 @@
       </c>
       <c r="K109" s="11">
         <f>_xll.qlRateHelperEarliestDate($E109,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L109" s="10">
         <f>_xll.qlRateHelperLatestDate($E109,Trigger)</f>
-        <v>45672</v>
+        <v>45678</v>
       </c>
       <c r="N109" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7294,11 +7324,11 @@
       </c>
       <c r="K110" s="11">
         <f>_xll.qlRateHelperEarliestDate($E110,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L110" s="10">
         <f>_xll.qlRateHelperLatestDate($E110,Trigger)</f>
-        <v>46037</v>
+        <v>46043</v>
       </c>
       <c r="N110" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7340,11 +7370,11 @@
       </c>
       <c r="K111" s="11">
         <f>_xll.qlRateHelperEarliestDate($E111,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L111" s="10">
         <f>_xll.qlRateHelperLatestDate($E111,Trigger)</f>
-        <v>46402</v>
+        <v>46408</v>
       </c>
       <c r="N111" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7386,11 +7416,11 @@
       </c>
       <c r="K112" s="11">
         <f>_xll.qlRateHelperEarliestDate($E112,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L112" s="10">
         <f>_xll.qlRateHelperLatestDate($E112,Trigger)</f>
-        <v>46769</v>
+        <v>46773</v>
       </c>
       <c r="N112" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7432,11 +7462,11 @@
       </c>
       <c r="K113" s="11">
         <f>_xll.qlRateHelperEarliestDate($E113,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L113" s="10">
         <f>_xll.qlRateHelperLatestDate($E113,Trigger)</f>
-        <v>47133</v>
+        <v>47140</v>
       </c>
       <c r="N113" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7478,11 +7508,11 @@
       </c>
       <c r="K114" s="11">
         <f>_xll.qlRateHelperEarliestDate($E114,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L114" s="10">
         <f>_xll.qlRateHelperLatestDate($E114,Trigger)</f>
-        <v>47498</v>
+        <v>47504</v>
       </c>
       <c r="N114" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7524,11 +7554,11 @@
       </c>
       <c r="K115" s="11">
         <f>_xll.qlRateHelperEarliestDate($E115,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L115" s="10">
         <f>_xll.qlRateHelperLatestDate($E115,Trigger)</f>
-        <v>47863</v>
+        <v>47869</v>
       </c>
       <c r="N115" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7570,11 +7600,11 @@
       </c>
       <c r="K116" s="11">
         <f>_xll.qlRateHelperEarliestDate($E116,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L116" s="10">
         <f>_xll.qlRateHelperLatestDate($E116,Trigger)</f>
-        <v>48228</v>
+        <v>48234</v>
       </c>
       <c r="N116" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7616,11 +7646,11 @@
       </c>
       <c r="K117" s="11">
         <f>_xll.qlRateHelperEarliestDate($E117,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L117" s="10">
         <f>_xll.qlRateHelperLatestDate($E117,Trigger)</f>
-        <v>48596</v>
+        <v>48600</v>
       </c>
       <c r="N117" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7662,11 +7692,11 @@
       </c>
       <c r="K118" s="11">
         <f>_xll.qlRateHelperEarliestDate($E118,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L118" s="10">
         <f>_xll.qlRateHelperLatestDate($E118,Trigger)</f>
-        <v>48960</v>
+        <v>48967</v>
       </c>
       <c r="N118" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7708,11 +7738,11 @@
       </c>
       <c r="K119" s="11">
         <f>_xll.qlRateHelperEarliestDate($E119,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L119" s="10">
         <f>_xll.qlRateHelperLatestDate($E119,Trigger)</f>
-        <v>49324</v>
+        <v>49331</v>
       </c>
       <c r="N119" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7754,11 +7784,11 @@
       </c>
       <c r="K120" s="11">
         <f>_xll.qlRateHelperEarliestDate($E120,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L120" s="10">
         <f>_xll.qlRateHelperLatestDate($E120,Trigger)</f>
-        <v>49689</v>
+        <v>49695</v>
       </c>
       <c r="N120" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7800,11 +7830,11 @@
       </c>
       <c r="K121" s="11">
         <f>_xll.qlRateHelperEarliestDate($E121,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L121" s="10">
         <f>_xll.qlRateHelperLatestDate($E121,Trigger)</f>
-        <v>50055</v>
+        <v>50061</v>
       </c>
       <c r="N121" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7846,11 +7876,11 @@
       </c>
       <c r="K122" s="11">
         <f>_xll.qlRateHelperEarliestDate($E122,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L122" s="10">
         <f>_xll.qlRateHelperLatestDate($E122,Trigger)</f>
-        <v>50420</v>
+        <v>50426</v>
       </c>
       <c r="N122" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7892,11 +7922,11 @@
       </c>
       <c r="K123" s="11">
         <f>_xll.qlRateHelperEarliestDate($E123,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L123" s="10">
         <f>_xll.qlRateHelperLatestDate($E123,Trigger)</f>
-        <v>50787</v>
+        <v>50791</v>
       </c>
       <c r="N123" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7938,11 +7968,11 @@
       </c>
       <c r="K124" s="11">
         <f>_xll.qlRateHelperEarliestDate($E124,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L124" s="10">
         <f>_xll.qlRateHelperLatestDate($E124,Trigger)</f>
-        <v>51151</v>
+        <v>51158</v>
       </c>
       <c r="N124" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7984,11 +8014,11 @@
       </c>
       <c r="K125" s="11">
         <f>_xll.qlRateHelperEarliestDate($E125,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L125" s="10">
         <f>_xll.qlRateHelperLatestDate($E125,Trigger)</f>
-        <v>51516</v>
+        <v>51522</v>
       </c>
       <c r="N125" s="17" t="e">
         <f t="shared" si="7"/>
@@ -8030,11 +8060,11 @@
       </c>
       <c r="K126" s="11">
         <f>_xll.qlRateHelperEarliestDate($E126,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L126" s="10">
         <f>_xll.qlRateHelperLatestDate($E126,Trigger)</f>
-        <v>51881</v>
+        <v>51887</v>
       </c>
       <c r="N126" s="17" t="e">
         <f t="shared" si="7"/>
@@ -8076,11 +8106,11 @@
       </c>
       <c r="K127" s="11">
         <f>_xll.qlRateHelperEarliestDate($E127,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L127" s="10">
         <f>_xll.qlRateHelperLatestDate($E127,Trigger)</f>
-        <v>52246</v>
+        <v>52252</v>
       </c>
       <c r="N127" s="17" t="e">
         <f t="shared" si="7"/>
@@ -8122,11 +8152,11 @@
       </c>
       <c r="K128" s="11">
         <f>_xll.qlRateHelperEarliestDate($E128,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L128" s="10">
         <f>_xll.qlRateHelperLatestDate($E128,Trigger)</f>
-        <v>52611</v>
+        <v>52617</v>
       </c>
       <c r="N128" s="17" t="e">
         <f t="shared" si="7"/>
@@ -8168,11 +8198,11 @@
       </c>
       <c r="K129" s="11">
         <f>_xll.qlRateHelperEarliestDate($E129,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L129" s="10">
         <f>_xll.qlRateHelperLatestDate($E129,Trigger)</f>
-        <v>54438</v>
+        <v>54444</v>
       </c>
       <c r="N129" s="17" t="e">
         <f t="shared" si="7"/>
@@ -8214,11 +8244,11 @@
       </c>
       <c r="K130" s="11">
         <f>_xll.qlRateHelperEarliestDate($E130,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L130" s="10">
         <f>_xll.qlRateHelperLatestDate($E130,Trigger)</f>
-        <v>56264</v>
+        <v>56270</v>
       </c>
       <c r="N130" s="17" t="e">
         <f t="shared" si="7"/>
@@ -8260,11 +8290,11 @@
       </c>
       <c r="K131" s="11">
         <f>_xll.qlRateHelperEarliestDate($E131,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L131" s="10">
         <f>_xll.qlRateHelperLatestDate($E131,Trigger)</f>
-        <v>59916</v>
+        <v>59922</v>
       </c>
       <c r="N131" s="17" t="e">
         <f t="shared" si="7"/>
@@ -8306,11 +8336,11 @@
       </c>
       <c r="K132" s="4">
         <f>_xll.qlRateHelperEarliestDate($E132,Trigger)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="L132" s="3">
         <f>_xll.qlRateHelperLatestDate($E132,Trigger)</f>
-        <v>63569</v>
+        <v>63576</v>
       </c>
       <c r="N132" s="17" t="e">
         <f t="shared" si="7"/>
@@ -9952,20 +9982,20 @@
       </c>
       <c r="G2" s="40">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H2" s="39">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41661</v>
+        <v>41667</v>
       </c>
       <c r="I2" s="34">
         <v>0.99994812491338625</v>
       </c>
       <c r="K2" s="98" t="s">
-        <v>116</v>
+        <v>206</v>
       </c>
       <c r="L2" s="93">
-        <v>2.6679999999999998E-3</v>
+        <v>3.078E-3</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -9988,20 +10018,20 @@
       </c>
       <c r="G3" s="40">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H3" s="39">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41668</v>
+        <v>41674</v>
       </c>
       <c r="I3" s="34">
         <v>0.9998961385660956</v>
       </c>
       <c r="K3" s="98" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L3" s="93">
-        <v>2.6710000000000002E-3</v>
+        <v>3.3349999999999999E-3</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -10024,20 +10054,20 @@
       </c>
       <c r="G4" s="40">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H4" s="39">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41675</v>
+        <v>41681</v>
       </c>
       <c r="I4" s="34">
         <v>0.99984287469224142</v>
       </c>
       <c r="K4" s="98" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L4" s="93">
-        <v>2.6940000000000002E-3</v>
+        <v>3.192E-3</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -10060,20 +10090,20 @@
       </c>
       <c r="G5" s="40">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H5" s="39">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41687</v>
+        <v>41691</v>
       </c>
       <c r="I5" s="34">
-        <v>0.99975008747187477</v>
+        <v>0.99976523012982887</v>
       </c>
       <c r="K5" s="98" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L5" s="93">
-        <v>2.7269999999999998E-3</v>
+        <v>3.2000000000000002E-3</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -10097,20 +10127,20 @@
       </c>
       <c r="G6" s="40">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H6" s="39">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41715</v>
+        <v>41719</v>
       </c>
       <c r="I6" s="34">
-        <v>0.99951223802784239</v>
+        <v>0.99952822267889552</v>
       </c>
       <c r="K6" s="98" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L6" s="93">
-        <v>2.8800000000000002E-3</v>
+        <v>3.222E-3</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -10135,20 +10165,20 @@
       </c>
       <c r="G7" s="40">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H7" s="39">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41744</v>
+        <v>41751</v>
       </c>
       <c r="I7" s="34">
-        <v>0.99924407185963826</v>
+        <v>0.99923567907776423</v>
       </c>
       <c r="K7" s="98" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L7" s="93">
-        <v>3.026E-3</v>
+        <v>3.287E-3</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -10165,20 +10195,20 @@
       </c>
       <c r="G8" s="40">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H8" s="39">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>41774</v>
+        <v>41780</v>
       </c>
       <c r="I8" s="34">
         <v>0.9989537624261523</v>
       </c>
       <c r="K8" s="98" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L8" s="93">
-        <v>3.1419999999999998E-3</v>
+        <v>3.209E-3</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -10195,20 +10225,20 @@
       </c>
       <c r="G9" s="40">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H9" s="39">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>41806</v>
+        <v>41813</v>
       </c>
       <c r="I9" s="34">
-        <v>0.99862376330433156</v>
+        <v>0.99861472165811604</v>
       </c>
       <c r="K9" s="98" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L9" s="93">
-        <v>3.264E-3</v>
+        <v>3.1809999999999998E-3</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -10225,20 +10255,20 @@
       </c>
       <c r="G10" s="40">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41655</v>
+        <v>41661</v>
       </c>
       <c r="H10" s="39">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>41836</v>
+        <v>41842</v>
       </c>
       <c r="I10" s="34">
-        <v>0.99826602457615499</v>
+        <v>0.99826602524672858</v>
       </c>
       <c r="K10" s="98" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L10" s="93">
-        <v>3.4399999999999999E-3</v>
+        <v>3.1649999999999998E-3</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -10255,20 +10285,20 @@
       </c>
       <c r="G11" s="40">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41687</v>
+        <v>41691</v>
       </c>
       <c r="H11" s="39">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>41869</v>
+        <v>41872</v>
       </c>
       <c r="I11" s="34">
-        <v>0.99787342019296543</v>
+        <v>0.99789882669097474</v>
       </c>
       <c r="K11" s="98" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L11" s="93">
-        <v>3.7200000000000002E-3</v>
+        <v>3.16E-3</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -10285,20 +10315,20 @@
       </c>
       <c r="G12" s="40">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41715</v>
+        <v>41719</v>
       </c>
       <c r="H12" s="39">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>41899</v>
+        <v>41904</v>
       </c>
       <c r="I12" s="34">
-        <v>0.99749331156523457</v>
+        <v>0.99749831361069807</v>
       </c>
       <c r="K12" s="98" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L12" s="93">
-        <v>3.96E-3</v>
+        <v>3.1800000000000001E-3</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -10315,20 +10345,20 @@
       </c>
       <c r="G13" s="40">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41744</v>
+        <v>41751</v>
       </c>
       <c r="H13" s="39">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>41927</v>
+        <v>41934</v>
       </c>
       <c r="I13" s="34">
-        <v>0.99707476951942131</v>
+        <v>0.99706639495780203</v>
       </c>
       <c r="K13" s="98" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L13" s="93">
-        <v>4.28E-3</v>
+        <v>3.2299999999999998E-3</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -10345,20 +10375,20 @@
       </c>
       <c r="G14" s="40">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41774</v>
+        <v>41780</v>
       </c>
       <c r="H14" s="39">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>41960</v>
+        <v>41964</v>
       </c>
       <c r="I14" s="34">
-        <v>0.99663144505393619</v>
+        <v>0.99665635877957026</v>
       </c>
       <c r="K14" s="98" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L14" s="93">
-        <v>4.5100000000000001E-3</v>
+        <v>3.32E-3</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -10375,20 +10405,20 @@
       </c>
       <c r="G15" s="40">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41806</v>
+        <v>41813</v>
       </c>
       <c r="H15" s="39">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>41989</v>
+        <v>41996</v>
       </c>
       <c r="I15" s="34">
-        <v>0.99620820745330974</v>
+        <v>0.99619918767779492</v>
       </c>
       <c r="K15" s="98" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L15" s="93">
-        <v>4.7600000000000003E-3</v>
+        <v>3.4499999999999999E-3</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -10405,20 +10435,20 @@
       </c>
       <c r="G16" s="40">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41835</v>
+        <v>41841</v>
       </c>
       <c r="H16" s="39">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>42019</v>
+        <v>42025</v>
       </c>
       <c r="I16" s="34">
-        <v>0.99573348900031733</v>
+        <v>0.99573375280675569</v>
       </c>
       <c r="K16" s="98" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L16" s="93">
-        <v>4.9899999999999996E-3</v>
+        <v>3.5699999999999998E-3</v>
       </c>
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.2">
@@ -10435,20 +10465,20 @@
       </c>
       <c r="G17" s="40">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41866</v>
+        <v>41872</v>
       </c>
       <c r="H17" s="39">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>42051</v>
+        <v>42058</v>
       </c>
       <c r="I17" s="34">
-        <v>0.99521882723663979</v>
+        <v>0.99519422053098083</v>
       </c>
       <c r="K17" s="98" t="s">
-        <v>131</v>
+        <v>207</v>
       </c>
       <c r="L17" s="93">
-        <v>6.4400000000000004E-3</v>
+        <v>3.7200000000000002E-3</v>
       </c>
     </row>
     <row r="18" spans="4:12" x14ac:dyDescent="0.2">
@@ -10465,20 +10495,20 @@
       </c>
       <c r="G18" s="40">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41897</v>
+        <v>41904</v>
       </c>
       <c r="H18" s="39">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>42079</v>
+        <v>42086</v>
       </c>
       <c r="I18" s="34">
-        <v>0.99475541421032077</v>
+        <v>0.99473240489597425</v>
       </c>
       <c r="K18" s="98" t="s">
-        <v>132</v>
+        <v>208</v>
       </c>
       <c r="L18" s="93">
-        <v>7.8300000000000002E-3</v>
+        <v>3.8700000000000002E-3</v>
       </c>
     </row>
     <row r="19" spans="4:12" x14ac:dyDescent="0.2">
@@ -10495,20 +10525,20 @@
       </c>
       <c r="G19" s="40">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41927</v>
+        <v>41933</v>
       </c>
       <c r="H19" s="39">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>42109</v>
+        <v>42115</v>
       </c>
       <c r="I19" s="34">
-        <v>0.99418472974254868</v>
+        <v>0.99419061739438153</v>
       </c>
       <c r="K19" s="98" t="s">
-        <v>133</v>
+        <v>209</v>
       </c>
       <c r="L19" s="93">
-        <v>7.45E-3</v>
+        <v>4.0200000000000001E-3</v>
       </c>
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.2">
@@ -10525,20 +10555,20 @@
       </c>
       <c r="G20" s="40">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41960</v>
+        <v>41964</v>
       </c>
       <c r="H20" s="39">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>42142</v>
+        <v>42145</v>
       </c>
       <c r="I20" s="34">
-        <v>0.99363249657386155</v>
+        <v>0.99367376417026743</v>
       </c>
       <c r="K20" s="98" t="s">
-        <v>134</v>
+        <v>210</v>
       </c>
       <c r="L20" s="93">
-        <v>9.6100000000000005E-3</v>
+        <v>4.1999999999999997E-3</v>
       </c>
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.2">
@@ -10555,20 +10585,20 @@
       </c>
       <c r="G21" s="40">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41988</v>
+        <v>41995</v>
       </c>
       <c r="H21" s="39">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>42170</v>
+        <v>42177</v>
       </c>
       <c r="I21" s="34">
-        <v>0.99309569965678657</v>
+        <v>0.99308658143669726</v>
       </c>
       <c r="K21" s="98" t="s">
-        <v>135</v>
+        <v>211</v>
       </c>
       <c r="L21" s="93">
-        <v>1.1849999999999999E-2</v>
+        <v>4.3899999999999998E-3</v>
       </c>
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.2">
@@ -10585,20 +10615,20 @@
       </c>
       <c r="G22" s="40">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>42019</v>
+        <v>42025</v>
       </c>
       <c r="H22" s="39">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>42200</v>
+        <v>42206</v>
       </c>
       <c r="I22" s="34">
-        <v>0.99250489813626053</v>
+        <v>0.99250516108732645</v>
       </c>
       <c r="K22" s="98" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="L22" s="93">
-        <v>1.38E-2</v>
+        <v>4.5599999999999998E-3</v>
       </c>
     </row>
     <row r="23" spans="4:12" x14ac:dyDescent="0.2">
@@ -10615,20 +10645,20 @@
       </c>
       <c r="G23" s="40">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>42051</v>
+        <v>42058</v>
       </c>
       <c r="H23" s="39">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>42233</v>
+        <v>42240</v>
       </c>
       <c r="I23" s="34">
-        <v>0.99187417242310838</v>
+        <v>0.99184964841377632</v>
       </c>
       <c r="K23" s="98" t="s">
-        <v>137</v>
+        <v>212</v>
       </c>
       <c r="L23" s="93">
-        <v>1.553E-2</v>
+        <v>4.7699999999999999E-3</v>
       </c>
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.2">
@@ -10645,20 +10675,20 @@
       </c>
       <c r="G24" s="40">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>42079</v>
+        <v>42086</v>
       </c>
       <c r="H24" s="39">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>42263</v>
+        <v>42270</v>
       </c>
       <c r="I24" s="34">
-        <v>0.99125957211931337</v>
+        <v>0.99123664366598252</v>
       </c>
       <c r="K24" s="98" t="s">
-        <v>138</v>
+        <v>213</v>
       </c>
       <c r="L24" s="93">
-        <v>1.7059999999999999E-2</v>
+        <v>4.9699999999999996E-3</v>
       </c>
     </row>
     <row r="25" spans="4:12" x14ac:dyDescent="0.2">
@@ -10675,20 +10705,20 @@
       </c>
       <c r="G25" s="40">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>42109</v>
+        <v>42115</v>
       </c>
       <c r="H25" s="39">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>42292</v>
+        <v>42298</v>
       </c>
       <c r="I25" s="34">
-        <v>0.99059440287885492</v>
+        <v>0.99060026926844047</v>
       </c>
       <c r="K25" s="98" t="s">
-        <v>139</v>
+        <v>214</v>
       </c>
       <c r="L25" s="93">
-        <v>1.8460000000000001E-2</v>
+        <v>5.1900000000000002E-3</v>
       </c>
     </row>
     <row r="26" spans="4:12" x14ac:dyDescent="0.2">
@@ -10705,20 +10735,20 @@
       </c>
       <c r="G26" s="40">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>42139</v>
+        <v>42145</v>
       </c>
       <c r="H26" s="39">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>42324</v>
+        <v>42331</v>
       </c>
       <c r="I26" s="34">
-        <v>0.98994535564097796</v>
+        <v>0.9899145636149449</v>
       </c>
       <c r="K26" s="98" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L26" s="93">
-        <v>1.9740000000000001E-2</v>
+        <v>5.4099999999999999E-3</v>
       </c>
     </row>
     <row r="27" spans="4:12" x14ac:dyDescent="0.2">
@@ -10735,20 +10765,20 @@
       </c>
       <c r="G27" s="40">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>42170</v>
+        <v>42177</v>
       </c>
       <c r="H27" s="39">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>42353</v>
+        <v>42360</v>
       </c>
       <c r="I27" s="34">
-        <v>0.98926879575945736</v>
+        <v>0.98925971267651747</v>
       </c>
       <c r="K27" s="98" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="L27" s="93">
-        <v>2.085E-2</v>
+        <v>5.7000000000000002E-3</v>
       </c>
     </row>
     <row r="28" spans="4:12" x14ac:dyDescent="0.2">
@@ -10765,20 +10795,20 @@
       </c>
       <c r="G28" s="40">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>42200</v>
+        <v>42206</v>
       </c>
       <c r="H28" s="39">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>42384</v>
+        <v>42390</v>
       </c>
       <c r="I28" s="34">
-        <v>0.98854369371734696</v>
+        <v>0.98854395561894404</v>
       </c>
       <c r="K28" s="98" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="L28" s="93">
-        <v>2.18E-2</v>
+        <v>5.9500000000000004E-3</v>
       </c>
     </row>
     <row r="29" spans="4:12" x14ac:dyDescent="0.2">
@@ -10795,20 +10825,20 @@
       </c>
       <c r="G29" s="40">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H29" s="39">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>42751</v>
+        <v>42758</v>
       </c>
       <c r="I29" s="34">
-        <v>0.97791145729792917</v>
+        <v>0.97789136655446796</v>
       </c>
       <c r="K29" s="98" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="L29" s="93">
-        <v>2.2599999999999999E-2</v>
+        <v>6.1000000000000004E-3</v>
       </c>
     </row>
     <row r="30" spans="4:12" x14ac:dyDescent="0.2">
@@ -10825,20 +10855,20 @@
       </c>
       <c r="G30" s="40">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H30" s="39">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>43115</v>
+        <v>43122</v>
       </c>
       <c r="I30" s="34">
-        <v>0.96228538746711523</v>
+        <v>0.96225971775709729</v>
       </c>
       <c r="K30" s="98" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="L30" s="93">
-        <v>2.325E-2</v>
+        <v>8.3499999999999998E-3</v>
       </c>
     </row>
     <row r="31" spans="4:12" x14ac:dyDescent="0.2">
@@ -10855,20 +10885,20 @@
       </c>
       <c r="G31" s="40">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H31" s="39">
         <f>_xll.qlRateHelperLatestDate($D31)</f>
-        <v>43480</v>
+        <v>43486</v>
       </c>
       <c r="I31" s="34">
-        <v>0.94232788300319825</v>
+        <v>0.94232725563334663</v>
       </c>
       <c r="K31" s="98" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="L31" s="93">
-        <v>2.376E-2</v>
+        <v>1.076E-2</v>
       </c>
     </row>
     <row r="32" spans="4:12" x14ac:dyDescent="0.2">
@@ -10885,20 +10915,20 @@
       </c>
       <c r="G32" s="40">
         <f>_xll.qlRateHelperEarliestDate($D32)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H32" s="39">
         <f>_xll.qlRateHelperLatestDate($D32)</f>
-        <v>43845</v>
+        <v>43851</v>
       </c>
       <c r="I32" s="34">
-        <v>0.92013960804560668</v>
+        <v>0.92013888738282457</v>
       </c>
       <c r="K32" s="98" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="L32" s="93">
-        <v>2.4150000000000001E-2</v>
+        <v>1.3089999999999999E-2</v>
       </c>
     </row>
     <row r="33" spans="4:12" x14ac:dyDescent="0.2">
@@ -10915,20 +10945,20 @@
       </c>
       <c r="G33" s="40">
         <f>_xll.qlRateHelperEarliestDate($D33)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H33" s="39">
         <f>_xll.qlRateHelperLatestDate($D33)</f>
-        <v>44211</v>
+        <v>44217</v>
       </c>
       <c r="I33" s="34">
-        <v>0.89620998308930933</v>
+        <v>0.8962091844848965</v>
       </c>
       <c r="K33" s="98" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="L33" s="93">
-        <v>2.444E-2</v>
+        <v>1.524E-2</v>
       </c>
     </row>
     <row r="34" spans="4:12" x14ac:dyDescent="0.2">
@@ -10945,20 +10975,20 @@
       </c>
       <c r="G34" s="40">
         <f>_xll.qlRateHelperEarliestDate($D34)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H34" s="39">
         <f>_xll.qlRateHelperLatestDate($D34)</f>
-        <v>44578</v>
+        <v>44582</v>
       </c>
       <c r="I34" s="34">
-        <v>0.87104216018800795</v>
+        <v>0.8711224682899642</v>
       </c>
       <c r="K34" s="98" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="L34" s="93">
-        <v>2.4639999999999999E-2</v>
+        <v>1.7160000000000002E-2</v>
       </c>
     </row>
     <row r="35" spans="4:12" x14ac:dyDescent="0.2">
@@ -10975,20 +11005,20 @@
       </c>
       <c r="G35" s="40">
         <f>_xll.qlRateHelperEarliestDate($D35)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H35" s="39">
         <f>_xll.qlRateHelperLatestDate($D35)</f>
-        <v>44942</v>
+        <v>44949</v>
       </c>
       <c r="I35" s="34">
-        <v>0.84490581703146705</v>
+        <v>0.84486352583624047</v>
       </c>
       <c r="K35" s="98" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="L35" s="93">
-        <v>2.478E-2</v>
+        <v>1.8859999999999998E-2</v>
       </c>
     </row>
     <row r="36" spans="4:12" x14ac:dyDescent="0.2">
@@ -11005,20 +11035,20 @@
       </c>
       <c r="G36" s="40">
         <f>_xll.qlRateHelperEarliestDate($D36)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H36" s="39">
         <f>_xll.qlRateHelperLatestDate($D36)</f>
-        <v>45306</v>
+        <v>45313</v>
       </c>
       <c r="I36" s="34">
-        <v>0.81804830690836783</v>
+        <v>0.81800395632780687</v>
       </c>
       <c r="K36" s="98" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="L36" s="93">
-        <v>2.487E-2</v>
+        <v>2.036E-2</v>
       </c>
     </row>
     <row r="37" spans="4:12" x14ac:dyDescent="0.2">
@@ -11035,20 +11065,20 @@
       </c>
       <c r="G37" s="40">
         <f>_xll.qlRateHelperEarliestDate($D37)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H37" s="39">
         <f>_xll.qlRateHelperLatestDate($D37)</f>
-        <v>45672</v>
+        <v>45678</v>
       </c>
       <c r="I37" s="34">
-        <v>0.79131800039289568</v>
+        <v>0.79131700708842967</v>
       </c>
       <c r="K37" s="98" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="L37" s="93">
-        <v>2.4930000000000001E-2</v>
+        <v>2.163E-2</v>
       </c>
     </row>
     <row r="38" spans="4:12" x14ac:dyDescent="0.2">
@@ -11065,20 +11095,20 @@
       </c>
       <c r="G38" s="40">
         <f>_xll.qlRateHelperEarliestDate($D38)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H38" s="39">
         <f>_xll.qlRateHelperLatestDate($D38)</f>
-        <v>46037</v>
+        <v>46043</v>
       </c>
       <c r="I38" s="34">
-        <v>0.76512987653635733</v>
+        <v>0.76512886013105019</v>
       </c>
       <c r="K38" s="97" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="L38" s="93">
-        <v>2.4979999999999999E-2</v>
+        <v>2.2700000000000001E-2</v>
       </c>
     </row>
     <row r="39" spans="4:12" x14ac:dyDescent="0.2">
@@ -11095,20 +11125,20 @@
       </c>
       <c r="G39" s="40">
         <f>_xll.qlRateHelperEarliestDate($D39)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H39" s="39">
         <f>_xll.qlRateHelperLatestDate($D39)</f>
-        <v>46402</v>
+        <v>46408</v>
       </c>
       <c r="I39" s="34">
-        <v>0.73979150150259987</v>
+        <v>0.7397904710854426</v>
       </c>
       <c r="K39" s="97" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="L39" s="93">
-        <v>2.5010000000000001E-2</v>
+        <v>2.3619999999999999E-2</v>
       </c>
     </row>
     <row r="40" spans="4:12" x14ac:dyDescent="0.2">
@@ -11125,20 +11155,20 @@
       </c>
       <c r="G40" s="40">
         <f>_xll.qlRateHelperEarliestDate($D40)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H40" s="39">
         <f>_xll.qlRateHelperLatestDate($D40)</f>
-        <v>46769</v>
+        <v>46773</v>
       </c>
       <c r="I40" s="34">
-        <v>0.71557801117116548</v>
+        <v>0.71566730389005551</v>
       </c>
       <c r="K40" s="97" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="L40" s="93">
-        <v>2.5010000000000001E-2</v>
+        <v>2.4379999999999999E-2</v>
       </c>
     </row>
     <row r="41" spans="4:12" x14ac:dyDescent="0.2">
@@ -11155,20 +11185,20 @@
       </c>
       <c r="G41" s="40">
         <f>_xll.qlRateHelperEarliestDate($D41)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H41" s="39">
         <f>_xll.qlRateHelperLatestDate($D41)</f>
-        <v>47133</v>
+        <v>47140</v>
       </c>
       <c r="I41" s="34">
-        <v>0.69296568404014947</v>
+        <v>0.69292079769459669</v>
       </c>
       <c r="K41" s="97" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="L41" s="93">
-        <v>2.5010000000000001E-2</v>
+        <v>2.4989999999999998E-2</v>
       </c>
     </row>
     <row r="42" spans="4:12" x14ac:dyDescent="0.2">
@@ -11185,20 +11215,20 @@
       </c>
       <c r="G42" s="40">
         <f>_xll.qlRateHelperEarliestDate($D42)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H42" s="39">
         <f>_xll.qlRateHelperLatestDate($D42)</f>
-        <v>47498</v>
+        <v>47504</v>
       </c>
       <c r="I42" s="34">
-        <v>0.67170432003025293</v>
+        <v>0.67170377031734541</v>
       </c>
       <c r="K42" s="97" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="L42" s="93">
-        <v>2.5000000000000001E-2</v>
+        <v>2.5479999999999999E-2</v>
       </c>
     </row>
     <row r="43" spans="4:12" x14ac:dyDescent="0.2">
@@ -11215,20 +11245,20 @@
       </c>
       <c r="G43" s="40">
         <f>_xll.qlRateHelperEarliestDate($D43)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H43" s="39">
         <f>_xll.qlRateHelperLatestDate($D43)</f>
-        <v>47863</v>
+        <v>47869</v>
       </c>
       <c r="I43" s="34">
-        <v>0.65183129618699764</v>
+        <v>0.65183075314492533</v>
       </c>
       <c r="K43" s="97" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="L43" s="93">
-        <v>2.4979999999999999E-2</v>
+        <v>2.5850000000000001E-2</v>
       </c>
     </row>
     <row r="44" spans="4:12" x14ac:dyDescent="0.2">
@@ -11245,20 +11275,20 @@
       </c>
       <c r="G44" s="40">
         <f>_xll.qlRateHelperEarliestDate($D44)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H44" s="39">
         <f>_xll.qlRateHelperLatestDate($D44)</f>
-        <v>48228</v>
+        <v>48234</v>
       </c>
       <c r="I44" s="34">
-        <v>0.63337574672537988</v>
+        <v>0.6333752124050821</v>
       </c>
       <c r="K44" s="97" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="L44" s="93">
-        <v>2.495E-2</v>
+        <v>2.614E-2</v>
       </c>
     </row>
     <row r="45" spans="4:12" x14ac:dyDescent="0.2">
@@ -11275,20 +11305,20 @@
       </c>
       <c r="G45" s="40">
         <f>_xll.qlRateHelperEarliestDate($D45)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H45" s="39">
         <f>_xll.qlRateHelperLatestDate($D45)</f>
-        <v>48596</v>
+        <v>48600</v>
       </c>
       <c r="I45" s="34">
-        <v>0.61594474845025782</v>
+        <v>0.6160269687357468</v>
       </c>
       <c r="K45" s="97" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="L45" s="93">
-        <v>2.494E-2</v>
+        <v>2.6360000000000001E-2</v>
       </c>
     </row>
     <row r="46" spans="4:12" x14ac:dyDescent="0.2">
@@ -11305,20 +11335,20 @@
       </c>
       <c r="G46" s="40">
         <f>_xll.qlRateHelperEarliestDate($D46)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H46" s="39">
         <f>_xll.qlRateHelperLatestDate($D46)</f>
-        <v>48960</v>
+        <v>48967</v>
       </c>
       <c r="I46" s="34">
-        <v>0.59967732723561951</v>
+        <v>0.59963658198007641</v>
       </c>
       <c r="K46" s="97" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="L46" s="93">
-        <v>2.4930000000000001E-2</v>
+        <v>2.6530000000000001E-2</v>
       </c>
     </row>
     <row r="47" spans="4:12" x14ac:dyDescent="0.2">
@@ -11335,20 +11365,20 @@
       </c>
       <c r="G47" s="40">
         <f>_xll.qlRateHelperEarliestDate($D47)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H47" s="39">
         <f>_xll.qlRateHelperLatestDate($D47)</f>
-        <v>49324</v>
+        <v>49331</v>
       </c>
       <c r="I47" s="34">
-        <v>0.58418817452020366</v>
+        <v>0.58414832173402509</v>
       </c>
       <c r="K47" s="97" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="L47" s="93">
-        <v>2.5069999999999999E-2</v>
+        <v>2.6669999999999999E-2</v>
       </c>
     </row>
     <row r="48" spans="4:12" x14ac:dyDescent="0.2">
@@ -11365,20 +11395,20 @@
       </c>
       <c r="G48" s="40">
         <f>_xll.qlRateHelperEarliestDate($D48)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H48" s="39">
         <f>_xll.qlRateHelperLatestDate($D48)</f>
-        <v>49689</v>
+        <v>49695</v>
       </c>
       <c r="I48" s="34">
-        <v>0.56913716929577596</v>
+        <v>0.56913673909264828</v>
       </c>
       <c r="K48" s="97" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="L48" s="93">
-        <v>2.5350000000000001E-2</v>
+        <v>2.6769999999999999E-2</v>
       </c>
     </row>
     <row r="49" spans="4:12" x14ac:dyDescent="0.2">
@@ -11395,20 +11425,20 @@
       </c>
       <c r="G49" s="40">
         <f>_xll.qlRateHelperEarliestDate($D49)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H49" s="39">
         <f>_xll.qlRateHelperLatestDate($D49)</f>
-        <v>50055</v>
+        <v>50061</v>
       </c>
       <c r="I49" s="34">
-        <v>0.55474553412983241</v>
+        <v>0.55474511392050874</v>
       </c>
       <c r="K49" s="97" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="L49" s="93">
-        <v>2.579E-2</v>
+        <v>2.6859999999999998E-2</v>
       </c>
     </row>
     <row r="50" spans="4:12" x14ac:dyDescent="0.2">
@@ -11425,20 +11455,20 @@
       </c>
       <c r="G50" s="40">
         <f>_xll.qlRateHelperEarliestDate($D50)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H50" s="39">
         <f>_xll.qlRateHelperLatestDate($D50)</f>
-        <v>50420</v>
+        <v>50426</v>
       </c>
       <c r="I50" s="34">
-        <v>0.54120987515325125</v>
+        <v>0.54120946519595881</v>
       </c>
       <c r="K50" s="97" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="L50" s="93">
-        <v>2.6100000000000002E-2</v>
+        <v>2.6919999999999999E-2</v>
       </c>
     </row>
     <row r="51" spans="4:12" x14ac:dyDescent="0.2">
@@ -11455,14 +11485,20 @@
       </c>
       <c r="G51" s="40">
         <f>_xll.qlRateHelperEarliestDate($D51)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H51" s="39">
         <f>_xll.qlRateHelperLatestDate($D51)</f>
-        <v>50787</v>
+        <v>50791</v>
       </c>
       <c r="I51" s="34">
-        <v>0.52793291949058951</v>
+        <v>0.52800408307817326</v>
+      </c>
+      <c r="K51" s="97" t="s">
+        <v>154</v>
+      </c>
+      <c r="L51" s="93">
+        <v>2.6960000000000001E-2</v>
       </c>
     </row>
     <row r="52" spans="4:12" x14ac:dyDescent="0.2">
@@ -11479,14 +11515,20 @@
       </c>
       <c r="G52" s="40">
         <f>_xll.qlRateHelperEarliestDate($D52)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H52" s="39">
         <f>_xll.qlRateHelperLatestDate($D52)</f>
-        <v>51151</v>
+        <v>51158</v>
       </c>
       <c r="I52" s="34">
-        <v>0.51527556472935476</v>
+        <v>0.51524023884049552</v>
+      </c>
+      <c r="K52" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="L52" s="93">
+        <v>2.6980000000000001E-2</v>
       </c>
     </row>
     <row r="53" spans="4:12" x14ac:dyDescent="0.2">
@@ -11503,14 +11545,20 @@
       </c>
       <c r="G53" s="40">
         <f>_xll.qlRateHelperEarliestDate($D53)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H53" s="39">
         <f>_xll.qlRateHelperLatestDate($D53)</f>
-        <v>51516</v>
+        <v>51522</v>
       </c>
       <c r="I53" s="34">
-        <v>0.5031300668441101</v>
+        <v>0.50312969020835974</v>
+      </c>
+      <c r="K53" s="97" t="s">
+        <v>156</v>
+      </c>
+      <c r="L53" s="93">
+        <v>2.699E-2</v>
       </c>
     </row>
     <row r="54" spans="4:12" x14ac:dyDescent="0.2">
@@ -11527,14 +11575,20 @@
       </c>
       <c r="G54" s="40">
         <f>_xll.qlRateHelperEarliestDate($D54)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H54" s="39">
         <f>_xll.qlRateHelperLatestDate($D54)</f>
-        <v>51881</v>
+        <v>51887</v>
       </c>
       <c r="I54" s="34">
-        <v>0.49146474280787844</v>
+        <v>0.49146437578175384</v>
+      </c>
+      <c r="K54" s="97" t="s">
+        <v>157</v>
+      </c>
+      <c r="L54" s="93">
+        <v>2.699E-2</v>
       </c>
     </row>
     <row r="55" spans="4:12" x14ac:dyDescent="0.2">
@@ -11551,14 +11605,20 @@
       </c>
       <c r="G55" s="40">
         <f>_xll.qlRateHelperEarliestDate($D55)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H55" s="39">
         <f>_xll.qlRateHelperLatestDate($D55)</f>
-        <v>52246</v>
+        <v>52252</v>
       </c>
       <c r="I55" s="34">
-        <v>0.4797047286224051</v>
+        <v>0.47970437067070049</v>
+      </c>
+      <c r="K55" s="97" t="s">
+        <v>158</v>
+      </c>
+      <c r="L55" s="93">
+        <v>2.6980000000000001E-2</v>
       </c>
     </row>
     <row r="56" spans="4:12" x14ac:dyDescent="0.2">
@@ -11575,14 +11635,20 @@
       </c>
       <c r="G56" s="40">
         <f>_xll.qlRateHelperEarliestDate($D56)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H56" s="39">
         <f>_xll.qlRateHelperLatestDate($D56)</f>
-        <v>52611</v>
+        <v>52617</v>
       </c>
       <c r="I56" s="34">
-        <v>0.46824012119467728</v>
+        <v>0.4682397720896852</v>
+      </c>
+      <c r="K56" s="97" t="s">
+        <v>159</v>
+      </c>
+      <c r="L56" s="93">
+        <v>2.6980000000000001E-2</v>
       </c>
     </row>
     <row r="57" spans="4:12" x14ac:dyDescent="0.2">
@@ -11599,14 +11665,20 @@
       </c>
       <c r="G57" s="40">
         <f>_xll.qlRateHelperEarliestDate($D57)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H57" s="39">
         <f>_xll.qlRateHelperLatestDate($D57)</f>
-        <v>54438</v>
+        <v>54444</v>
       </c>
       <c r="I57" s="34">
-        <v>0.41087780944680147</v>
+        <v>0.41087748368634613</v>
+      </c>
+      <c r="K57" s="97" t="s">
+        <v>160</v>
+      </c>
+      <c r="L57" s="93">
+        <v>2.7029999999999998E-2</v>
       </c>
     </row>
     <row r="58" spans="4:12" x14ac:dyDescent="0.2">
@@ -11623,14 +11695,20 @@
       </c>
       <c r="G58" s="40">
         <f>_xll.qlRateHelperEarliestDate($D58)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H58" s="39">
         <f>_xll.qlRateHelperLatestDate($D58)</f>
-        <v>56264</v>
+        <v>56270</v>
       </c>
       <c r="I58" s="34">
-        <v>0.35641443345776447</v>
+        <v>0.35641414289006063</v>
+      </c>
+      <c r="K58" s="97" t="s">
+        <v>161</v>
+      </c>
+      <c r="L58" s="93">
+        <v>2.717E-2</v>
       </c>
     </row>
     <row r="59" spans="4:12" x14ac:dyDescent="0.2">
@@ -11647,14 +11725,20 @@
       </c>
       <c r="G59" s="40">
         <f>_xll.qlRateHelperEarliestDate($D59)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H59" s="39">
         <f>_xll.qlRateHelperLatestDate($D59)</f>
-        <v>59916</v>
+        <v>59922</v>
       </c>
       <c r="I59" s="34">
-        <v>0.26659216778192757</v>
+        <v>0.26659196589297252</v>
+      </c>
+      <c r="K59" s="97" t="s">
+        <v>162</v>
+      </c>
+      <c r="L59" s="93">
+        <v>2.7310000000000001E-2</v>
       </c>
     </row>
     <row r="60" spans="4:12" x14ac:dyDescent="0.2">
@@ -11671,14 +11755,20 @@
       </c>
       <c r="G60" s="40">
         <f>_xll.qlRateHelperEarliestDate($D60)</f>
-        <v>41654</v>
+        <v>41660</v>
       </c>
       <c r="H60" s="39">
         <f>_xll.qlRateHelperLatestDate($D60)</f>
-        <v>63569</v>
+        <v>63576</v>
       </c>
       <c r="I60" s="34">
-        <v>0.19840091126141576</v>
+        <v>0.19838653048684229</v>
+      </c>
+      <c r="K60" s="97" t="s">
+        <v>163</v>
+      </c>
+      <c r="L60" s="93">
+        <v>2.7550000000000002E-2</v>
       </c>
     </row>
     <row r="61" spans="4:12" x14ac:dyDescent="0.2">
@@ -13303,12 +13393,12 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="117"/>
       <c r="D1" s="96" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E1" s="116" t="str">
         <f>Currency&amp;"_YC"&amp;$D$1&amp;"RH"</f>
@@ -13322,10 +13412,10 @@
       <c r="A2" s="107"/>
       <c r="B2" s="114"/>
       <c r="C2" s="114" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D2" s="114" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E2" s="113" t="str">
         <f>$E$1&amp;"_Deposits.xml"</f>
@@ -13344,7 +13434,7 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="107"/>
       <c r="B3" s="110" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C3" s="109"/>
       <c r="D3" s="104" t="str">
@@ -13368,7 +13458,7 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="107"/>
       <c r="B4" s="106" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C4" s="105" t="str">
         <f t="shared" ref="C4:C12" si="2">PROPER(Currency)&amp;FamilyName&amp;$B4</f>
@@ -13395,7 +13485,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="107"/>
       <c r="B5" s="106" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C5" s="105" t="str">
         <f t="shared" si="2"/>
@@ -13422,7 +13512,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="107"/>
       <c r="B6" s="106" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C6" s="105" t="str">
         <f t="shared" si="2"/>
@@ -13449,7 +13539,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="107"/>
       <c r="B7" s="106" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" s="105" t="str">
         <f t="shared" si="2"/>
@@ -13476,7 +13566,7 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="107"/>
       <c r="B8" s="106" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C8" s="105" t="str">
         <f t="shared" si="2"/>
@@ -13503,7 +13593,7 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="107"/>
       <c r="B9" s="106" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C9" s="105" t="str">
         <f t="shared" si="2"/>
@@ -13530,7 +13620,7 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="107"/>
       <c r="B10" s="106" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C10" s="105" t="str">
         <f t="shared" si="2"/>
@@ -13557,7 +13647,7 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="107"/>
       <c r="B11" s="106" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C11" s="105" t="str">
         <f t="shared" si="2"/>
@@ -13584,7 +13674,7 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="107"/>
       <c r="B12" s="106" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C12" s="105" t="str">
         <f t="shared" si="2"/>
@@ -13649,7 +13739,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="195" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B1" s="165"/>
       <c r="C1" s="166"/>
@@ -13675,13 +13765,13 @@
       <c r="C2" s="159"/>
       <c r="D2" s="158"/>
       <c r="E2" s="157" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F2" s="157" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G2" s="157" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H2" s="156" t="str">
         <f>$H$1&amp;"_FRAs.xml"</f>
@@ -13700,7 +13790,7 @@
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="107"/>
       <c r="B3" s="149" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C3" s="149" t="str">
         <f>"T"&amp;D1</f>
@@ -13737,7 +13827,7 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="107"/>
       <c r="B4" s="153" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C4" s="153" t="str">
         <f>"TOM"&amp;D1</f>
@@ -14513,7 +14603,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="195" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B1" s="166"/>
       <c r="C1" s="166"/>
@@ -14540,7 +14630,7 @@
       <c r="H2" s="117"/>
       <c r="I2" s="117"/>
       <c r="J2" s="96" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K2" s="96" t="str">
         <f>Currency&amp;"_YC"&amp;$J$2&amp;"RH"</f>
@@ -14556,25 +14646,25 @@
     <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="107"/>
       <c r="B3" s="114" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C3" s="114"/>
       <c r="D3" s="114"/>
       <c r="E3" s="114"/>
       <c r="F3" s="114" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G3" s="114" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H3" s="114" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I3" s="114" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J3" s="114" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K3" s="193" t="str">
         <f>K2&amp;"_Swaps.xml"</f>
@@ -14634,7 +14724,7 @@
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="107"/>
       <c r="B6" s="177" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C6" s="177" t="s">
         <v>36</v>
@@ -14652,7 +14742,7 @@
         <v>Annual</v>
       </c>
       <c r="G6" s="187" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H6" s="187" t="str">
         <f t="shared" ref="H6:H42" si="1">IF(UPPER(RIGHT($D6))="B",BondBasisDayCounter,IF(UPPER(RIGHT($D6))="M",MoneyMarketDayCounter,"--"))</f>
@@ -14685,13 +14775,13 @@
         <v>110</v>
       </c>
       <c r="R6" s="184" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="107"/>
       <c r="B7" s="177" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C7" s="177" t="s">
         <v>35</v>
@@ -14707,7 +14797,7 @@
         <v>Annual</v>
       </c>
       <c r="G7" s="176" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H7" s="176" t="str">
         <f t="shared" si="1"/>
@@ -14740,13 +14830,13 @@
         <v>110</v>
       </c>
       <c r="R7" s="181" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="107"/>
       <c r="B8" s="177" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C8" s="177" t="s">
         <v>34</v>
@@ -14762,7 +14852,7 @@
         <v>Annual</v>
       </c>
       <c r="G8" s="176" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H8" s="176" t="str">
         <f>IF(UPPER(RIGHT($D8))="B",BondBasisDayCounter,IF(UPPER(RIGHT($D8))="M",MoneyMarketDayCounter,"--"))</f>
@@ -14792,16 +14882,16 @@
         <v>108</v>
       </c>
       <c r="Q8" s="182" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="R8" s="181" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="107"/>
       <c r="B9" s="177" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C9" s="177" t="s">
         <v>33</v>
@@ -14817,7 +14907,7 @@
         <v>Annual</v>
       </c>
       <c r="G9" s="176" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H9" s="176" t="str">
         <f t="shared" si="1"/>
@@ -14847,16 +14937,16 @@
         <v>106</v>
       </c>
       <c r="Q9" s="182" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="R9" s="181" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="107"/>
       <c r="B10" s="177" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C10" s="177" t="s">
         <v>32</v>
@@ -14872,7 +14962,7 @@
         <v>Annual</v>
       </c>
       <c r="G10" s="176" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H10" s="176" t="str">
         <f t="shared" si="1"/>
@@ -14905,13 +14995,13 @@
         <v>103</v>
       </c>
       <c r="R10" s="178" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="107"/>
       <c r="B11" s="177" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C11" s="177" t="s">
         <v>31</v>
@@ -14927,7 +15017,7 @@
         <v>Annual</v>
       </c>
       <c r="G11" s="176" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H11" s="176" t="str">
         <f t="shared" si="1"/>
@@ -14957,7 +15047,7 @@
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="107"/>
       <c r="B12" s="177" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C12" s="177" t="s">
         <v>30</v>
@@ -14973,7 +15063,7 @@
         <v>Annual</v>
       </c>
       <c r="G12" s="176" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H12" s="176" t="str">
         <f t="shared" si="1"/>
@@ -15003,7 +15093,7 @@
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="107"/>
       <c r="B13" s="177" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C13" s="177" t="s">
         <v>29</v>
@@ -15019,7 +15109,7 @@
         <v>Annual</v>
       </c>
       <c r="G13" s="176" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H13" s="176" t="str">
         <f t="shared" si="1"/>
@@ -15049,7 +15139,7 @@
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="107"/>
       <c r="B14" s="177" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C14" s="177" t="s">
         <v>28</v>
@@ -15065,7 +15155,7 @@
         <v>Annual</v>
       </c>
       <c r="G14" s="176" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H14" s="176" t="str">
         <f t="shared" si="1"/>
@@ -15095,7 +15185,7 @@
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="107"/>
       <c r="B15" s="177" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" s="177" t="s">
         <v>27</v>
@@ -15111,7 +15201,7 @@
         <v>Annual</v>
       </c>
       <c r="G15" s="176" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H15" s="176" t="str">
         <f t="shared" si="1"/>
@@ -15141,7 +15231,7 @@
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="107"/>
       <c r="B16" s="177" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C16" s="177" t="s">
         <v>26</v>
@@ -15157,7 +15247,7 @@
         <v>Annual</v>
       </c>
       <c r="G16" s="176" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H16" s="176" t="str">
         <f t="shared" si="1"/>
@@ -15187,7 +15277,7 @@
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="107"/>
       <c r="B17" s="177" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C17" s="177" t="s">
         <v>25</v>
@@ -15203,7 +15293,7 @@
         <v>Annual</v>
       </c>
       <c r="G17" s="176" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H17" s="176" t="str">
         <f t="shared" si="1"/>
@@ -15233,7 +15323,7 @@
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="107"/>
       <c r="B18" s="177" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C18" s="177" t="s">
         <v>24</v>
@@ -15249,7 +15339,7 @@
         <v>Annual</v>
       </c>
       <c r="G18" s="176" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H18" s="176" t="str">
         <f t="shared" si="1"/>
@@ -15279,7 +15369,7 @@
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="107"/>
       <c r="B19" s="177" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C19" s="177" t="s">
         <v>23</v>
@@ -15295,7 +15385,7 @@
         <v>Annual</v>
       </c>
       <c r="G19" s="176" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H19" s="176" t="str">
         <f t="shared" si="1"/>
@@ -15325,7 +15415,7 @@
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="107"/>
       <c r="B20" s="177" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C20" s="177" t="s">
         <v>22</v>
@@ -15341,7 +15431,7 @@
         <v>Annual</v>
       </c>
       <c r="G20" s="176" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H20" s="176" t="str">
         <f t="shared" si="1"/>
@@ -15371,7 +15461,7 @@
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="107"/>
       <c r="B21" s="177" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C21" s="177" t="s">
         <v>21</v>
@@ -15387,7 +15477,7 @@
         <v>Annual</v>
       </c>
       <c r="G21" s="176" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H21" s="176" t="str">
         <f t="shared" si="1"/>
@@ -15417,7 +15507,7 @@
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="107"/>
       <c r="B22" s="177" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C22" s="177" t="s">
         <v>20</v>
@@ -15433,7 +15523,7 @@
         <v>Annual</v>
       </c>
       <c r="G22" s="176" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H22" s="176" t="str">
         <f t="shared" si="1"/>
@@ -15463,7 +15553,7 @@
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="107"/>
       <c r="B23" s="177" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C23" s="177" t="s">
         <v>19</v>
@@ -15479,7 +15569,7 @@
         <v>Annual</v>
       </c>
       <c r="G23" s="176" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H23" s="176" t="str">
         <f t="shared" si="1"/>
@@ -15509,7 +15599,7 @@
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="107"/>
       <c r="B24" s="177" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C24" s="177" t="s">
         <v>18</v>
@@ -15525,7 +15615,7 @@
         <v>Annual</v>
       </c>
       <c r="G24" s="176" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H24" s="176" t="str">
         <f t="shared" si="1"/>
@@ -15555,7 +15645,7 @@
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="107"/>
       <c r="B25" s="177" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C25" s="177" t="s">
         <v>17</v>
@@ -15571,7 +15661,7 @@
         <v>Annual</v>
       </c>
       <c r="G25" s="176" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H25" s="176" t="str">
         <f t="shared" si="1"/>
@@ -15601,7 +15691,7 @@
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="107"/>
       <c r="B26" s="177" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C26" s="177" t="s">
         <v>16</v>
@@ -15617,7 +15707,7 @@
         <v>Annual</v>
       </c>
       <c r="G26" s="176" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H26" s="176" t="str">
         <f t="shared" si="1"/>
@@ -15647,7 +15737,7 @@
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="107"/>
       <c r="B27" s="177" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C27" s="177" t="s">
         <v>15</v>
@@ -15663,7 +15753,7 @@
         <v>Annual</v>
       </c>
       <c r="G27" s="176" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H27" s="176" t="str">
         <f t="shared" si="1"/>
@@ -15693,7 +15783,7 @@
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="107"/>
       <c r="B28" s="177" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C28" s="177" t="s">
         <v>14</v>
@@ -15709,7 +15799,7 @@
         <v>Annual</v>
       </c>
       <c r="G28" s="176" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H28" s="176" t="str">
         <f t="shared" si="1"/>
@@ -15739,7 +15829,7 @@
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="107"/>
       <c r="B29" s="177" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C29" s="177" t="s">
         <v>13</v>
@@ -15755,7 +15845,7 @@
         <v>Annual</v>
       </c>
       <c r="G29" s="176" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H29" s="176" t="str">
         <f t="shared" si="1"/>
@@ -15785,7 +15875,7 @@
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="107"/>
       <c r="B30" s="177" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C30" s="177" t="s">
         <v>12</v>
@@ -15801,7 +15891,7 @@
         <v>Annual</v>
       </c>
       <c r="G30" s="176" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H30" s="176" t="str">
         <f t="shared" si="1"/>
@@ -15831,7 +15921,7 @@
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="107"/>
       <c r="B31" s="177" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C31" s="177" t="s">
         <v>11</v>
@@ -15847,7 +15937,7 @@
         <v>Annual</v>
       </c>
       <c r="G31" s="176" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H31" s="176" t="str">
         <f t="shared" si="1"/>
@@ -15877,7 +15967,7 @@
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="107"/>
       <c r="B32" s="177" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C32" s="177" t="s">
         <v>10</v>
@@ -15893,7 +15983,7 @@
         <v>Annual</v>
       </c>
       <c r="G32" s="176" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H32" s="176" t="str">
         <f t="shared" si="1"/>
@@ -15923,7 +16013,7 @@
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="107"/>
       <c r="B33" s="177" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C33" s="177" t="s">
         <v>9</v>
@@ -15939,7 +16029,7 @@
         <v>Annual</v>
       </c>
       <c r="G33" s="176" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H33" s="176" t="str">
         <f t="shared" si="1"/>
@@ -15969,7 +16059,7 @@
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="107"/>
       <c r="B34" s="177" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C34" s="177" t="s">
         <v>8</v>
@@ -15985,7 +16075,7 @@
         <v>Annual</v>
       </c>
       <c r="G34" s="176" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H34" s="176" t="str">
         <f t="shared" si="1"/>
@@ -16015,7 +16105,7 @@
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="107"/>
       <c r="B35" s="177" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C35" s="177" t="s">
         <v>7</v>
@@ -16031,7 +16121,7 @@
         <v>Annual</v>
       </c>
       <c r="G35" s="176" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H35" s="176" t="str">
         <f t="shared" si="1"/>
@@ -16061,7 +16151,7 @@
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="107"/>
       <c r="B36" s="177" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C36" s="177" t="s">
         <v>6</v>
@@ -16077,7 +16167,7 @@
         <v>Annual</v>
       </c>
       <c r="G36" s="176" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H36" s="176" t="str">
         <f t="shared" si="1"/>
@@ -16107,7 +16197,7 @@
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="107"/>
       <c r="B37" s="177" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C37" s="177" t="s">
         <v>5</v>
@@ -16123,7 +16213,7 @@
         <v>Annual</v>
       </c>
       <c r="G37" s="176" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H37" s="176" t="str">
         <f t="shared" si="1"/>
@@ -16153,7 +16243,7 @@
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="107"/>
       <c r="B38" s="177" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C38" s="177" t="s">
         <v>4</v>
@@ -16169,7 +16259,7 @@
         <v>Annual</v>
       </c>
       <c r="G38" s="176" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H38" s="176" t="str">
         <f t="shared" si="1"/>
@@ -16199,7 +16289,7 @@
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="107"/>
       <c r="B39" s="177" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C39" s="177" t="s">
         <v>3</v>
@@ -16215,7 +16305,7 @@
         <v>Annual</v>
       </c>
       <c r="G39" s="176" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H39" s="176" t="str">
         <f t="shared" si="1"/>
@@ -16245,7 +16335,7 @@
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="107"/>
       <c r="B40" s="177" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C40" s="177" t="s">
         <v>2</v>
@@ -16261,7 +16351,7 @@
         <v>Annual</v>
       </c>
       <c r="G40" s="176" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H40" s="176" t="str">
         <f t="shared" si="1"/>
@@ -16291,7 +16381,7 @@
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="107"/>
       <c r="B41" s="177" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C41" s="177" t="s">
         <v>1</v>
@@ -16307,7 +16397,7 @@
         <v>Annual</v>
       </c>
       <c r="G41" s="176" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H41" s="176" t="str">
         <f t="shared" si="1"/>
@@ -16337,7 +16427,7 @@
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="107"/>
       <c r="B42" s="177" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C42" s="177" t="s">
         <v>0</v>
@@ -16353,7 +16443,7 @@
         <v>Annual</v>
       </c>
       <c r="G42" s="176" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H42" s="176" t="str">
         <f t="shared" si="1"/>

--- a/QuantLibXL/Data2/XLS/EUR_YC6MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR_YC6MBootstrapping.xlsx
@@ -890,7 +890,7 @@
     <numFmt numFmtId="176" formatCode="#,##0.0;#,##0.0"/>
     <numFmt numFmtId="177" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1012,8 +1012,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1066,12 +1073,6 @@
       <patternFill patternType="gray0625">
         <fgColor indexed="22"/>
         <bgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1544,7 +1545,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1557,8 +1558,9 @@
     </xf>
     <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1780,7 +1782,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2003,17 +2004,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2039,14 +2037,16 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="11">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="4"/>
     <cellStyle name="Migliaia_AZIONI" xfId="5"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal_SwaptionATMVols" xfId="3"/>
     <cellStyle name="Normale_AZIONI" xfId="6"/>
+    <cellStyle name="Percent" xfId="10" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="2"/>
     <cellStyle name="result" xfId="7"/>
     <cellStyle name="Valuta (0)_AZIONI" xfId="8"/>
@@ -2356,39 +2356,39 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="2.7109375" style="197" customWidth="1"/>
-    <col min="3" max="3" width="18" style="197" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="197" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="197" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="2.7109375" style="197" customWidth="1"/>
-    <col min="8" max="9" width="8" style="197"/>
-    <col min="10" max="11" width="2.7109375" style="197" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="197" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="53.7109375" style="197" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" style="197" customWidth="1"/>
-    <col min="15" max="16384" width="8" style="197"/>
+    <col min="1" max="2" width="2.7109375" style="195" customWidth="1"/>
+    <col min="3" max="3" width="18" style="195" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="195" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="195" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="2.7109375" style="195" customWidth="1"/>
+    <col min="8" max="9" width="8" style="195"/>
+    <col min="10" max="11" width="2.7109375" style="195" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="195" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="53.7109375" style="195" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="195" customWidth="1"/>
+    <col min="15" max="16384" width="8" style="195"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="197" t="str">
+      <c r="B1" s="195" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Dec  5 2013 11:03:51</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="205" t="s">
+      <c r="B2" s="203" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="207"/>
-      <c r="K2" s="205" t="s">
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="205"/>
+      <c r="K2" s="203" t="s">
         <v>184</v>
       </c>
-      <c r="L2" s="206"/>
-      <c r="M2" s="206"/>
-      <c r="N2" s="208"/>
+      <c r="L2" s="204"/>
+      <c r="M2" s="204"/>
+      <c r="N2" s="206"/>
     </row>
     <row r="3" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="61"/>
@@ -2396,10 +2396,10 @@
       <c r="D3" s="58"/>
       <c r="E3" s="58"/>
       <c r="F3" s="57"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="135"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="134"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" s="61"/>
@@ -2411,18 +2411,18 @@
       </c>
       <c r="E4" s="58"/>
       <c r="F4" s="57"/>
-      <c r="H4" s="200" t="s">
+      <c r="H4" s="198" t="s">
         <v>113</v>
       </c>
-      <c r="I4" s="201"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="132" t="s">
+      <c r="I4" s="199"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="131" t="s">
         <v>183</v>
       </c>
-      <c r="M4" s="126" t="b">
-        <v>1</v>
-      </c>
-      <c r="N4" s="131"/>
+      <c r="M4" s="125" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" s="130"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="61"/>
@@ -2434,21 +2434,21 @@
       </c>
       <c r="E5" s="58"/>
       <c r="F5" s="57"/>
-      <c r="H5" s="198" t="s">
+      <c r="H5" s="196" t="s">
         <v>111</v>
       </c>
-      <c r="I5" s="199" t="s">
+      <c r="I5" s="197" t="s">
         <v>110</v>
       </c>
-      <c r="K5" s="133"/>
-      <c r="L5" s="132" t="s">
+      <c r="K5" s="132"/>
+      <c r="L5" s="131" t="s">
         <v>182</v>
       </c>
-      <c r="M5" s="134" t="str">
+      <c r="M5" s="133" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
         <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\XML\</v>
       </c>
-      <c r="N5" s="131"/>
+      <c r="N5" s="130"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="61"/>
@@ -2461,18 +2461,18 @@
       </c>
       <c r="E6" s="58"/>
       <c r="F6" s="57"/>
-      <c r="H6" s="198" t="s">
+      <c r="H6" s="196" t="s">
         <v>108</v>
       </c>
-      <c r="I6" s="199"/>
-      <c r="K6" s="133"/>
-      <c r="L6" s="132" t="s">
+      <c r="I6" s="197"/>
+      <c r="K6" s="132"/>
+      <c r="L6" s="131" t="s">
         <v>181</v>
       </c>
-      <c r="M6" s="123" t="b">
-        <v>1</v>
-      </c>
-      <c r="N6" s="131"/>
+      <c r="M6" s="122" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" s="130"/>
     </row>
     <row r="7" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="61"/>
@@ -2485,14 +2485,14 @@
       </c>
       <c r="E7" s="58"/>
       <c r="F7" s="57"/>
-      <c r="H7" s="198" t="s">
+      <c r="H7" s="196" t="s">
         <v>106</v>
       </c>
-      <c r="I7" s="199"/>
-      <c r="K7" s="130"/>
-      <c r="L7" s="129"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="128"/>
+      <c r="I7" s="197"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="128"/>
+      <c r="M7" s="128"/>
+      <c r="N7" s="127"/>
     </row>
     <row r="8" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="61"/>
@@ -2505,16 +2505,16 @@
       </c>
       <c r="E8" s="58"/>
       <c r="F8" s="57"/>
-      <c r="H8" s="202" t="s">
+      <c r="H8" s="200" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="203" t="s">
+      <c r="I8" s="201" t="s">
         <v>103</v>
       </c>
-      <c r="K8" s="204"/>
-      <c r="L8" s="204"/>
-      <c r="M8" s="204"/>
-      <c r="N8" s="204"/>
+      <c r="K8" s="202"/>
+      <c r="L8" s="202"/>
+      <c r="M8" s="202"/>
+      <c r="N8" s="202"/>
     </row>
     <row r="9" spans="2:14" ht="18" x14ac:dyDescent="0.25">
       <c r="B9" s="61"/>
@@ -2527,12 +2527,12 @@
       </c>
       <c r="E9" s="58"/>
       <c r="F9" s="57"/>
-      <c r="K9" s="205" t="s">
+      <c r="K9" s="203" t="s">
         <v>180</v>
       </c>
-      <c r="L9" s="206"/>
-      <c r="M9" s="206"/>
-      <c r="N9" s="208"/>
+      <c r="L9" s="204"/>
+      <c r="M9" s="204"/>
+      <c r="N9" s="206"/>
     </row>
     <row r="10" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="61"/>
@@ -2544,10 +2544,10 @@
       </c>
       <c r="E10" s="58"/>
       <c r="F10" s="57"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="127"/>
-      <c r="M10" s="127"/>
-      <c r="N10" s="122"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="126"/>
+      <c r="M10" s="126"/>
+      <c r="N10" s="121"/>
     </row>
     <row r="11" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B11" s="61"/>
@@ -2555,18 +2555,18 @@
         <v>100</v>
       </c>
       <c r="D11" s="86">
-        <v>41662.58520833333</v>
+        <v>41663.628009259257</v>
       </c>
       <c r="E11" s="58"/>
       <c r="F11" s="57"/>
-      <c r="K11" s="125"/>
-      <c r="L11" s="124" t="s">
+      <c r="K11" s="124"/>
+      <c r="L11" s="123" t="s">
         <v>179</v>
       </c>
-      <c r="M11" s="126" t="s">
+      <c r="M11" s="125" t="s">
         <v>178</v>
       </c>
-      <c r="N11" s="122"/>
+      <c r="N11" s="121"/>
     </row>
     <row r="12" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B12" s="61"/>
@@ -2578,14 +2578,14 @@
       </c>
       <c r="E12" s="58"/>
       <c r="F12" s="57"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="124" t="s">
+      <c r="K12" s="124"/>
+      <c r="L12" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="M12" s="123" t="s">
+      <c r="M12" s="122" t="s">
         <v>176</v>
       </c>
-      <c r="N12" s="122"/>
+      <c r="N12" s="121"/>
     </row>
     <row r="13" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" s="61"/>
@@ -2593,14 +2593,14 @@
       <c r="D13" s="66"/>
       <c r="E13" s="58"/>
       <c r="F13" s="57"/>
-      <c r="K13" s="125"/>
-      <c r="L13" s="124" t="s">
+      <c r="K13" s="124"/>
+      <c r="L13" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="M13" s="126" t="s">
+      <c r="M13" s="125" t="s">
         <v>201</v>
       </c>
-      <c r="N13" s="122"/>
+      <c r="N13" s="121"/>
     </row>
     <row r="14" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="61"/>
@@ -2609,18 +2609,18 @@
       </c>
       <c r="D14" s="83" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D22),NA(),D20:E20),IF(ISERROR(D22),NA(),D21:E21),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_EURYC6M#0000</v>
+        <v>_EURYC6M#0003</v>
       </c>
       <c r="E14" s="58"/>
       <c r="F14" s="57"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="124" t="s">
+      <c r="K14" s="124"/>
+      <c r="L14" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="M14" s="126" t="s">
+      <c r="M14" s="125" t="s">
         <v>199</v>
       </c>
-      <c r="N14" s="122"/>
+      <c r="N14" s="121"/>
     </row>
     <row r="15" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="61"/>
@@ -2633,15 +2633,15 @@
       </c>
       <c r="E15" s="58"/>
       <c r="F15" s="57"/>
-      <c r="K15" s="125"/>
-      <c r="L15" s="124" t="s">
+      <c r="K15" s="124"/>
+      <c r="L15" s="123" t="s">
         <v>198</v>
       </c>
-      <c r="M15" s="126" t="str">
+      <c r="M15" s="125" t="str">
         <f>PROPER(Currency)&amp;"YC"</f>
         <v>EurYC</v>
       </c>
-      <c r="N15" s="122"/>
+      <c r="N15" s="121"/>
     </row>
     <row r="16" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="61"/>
@@ -2654,15 +2654,15 @@
       </c>
       <c r="E16" s="58"/>
       <c r="F16" s="57"/>
-      <c r="K16" s="125"/>
-      <c r="L16" s="124" t="s">
+      <c r="K16" s="124"/>
+      <c r="L16" s="123" t="s">
         <v>197</v>
       </c>
-      <c r="M16" s="126" t="str">
+      <c r="M16" s="125" t="str">
         <f>PROPER(Currency)&amp;"YCSTD"</f>
         <v>EurYCSTD</v>
       </c>
-      <c r="N16" s="122"/>
+      <c r="N16" s="121"/>
     </row>
     <row r="17" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="61"/>
@@ -2674,10 +2674,10 @@
       </c>
       <c r="E17" s="58"/>
       <c r="F17" s="57"/>
-      <c r="K17" s="121"/>
-      <c r="L17" s="120"/>
-      <c r="M17" s="120"/>
-      <c r="N17" s="119"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="119"/>
+      <c r="M17" s="119"/>
+      <c r="N17" s="118"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="61"/>
@@ -2806,7 +2806,7 @@
       </c>
       <c r="D28" s="62">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.19838653048684229</v>
+        <v>0.18985040492300714</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="57"/>
@@ -2875,7 +2875,7 @@
   <dimension ref="A1:N169"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2899,11 +2899,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B1" s="209" t="s">
+      <c r="B1" s="207" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="210"/>
-      <c r="D1" s="211"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="209"/>
       <c r="E1" s="31" t="s">
         <v>74</v>
       </c>
@@ -3019,11 +3019,11 @@
       </c>
       <c r="F4" s="13">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
-        <v>2.575E-3</v>
+        <v>4.738E-3</v>
       </c>
       <c r="G4" s="13"/>
-      <c r="H4" s="196" t="b">
-        <v>0</v>
+      <c r="H4" s="95" t="b">
+        <v>1</v>
       </c>
       <c r="I4" s="12">
         <v>10</v>
@@ -3058,7 +3058,7 @@
       </c>
       <c r="F5" s="13">
         <f>_xll.qlRateHelperQuoteValue($E5,Trigger)</f>
-        <v>2.6679999999999998E-3</v>
+        <v>4.2310000000000004E-3</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12" t="b">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="F6" s="13">
         <f>_xll.qlRateHelperQuoteValue($E6,Trigger)</f>
-        <v>2.6710000000000002E-3</v>
+        <v>4.3449999999999999E-3</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12" t="b">
@@ -3136,7 +3136,7 @@
       </c>
       <c r="F7" s="13">
         <f>_xll.qlRateHelperQuoteValue($E7,Trigger)</f>
-        <v>2.6940000000000002E-3</v>
+        <v>4.2880000000000001E-3</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="12" t="b">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="F8" s="13">
         <f>_xll.qlRateHelperQuoteValue($E8,Trigger)</f>
-        <v>2.7269999999999998E-3</v>
+        <v>4.2139999999999999E-3</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="12" t="b">
@@ -3214,7 +3214,7 @@
       </c>
       <c r="F9" s="13">
         <f>_xll.qlRateHelperQuoteValue($E9,Trigger)</f>
-        <v>2.8800000000000002E-3</v>
+        <v>4.1989999999999996E-3</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="12" t="b">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="F10" s="13">
         <f>_xll.qlRateHelperQuoteValue($E10,Trigger)</f>
-        <v>3.026E-3</v>
+        <v>4.1840000000000002E-3</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="12" t="b">
@@ -3280,7 +3280,7 @@
       </c>
       <c r="F11" s="13">
         <f>_xll.qlRateHelperQuoteValue($E11,Trigger)</f>
-        <v>3.1419999999999998E-3</v>
+        <v>4.1390000000000003E-3</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="12" t="b">
@@ -3313,7 +3313,7 @@
       </c>
       <c r="F12" s="13">
         <f>_xll.qlRateHelperQuoteValue($E12,Trigger)</f>
-        <v>3.264E-3</v>
+        <v>4.1050000000000001E-3</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="12" t="b">
@@ -3346,7 +3346,7 @@
       </c>
       <c r="F13" s="13">
         <f>_xll.qlRateHelperQuoteValue($E13,Trigger)</f>
-        <v>3.4160000000000002E-3</v>
+        <v>4.0800000000000003E-3</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="12" t="b">
@@ -3448,9 +3448,9 @@
         <f t="shared" si="0"/>
         <v>EUR_YC6MRH_T6F1</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="21" t="e">
         <f>_xll.qlRateHelperQuoteValue($E16,Trigger)</f>
-        <v>3.4299999999999999E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="G16" s="21"/>
       <c r="H16" s="20" t="b">
@@ -3486,13 +3486,13 @@
         <f t="shared" si="0"/>
         <v>EUR_YC6MRH_TOM6F1</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="6" t="e">
         <f>_xll.qlRateHelperQuoteValue($E17,Trigger)</f>
-        <v>3.4399999999999999E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="5">
         <v>20</v>
@@ -3526,7 +3526,7 @@
       </c>
       <c r="F18" s="13">
         <f>_xll.qlRateHelperQuoteValue($E18,Trigger)</f>
-        <v>3.7199999999999998E-3</v>
+        <v>4.0200000000000001E-3</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="12" t="b">
@@ -3564,7 +3564,7 @@
       </c>
       <c r="F19" s="13">
         <f>_xll.qlRateHelperQuoteValue($E19,Trigger)</f>
-        <v>3.96E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="12" t="b">
@@ -3602,7 +3602,7 @@
       </c>
       <c r="F20" s="13">
         <f>_xll.qlRateHelperQuoteValue($E20,Trigger)</f>
-        <v>4.2800000000000008E-3</v>
+        <v>4.0100000000000005E-3</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="12" t="b">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="F21" s="13">
         <f>_xll.qlRateHelperQuoteValue($E21,Trigger)</f>
-        <v>4.5099999999999993E-3</v>
+        <v>4.0300000000000006E-3</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="12" t="b">
@@ -3678,7 +3678,7 @@
       </c>
       <c r="F22" s="13">
         <f>_xll.qlRateHelperQuoteValue($E22,Trigger)</f>
-        <v>4.7699999999999999E-3</v>
+        <v>4.0500000000000006E-3</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="12" t="b">
@@ -3716,7 +3716,7 @@
       </c>
       <c r="F23" s="13">
         <f>_xll.qlRateHelperQuoteValue($E23,Trigger)</f>
-        <v>5.0000000000000001E-3</v>
+        <v>4.1399999999999996E-3</v>
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="12" t="b">
@@ -3754,7 +3754,7 @@
       </c>
       <c r="F24" s="13">
         <f>_xll.qlRateHelperQuoteValue($E24,Trigger)</f>
-        <v>5.2599999999999999E-3</v>
+        <v>4.2100000000000002E-3</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="12" t="b">
@@ -3792,7 +3792,7 @@
       </c>
       <c r="F25" s="13">
         <f>_xll.qlRateHelperQuoteValue($E25,Trigger)</f>
-        <v>5.5000000000000005E-3</v>
+        <v>4.3E-3</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="12" t="b">
@@ -3830,7 +3830,7 @@
       </c>
       <c r="F26" s="13">
         <f>_xll.qlRateHelperQuoteValue($E26,Trigger)</f>
-        <v>5.7499999999999999E-3</v>
+        <v>4.4299999999999999E-3</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="12" t="b">
@@ -3868,7 +3868,7 @@
       </c>
       <c r="F27" s="13">
         <f>_xll.qlRateHelperQuoteValue($E27,Trigger)</f>
-        <v>5.9699999999999996E-3</v>
+        <v>4.5700000000000003E-3</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="12" t="b">
@@ -3906,7 +3906,7 @@
       </c>
       <c r="F28" s="13">
         <f>_xll.qlRateHelperQuoteValue($E28,Trigger)</f>
-        <v>6.2300000000000003E-3</v>
+        <v>4.6999999999999993E-3</v>
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="12" t="b">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="F29" s="13">
         <f>_xll.qlRateHelperQuoteValue($E29,Trigger)</f>
-        <v>6.4700000000000001E-3</v>
+        <v>4.8799999999999998E-3</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="12" t="b">
@@ -3982,7 +3982,7 @@
       </c>
       <c r="F30" s="13">
         <f>_xll.qlRateHelperQuoteValue($E30,Trigger)</f>
-        <v>6.6700000000000006E-3</v>
+        <v>5.0800000000000003E-3</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="12" t="b">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="F31" s="13">
         <f>_xll.qlRateHelperQuoteValue($E31,Trigger)</f>
-        <v>6.8999999999999999E-3</v>
+        <v>5.2500000000000003E-3</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="12" t="b">
@@ -4058,7 +4058,7 @@
       </c>
       <c r="F32" s="13">
         <f>_xll.qlRateHelperQuoteValue($E32,Trigger)</f>
-        <v>7.1300000000000001E-3</v>
+        <v>5.4900000000000001E-3</v>
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="12" t="b">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="F33" s="13">
         <f>_xll.qlRateHelperQuoteValue($E33,Trigger)</f>
-        <v>7.3499999999999998E-3</v>
+        <v>5.7299999999999999E-3</v>
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="12" t="b">
@@ -4134,7 +4134,7 @@
       </c>
       <c r="F34" s="13">
         <f>_xll.qlRateHelperQuoteValue($E34,Trigger)</f>
-        <v>7.6100000000000004E-3</v>
+        <v>5.9800000000000001E-3</v>
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="12" t="b">
@@ -4172,7 +4172,7 @@
       </c>
       <c r="F35" s="6">
         <f>_xll.qlRateHelperQuoteValue($E35,Trigger)</f>
-        <v>7.8399999999999997E-3</v>
+        <v>6.2900000000000005E-3</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="12" t="b">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="F96" s="13">
         <f>_xll.qlRateHelperQuoteValue($E96,Trigger)</f>
-        <v>4.2699999999999995E-3</v>
+        <v>4.1700000000000001E-3</v>
       </c>
       <c r="G96" s="13">
         <f>_xll.qlSwapRateHelperSpread($E96,Trigger)</f>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="F97" s="13">
         <f>_xll.qlRateHelperQuoteValue($E97,Trigger)</f>
-        <v>4.5199999999999997E-3</v>
+        <v>4.0300000000000006E-3</v>
       </c>
       <c r="G97" s="13">
         <f>_xll.qlSwapRateHelperSpread($E97,Trigger)</f>
@@ -6755,7 +6755,7 @@
       </c>
       <c r="F98" s="13">
         <f>_xll.qlRateHelperQuoteValue($E98,Trigger)</f>
-        <v>5.0400000000000002E-3</v>
+        <v>4.4200000000000003E-3</v>
       </c>
       <c r="G98" s="13">
         <f>_xll.qlSwapRateHelperSpread($E98,Trigger)</f>
@@ -6801,7 +6801,7 @@
       </c>
       <c r="F99" s="13">
         <f>_xll.qlRateHelperQuoteValue($E99,Trigger)</f>
-        <v>5.2900000000000004E-3</v>
+        <v>4.47E-3</v>
       </c>
       <c r="G99" s="13">
         <f>_xll.qlSwapRateHelperSpread($E99,Trigger)</f>
@@ -6847,7 +6847,7 @@
       </c>
       <c r="F100" s="13">
         <f>_xll.qlRateHelperQuoteValue($E100,Trigger)</f>
-        <v>5.7600000000000004E-3</v>
+        <v>4.9199999999999999E-3</v>
       </c>
       <c r="G100" s="13">
         <f>_xll.qlSwapRateHelperSpread($E100,Trigger)</f>
@@ -6893,7 +6893,7 @@
       </c>
       <c r="F101" s="13">
         <f>_xll.qlRateHelperQuoteValue($E101,Trigger)</f>
-        <v>7.45E-3</v>
+        <v>6.6E-3</v>
       </c>
       <c r="G101" s="13">
         <f>_xll.qlSwapRateHelperSpread($E101,Trigger)</f>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="F102" s="13">
         <f>_xll.qlRateHelperQuoteValue($E102,Trigger)</f>
-        <v>9.6100000000000005E-3</v>
+        <v>8.8699999999999994E-3</v>
       </c>
       <c r="G102" s="13">
         <f>_xll.qlSwapRateHelperSpread($E102,Trigger)</f>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="F103" s="13">
         <f>_xll.qlRateHelperQuoteValue($E103,Trigger)</f>
-        <v>1.1850000000000001E-2</v>
+        <v>1.1200000000000002E-2</v>
       </c>
       <c r="G103" s="13">
         <f>_xll.qlSwapRateHelperSpread($E103,Trigger)</f>
@@ -7031,7 +7031,7 @@
       </c>
       <c r="F104" s="13">
         <f>_xll.qlRateHelperQuoteValue($E104,Trigger)</f>
-        <v>1.38E-2</v>
+        <v>1.3389999999999999E-2</v>
       </c>
       <c r="G104" s="13">
         <f>_xll.qlSwapRateHelperSpread($E104,Trigger)</f>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="F105" s="13">
         <f>_xll.qlRateHelperQuoteValue($E105,Trigger)</f>
-        <v>1.5529999999999999E-2</v>
+        <v>1.5389999999999999E-2</v>
       </c>
       <c r="G105" s="13">
         <f>_xll.qlSwapRateHelperSpread($E105,Trigger)</f>
@@ -7123,7 +7123,7 @@
       </c>
       <c r="F106" s="13">
         <f>_xll.qlRateHelperQuoteValue($E106,Trigger)</f>
-        <v>1.7059999999999999E-2</v>
+        <v>1.719E-2</v>
       </c>
       <c r="G106" s="13">
         <f>_xll.qlSwapRateHelperSpread($E106,Trigger)</f>
@@ -7169,7 +7169,7 @@
       </c>
       <c r="F107" s="13">
         <f>_xll.qlRateHelperQuoteValue($E107,Trigger)</f>
-        <v>1.8460000000000001E-2</v>
+        <v>1.8790000000000001E-2</v>
       </c>
       <c r="G107" s="13">
         <f>_xll.qlSwapRateHelperSpread($E107,Trigger)</f>
@@ -7215,7 +7215,7 @@
       </c>
       <c r="F108" s="13">
         <f>_xll.qlRateHelperQuoteValue($E108,Trigger)</f>
-        <v>1.9740000000000001E-2</v>
+        <v>2.0199999999999999E-2</v>
       </c>
       <c r="G108" s="13">
         <f>_xll.qlSwapRateHelperSpread($E108,Trigger)</f>
@@ -7261,7 +7261,7 @@
       </c>
       <c r="F109" s="13">
         <f>_xll.qlRateHelperQuoteValue($E109,Trigger)</f>
-        <v>2.085E-2</v>
+        <v>2.1419999999999998E-2</v>
       </c>
       <c r="G109" s="13">
         <f>_xll.qlSwapRateHelperSpread($E109,Trigger)</f>
@@ -7307,7 +7307,7 @@
       </c>
       <c r="F110" s="13">
         <f>_xll.qlRateHelperQuoteValue($E110,Trigger)</f>
-        <v>2.18E-2</v>
+        <v>2.247E-2</v>
       </c>
       <c r="G110" s="13">
         <f>_xll.qlSwapRateHelperSpread($E110,Trigger)</f>
@@ -7353,7 +7353,7 @@
       </c>
       <c r="F111" s="13">
         <f>_xll.qlRateHelperQuoteValue($E111,Trigger)</f>
-        <v>2.2599999999999999E-2</v>
+        <v>2.3359999999999999E-2</v>
       </c>
       <c r="G111" s="13">
         <f>_xll.qlSwapRateHelperSpread($E111,Trigger)</f>
@@ -7399,7 +7399,7 @@
       </c>
       <c r="F112" s="13">
         <f>_xll.qlRateHelperQuoteValue($E112,Trigger)</f>
-        <v>2.3250000000000003E-2</v>
+        <v>2.41E-2</v>
       </c>
       <c r="G112" s="13">
         <f>_xll.qlSwapRateHelperSpread($E112,Trigger)</f>
@@ -7445,7 +7445,7 @@
       </c>
       <c r="F113" s="13">
         <f>_xll.qlRateHelperQuoteValue($E113,Trigger)</f>
-        <v>2.376E-2</v>
+        <v>2.4700000000000003E-2</v>
       </c>
       <c r="G113" s="13">
         <f>_xll.qlSwapRateHelperSpread($E113,Trigger)</f>
@@ -7491,7 +7491,7 @@
       </c>
       <c r="F114" s="13">
         <f>_xll.qlRateHelperQuoteValue($E114,Trigger)</f>
-        <v>2.4150000000000001E-2</v>
+        <v>2.5179999999999998E-2</v>
       </c>
       <c r="G114" s="13">
         <f>_xll.qlSwapRateHelperSpread($E114,Trigger)</f>
@@ -7537,7 +7537,7 @@
       </c>
       <c r="F115" s="13">
         <f>_xll.qlRateHelperQuoteValue($E115,Trigger)</f>
-        <v>2.444E-2</v>
+        <v>2.5550000000000003E-2</v>
       </c>
       <c r="G115" s="13">
         <f>_xll.qlSwapRateHelperSpread($E115,Trigger)</f>
@@ -7583,7 +7583,7 @@
       </c>
       <c r="F116" s="13">
         <f>_xll.qlRateHelperQuoteValue($E116,Trigger)</f>
-        <v>2.4639999999999999E-2</v>
+        <v>2.5830000000000002E-2</v>
       </c>
       <c r="G116" s="13">
         <f>_xll.qlSwapRateHelperSpread($E116,Trigger)</f>
@@ -7629,7 +7629,7 @@
       </c>
       <c r="F117" s="13">
         <f>_xll.qlRateHelperQuoteValue($E117,Trigger)</f>
-        <v>2.4780000000000003E-2</v>
+        <v>2.605E-2</v>
       </c>
       <c r="G117" s="13">
         <f>_xll.qlSwapRateHelperSpread($E117,Trigger)</f>
@@ -7675,7 +7675,7 @@
       </c>
       <c r="F118" s="13">
         <f>_xll.qlRateHelperQuoteValue($E118,Trigger)</f>
-        <v>2.487E-2</v>
+        <v>2.6210000000000001E-2</v>
       </c>
       <c r="G118" s="13">
         <f>_xll.qlSwapRateHelperSpread($E118,Trigger)</f>
@@ -7721,7 +7721,7 @@
       </c>
       <c r="F119" s="13">
         <f>_xll.qlRateHelperQuoteValue($E119,Trigger)</f>
-        <v>2.4929999999999997E-2</v>
+        <v>2.6349999999999998E-2</v>
       </c>
       <c r="G119" s="13">
         <f>_xll.qlSwapRateHelperSpread($E119,Trigger)</f>
@@ -7767,7 +7767,7 @@
       </c>
       <c r="F120" s="13">
         <f>_xll.qlRateHelperQuoteValue($E120,Trigger)</f>
-        <v>2.4980000000000002E-2</v>
+        <v>2.6440000000000002E-2</v>
       </c>
       <c r="G120" s="13">
         <f>_xll.qlSwapRateHelperSpread($E120,Trigger)</f>
@@ -7813,7 +7813,7 @@
       </c>
       <c r="F121" s="13">
         <f>_xll.qlRateHelperQuoteValue($E121,Trigger)</f>
-        <v>2.5009999999999998E-2</v>
+        <v>2.6520000000000002E-2</v>
       </c>
       <c r="G121" s="13">
         <f>_xll.qlSwapRateHelperSpread($E121,Trigger)</f>
@@ -7859,7 +7859,7 @@
       </c>
       <c r="F122" s="13">
         <f>_xll.qlRateHelperQuoteValue($E122,Trigger)</f>
-        <v>2.5009999999999998E-2</v>
+        <v>2.657E-2</v>
       </c>
       <c r="G122" s="13">
         <f>_xll.qlSwapRateHelperSpread($E122,Trigger)</f>
@@ -7905,7 +7905,7 @@
       </c>
       <c r="F123" s="13">
         <f>_xll.qlRateHelperQuoteValue($E123,Trigger)</f>
-        <v>2.5009999999999998E-2</v>
+        <v>2.6600000000000002E-2</v>
       </c>
       <c r="G123" s="13">
         <f>_xll.qlSwapRateHelperSpread($E123,Trigger)</f>
@@ -7951,7 +7951,7 @@
       </c>
       <c r="F124" s="13">
         <f>_xll.qlRateHelperQuoteValue($E124,Trigger)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>2.6610000000000002E-2</v>
       </c>
       <c r="G124" s="13">
         <f>_xll.qlSwapRateHelperSpread($E124,Trigger)</f>
@@ -7997,7 +7997,7 @@
       </c>
       <c r="F125" s="13">
         <f>_xll.qlRateHelperQuoteValue($E125,Trigger)</f>
-        <v>2.4980000000000002E-2</v>
+        <v>2.6619999999999998E-2</v>
       </c>
       <c r="G125" s="13">
         <f>_xll.qlSwapRateHelperSpread($E125,Trigger)</f>
@@ -8043,7 +8043,7 @@
       </c>
       <c r="F126" s="13">
         <f>_xll.qlRateHelperQuoteValue($E126,Trigger)</f>
-        <v>2.495E-2</v>
+        <v>2.6610000000000002E-2</v>
       </c>
       <c r="G126" s="13">
         <f>_xll.qlSwapRateHelperSpread($E126,Trigger)</f>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="F127" s="13">
         <f>_xll.qlRateHelperQuoteValue($E127,Trigger)</f>
-        <v>2.4939999999999997E-2</v>
+        <v>2.6600000000000002E-2</v>
       </c>
       <c r="G127" s="13">
         <f>_xll.qlSwapRateHelperSpread($E127,Trigger)</f>
@@ -8135,7 +8135,7 @@
       </c>
       <c r="F128" s="13">
         <f>_xll.qlRateHelperQuoteValue($E128,Trigger)</f>
-        <v>2.4929999999999997E-2</v>
+        <v>2.6600000000000002E-2</v>
       </c>
       <c r="G128" s="13">
         <f>_xll.qlSwapRateHelperSpread($E128,Trigger)</f>
@@ -8181,7 +8181,7 @@
       </c>
       <c r="F129" s="13">
         <f>_xll.qlRateHelperQuoteValue($E129,Trigger)</f>
-        <v>2.5070000000000002E-2</v>
+        <v>2.6680000000000002E-2</v>
       </c>
       <c r="G129" s="13">
         <f>_xll.qlSwapRateHelperSpread($E129,Trigger)</f>
@@ -8227,7 +8227,7 @@
       </c>
       <c r="F130" s="13">
         <f>_xll.qlRateHelperQuoteValue($E130,Trigger)</f>
-        <v>2.5350000000000001E-2</v>
+        <v>2.6840000000000003E-2</v>
       </c>
       <c r="G130" s="13">
         <f>_xll.qlSwapRateHelperSpread($E130,Trigger)</f>
@@ -8273,7 +8273,7 @@
       </c>
       <c r="F131" s="13">
         <f>_xll.qlRateHelperQuoteValue($E131,Trigger)</f>
-        <v>2.579E-2</v>
+        <v>2.7029999999999998E-2</v>
       </c>
       <c r="G131" s="13">
         <f>_xll.qlSwapRateHelperSpread($E131,Trigger)</f>
@@ -8319,7 +8319,7 @@
       </c>
       <c r="F132" s="6">
         <f>_xll.qlRateHelperQuoteValue($E132,Trigger)</f>
-        <v>2.6099999999999998E-2</v>
+        <v>2.7160000000000004E-2</v>
       </c>
       <c r="G132" s="6">
         <f>_xll.qlSwapRateHelperSpread($E132,Trigger)</f>
@@ -9933,15 +9933,15 @@
     <col min="9" max="9" width="12" style="32" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="32"/>
     <col min="11" max="11" width="19.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="212" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="212" t="s">
+      <c r="A1" s="210" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="213"/>
+      <c r="B1" s="211"/>
       <c r="D1" s="53" t="s">
         <v>83</v>
       </c>
@@ -9970,11 +9970,11 @@
       </c>
       <c r="D2" s="42" t="str">
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
-        <v>EUR_YC6MRH_SWD</v>
+        <v>EUR_YC6MRH_SND</v>
       </c>
       <c r="E2" s="41">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>2.6679999999999998E-3</v>
+        <v>4.738E-3</v>
       </c>
       <c r="F2" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -9986,16 +9986,16 @@
       </c>
       <c r="H2" s="39">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41667</v>
+        <v>41661</v>
       </c>
       <c r="I2" s="34">
-        <v>0.99994812491338625</v>
-      </c>
-      <c r="K2" s="98" t="s">
+        <v>0.99998683906210151</v>
+      </c>
+      <c r="K2" s="97" t="s">
         <v>206</v>
       </c>
-      <c r="L2" s="93">
-        <v>3.078E-3</v>
+      <c r="L2" s="212">
+        <v>4.738E-3</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -10006,11 +10006,11 @@
         <v>1</v>
       </c>
       <c r="D3" s="42" t="str">
-        <v>EUR_YC6MRH_2WD</v>
+        <v>EUR_YC6MRH_SWD</v>
       </c>
       <c r="E3" s="41">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>2.6710000000000002E-3</v>
+        <v>4.2310000000000004E-3</v>
       </c>
       <c r="F3" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -10022,16 +10022,16 @@
       </c>
       <c r="H3" s="39">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41674</v>
+        <v>41667</v>
       </c>
       <c r="I3" s="34">
-        <v>0.9998961385660956</v>
-      </c>
-      <c r="K3" s="98" t="s">
+        <v>0.99991773732326028</v>
+      </c>
+      <c r="K3" s="97" t="s">
         <v>116</v>
       </c>
-      <c r="L3" s="93">
-        <v>3.3349999999999999E-3</v>
+      <c r="L3" s="212">
+        <v>4.2310000000000004E-3</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -10042,11 +10042,11 @@
         <v>2</v>
       </c>
       <c r="D4" s="42" t="str">
-        <v>EUR_YC6MRH_3WD</v>
+        <v>EUR_YC6MRH_2WD</v>
       </c>
       <c r="E4" s="41">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>2.6940000000000002E-3</v>
+        <v>4.3449999999999999E-3</v>
       </c>
       <c r="F4" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -10058,16 +10058,16 @@
       </c>
       <c r="H4" s="39">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41681</v>
+        <v>41674</v>
       </c>
       <c r="I4" s="34">
-        <v>0.99984287469224142</v>
-      </c>
-      <c r="K4" s="98" t="s">
+        <v>0.99983105632455893</v>
+      </c>
+      <c r="K4" s="97" t="s">
         <v>117</v>
       </c>
-      <c r="L4" s="93">
-        <v>3.192E-3</v>
+      <c r="L4" s="212">
+        <v>4.3449999999999999E-3</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -10078,11 +10078,11 @@
         <v>77</v>
       </c>
       <c r="D5" s="42" t="str">
-        <v>EUR_YC6MRH_1MD</v>
+        <v>EUR_YC6MRH_3WD</v>
       </c>
       <c r="E5" s="41">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>2.7269999999999998E-3</v>
+        <v>4.2880000000000001E-3</v>
       </c>
       <c r="F5" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -10094,16 +10094,16 @@
       </c>
       <c r="H5" s="39">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41691</v>
+        <v>41681</v>
       </c>
       <c r="I5" s="34">
-        <v>0.99976523012982887</v>
-      </c>
-      <c r="K5" s="98" t="s">
+        <v>0.99974992921792116</v>
+      </c>
+      <c r="K5" s="97" t="s">
         <v>118</v>
       </c>
-      <c r="L5" s="93">
-        <v>3.2000000000000002E-3</v>
+      <c r="L5" s="212">
+        <v>4.2880000000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -10115,11 +10115,11 @@
         <v/>
       </c>
       <c r="D6" s="42" t="str">
-        <v>EUR_YC6MRH_2MD</v>
+        <v>EUR_YC6MRH_1MD</v>
       </c>
       <c r="E6" s="41">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>2.8800000000000002E-3</v>
+        <v>4.2139999999999999E-3</v>
       </c>
       <c r="F6" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -10131,33 +10131,33 @@
       </c>
       <c r="H6" s="39">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41719</v>
+        <v>41691</v>
       </c>
       <c r="I6" s="34">
-        <v>0.99952822267889552</v>
-      </c>
-      <c r="K6" s="98" t="s">
+        <v>0.99963725940626302</v>
+      </c>
+      <c r="K6" s="97" t="s">
         <v>119</v>
       </c>
-      <c r="L6" s="93">
-        <v>3.222E-3</v>
+      <c r="L6" s="212">
+        <v>4.2139999999999999E-3</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_RateHelpersSelected#0000</v>
+        <v>EUR_YC6MRH_RateHelpersSelected#0003</v>
       </c>
       <c r="B7" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
         <v/>
       </c>
       <c r="D7" s="42" t="str">
-        <v>EUR_YC6MRH_3MD</v>
+        <v>EUR_YC6MRH_2MD</v>
       </c>
       <c r="E7" s="41">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>3.026E-3</v>
+        <v>4.1989999999999996E-3</v>
       </c>
       <c r="F7" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -10169,25 +10169,25 @@
       </c>
       <c r="H7" s="39">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41751</v>
+        <v>41719</v>
       </c>
       <c r="I7" s="34">
-        <v>0.99923567907776423</v>
-      </c>
-      <c r="K7" s="98" t="s">
+        <v>0.9993123038070626</v>
+      </c>
+      <c r="K7" s="97" t="s">
         <v>120</v>
       </c>
-      <c r="L7" s="93">
-        <v>3.287E-3</v>
+      <c r="L7" s="212">
+        <v>4.1989999999999996E-3</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D8" s="42" t="str">
-        <v>EUR_YC6MRH_4MD</v>
+        <v>EUR_YC6MRH_3MD</v>
       </c>
       <c r="E8" s="41">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>3.1419999999999998E-3</v>
+        <v>4.1840000000000002E-3</v>
       </c>
       <c r="F8" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -10199,25 +10199,25 @@
       </c>
       <c r="H8" s="39">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>41780</v>
+        <v>41751</v>
       </c>
       <c r="I8" s="34">
-        <v>0.9989537624261523</v>
-      </c>
-      <c r="K8" s="98" t="s">
+        <v>0.99894349516077352</v>
+      </c>
+      <c r="K8" s="97" t="s">
         <v>121</v>
       </c>
-      <c r="L8" s="93">
-        <v>3.209E-3</v>
+      <c r="L8" s="212">
+        <v>4.1840000000000002E-3</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D9" s="42" t="str">
-        <v>EUR_YC6MRH_5MD</v>
+        <v>EUR_YC6MRH_4MD</v>
       </c>
       <c r="E9" s="41">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>3.264E-3</v>
+        <v>4.1390000000000003E-3</v>
       </c>
       <c r="F9" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -10229,25 +10229,25 @@
       </c>
       <c r="H9" s="39">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>41813</v>
+        <v>41780</v>
       </c>
       <c r="I9" s="34">
-        <v>0.99861472165811604</v>
-      </c>
-      <c r="K9" s="98" t="s">
+        <v>0.99862223419089469</v>
+      </c>
+      <c r="K9" s="97" t="s">
         <v>122</v>
       </c>
-      <c r="L9" s="93">
-        <v>3.1809999999999998E-3</v>
+      <c r="L9" s="212">
+        <v>4.1390000000000003E-3</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D10" s="42" t="str">
-        <v>EUR_YC6MRH_TOM6F1</v>
+        <v>EUR_YC6MRH_5MD</v>
       </c>
       <c r="E10" s="41">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>3.4399999999999999E-3</v>
+        <v>4.1050000000000001E-3</v>
       </c>
       <c r="F10" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -10255,20 +10255,20 @@
       </c>
       <c r="G10" s="40">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41661</v>
+        <v>41660</v>
       </c>
       <c r="H10" s="39">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>41842</v>
+        <v>41813</v>
       </c>
       <c r="I10" s="34">
-        <v>0.99826602524672858</v>
-      </c>
-      <c r="K10" s="98" t="s">
+        <v>0.99825841341549493</v>
+      </c>
+      <c r="K10" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="L10" s="93">
-        <v>3.1649999999999998E-3</v>
+      <c r="L10" s="212">
+        <v>4.1050000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -10277,7 +10277,7 @@
       </c>
       <c r="E11" s="41">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>3.7199999999999998E-3</v>
+        <v>4.0200000000000001E-3</v>
       </c>
       <c r="F11" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -10292,13 +10292,13 @@
         <v>41872</v>
       </c>
       <c r="I11" s="34">
-        <v>0.99789882669097474</v>
-      </c>
-      <c r="K11" s="98" t="s">
+        <v>0.99762090129459646</v>
+      </c>
+      <c r="K11" s="97" t="s">
         <v>124</v>
       </c>
-      <c r="L11" s="93">
-        <v>3.16E-3</v>
+      <c r="L11" s="212">
+        <v>4.0200000000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -10307,7 +10307,7 @@
       </c>
       <c r="E12" s="41">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>3.96E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F12" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -10322,13 +10322,13 @@
         <v>41904</v>
       </c>
       <c r="I12" s="34">
-        <v>0.99749831361069807</v>
-      </c>
-      <c r="K12" s="98" t="s">
+        <v>0.99726237559057163</v>
+      </c>
+      <c r="K12" s="97" t="s">
         <v>125</v>
       </c>
-      <c r="L12" s="93">
-        <v>3.1800000000000001E-3</v>
+      <c r="L12" s="212">
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -10337,7 +10337,7 @@
       </c>
       <c r="E13" s="41">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>4.2800000000000008E-3</v>
+        <v>4.0100000000000005E-3</v>
       </c>
       <c r="F13" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -10352,13 +10352,13 @@
         <v>41934</v>
       </c>
       <c r="I13" s="34">
-        <v>0.99706639495780203</v>
-      </c>
-      <c r="K13" s="98" t="s">
+        <v>0.99691137440000699</v>
+      </c>
+      <c r="K13" s="97" t="s">
         <v>126</v>
       </c>
-      <c r="L13" s="93">
-        <v>3.2299999999999998E-3</v>
+      <c r="L13" s="212">
+        <v>4.0099999999999997E-3</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -10367,7 +10367,7 @@
       </c>
       <c r="E14" s="41">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>4.5099999999999993E-3</v>
+        <v>4.0300000000000006E-3</v>
       </c>
       <c r="F14" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -10382,13 +10382,13 @@
         <v>41964</v>
       </c>
       <c r="I14" s="34">
-        <v>0.99665635877957026</v>
-      </c>
-      <c r="K14" s="98" t="s">
+        <v>0.99656952243446073</v>
+      </c>
+      <c r="K14" s="97" t="s">
         <v>127</v>
       </c>
-      <c r="L14" s="93">
-        <v>3.32E-3</v>
+      <c r="L14" s="212">
+        <v>4.0299999999999997E-3</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -10397,7 +10397,7 @@
       </c>
       <c r="E15" s="41">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>4.7699999999999999E-3</v>
+        <v>4.0500000000000006E-3</v>
       </c>
       <c r="F15" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -10412,13 +10412,13 @@
         <v>41996</v>
       </c>
       <c r="I15" s="34">
-        <v>0.99619918767779492</v>
-      </c>
-      <c r="K15" s="98" t="s">
+        <v>0.99620747128397036</v>
+      </c>
+      <c r="K15" s="97" t="s">
         <v>128</v>
       </c>
-      <c r="L15" s="93">
-        <v>3.4499999999999999E-3</v>
+      <c r="L15" s="212">
+        <v>4.0499999999999998E-3</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -10427,7 +10427,7 @@
       </c>
       <c r="E16" s="41">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>5.0000000000000001E-3</v>
+        <v>4.1399999999999996E-3</v>
       </c>
       <c r="F16" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -10442,13 +10442,13 @@
         <v>42025</v>
       </c>
       <c r="I16" s="34">
-        <v>0.99573375280675569</v>
-      </c>
-      <c r="K16" s="98" t="s">
+        <v>0.99584865747760454</v>
+      </c>
+      <c r="K16" s="97" t="s">
         <v>129</v>
       </c>
-      <c r="L16" s="93">
-        <v>3.5699999999999998E-3</v>
+      <c r="L16" s="212">
+        <v>4.1399999999999996E-3</v>
       </c>
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.2">
@@ -10457,7 +10457,7 @@
       </c>
       <c r="E17" s="41">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>5.2599999999999999E-3</v>
+        <v>4.2100000000000002E-3</v>
       </c>
       <c r="F17" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -10472,13 +10472,13 @@
         <v>42058</v>
       </c>
       <c r="I17" s="34">
-        <v>0.99519422053098083</v>
-      </c>
-      <c r="K17" s="98" t="s">
+        <v>0.99545561941310312</v>
+      </c>
+      <c r="K17" s="97" t="s">
         <v>207</v>
       </c>
-      <c r="L17" s="93">
-        <v>3.7200000000000002E-3</v>
+      <c r="L17" s="212">
+        <v>4.2100000000000002E-3</v>
       </c>
     </row>
     <row r="18" spans="4:12" x14ac:dyDescent="0.2">
@@ -10487,7 +10487,7 @@
       </c>
       <c r="E18" s="41">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>5.5000000000000005E-3</v>
+        <v>4.3E-3</v>
       </c>
       <c r="F18" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -10502,13 +10502,13 @@
         <v>42086</v>
       </c>
       <c r="I18" s="34">
-        <v>0.99473240489597425</v>
-      </c>
-      <c r="K18" s="98" t="s">
+        <v>0.99509914062542315</v>
+      </c>
+      <c r="K18" s="97" t="s">
         <v>208</v>
       </c>
-      <c r="L18" s="93">
-        <v>3.8700000000000002E-3</v>
+      <c r="L18" s="212">
+        <v>4.3E-3</v>
       </c>
     </row>
     <row r="19" spans="4:12" x14ac:dyDescent="0.2">
@@ -10517,7 +10517,7 @@
       </c>
       <c r="E19" s="41">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>5.7499999999999999E-3</v>
+        <v>4.4299999999999999E-3</v>
       </c>
       <c r="F19" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -10532,13 +10532,13 @@
         <v>42115</v>
       </c>
       <c r="I19" s="34">
-        <v>0.99419061739438153</v>
-      </c>
-      <c r="K19" s="98" t="s">
+        <v>0.99469530526874739</v>
+      </c>
+      <c r="K19" s="97" t="s">
         <v>209</v>
       </c>
-      <c r="L19" s="93">
-        <v>4.0200000000000001E-3</v>
+      <c r="L19" s="212">
+        <v>4.4299999999999999E-3</v>
       </c>
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.2">
@@ -10547,7 +10547,7 @@
       </c>
       <c r="E20" s="41">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>5.9699999999999996E-3</v>
+        <v>4.5700000000000003E-3</v>
       </c>
       <c r="F20" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -10562,13 +10562,13 @@
         <v>42145</v>
       </c>
       <c r="I20" s="34">
-        <v>0.99367376417026743</v>
-      </c>
-      <c r="K20" s="98" t="s">
+        <v>0.99428495940703676</v>
+      </c>
+      <c r="K20" s="97" t="s">
         <v>210</v>
       </c>
-      <c r="L20" s="93">
-        <v>4.1999999999999997E-3</v>
+      <c r="L20" s="212">
+        <v>4.5700000000000003E-3</v>
       </c>
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.2">
@@ -10577,7 +10577,7 @@
       </c>
       <c r="E21" s="41">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>6.2300000000000003E-3</v>
+        <v>4.6999999999999993E-3</v>
       </c>
       <c r="F21" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -10592,13 +10592,13 @@
         <v>42177</v>
       </c>
       <c r="I21" s="34">
-        <v>0.99308658143669726</v>
-      </c>
-      <c r="K21" s="98" t="s">
+        <v>0.99385787109866508</v>
+      </c>
+      <c r="K21" s="97" t="s">
         <v>211</v>
       </c>
-      <c r="L21" s="93">
-        <v>4.3899999999999998E-3</v>
+      <c r="L21" s="212">
+        <v>4.7000000000000002E-3</v>
       </c>
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.2">
@@ -10607,7 +10607,7 @@
       </c>
       <c r="E22" s="41">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>6.4700000000000001E-3</v>
+        <v>4.8799999999999998E-3</v>
       </c>
       <c r="F22" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -10622,13 +10622,13 @@
         <v>42206</v>
       </c>
       <c r="I22" s="34">
-        <v>0.99250516108732645</v>
-      </c>
-      <c r="K22" s="98" t="s">
+        <v>0.99341126774268307</v>
+      </c>
+      <c r="K22" s="97" t="s">
         <v>130</v>
       </c>
-      <c r="L22" s="93">
-        <v>4.5599999999999998E-3</v>
+      <c r="L22" s="212">
+        <v>4.8799999999999998E-3</v>
       </c>
     </row>
     <row r="23" spans="4:12" x14ac:dyDescent="0.2">
@@ -10637,7 +10637,7 @@
       </c>
       <c r="E23" s="41">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>6.6700000000000006E-3</v>
+        <v>5.0800000000000003E-3</v>
       </c>
       <c r="F23" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -10652,13 +10652,13 @@
         <v>42240</v>
       </c>
       <c r="I23" s="34">
-        <v>0.99184964841377632</v>
-      </c>
-      <c r="K23" s="98" t="s">
+        <v>0.99290561714258896</v>
+      </c>
+      <c r="K23" s="97" t="s">
         <v>212</v>
       </c>
-      <c r="L23" s="93">
-        <v>4.7699999999999999E-3</v>
+      <c r="L23" s="212">
+        <v>5.0800000000000003E-3</v>
       </c>
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.2">
@@ -10667,7 +10667,7 @@
       </c>
       <c r="E24" s="41">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>6.8999999999999999E-3</v>
+        <v>5.2500000000000003E-3</v>
       </c>
       <c r="F24" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -10682,13 +10682,13 @@
         <v>42270</v>
       </c>
       <c r="I24" s="34">
-        <v>0.99123664366598252</v>
-      </c>
-      <c r="K24" s="98" t="s">
+        <v>0.99243610374703572</v>
+      </c>
+      <c r="K24" s="97" t="s">
         <v>213</v>
       </c>
-      <c r="L24" s="93">
-        <v>4.9699999999999996E-3</v>
+      <c r="L24" s="212">
+        <v>5.2500000000000003E-3</v>
       </c>
     </row>
     <row r="25" spans="4:12" x14ac:dyDescent="0.2">
@@ -10697,7 +10697,7 @@
       </c>
       <c r="E25" s="41">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>7.1300000000000001E-3</v>
+        <v>5.4900000000000001E-3</v>
       </c>
       <c r="F25" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -10712,13 +10712,13 @@
         <v>42298</v>
       </c>
       <c r="I25" s="34">
-        <v>0.99060026926844047</v>
-      </c>
-      <c r="K25" s="98" t="s">
+        <v>0.9919270847569619</v>
+      </c>
+      <c r="K25" s="97" t="s">
         <v>214</v>
       </c>
-      <c r="L25" s="93">
-        <v>5.1900000000000002E-3</v>
+      <c r="L25" s="212">
+        <v>5.4900000000000001E-3</v>
       </c>
     </row>
     <row r="26" spans="4:12" x14ac:dyDescent="0.2">
@@ -10727,7 +10727,7 @@
       </c>
       <c r="E26" s="41">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>7.3499999999999998E-3</v>
+        <v>5.7299999999999999E-3</v>
       </c>
       <c r="F26" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -10742,13 +10742,13 @@
         <v>42331</v>
       </c>
       <c r="I26" s="34">
-        <v>0.9899145636149449</v>
-      </c>
-      <c r="K26" s="98" t="s">
+        <v>0.99135006753211075</v>
+      </c>
+      <c r="K26" s="97" t="s">
         <v>215</v>
       </c>
-      <c r="L26" s="93">
-        <v>5.4099999999999999E-3</v>
+      <c r="L26" s="212">
+        <v>5.7299999999999999E-3</v>
       </c>
     </row>
     <row r="27" spans="4:12" x14ac:dyDescent="0.2">
@@ -10757,7 +10757,7 @@
       </c>
       <c r="E27" s="41">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>7.6100000000000004E-3</v>
+        <v>5.9800000000000001E-3</v>
       </c>
       <c r="F27" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -10772,13 +10772,13 @@
         <v>42360</v>
       </c>
       <c r="I27" s="34">
-        <v>0.98925971267651747</v>
-      </c>
-      <c r="K27" s="98" t="s">
+        <v>0.9908458648106182</v>
+      </c>
+      <c r="K27" s="97" t="s">
         <v>216</v>
       </c>
-      <c r="L27" s="93">
-        <v>5.7000000000000002E-3</v>
+      <c r="L27" s="212">
+        <v>5.9800000000000001E-3</v>
       </c>
     </row>
     <row r="28" spans="4:12" x14ac:dyDescent="0.2">
@@ -10787,7 +10787,7 @@
       </c>
       <c r="E28" s="41">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>7.8399999999999997E-3</v>
+        <v>6.2900000000000005E-3</v>
       </c>
       <c r="F28" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -10802,13 +10802,13 @@
         <v>42390</v>
       </c>
       <c r="I28" s="34">
-        <v>0.98854395561894404</v>
-      </c>
-      <c r="K28" s="98" t="s">
+        <v>0.990227795405764</v>
+      </c>
+      <c r="K28" s="97" t="s">
         <v>131</v>
       </c>
-      <c r="L28" s="93">
-        <v>5.9500000000000004E-3</v>
+      <c r="L28" s="212">
+        <v>6.2899999999999996E-3</v>
       </c>
     </row>
     <row r="29" spans="4:12" x14ac:dyDescent="0.2">
@@ -10817,7 +10817,7 @@
       </c>
       <c r="E29" s="41">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>7.45E-3</v>
+        <v>6.6E-3</v>
       </c>
       <c r="F29" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -10832,13 +10832,13 @@
         <v>42758</v>
       </c>
       <c r="I29" s="34">
-        <v>0.97789136655446796</v>
-      </c>
-      <c r="K29" s="98" t="s">
+        <v>0.98038540427791165</v>
+      </c>
+      <c r="K29" s="97" t="s">
         <v>132</v>
       </c>
-      <c r="L29" s="93">
-        <v>6.1000000000000004E-3</v>
+      <c r="L29" s="212">
+        <v>6.6E-3</v>
       </c>
     </row>
     <row r="30" spans="4:12" x14ac:dyDescent="0.2">
@@ -10847,7 +10847,7 @@
       </c>
       <c r="E30" s="41">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>9.6100000000000005E-3</v>
+        <v>8.8699999999999994E-3</v>
       </c>
       <c r="F30" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
@@ -10862,13 +10862,13 @@
         <v>43122</v>
       </c>
       <c r="I30" s="34">
-        <v>0.96225971775709729</v>
-      </c>
-      <c r="K30" s="98" t="s">
+        <v>0.96510249206137433</v>
+      </c>
+      <c r="K30" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="L30" s="93">
-        <v>8.3499999999999998E-3</v>
+      <c r="L30" s="212">
+        <v>8.8699999999999994E-3</v>
       </c>
     </row>
     <row r="31" spans="4:12" x14ac:dyDescent="0.2">
@@ -10877,7 +10877,7 @@
       </c>
       <c r="E31" s="41">
         <f>_xll.qlRateHelperRate($D31)</f>
-        <v>1.1850000000000001E-2</v>
+        <v>1.1200000000000002E-2</v>
       </c>
       <c r="F31" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
@@ -10892,13 +10892,13 @@
         <v>43486</v>
       </c>
       <c r="I31" s="34">
-        <v>0.94232725563334663</v>
-      </c>
-      <c r="K31" s="98" t="s">
+        <v>0.94537669566900995</v>
+      </c>
+      <c r="K31" s="97" t="s">
         <v>134</v>
       </c>
-      <c r="L31" s="93">
-        <v>1.076E-2</v>
+      <c r="L31" s="212">
+        <v>1.12E-2</v>
       </c>
     </row>
     <row r="32" spans="4:12" x14ac:dyDescent="0.2">
@@ -10907,7 +10907,7 @@
       </c>
       <c r="E32" s="41">
         <f>_xll.qlRateHelperRate($D32)</f>
-        <v>1.38E-2</v>
+        <v>1.3389999999999999E-2</v>
       </c>
       <c r="F32" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D32)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D32)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D32)),_xll.qlSwapRateHelperSpread($D32))</f>
@@ -10922,13 +10922,13 @@
         <v>43851</v>
       </c>
       <c r="I32" s="34">
-        <v>0.92013888738282457</v>
-      </c>
-      <c r="K32" s="98" t="s">
+        <v>0.9223456801823614</v>
+      </c>
+      <c r="K32" s="97" t="s">
         <v>135</v>
       </c>
-      <c r="L32" s="93">
-        <v>1.3089999999999999E-2</v>
+      <c r="L32" s="212">
+        <v>1.3390000000000001E-2</v>
       </c>
     </row>
     <row r="33" spans="4:12" x14ac:dyDescent="0.2">
@@ -10937,7 +10937,7 @@
       </c>
       <c r="E33" s="41">
         <f>_xll.qlRateHelperRate($D33)</f>
-        <v>1.5529999999999999E-2</v>
+        <v>1.5389999999999999E-2</v>
       </c>
       <c r="F33" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D33)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D33)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D33)),_xll.qlSwapRateHelperSpread($D33))</f>
@@ -10952,13 +10952,13 @@
         <v>44217</v>
       </c>
       <c r="I33" s="34">
-        <v>0.8962091844848965</v>
-      </c>
-      <c r="K33" s="98" t="s">
+        <v>0.89694287646551596</v>
+      </c>
+      <c r="K33" s="97" t="s">
         <v>136</v>
       </c>
-      <c r="L33" s="93">
-        <v>1.524E-2</v>
+      <c r="L33" s="212">
+        <v>1.5389999999999999E-2</v>
       </c>
     </row>
     <row r="34" spans="4:12" x14ac:dyDescent="0.2">
@@ -10967,7 +10967,7 @@
       </c>
       <c r="E34" s="41">
         <f>_xll.qlRateHelperRate($D34)</f>
-        <v>1.7059999999999999E-2</v>
+        <v>1.719E-2</v>
       </c>
       <c r="F34" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D34)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D34)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D34)),_xll.qlSwapRateHelperSpread($D34))</f>
@@ -10982,13 +10982,13 @@
         <v>44582</v>
       </c>
       <c r="I34" s="34">
-        <v>0.8711224682899642</v>
-      </c>
-      <c r="K34" s="98" t="s">
+        <v>0.86993522520339461</v>
+      </c>
+      <c r="K34" s="97" t="s">
         <v>137</v>
       </c>
-      <c r="L34" s="93">
-        <v>1.7160000000000002E-2</v>
+      <c r="L34" s="212">
+        <v>1.719E-2</v>
       </c>
     </row>
     <row r="35" spans="4:12" x14ac:dyDescent="0.2">
@@ -10997,7 +10997,7 @@
       </c>
       <c r="E35" s="41">
         <f>_xll.qlRateHelperRate($D35)</f>
-        <v>1.8460000000000001E-2</v>
+        <v>1.8790000000000001E-2</v>
       </c>
       <c r="F35" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D35)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D35)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D35)),_xll.qlSwapRateHelperSpread($D35))</f>
@@ -11012,13 +11012,13 @@
         <v>44949</v>
       </c>
       <c r="I35" s="34">
-        <v>0.84486352583624047</v>
-      </c>
-      <c r="K35" s="98" t="s">
+        <v>0.84192154487940507</v>
+      </c>
+      <c r="K35" s="97" t="s">
         <v>138</v>
       </c>
-      <c r="L35" s="93">
-        <v>1.8859999999999998E-2</v>
+      <c r="L35" s="212">
+        <v>1.8790000000000001E-2</v>
       </c>
     </row>
     <row r="36" spans="4:12" x14ac:dyDescent="0.2">
@@ -11027,7 +11027,7 @@
       </c>
       <c r="E36" s="41">
         <f>_xll.qlRateHelperRate($D36)</f>
-        <v>1.9740000000000001E-2</v>
+        <v>2.0199999999999999E-2</v>
       </c>
       <c r="F36" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D36)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D36)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D36)),_xll.qlSwapRateHelperSpread($D36))</f>
@@ -11042,13 +11042,13 @@
         <v>45313</v>
       </c>
       <c r="I36" s="34">
-        <v>0.81800395632780687</v>
-      </c>
-      <c r="K36" s="98" t="s">
+        <v>0.81366889524954911</v>
+      </c>
+      <c r="K36" s="97" t="s">
         <v>139</v>
       </c>
-      <c r="L36" s="93">
-        <v>2.036E-2</v>
+      <c r="L36" s="212">
+        <v>2.0199999999999999E-2</v>
       </c>
     </row>
     <row r="37" spans="4:12" x14ac:dyDescent="0.2">
@@ -11057,7 +11057,7 @@
       </c>
       <c r="E37" s="41">
         <f>_xll.qlRateHelperRate($D37)</f>
-        <v>2.085E-2</v>
+        <v>2.1419999999999998E-2</v>
       </c>
       <c r="F37" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D37)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D37)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D37)),_xll.qlSwapRateHelperSpread($D37))</f>
@@ -11072,13 +11072,13 @@
         <v>45678</v>
       </c>
       <c r="I37" s="34">
-        <v>0.79131700708842967</v>
-      </c>
-      <c r="K37" s="98" t="s">
+        <v>0.78563370569704971</v>
+      </c>
+      <c r="K37" s="97" t="s">
         <v>140</v>
       </c>
-      <c r="L37" s="93">
-        <v>2.163E-2</v>
+      <c r="L37" s="212">
+        <v>2.1420000000000002E-2</v>
       </c>
     </row>
     <row r="38" spans="4:12" x14ac:dyDescent="0.2">
@@ -11087,7 +11087,7 @@
       </c>
       <c r="E38" s="41">
         <f>_xll.qlRateHelperRate($D38)</f>
-        <v>2.18E-2</v>
+        <v>2.247E-2</v>
       </c>
       <c r="F38" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D38)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D38)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D38)),_xll.qlSwapRateHelperSpread($D38))</f>
@@ -11102,13 +11102,13 @@
         <v>46043</v>
       </c>
       <c r="I38" s="34">
-        <v>0.76512886013105019</v>
-      </c>
-      <c r="K38" s="97" t="s">
+        <v>0.75809124376806403</v>
+      </c>
+      <c r="K38" s="96" t="s">
         <v>141</v>
       </c>
-      <c r="L38" s="93">
-        <v>2.2700000000000001E-2</v>
+      <c r="L38" s="212">
+        <v>2.247E-2</v>
       </c>
     </row>
     <row r="39" spans="4:12" x14ac:dyDescent="0.2">
@@ -11117,7 +11117,7 @@
       </c>
       <c r="E39" s="41">
         <f>_xll.qlRateHelperRate($D39)</f>
-        <v>2.2599999999999999E-2</v>
+        <v>2.3359999999999999E-2</v>
       </c>
       <c r="F39" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D39)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D39)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D39)),_xll.qlSwapRateHelperSpread($D39))</f>
@@ -11132,13 +11132,13 @@
         <v>46408</v>
       </c>
       <c r="I39" s="34">
-        <v>0.7397904710854426</v>
-      </c>
-      <c r="K39" s="97" t="s">
+        <v>0.73142357825260551</v>
+      </c>
+      <c r="K39" s="96" t="s">
         <v>142</v>
       </c>
-      <c r="L39" s="93">
-        <v>2.3619999999999999E-2</v>
+      <c r="L39" s="212">
+        <v>2.3359999999999999E-2</v>
       </c>
     </row>
     <row r="40" spans="4:12" x14ac:dyDescent="0.2">
@@ -11147,7 +11147,7 @@
       </c>
       <c r="E40" s="41">
         <f>_xll.qlRateHelperRate($D40)</f>
-        <v>2.3250000000000003E-2</v>
+        <v>2.41E-2</v>
       </c>
       <c r="F40" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D40)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D40)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D40)),_xll.qlSwapRateHelperSpread($D40))</f>
@@ -11162,13 +11162,13 @@
         <v>46773</v>
       </c>
       <c r="I40" s="34">
-        <v>0.71566730389005551</v>
-      </c>
-      <c r="K40" s="97" t="s">
+        <v>0.70590332222411623</v>
+      </c>
+      <c r="K40" s="96" t="s">
         <v>143</v>
       </c>
-      <c r="L40" s="93">
-        <v>2.4379999999999999E-2</v>
+      <c r="L40" s="212">
+        <v>2.41E-2</v>
       </c>
     </row>
     <row r="41" spans="4:12" x14ac:dyDescent="0.2">
@@ -11177,7 +11177,7 @@
       </c>
       <c r="E41" s="41">
         <f>_xll.qlRateHelperRate($D41)</f>
-        <v>2.376E-2</v>
+        <v>2.4700000000000003E-2</v>
       </c>
       <c r="F41" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D41)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D41)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D41)),_xll.qlSwapRateHelperSpread($D41))</f>
@@ -11192,13 +11192,13 @@
         <v>47140</v>
       </c>
       <c r="I41" s="34">
-        <v>0.69292079769459669</v>
-      </c>
-      <c r="K41" s="97" t="s">
+        <v>0.68169673198362724</v>
+      </c>
+      <c r="K41" s="96" t="s">
         <v>144</v>
       </c>
-      <c r="L41" s="93">
-        <v>2.4989999999999998E-2</v>
+      <c r="L41" s="212">
+        <v>2.47E-2</v>
       </c>
     </row>
     <row r="42" spans="4:12" x14ac:dyDescent="0.2">
@@ -11207,7 +11207,7 @@
       </c>
       <c r="E42" s="41">
         <f>_xll.qlRateHelperRate($D42)</f>
-        <v>2.4150000000000001E-2</v>
+        <v>2.5179999999999998E-2</v>
       </c>
       <c r="F42" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D42)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D42)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D42)),_xll.qlSwapRateHelperSpread($D42))</f>
@@ -11222,13 +11222,13 @@
         <v>47504</v>
       </c>
       <c r="I42" s="34">
-        <v>0.67170377031734541</v>
-      </c>
-      <c r="K42" s="97" t="s">
+        <v>0.65896444754411376</v>
+      </c>
+      <c r="K42" s="96" t="s">
         <v>145</v>
       </c>
-      <c r="L42" s="93">
-        <v>2.5479999999999999E-2</v>
+      <c r="L42" s="212">
+        <v>2.5180000000000001E-2</v>
       </c>
     </row>
     <row r="43" spans="4:12" x14ac:dyDescent="0.2">
@@ -11237,7 +11237,7 @@
       </c>
       <c r="E43" s="41">
         <f>_xll.qlRateHelperRate($D43)</f>
-        <v>2.444E-2</v>
+        <v>2.5550000000000003E-2</v>
       </c>
       <c r="F43" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D43)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D43)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D43)),_xll.qlSwapRateHelperSpread($D43))</f>
@@ -11252,13 +11252,13 @@
         <v>47869</v>
       </c>
       <c r="I43" s="34">
-        <v>0.65183075314492533</v>
-      </c>
-      <c r="K43" s="97" t="s">
+        <v>0.63766096468556832</v>
+      </c>
+      <c r="K43" s="96" t="s">
         <v>146</v>
       </c>
-      <c r="L43" s="93">
-        <v>2.5850000000000001E-2</v>
+      <c r="L43" s="212">
+        <v>2.555E-2</v>
       </c>
     </row>
     <row r="44" spans="4:12" x14ac:dyDescent="0.2">
@@ -11267,7 +11267,7 @@
       </c>
       <c r="E44" s="41">
         <f>_xll.qlRateHelperRate($D44)</f>
-        <v>2.4639999999999999E-2</v>
+        <v>2.5830000000000002E-2</v>
       </c>
       <c r="F44" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D44)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D44)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D44)),_xll.qlSwapRateHelperSpread($D44))</f>
@@ -11282,13 +11282,13 @@
         <v>48234</v>
       </c>
       <c r="I44" s="34">
-        <v>0.6333752124050821</v>
-      </c>
-      <c r="K44" s="97" t="s">
+        <v>0.61773405529414882</v>
+      </c>
+      <c r="K44" s="96" t="s">
         <v>147</v>
       </c>
-      <c r="L44" s="93">
-        <v>2.614E-2</v>
+      <c r="L44" s="212">
+        <v>2.5829999999999999E-2</v>
       </c>
     </row>
     <row r="45" spans="4:12" x14ac:dyDescent="0.2">
@@ -11297,7 +11297,7 @@
       </c>
       <c r="E45" s="41">
         <f>_xll.qlRateHelperRate($D45)</f>
-        <v>2.4780000000000003E-2</v>
+        <v>2.605E-2</v>
       </c>
       <c r="F45" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D45)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D45)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D45)),_xll.qlSwapRateHelperSpread($D45))</f>
@@ -11312,13 +11312,13 @@
         <v>48600</v>
       </c>
       <c r="I45" s="34">
-        <v>0.6160269687357468</v>
-      </c>
-      <c r="K45" s="97" t="s">
+        <v>0.59887745146455451</v>
+      </c>
+      <c r="K45" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="L45" s="93">
-        <v>2.6360000000000001E-2</v>
+      <c r="L45" s="212">
+        <v>2.605E-2</v>
       </c>
     </row>
     <row r="46" spans="4:12" x14ac:dyDescent="0.2">
@@ -11327,7 +11327,7 @@
       </c>
       <c r="E46" s="41">
         <f>_xll.qlRateHelperRate($D46)</f>
-        <v>2.487E-2</v>
+        <v>2.6210000000000001E-2</v>
       </c>
       <c r="F46" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D46)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D46)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D46)),_xll.qlSwapRateHelperSpread($D46))</f>
@@ -11342,13 +11342,13 @@
         <v>48967</v>
       </c>
       <c r="I46" s="34">
-        <v>0.59963658198007641</v>
-      </c>
-      <c r="K46" s="97" t="s">
+        <v>0.58109853588409155</v>
+      </c>
+      <c r="K46" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="L46" s="93">
-        <v>2.6530000000000001E-2</v>
+      <c r="L46" s="212">
+        <v>2.6210000000000001E-2</v>
       </c>
     </row>
     <row r="47" spans="4:12" x14ac:dyDescent="0.2">
@@ -11357,7 +11357,7 @@
       </c>
       <c r="E47" s="41">
         <f>_xll.qlRateHelperRate($D47)</f>
-        <v>2.4929999999999997E-2</v>
+        <v>2.6349999999999998E-2</v>
       </c>
       <c r="F47" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D47)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D47)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D47)),_xll.qlSwapRateHelperSpread($D47))</f>
@@ -11372,13 +11372,13 @@
         <v>49331</v>
       </c>
       <c r="I47" s="34">
-        <v>0.58414832173402509</v>
-      </c>
-      <c r="K47" s="97" t="s">
+        <v>0.56403982045336454</v>
+      </c>
+      <c r="K47" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="L47" s="93">
-        <v>2.6669999999999999E-2</v>
+      <c r="L47" s="212">
+        <v>2.6349999999999998E-2</v>
       </c>
     </row>
     <row r="48" spans="4:12" x14ac:dyDescent="0.2">
@@ -11387,7 +11387,7 @@
       </c>
       <c r="E48" s="41">
         <f>_xll.qlRateHelperRate($D48)</f>
-        <v>2.4980000000000002E-2</v>
+        <v>2.6440000000000002E-2</v>
       </c>
       <c r="F48" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D48)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D48)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D48)),_xll.qlSwapRateHelperSpread($D48))</f>
@@ -11402,13 +11402,13 @@
         <v>49695</v>
       </c>
       <c r="I48" s="34">
-        <v>0.56913673909264828</v>
-      </c>
-      <c r="K48" s="97" t="s">
+        <v>0.54809928222698401</v>
+      </c>
+      <c r="K48" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="L48" s="93">
-        <v>2.6769999999999999E-2</v>
+      <c r="L48" s="212">
+        <v>2.6440000000000002E-2</v>
       </c>
     </row>
     <row r="49" spans="4:12" x14ac:dyDescent="0.2">
@@ -11417,7 +11417,7 @@
       </c>
       <c r="E49" s="41">
         <f>_xll.qlRateHelperRate($D49)</f>
-        <v>2.5009999999999998E-2</v>
+        <v>2.6520000000000002E-2</v>
       </c>
       <c r="F49" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D49)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D49)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D49)),_xll.qlSwapRateHelperSpread($D49))</f>
@@ -11432,13 +11432,13 @@
         <v>50061</v>
       </c>
       <c r="I49" s="34">
-        <v>0.55474511392050874</v>
-      </c>
-      <c r="K49" s="97" t="s">
+        <v>0.53260721448795245</v>
+      </c>
+      <c r="K49" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="L49" s="93">
-        <v>2.6859999999999998E-2</v>
+      <c r="L49" s="212">
+        <v>2.6519999999999998E-2</v>
       </c>
     </row>
     <row r="50" spans="4:12" x14ac:dyDescent="0.2">
@@ -11447,7 +11447,7 @@
       </c>
       <c r="E50" s="41">
         <f>_xll.qlRateHelperRate($D50)</f>
-        <v>2.5009999999999998E-2</v>
+        <v>2.657E-2</v>
       </c>
       <c r="F50" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D50)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D50)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D50)),_xll.qlSwapRateHelperSpread($D50))</f>
@@ -11462,13 +11462,13 @@
         <v>50426</v>
       </c>
       <c r="I50" s="34">
-        <v>0.54120946519595881</v>
-      </c>
-      <c r="K50" s="97" t="s">
+        <v>0.51796371058035118</v>
+      </c>
+      <c r="K50" s="96" t="s">
         <v>153</v>
       </c>
-      <c r="L50" s="93">
-        <v>2.6919999999999999E-2</v>
+      <c r="L50" s="212">
+        <v>2.657E-2</v>
       </c>
     </row>
     <row r="51" spans="4:12" x14ac:dyDescent="0.2">
@@ -11477,7 +11477,7 @@
       </c>
       <c r="E51" s="41">
         <f>_xll.qlRateHelperRate($D51)</f>
-        <v>2.5009999999999998E-2</v>
+        <v>2.6600000000000002E-2</v>
       </c>
       <c r="F51" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D51)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D51)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D51)),_xll.qlSwapRateHelperSpread($D51))</f>
@@ -11492,13 +11492,13 @@
         <v>50791</v>
       </c>
       <c r="I51" s="34">
-        <v>0.52800408307817326</v>
-      </c>
-      <c r="K51" s="97" t="s">
+        <v>0.5040127087459042</v>
+      </c>
+      <c r="K51" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="L51" s="93">
-        <v>2.6960000000000001E-2</v>
+      <c r="L51" s="212">
+        <v>2.6599999999999999E-2</v>
       </c>
     </row>
     <row r="52" spans="4:12" x14ac:dyDescent="0.2">
@@ -11507,7 +11507,7 @@
       </c>
       <c r="E52" s="41">
         <f>_xll.qlRateHelperRate($D52)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>2.6610000000000002E-2</v>
       </c>
       <c r="F52" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D52)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D52)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D52)),_xll.qlSwapRateHelperSpread($D52))</f>
@@ -11522,13 +11522,13 @@
         <v>51158</v>
       </c>
       <c r="I52" s="34">
-        <v>0.51524023884049552</v>
-      </c>
-      <c r="K52" s="97" t="s">
+        <v>0.49069627813070649</v>
+      </c>
+      <c r="K52" s="96" t="s">
         <v>155</v>
       </c>
-      <c r="L52" s="93">
-        <v>2.6980000000000001E-2</v>
+      <c r="L52" s="212">
+        <v>2.6610000000000002E-2</v>
       </c>
     </row>
     <row r="53" spans="4:12" x14ac:dyDescent="0.2">
@@ -11537,7 +11537,7 @@
       </c>
       <c r="E53" s="41">
         <f>_xll.qlRateHelperRate($D53)</f>
-        <v>2.4980000000000002E-2</v>
+        <v>2.6619999999999998E-2</v>
       </c>
       <c r="F53" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D53)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D53)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D53)),_xll.qlSwapRateHelperSpread($D53))</f>
@@ -11552,13 +11552,13 @@
         <v>51522</v>
       </c>
       <c r="I53" s="34">
-        <v>0.50312969020835974</v>
-      </c>
-      <c r="K53" s="97" t="s">
+        <v>0.47785505052678057</v>
+      </c>
+      <c r="K53" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="L53" s="93">
-        <v>2.699E-2</v>
+      <c r="L53" s="212">
+        <v>2.6620000000000001E-2</v>
       </c>
     </row>
     <row r="54" spans="4:12" x14ac:dyDescent="0.2">
@@ -11567,7 +11567,7 @@
       </c>
       <c r="E54" s="41">
         <f>_xll.qlRateHelperRate($D54)</f>
-        <v>2.495E-2</v>
+        <v>2.6610000000000002E-2</v>
       </c>
       <c r="F54" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D54)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D54)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D54)),_xll.qlSwapRateHelperSpread($D54))</f>
@@ -11582,13 +11582,13 @@
         <v>51887</v>
       </c>
       <c r="I54" s="34">
-        <v>0.49146437578175384</v>
-      </c>
-      <c r="K54" s="97" t="s">
+        <v>0.46565998591593555</v>
+      </c>
+      <c r="K54" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="L54" s="93">
-        <v>2.699E-2</v>
+      <c r="L54" s="212">
+        <v>2.6610000000000002E-2</v>
       </c>
     </row>
     <row r="55" spans="4:12" x14ac:dyDescent="0.2">
@@ -11597,7 +11597,7 @@
       </c>
       <c r="E55" s="41">
         <f>_xll.qlRateHelperRate($D55)</f>
-        <v>2.4939999999999997E-2</v>
+        <v>2.6600000000000002E-2</v>
       </c>
       <c r="F55" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D55)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D55)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D55)),_xll.qlSwapRateHelperSpread($D55))</f>
@@ -11612,13 +11612,13 @@
         <v>52252</v>
       </c>
       <c r="I55" s="34">
-        <v>0.47970437067070049</v>
-      </c>
-      <c r="K55" s="97" t="s">
+        <v>0.45378997674865779</v>
+      </c>
+      <c r="K55" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="L55" s="93">
-        <v>2.6980000000000001E-2</v>
+      <c r="L55" s="212">
+        <v>2.6599999999999999E-2</v>
       </c>
     </row>
     <row r="56" spans="4:12" x14ac:dyDescent="0.2">
@@ -11627,7 +11627,7 @@
       </c>
       <c r="E56" s="41">
         <f>_xll.qlRateHelperRate($D56)</f>
-        <v>2.4929999999999997E-2</v>
+        <v>2.6600000000000002E-2</v>
       </c>
       <c r="F56" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D56)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D56)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D56)),_xll.qlSwapRateHelperSpread($D56))</f>
@@ -11642,13 +11642,13 @@
         <v>52617</v>
       </c>
       <c r="I56" s="34">
-        <v>0.4682397720896852</v>
-      </c>
-      <c r="K56" s="97" t="s">
+        <v>0.44203192747774961</v>
+      </c>
+      <c r="K56" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="L56" s="93">
-        <v>2.6980000000000001E-2</v>
+      <c r="L56" s="212">
+        <v>2.6599999999999999E-2</v>
       </c>
     </row>
     <row r="57" spans="4:12" x14ac:dyDescent="0.2">
@@ -11657,7 +11657,7 @@
       </c>
       <c r="E57" s="41">
         <f>_xll.qlRateHelperRate($D57)</f>
-        <v>2.5070000000000002E-2</v>
+        <v>2.6680000000000002E-2</v>
       </c>
       <c r="F57" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D57)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D57)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D57)),_xll.qlSwapRateHelperSpread($D57))</f>
@@ -11672,13 +11672,13 @@
         <v>54444</v>
       </c>
       <c r="I57" s="34">
-        <v>0.41087748368634613</v>
-      </c>
-      <c r="K57" s="97" t="s">
+        <v>0.38592490754601755</v>
+      </c>
+      <c r="K57" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="L57" s="93">
-        <v>2.7029999999999998E-2</v>
+      <c r="L57" s="212">
+        <v>2.6679999999999999E-2</v>
       </c>
     </row>
     <row r="58" spans="4:12" x14ac:dyDescent="0.2">
@@ -11687,7 +11687,7 @@
       </c>
       <c r="E58" s="41">
         <f>_xll.qlRateHelperRate($D58)</f>
-        <v>2.5350000000000001E-2</v>
+        <v>2.6840000000000003E-2</v>
       </c>
       <c r="F58" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D58)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D58)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D58)),_xll.qlSwapRateHelperSpread($D58))</f>
@@ -11702,13 +11702,13 @@
         <v>56270</v>
       </c>
       <c r="I58" s="34">
-        <v>0.35641414289006063</v>
-      </c>
-      <c r="K58" s="97" t="s">
+        <v>0.33464542124090019</v>
+      </c>
+      <c r="K58" s="96" t="s">
         <v>161</v>
       </c>
-      <c r="L58" s="93">
-        <v>2.717E-2</v>
+      <c r="L58" s="212">
+        <v>2.6839999999999999E-2</v>
       </c>
     </row>
     <row r="59" spans="4:12" x14ac:dyDescent="0.2">
@@ -11717,7 +11717,7 @@
       </c>
       <c r="E59" s="41">
         <f>_xll.qlRateHelperRate($D59)</f>
-        <v>2.579E-2</v>
+        <v>2.7029999999999998E-2</v>
       </c>
       <c r="F59" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D59)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D59)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D59)),_xll.qlSwapRateHelperSpread($D59))</f>
@@ -11732,13 +11732,13 @@
         <v>59922</v>
       </c>
       <c r="I59" s="34">
-        <v>0.26659196589297252</v>
-      </c>
-      <c r="K59" s="97" t="s">
+        <v>0.25227183065744541</v>
+      </c>
+      <c r="K59" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="L59" s="93">
-        <v>2.7310000000000001E-2</v>
+      <c r="L59" s="212">
+        <v>2.7029999999999998E-2</v>
       </c>
     </row>
     <row r="60" spans="4:12" x14ac:dyDescent="0.2">
@@ -11747,7 +11747,7 @@
       </c>
       <c r="E60" s="41">
         <f>_xll.qlRateHelperRate($D60)</f>
-        <v>2.6099999999999998E-2</v>
+        <v>2.7160000000000004E-2</v>
       </c>
       <c r="F60" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D60)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D60)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D60)),_xll.qlSwapRateHelperSpread($D60))</f>
@@ -11762,13 +11762,13 @@
         <v>63576</v>
       </c>
       <c r="I60" s="34">
-        <v>0.19838653048684229</v>
-      </c>
-      <c r="K60" s="97" t="s">
+        <v>0.18985040492300714</v>
+      </c>
+      <c r="K60" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="L60" s="93">
-        <v>2.7550000000000002E-2</v>
+      <c r="L60" s="212">
+        <v>2.716E-2</v>
       </c>
     </row>
     <row r="61" spans="4:12" x14ac:dyDescent="0.2">
@@ -13380,326 +13380,326 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3" style="94" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="94" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="94" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="94" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" style="94" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="94" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" style="94" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="94" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="94"/>
+    <col min="1" max="1" width="3" style="93" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="93" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="93" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="93" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="93" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="93" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" style="93" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="93" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="93"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="117" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="96" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="95" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="116" t="str">
+      <c r="E1" s="115" t="str">
         <f>Currency&amp;"_YC"&amp;$D$1&amp;"RH"</f>
         <v>EUR_YC6MRH</v>
       </c>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="100"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="99"/>
     </row>
     <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="107"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114" t="s">
+      <c r="A2" s="106"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="114" t="s">
+      <c r="D2" s="113" t="s">
         <v>174</v>
       </c>
-      <c r="E2" s="113" t="str">
+      <c r="E2" s="112" t="str">
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>EUR_YC6MRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="112">
+      <c r="F2" s="111">
         <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F12,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
         <v>10</v>
       </c>
-      <c r="G2" s="111" t="str">
+      <c r="G2" s="110" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
-      <c r="H2" s="100"/>
+      <c r="H2" s="99"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="107"/>
-      <c r="B3" s="110" t="s">
+      <c r="A3" s="106"/>
+      <c r="B3" s="109" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="104" t="str">
+      <c r="C3" s="108"/>
+      <c r="D3" s="103" t="str">
         <f t="shared" ref="D3:D12" si="0">Currency&amp;B3&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
         <v>EURSND_SYNTH6M_Quote</v>
       </c>
-      <c r="E3" s="103" t="str">
+      <c r="E3" s="102" t="str">
         <f t="shared" ref="E3:E12" si="1">$E$1&amp;"_"&amp;$B3&amp;"D"</f>
         <v>EUR_YC6MRH_SND</v>
       </c>
-      <c r="F3" s="108" t="str">
+      <c r="F3" s="107" t="str">
         <f>_xll.qlDepositRateHelper2(E3,D3,"1d",2,"target","following",FALSE,"act/360",Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_SND#0000</v>
-      </c>
-      <c r="G3" s="101" t="str">
+        <v>EUR_YC6MRH_SND#0001</v>
+      </c>
+      <c r="G3" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
         <v/>
       </c>
-      <c r="H3" s="100"/>
+      <c r="H3" s="99"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="107"/>
-      <c r="B4" s="106" t="s">
+      <c r="A4" s="106"/>
+      <c r="B4" s="105" t="s">
         <v>172</v>
       </c>
-      <c r="C4" s="105" t="str">
+      <c r="C4" s="104" t="str">
         <f t="shared" ref="C4:C12" si="2">PROPER(Currency)&amp;FamilyName&amp;$B4</f>
         <v>EuriborSW</v>
       </c>
-      <c r="D4" s="104" t="str">
+      <c r="D4" s="103" t="str">
         <f t="shared" si="0"/>
         <v>EURSWD_SYNTH6M_Quote</v>
       </c>
-      <c r="E4" s="103" t="str">
+      <c r="E4" s="102" t="str">
         <f t="shared" si="1"/>
         <v>EUR_YC6MRH_SWD</v>
       </c>
-      <c r="F4" s="102" t="str">
+      <c r="F4" s="101" t="str">
         <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_SWD#0000</v>
-      </c>
-      <c r="G4" s="101" t="str">
+        <v>EUR_YC6MRH_SWD#0001</v>
+      </c>
+      <c r="G4" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
         <v/>
       </c>
-      <c r="H4" s="100"/>
+      <c r="H4" s="99"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="107"/>
-      <c r="B5" s="106" t="s">
+      <c r="A5" s="106"/>
+      <c r="B5" s="105" t="s">
         <v>171</v>
       </c>
-      <c r="C5" s="105" t="str">
+      <c r="C5" s="104" t="str">
         <f t="shared" si="2"/>
         <v>Euribor2W</v>
       </c>
-      <c r="D5" s="104" t="str">
+      <c r="D5" s="103" t="str">
         <f t="shared" si="0"/>
         <v>EUR2WD_SYNTH6M_Quote</v>
       </c>
-      <c r="E5" s="103" t="str">
+      <c r="E5" s="102" t="str">
         <f t="shared" si="1"/>
         <v>EUR_YC6MRH_2WD</v>
       </c>
-      <c r="F5" s="102" t="str">
+      <c r="F5" s="101" t="str">
         <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_2WD#0000</v>
-      </c>
-      <c r="G5" s="101" t="str">
+        <v>EUR_YC6MRH_2WD#0001</v>
+      </c>
+      <c r="G5" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
         <v/>
       </c>
-      <c r="H5" s="100"/>
+      <c r="H5" s="99"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="107"/>
-      <c r="B6" s="106" t="s">
+      <c r="A6" s="106"/>
+      <c r="B6" s="105" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="105" t="str">
+      <c r="C6" s="104" t="str">
         <f t="shared" si="2"/>
         <v>Euribor3W</v>
       </c>
-      <c r="D6" s="104" t="str">
+      <c r="D6" s="103" t="str">
         <f t="shared" si="0"/>
         <v>EUR3WD_SYNTH6M_Quote</v>
       </c>
-      <c r="E6" s="103" t="str">
+      <c r="E6" s="102" t="str">
         <f t="shared" si="1"/>
         <v>EUR_YC6MRH_3WD</v>
       </c>
-      <c r="F6" s="102" t="str">
+      <c r="F6" s="101" t="str">
         <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_3WD#0000</v>
-      </c>
-      <c r="G6" s="101" t="str">
+        <v>EUR_YC6MRH_3WD#0001</v>
+      </c>
+      <c r="G6" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
         <v/>
       </c>
-      <c r="H6" s="100"/>
+      <c r="H6" s="99"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="107"/>
-      <c r="B7" s="106" t="s">
+      <c r="A7" s="106"/>
+      <c r="B7" s="105" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="105" t="str">
+      <c r="C7" s="104" t="str">
         <f t="shared" si="2"/>
         <v>Euribor1M</v>
       </c>
-      <c r="D7" s="104" t="str">
+      <c r="D7" s="103" t="str">
         <f t="shared" si="0"/>
         <v>EUR1MD_SYNTH6M_Quote</v>
       </c>
-      <c r="E7" s="103" t="str">
+      <c r="E7" s="102" t="str">
         <f t="shared" si="1"/>
         <v>EUR_YC6MRH_1MD</v>
       </c>
-      <c r="F7" s="102" t="str">
+      <c r="F7" s="101" t="str">
         <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_1MD#0000</v>
-      </c>
-      <c r="G7" s="101" t="str">
+        <v>EUR_YC6MRH_1MD#0001</v>
+      </c>
+      <c r="G7" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
         <v/>
       </c>
-      <c r="H7" s="100"/>
+      <c r="H7" s="99"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="107"/>
-      <c r="B8" s="106" t="s">
+      <c r="A8" s="106"/>
+      <c r="B8" s="105" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="105" t="str">
+      <c r="C8" s="104" t="str">
         <f t="shared" si="2"/>
         <v>Euribor2M</v>
       </c>
-      <c r="D8" s="104" t="str">
+      <c r="D8" s="103" t="str">
         <f t="shared" si="0"/>
         <v>EUR2MD_SYNTH6M_Quote</v>
       </c>
-      <c r="E8" s="103" t="str">
+      <c r="E8" s="102" t="str">
         <f t="shared" si="1"/>
         <v>EUR_YC6MRH_2MD</v>
       </c>
-      <c r="F8" s="102" t="str">
+      <c r="F8" s="101" t="str">
         <f>_xll.qlDepositRateHelper(E8,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_2MD#0000</v>
-      </c>
-      <c r="G8" s="101" t="str">
+        <v>EUR_YC6MRH_2MD#0001</v>
+      </c>
+      <c r="G8" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
         <v/>
       </c>
-      <c r="H8" s="100"/>
+      <c r="H8" s="99"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="107"/>
-      <c r="B9" s="106" t="s">
+      <c r="A9" s="106"/>
+      <c r="B9" s="105" t="s">
         <v>167</v>
       </c>
-      <c r="C9" s="105" t="str">
+      <c r="C9" s="104" t="str">
         <f t="shared" si="2"/>
         <v>Euribor3M</v>
       </c>
-      <c r="D9" s="104" t="str">
+      <c r="D9" s="103" t="str">
         <f t="shared" si="0"/>
         <v>EUR3MD_SYNTH6M_Quote</v>
       </c>
-      <c r="E9" s="103" t="str">
+      <c r="E9" s="102" t="str">
         <f t="shared" si="1"/>
         <v>EUR_YC6MRH_3MD</v>
       </c>
-      <c r="F9" s="102" t="str">
+      <c r="F9" s="101" t="str">
         <f>_xll.qlDepositRateHelper(E9,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_3MD#0000</v>
-      </c>
-      <c r="G9" s="101" t="str">
+        <v>EUR_YC6MRH_3MD#0001</v>
+      </c>
+      <c r="G9" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
         <v/>
       </c>
-      <c r="H9" s="100"/>
+      <c r="H9" s="99"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="107"/>
-      <c r="B10" s="106" t="s">
+      <c r="A10" s="106"/>
+      <c r="B10" s="105" t="s">
         <v>166</v>
       </c>
-      <c r="C10" s="105" t="str">
+      <c r="C10" s="104" t="str">
         <f t="shared" si="2"/>
         <v>Euribor4M</v>
       </c>
-      <c r="D10" s="104" t="str">
+      <c r="D10" s="103" t="str">
         <f t="shared" si="0"/>
         <v>EUR4MD_SYNTH6M_Quote</v>
       </c>
-      <c r="E10" s="103" t="str">
+      <c r="E10" s="102" t="str">
         <f t="shared" si="1"/>
         <v>EUR_YC6MRH_4MD</v>
       </c>
-      <c r="F10" s="102" t="str">
+      <c r="F10" s="101" t="str">
         <f>_xll.qlDepositRateHelper(E10,D10,C10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_4MD#0000</v>
-      </c>
-      <c r="G10" s="101" t="str">
+        <v>EUR_YC6MRH_4MD#0001</v>
+      </c>
+      <c r="G10" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
         <v/>
       </c>
-      <c r="H10" s="100"/>
+      <c r="H10" s="99"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="107"/>
-      <c r="B11" s="106" t="s">
+      <c r="A11" s="106"/>
+      <c r="B11" s="105" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="105" t="str">
+      <c r="C11" s="104" t="str">
         <f t="shared" si="2"/>
         <v>Euribor5M</v>
       </c>
-      <c r="D11" s="104" t="str">
+      <c r="D11" s="103" t="str">
         <f t="shared" si="0"/>
         <v>EUR5MD_SYNTH6M_Quote</v>
       </c>
-      <c r="E11" s="103" t="str">
+      <c r="E11" s="102" t="str">
         <f t="shared" si="1"/>
         <v>EUR_YC6MRH_5MD</v>
       </c>
-      <c r="F11" s="102" t="str">
+      <c r="F11" s="101" t="str">
         <f>_xll.qlDepositRateHelper(E11,D11,C11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_5MD#0000</v>
-      </c>
-      <c r="G11" s="101" t="str">
+        <v>EUR_YC6MRH_5MD#0001</v>
+      </c>
+      <c r="G11" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
         <v/>
       </c>
-      <c r="H11" s="100"/>
+      <c r="H11" s="99"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="107"/>
-      <c r="B12" s="106" t="s">
+      <c r="A12" s="106"/>
+      <c r="B12" s="105" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="105" t="str">
+      <c r="C12" s="104" t="str">
         <f t="shared" si="2"/>
         <v>Euribor6M</v>
       </c>
-      <c r="D12" s="104" t="str">
+      <c r="D12" s="103" t="str">
         <f t="shared" si="0"/>
         <v>EUR6MD_SYNTH6M_Quote</v>
       </c>
-      <c r="E12" s="103" t="str">
+      <c r="E12" s="102" t="str">
         <f t="shared" si="1"/>
         <v>EUR_YC6MRH_6MD</v>
       </c>
-      <c r="F12" s="102" t="str">
+      <c r="F12" s="101" t="str">
         <f>_xll.qlDepositRateHelper(E12,D12,C12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_6MD#0000</v>
-      </c>
-      <c r="G12" s="101" t="str">
+        <v>EUR_YC6MRH_6MD#0001</v>
+      </c>
+      <c r="G12" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
         <v/>
       </c>
-      <c r="H12" s="100"/>
+      <c r="H12" s="99"/>
     </row>
     <row r="13" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="99"/>
+      <c r="A13" s="98"/>
       <c r="B13" s="91"/>
       <c r="C13" s="91"/>
       <c r="D13" s="91"/>
@@ -13724,845 +13724,845 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="3.7109375" style="115" customWidth="1"/>
-    <col min="3" max="3" width="5" style="115" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" style="95" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="95" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="95" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="115" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" style="115" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23" style="137" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.28515625" style="115" customWidth="1"/>
-    <col min="11" max="11" width="3" style="115" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="115"/>
+    <col min="1" max="2" width="3.7109375" style="114" customWidth="1"/>
+    <col min="3" max="3" width="5" style="114" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" style="94" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="94" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="94" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="114" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" style="114" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" style="136" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.28515625" style="114" customWidth="1"/>
+    <col min="11" max="11" width="3" style="114" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="114"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="194" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166">
+      <c r="B1" s="164"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165">
         <v>6</v>
       </c>
-      <c r="E1" s="165" t="str">
+      <c r="E1" s="164" t="str">
         <f>_xll.qlPeriodEquivalent(D1&amp;"M")</f>
         <v>6M</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="H1" s="164" t="str">
+      <c r="F1" s="95"/>
+      <c r="H1" s="163" t="str">
         <f>Currency&amp;"_YC"&amp;$E$1&amp;"RH"</f>
         <v>EUR_YC6MRH</v>
       </c>
-      <c r="I1" s="163"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="161"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="160"/>
     </row>
     <row r="2" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="107"/>
-      <c r="B2" s="160"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="157" t="s">
+      <c r="A2" s="106"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="156" t="s">
         <v>175</v>
       </c>
-      <c r="F2" s="157" t="s">
+      <c r="F2" s="156" t="s">
         <v>187</v>
       </c>
-      <c r="G2" s="157" t="s">
+      <c r="G2" s="156" t="s">
         <v>174</v>
       </c>
-      <c r="H2" s="156" t="str">
+      <c r="H2" s="155" t="str">
         <f>$H$1&amp;"_FRAs.xml"</f>
         <v>EUR_YC6MRH_FRAs.xml</v>
       </c>
-      <c r="I2" s="155">
+      <c r="I2" s="154">
         <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I22,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
         <v>20</v>
       </c>
-      <c r="J2" s="154" t="str">
+      <c r="J2" s="153" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
         <v/>
       </c>
-      <c r="K2" s="100"/>
+      <c r="K2" s="99"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="107"/>
-      <c r="B3" s="149" t="s">
+      <c r="A3" s="106"/>
+      <c r="B3" s="148" t="s">
         <v>186</v>
       </c>
-      <c r="C3" s="149" t="str">
+      <c r="C3" s="148" t="str">
         <f>"T"&amp;D1</f>
         <v>T6</v>
       </c>
-      <c r="D3" s="148" t="s">
+      <c r="D3" s="147" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="146" t="str">
+      <c r="E3" s="145" t="str">
         <f t="shared" ref="E3:E22" si="0">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
         <v>Euribor6M</v>
       </c>
-      <c r="F3" s="147" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="146" t="str">
+      <c r="F3" s="146" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="145" t="str">
         <f t="shared" ref="G3:G22" si="1">Currency&amp;C3&amp;D3&amp;IF(F3,"_SYNTH"&amp;$E$1,"")&amp;"_Quote"</f>
         <v>EURT6F1_Quote</v>
       </c>
-      <c r="H3" s="146" t="str">
+      <c r="H3" s="145" t="str">
         <f t="shared" ref="H3:H22" si="2">$H$1&amp;"_"&amp;$C3&amp;$D3</f>
         <v>EUR_YC6MRH_T6F1</v>
       </c>
-      <c r="I3" s="146" t="str">
+      <c r="I3" s="145" t="str">
         <f>_xll.qlFraRateHelper(H3,G3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_T6F1#0000</v>
-      </c>
-      <c r="J3" s="154" t="str">
+        <v>EUR_YC6MRH_T6F1#0001</v>
+      </c>
+      <c r="J3" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
         <v/>
       </c>
-      <c r="K3" s="100"/>
+      <c r="K3" s="99"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="107"/>
-      <c r="B4" s="153" t="s">
+      <c r="A4" s="106"/>
+      <c r="B4" s="152" t="s">
         <v>185</v>
       </c>
-      <c r="C4" s="153" t="str">
+      <c r="C4" s="152" t="str">
         <f>"TOM"&amp;D1</f>
         <v>TOM6</v>
       </c>
-      <c r="D4" s="102" t="s">
+      <c r="D4" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="151" t="str">
+      <c r="E4" s="150" t="str">
         <f t="shared" si="0"/>
         <v>Euribor6M</v>
       </c>
-      <c r="F4" s="152" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="151" t="str">
+      <c r="F4" s="151" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="150" t="str">
         <f t="shared" si="1"/>
         <v>EURTOM6F1_Quote</v>
       </c>
-      <c r="H4" s="151" t="str">
+      <c r="H4" s="150" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC6MRH_TOM6F1</v>
       </c>
-      <c r="I4" s="151" t="str">
+      <c r="I4" s="150" t="str">
         <f>_xll.qlFraRateHelper(H4,G4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_TOM6F1#0000</v>
-      </c>
-      <c r="J4" s="150" t="str">
+        <v>EUR_YC6MRH_TOM6F1#0001</v>
+      </c>
+      <c r="J4" s="149" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
         <v/>
       </c>
-      <c r="K4" s="100"/>
+      <c r="K4" s="99"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="107"/>
-      <c r="B5" s="146" t="str">
+      <c r="A5" s="106"/>
+      <c r="B5" s="145" t="str">
         <f t="shared" ref="B5:B22" si="3">C5&amp;"M"</f>
         <v>1M</v>
       </c>
-      <c r="C5" s="149">
-        <v>1</v>
-      </c>
-      <c r="D5" s="148" t="str">
+      <c r="C5" s="148">
+        <v>1</v>
+      </c>
+      <c r="D5" s="147" t="str">
         <f t="shared" ref="D5:D22" si="4">"x"&amp;C5+$D$1&amp;"F"</f>
         <v>x7F</v>
       </c>
-      <c r="E5" s="146" t="str">
+      <c r="E5" s="145" t="str">
         <f t="shared" si="0"/>
         <v>Euribor6M</v>
       </c>
-      <c r="F5" s="147" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="146" t="str">
+      <c r="F5" s="146" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="145" t="str">
         <f t="shared" si="1"/>
         <v>EUR1x7F_Quote</v>
       </c>
-      <c r="H5" s="146" t="str">
+      <c r="H5" s="145" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC6MRH_1x7F</v>
       </c>
-      <c r="I5" s="146" t="str">
+      <c r="I5" s="145" t="str">
         <f>_xll.qlFraRateHelper(H5,G5,B5,E5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_1x7F#0000</v>
-      </c>
-      <c r="J5" s="145" t="str">
+        <v>EUR_YC6MRH_1x7F#0001</v>
+      </c>
+      <c r="J5" s="144" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
         <v/>
       </c>
-      <c r="K5" s="100"/>
+      <c r="K5" s="99"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="107"/>
-      <c r="B6" s="141" t="str">
+      <c r="A6" s="106"/>
+      <c r="B6" s="140" t="str">
         <f t="shared" si="3"/>
         <v>2M</v>
       </c>
-      <c r="C6" s="144">
+      <c r="C6" s="143">
         <v>2</v>
       </c>
-      <c r="D6" s="143" t="str">
+      <c r="D6" s="142" t="str">
         <f t="shared" si="4"/>
         <v>x8F</v>
       </c>
-      <c r="E6" s="141" t="str">
+      <c r="E6" s="140" t="str">
         <f t="shared" si="0"/>
         <v>Euribor6M</v>
       </c>
-      <c r="F6" s="142" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="141" t="str">
+      <c r="F6" s="141" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="140" t="str">
         <f t="shared" si="1"/>
         <v>EUR2x8F_Quote</v>
       </c>
-      <c r="H6" s="141" t="str">
+      <c r="H6" s="140" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC6MRH_2x8F</v>
       </c>
-      <c r="I6" s="141" t="str">
+      <c r="I6" s="140" t="str">
         <f>_xll.qlFraRateHelper(H6,G6,B6,E6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_2x8F#0000</v>
-      </c>
-      <c r="J6" s="140" t="str">
+        <v>EUR_YC6MRH_2x8F#0001</v>
+      </c>
+      <c r="J6" s="139" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
         <v/>
       </c>
-      <c r="K6" s="100"/>
+      <c r="K6" s="99"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="107"/>
-      <c r="B7" s="141" t="str">
+      <c r="A7" s="106"/>
+      <c r="B7" s="140" t="str">
         <f t="shared" si="3"/>
         <v>3M</v>
       </c>
-      <c r="C7" s="144">
+      <c r="C7" s="143">
         <v>3</v>
       </c>
-      <c r="D7" s="143" t="str">
+      <c r="D7" s="142" t="str">
         <f t="shared" si="4"/>
         <v>x9F</v>
       </c>
-      <c r="E7" s="141" t="str">
+      <c r="E7" s="140" t="str">
         <f t="shared" si="0"/>
         <v>Euribor6M</v>
       </c>
-      <c r="F7" s="142" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="141" t="str">
+      <c r="F7" s="141" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="140" t="str">
         <f t="shared" si="1"/>
         <v>EUR3x9F_Quote</v>
       </c>
-      <c r="H7" s="141" t="str">
+      <c r="H7" s="140" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC6MRH_3x9F</v>
       </c>
-      <c r="I7" s="141" t="str">
+      <c r="I7" s="140" t="str">
         <f>_xll.qlFraRateHelper(H7,G7,B7,E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_3x9F#0000</v>
-      </c>
-      <c r="J7" s="140" t="str">
+        <v>EUR_YC6MRH_3x9F#0001</v>
+      </c>
+      <c r="J7" s="139" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
         <v/>
       </c>
-      <c r="K7" s="100"/>
+      <c r="K7" s="99"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="107"/>
-      <c r="B8" s="141" t="str">
+      <c r="A8" s="106"/>
+      <c r="B8" s="140" t="str">
         <f t="shared" si="3"/>
         <v>4M</v>
       </c>
-      <c r="C8" s="144">
+      <c r="C8" s="143">
         <v>4</v>
       </c>
-      <c r="D8" s="143" t="str">
+      <c r="D8" s="142" t="str">
         <f t="shared" si="4"/>
         <v>x10F</v>
       </c>
-      <c r="E8" s="141" t="str">
+      <c r="E8" s="140" t="str">
         <f t="shared" si="0"/>
         <v>Euribor6M</v>
       </c>
-      <c r="F8" s="142" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="141" t="str">
+      <c r="F8" s="141" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="140" t="str">
         <f t="shared" si="1"/>
         <v>EUR4x10F_Quote</v>
       </c>
-      <c r="H8" s="141" t="str">
+      <c r="H8" s="140" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC6MRH_4x10F</v>
       </c>
-      <c r="I8" s="141" t="str">
+      <c r="I8" s="140" t="str">
         <f>_xll.qlFraRateHelper(H8,G8,B8,E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_4x10F#0000</v>
-      </c>
-      <c r="J8" s="140" t="str">
+        <v>EUR_YC6MRH_4x10F#0001</v>
+      </c>
+      <c r="J8" s="139" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
         <v/>
       </c>
-      <c r="K8" s="100"/>
+      <c r="K8" s="99"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="107"/>
-      <c r="B9" s="141" t="str">
+      <c r="A9" s="106"/>
+      <c r="B9" s="140" t="str">
         <f t="shared" si="3"/>
         <v>5M</v>
       </c>
-      <c r="C9" s="144">
+      <c r="C9" s="143">
         <v>5</v>
       </c>
-      <c r="D9" s="143" t="str">
+      <c r="D9" s="142" t="str">
         <f t="shared" si="4"/>
         <v>x11F</v>
       </c>
-      <c r="E9" s="141" t="str">
+      <c r="E9" s="140" t="str">
         <f t="shared" si="0"/>
         <v>Euribor6M</v>
       </c>
-      <c r="F9" s="142" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="141" t="str">
+      <c r="F9" s="141" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="140" t="str">
         <f t="shared" si="1"/>
         <v>EUR5x11F_Quote</v>
       </c>
-      <c r="H9" s="141" t="str">
+      <c r="H9" s="140" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC6MRH_5x11F</v>
       </c>
-      <c r="I9" s="141" t="str">
+      <c r="I9" s="140" t="str">
         <f>_xll.qlFraRateHelper(H9,G9,B9,E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_5x11F#0000</v>
-      </c>
-      <c r="J9" s="140" t="str">
+        <v>EUR_YC6MRH_5x11F#0001</v>
+      </c>
+      <c r="J9" s="139" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
         <v/>
       </c>
-      <c r="K9" s="100"/>
+      <c r="K9" s="99"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="107"/>
-      <c r="B10" s="141" t="str">
+      <c r="A10" s="106"/>
+      <c r="B10" s="140" t="str">
         <f t="shared" si="3"/>
         <v>6M</v>
       </c>
-      <c r="C10" s="144">
+      <c r="C10" s="143">
         <v>6</v>
       </c>
-      <c r="D10" s="143" t="str">
+      <c r="D10" s="142" t="str">
         <f t="shared" si="4"/>
         <v>x12F</v>
       </c>
-      <c r="E10" s="141" t="str">
+      <c r="E10" s="140" t="str">
         <f t="shared" si="0"/>
         <v>Euribor6M</v>
       </c>
-      <c r="F10" s="142" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="141" t="str">
+      <c r="F10" s="141" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="140" t="str">
         <f t="shared" si="1"/>
         <v>EUR6x12F_Quote</v>
       </c>
-      <c r="H10" s="141" t="str">
+      <c r="H10" s="140" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC6MRH_6x12F</v>
       </c>
-      <c r="I10" s="141" t="str">
+      <c r="I10" s="140" t="str">
         <f>_xll.qlFraRateHelper(H10,G10,B10,E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_6x12F#0000</v>
-      </c>
-      <c r="J10" s="140" t="str">
+        <v>EUR_YC6MRH_6x12F#0001</v>
+      </c>
+      <c r="J10" s="139" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
         <v/>
       </c>
-      <c r="K10" s="100"/>
+      <c r="K10" s="99"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="107"/>
-      <c r="B11" s="141" t="str">
+      <c r="A11" s="106"/>
+      <c r="B11" s="140" t="str">
         <f t="shared" si="3"/>
         <v>7M</v>
       </c>
-      <c r="C11" s="144">
+      <c r="C11" s="143">
         <v>7</v>
       </c>
-      <c r="D11" s="143" t="str">
+      <c r="D11" s="142" t="str">
         <f t="shared" si="4"/>
         <v>x13F</v>
       </c>
-      <c r="E11" s="141" t="str">
+      <c r="E11" s="140" t="str">
         <f t="shared" si="0"/>
         <v>Euribor6M</v>
       </c>
-      <c r="F11" s="142" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="141" t="str">
+      <c r="F11" s="141" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="140" t="str">
         <f t="shared" si="1"/>
         <v>EUR7x13F_Quote</v>
       </c>
-      <c r="H11" s="141" t="str">
+      <c r="H11" s="140" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC6MRH_7x13F</v>
       </c>
-      <c r="I11" s="141" t="str">
+      <c r="I11" s="140" t="str">
         <f>_xll.qlFraRateHelper(H11,G11,B11,E11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_7x13F#0000</v>
-      </c>
-      <c r="J11" s="140" t="str">
+        <v>EUR_YC6MRH_7x13F#0001</v>
+      </c>
+      <c r="J11" s="139" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
         <v/>
       </c>
-      <c r="K11" s="100"/>
+      <c r="K11" s="99"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="107"/>
-      <c r="B12" s="141" t="str">
+      <c r="A12" s="106"/>
+      <c r="B12" s="140" t="str">
         <f t="shared" si="3"/>
         <v>8M</v>
       </c>
-      <c r="C12" s="144">
+      <c r="C12" s="143">
         <v>8</v>
       </c>
-      <c r="D12" s="143" t="str">
+      <c r="D12" s="142" t="str">
         <f t="shared" si="4"/>
         <v>x14F</v>
       </c>
-      <c r="E12" s="141" t="str">
+      <c r="E12" s="140" t="str">
         <f t="shared" si="0"/>
         <v>Euribor6M</v>
       </c>
-      <c r="F12" s="142" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="141" t="str">
+      <c r="F12" s="141" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="140" t="str">
         <f t="shared" si="1"/>
         <v>EUR8x14F_Quote</v>
       </c>
-      <c r="H12" s="141" t="str">
+      <c r="H12" s="140" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC6MRH_8x14F</v>
       </c>
-      <c r="I12" s="141" t="str">
+      <c r="I12" s="140" t="str">
         <f>_xll.qlFraRateHelper(H12,G12,B12,E12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_8x14F#0000</v>
-      </c>
-      <c r="J12" s="140" t="str">
+        <v>EUR_YC6MRH_8x14F#0001</v>
+      </c>
+      <c r="J12" s="139" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
         <v/>
       </c>
-      <c r="K12" s="100"/>
+      <c r="K12" s="99"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="107"/>
-      <c r="B13" s="141" t="str">
+      <c r="A13" s="106"/>
+      <c r="B13" s="140" t="str">
         <f t="shared" si="3"/>
         <v>9M</v>
       </c>
-      <c r="C13" s="144">
+      <c r="C13" s="143">
         <v>9</v>
       </c>
-      <c r="D13" s="143" t="str">
+      <c r="D13" s="142" t="str">
         <f t="shared" si="4"/>
         <v>x15F</v>
       </c>
-      <c r="E13" s="141" t="str">
+      <c r="E13" s="140" t="str">
         <f t="shared" si="0"/>
         <v>Euribor6M</v>
       </c>
-      <c r="F13" s="142" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="141" t="str">
+      <c r="F13" s="141" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="140" t="str">
         <f t="shared" si="1"/>
         <v>EUR9x15F_Quote</v>
       </c>
-      <c r="H13" s="141" t="str">
+      <c r="H13" s="140" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC6MRH_9x15F</v>
       </c>
-      <c r="I13" s="141" t="str">
+      <c r="I13" s="140" t="str">
         <f>_xll.qlFraRateHelper(H13,G13,B13,E13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_9x15F#0000</v>
-      </c>
-      <c r="J13" s="140" t="str">
+        <v>EUR_YC6MRH_9x15F#0001</v>
+      </c>
+      <c r="J13" s="139" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
         <v/>
       </c>
-      <c r="K13" s="100"/>
+      <c r="K13" s="99"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="107"/>
-      <c r="B14" s="141" t="str">
+      <c r="A14" s="106"/>
+      <c r="B14" s="140" t="str">
         <f t="shared" si="3"/>
         <v>10M</v>
       </c>
-      <c r="C14" s="144">
+      <c r="C14" s="143">
         <v>10</v>
       </c>
-      <c r="D14" s="143" t="str">
+      <c r="D14" s="142" t="str">
         <f t="shared" si="4"/>
         <v>x16F</v>
       </c>
-      <c r="E14" s="141" t="str">
+      <c r="E14" s="140" t="str">
         <f t="shared" si="0"/>
         <v>Euribor6M</v>
       </c>
-      <c r="F14" s="142" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="141" t="str">
+      <c r="F14" s="141" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="140" t="str">
         <f t="shared" si="1"/>
         <v>EUR10x16F_Quote</v>
       </c>
-      <c r="H14" s="141" t="str">
+      <c r="H14" s="140" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC6MRH_10x16F</v>
       </c>
-      <c r="I14" s="141" t="str">
+      <c r="I14" s="140" t="str">
         <f>_xll.qlFraRateHelper(H14,G14,B14,E14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_10x16F#0000</v>
-      </c>
-      <c r="J14" s="140" t="str">
+        <v>EUR_YC6MRH_10x16F#0001</v>
+      </c>
+      <c r="J14" s="139" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
         <v/>
       </c>
-      <c r="K14" s="100"/>
+      <c r="K14" s="99"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="107"/>
-      <c r="B15" s="141" t="str">
+      <c r="A15" s="106"/>
+      <c r="B15" s="140" t="str">
         <f t="shared" si="3"/>
         <v>11M</v>
       </c>
-      <c r="C15" s="144">
+      <c r="C15" s="143">
         <v>11</v>
       </c>
-      <c r="D15" s="143" t="str">
+      <c r="D15" s="142" t="str">
         <f t="shared" si="4"/>
         <v>x17F</v>
       </c>
-      <c r="E15" s="141" t="str">
+      <c r="E15" s="140" t="str">
         <f t="shared" si="0"/>
         <v>Euribor6M</v>
       </c>
-      <c r="F15" s="142" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="141" t="str">
+      <c r="F15" s="141" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="140" t="str">
         <f t="shared" si="1"/>
         <v>EUR11x17F_Quote</v>
       </c>
-      <c r="H15" s="141" t="str">
+      <c r="H15" s="140" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC6MRH_11x17F</v>
       </c>
-      <c r="I15" s="141" t="str">
+      <c r="I15" s="140" t="str">
         <f>_xll.qlFraRateHelper(H15,G15,B15,E15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_11x17F#0000</v>
-      </c>
-      <c r="J15" s="140" t="str">
+        <v>EUR_YC6MRH_11x17F#0001</v>
+      </c>
+      <c r="J15" s="139" t="str">
         <f>_xll.ohRangeRetrieveError(I15)</f>
         <v/>
       </c>
-      <c r="K15" s="100"/>
+      <c r="K15" s="99"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="107"/>
-      <c r="B16" s="141" t="str">
+      <c r="A16" s="106"/>
+      <c r="B16" s="140" t="str">
         <f t="shared" si="3"/>
         <v>12M</v>
       </c>
-      <c r="C16" s="144">
+      <c r="C16" s="143">
         <v>12</v>
       </c>
-      <c r="D16" s="143" t="str">
+      <c r="D16" s="142" t="str">
         <f t="shared" si="4"/>
         <v>x18F</v>
       </c>
-      <c r="E16" s="141" t="str">
+      <c r="E16" s="140" t="str">
         <f t="shared" si="0"/>
         <v>Euribor6M</v>
       </c>
-      <c r="F16" s="142" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="141" t="str">
+      <c r="F16" s="141" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="140" t="str">
         <f t="shared" si="1"/>
         <v>EUR12x18F_Quote</v>
       </c>
-      <c r="H16" s="141" t="str">
+      <c r="H16" s="140" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC6MRH_12x18F</v>
       </c>
-      <c r="I16" s="141" t="str">
+      <c r="I16" s="140" t="str">
         <f>_xll.qlFraRateHelper(H16,G16,B16,E16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_12x18F#0000</v>
-      </c>
-      <c r="J16" s="140" t="str">
+        <v>EUR_YC6MRH_12x18F#0001</v>
+      </c>
+      <c r="J16" s="139" t="str">
         <f>_xll.ohRangeRetrieveError(I16)</f>
         <v/>
       </c>
-      <c r="K16" s="100"/>
+      <c r="K16" s="99"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="107"/>
-      <c r="B17" s="141" t="str">
+      <c r="A17" s="106"/>
+      <c r="B17" s="140" t="str">
         <f t="shared" si="3"/>
         <v>13M</v>
       </c>
-      <c r="C17" s="144">
+      <c r="C17" s="143">
         <v>13</v>
       </c>
-      <c r="D17" s="143" t="str">
+      <c r="D17" s="142" t="str">
         <f t="shared" si="4"/>
         <v>x19F</v>
       </c>
-      <c r="E17" s="141" t="str">
+      <c r="E17" s="140" t="str">
         <f t="shared" si="0"/>
         <v>Euribor6M</v>
       </c>
-      <c r="F17" s="142" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" s="141" t="str">
+      <c r="F17" s="141" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="140" t="str">
         <f t="shared" si="1"/>
         <v>EUR13x19F_Quote</v>
       </c>
-      <c r="H17" s="141" t="str">
+      <c r="H17" s="140" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC6MRH_13x19F</v>
       </c>
-      <c r="I17" s="141" t="str">
+      <c r="I17" s="140" t="str">
         <f>_xll.qlFraRateHelper(H17,G17,B17,E17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_13x19F#0000</v>
-      </c>
-      <c r="J17" s="140" t="str">
+        <v>EUR_YC6MRH_13x19F#0001</v>
+      </c>
+      <c r="J17" s="139" t="str">
         <f>_xll.ohRangeRetrieveError(I17)</f>
         <v/>
       </c>
-      <c r="K17" s="100"/>
+      <c r="K17" s="99"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="107"/>
-      <c r="B18" s="141" t="str">
+      <c r="A18" s="106"/>
+      <c r="B18" s="140" t="str">
         <f t="shared" si="3"/>
         <v>14M</v>
       </c>
-      <c r="C18" s="144">
+      <c r="C18" s="143">
         <v>14</v>
       </c>
-      <c r="D18" s="143" t="str">
+      <c r="D18" s="142" t="str">
         <f t="shared" si="4"/>
         <v>x20F</v>
       </c>
-      <c r="E18" s="141" t="str">
+      <c r="E18" s="140" t="str">
         <f t="shared" si="0"/>
         <v>Euribor6M</v>
       </c>
-      <c r="F18" s="142" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18" s="141" t="str">
+      <c r="F18" s="141" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="140" t="str">
         <f t="shared" si="1"/>
         <v>EUR14x20F_Quote</v>
       </c>
-      <c r="H18" s="141" t="str">
+      <c r="H18" s="140" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC6MRH_14x20F</v>
       </c>
-      <c r="I18" s="141" t="str">
+      <c r="I18" s="140" t="str">
         <f>_xll.qlFraRateHelper(H18,G18,B18,E18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_14x20F#0000</v>
-      </c>
-      <c r="J18" s="140" t="str">
+        <v>EUR_YC6MRH_14x20F#0001</v>
+      </c>
+      <c r="J18" s="139" t="str">
         <f>_xll.ohRangeRetrieveError(I18)</f>
         <v/>
       </c>
-      <c r="K18" s="100"/>
+      <c r="K18" s="99"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="107"/>
-      <c r="B19" s="141" t="str">
+      <c r="A19" s="106"/>
+      <c r="B19" s="140" t="str">
         <f t="shared" si="3"/>
         <v>15M</v>
       </c>
-      <c r="C19" s="144">
+      <c r="C19" s="143">
         <v>15</v>
       </c>
-      <c r="D19" s="143" t="str">
+      <c r="D19" s="142" t="str">
         <f t="shared" si="4"/>
         <v>x21F</v>
       </c>
-      <c r="E19" s="141" t="str">
+      <c r="E19" s="140" t="str">
         <f t="shared" si="0"/>
         <v>Euribor6M</v>
       </c>
-      <c r="F19" s="142" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" s="141" t="str">
+      <c r="F19" s="141" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="140" t="str">
         <f t="shared" si="1"/>
         <v>EUR15x21F_Quote</v>
       </c>
-      <c r="H19" s="141" t="str">
+      <c r="H19" s="140" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC6MRH_15x21F</v>
       </c>
-      <c r="I19" s="141" t="str">
+      <c r="I19" s="140" t="str">
         <f>_xll.qlFraRateHelper(H19,G19,B19,E19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_15x21F#0000</v>
-      </c>
-      <c r="J19" s="140" t="str">
+        <v>EUR_YC6MRH_15x21F#0001</v>
+      </c>
+      <c r="J19" s="139" t="str">
         <f>_xll.ohRangeRetrieveError(I19)</f>
         <v/>
       </c>
-      <c r="K19" s="100"/>
+      <c r="K19" s="99"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="107"/>
-      <c r="B20" s="141" t="str">
+      <c r="A20" s="106"/>
+      <c r="B20" s="140" t="str">
         <f t="shared" si="3"/>
         <v>16M</v>
       </c>
-      <c r="C20" s="144">
+      <c r="C20" s="143">
         <v>16</v>
       </c>
-      <c r="D20" s="143" t="str">
+      <c r="D20" s="142" t="str">
         <f t="shared" si="4"/>
         <v>x22F</v>
       </c>
-      <c r="E20" s="141" t="str">
+      <c r="E20" s="140" t="str">
         <f t="shared" si="0"/>
         <v>Euribor6M</v>
       </c>
-      <c r="F20" s="142" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" s="141" t="str">
+      <c r="F20" s="141" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="140" t="str">
         <f t="shared" si="1"/>
         <v>EUR16x22F_Quote</v>
       </c>
-      <c r="H20" s="141" t="str">
+      <c r="H20" s="140" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC6MRH_16x22F</v>
       </c>
-      <c r="I20" s="141" t="str">
+      <c r="I20" s="140" t="str">
         <f>_xll.qlFraRateHelper(H20,G20,B20,E20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_16x22F#0000</v>
-      </c>
-      <c r="J20" s="140" t="str">
+        <v>EUR_YC6MRH_16x22F#0001</v>
+      </c>
+      <c r="J20" s="139" t="str">
         <f>_xll.ohRangeRetrieveError(I20)</f>
         <v/>
       </c>
-      <c r="K20" s="100"/>
+      <c r="K20" s="99"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="107"/>
-      <c r="B21" s="141" t="str">
+      <c r="A21" s="106"/>
+      <c r="B21" s="140" t="str">
         <f t="shared" si="3"/>
         <v>17M</v>
       </c>
-      <c r="C21" s="144">
+      <c r="C21" s="143">
         <v>17</v>
       </c>
-      <c r="D21" s="143" t="str">
+      <c r="D21" s="142" t="str">
         <f t="shared" si="4"/>
         <v>x23F</v>
       </c>
-      <c r="E21" s="141" t="str">
+      <c r="E21" s="140" t="str">
         <f t="shared" si="0"/>
         <v>Euribor6M</v>
       </c>
-      <c r="F21" s="142" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" s="141" t="str">
+      <c r="F21" s="141" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="140" t="str">
         <f t="shared" si="1"/>
         <v>EUR17x23F_Quote</v>
       </c>
-      <c r="H21" s="141" t="str">
+      <c r="H21" s="140" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC6MRH_17x23F</v>
       </c>
-      <c r="I21" s="141" t="str">
+      <c r="I21" s="140" t="str">
         <f>_xll.qlFraRateHelper(H21,G21,B21,E21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_17x23F#0000</v>
-      </c>
-      <c r="J21" s="140" t="str">
+        <v>EUR_YC6MRH_17x23F#0001</v>
+      </c>
+      <c r="J21" s="139" t="str">
         <f>_xll.ohRangeRetrieveError(I21)</f>
         <v/>
       </c>
-      <c r="K21" s="100"/>
+      <c r="K21" s="99"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="107"/>
-      <c r="B22" s="141" t="str">
+      <c r="A22" s="106"/>
+      <c r="B22" s="140" t="str">
         <f t="shared" si="3"/>
         <v>18M</v>
       </c>
-      <c r="C22" s="144">
+      <c r="C22" s="143">
         <v>18</v>
       </c>
-      <c r="D22" s="143" t="str">
+      <c r="D22" s="142" t="str">
         <f t="shared" si="4"/>
         <v>x24F</v>
       </c>
-      <c r="E22" s="141" t="str">
+      <c r="E22" s="140" t="str">
         <f t="shared" si="0"/>
         <v>Euribor6M</v>
       </c>
-      <c r="F22" s="142" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22" s="141" t="str">
+      <c r="F22" s="141" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="140" t="str">
         <f t="shared" si="1"/>
         <v>EUR18x24F_Quote</v>
       </c>
-      <c r="H22" s="141" t="str">
+      <c r="H22" s="140" t="str">
         <f t="shared" si="2"/>
         <v>EUR_YC6MRH_18x24F</v>
       </c>
-      <c r="I22" s="141" t="str">
+      <c r="I22" s="140" t="str">
         <f>_xll.qlFraRateHelper(H22,G22,B22,E22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_18x24F#0000</v>
-      </c>
-      <c r="J22" s="140" t="str">
+        <v>EUR_YC6MRH_18x24F#0001</v>
+      </c>
+      <c r="J22" s="139" t="str">
         <f>_xll.ohRangeRetrieveError(I22)</f>
         <v/>
       </c>
-      <c r="K22" s="100"/>
+      <c r="K22" s="99"/>
     </row>
     <row r="23" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="99"/>
-      <c r="B23" s="139"/>
-      <c r="C23" s="139"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="139"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="139"/>
-      <c r="I23" s="138"/>
-      <c r="J23" s="138"/>
+      <c r="A23" s="98"/>
+      <c r="B23" s="138"/>
+      <c r="C23" s="138"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="137"/>
+      <c r="J23" s="137"/>
       <c r="K23" s="92"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="I25" s="115"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="114"/>
+      <c r="I25" s="114"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14580,1898 +14580,1898 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="94" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" style="94" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.85546875" style="94" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="94" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.7109375" style="94" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="94" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="94" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="94" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="94" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="94" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" style="94" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.85546875" style="167" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" style="94" customWidth="1"/>
-    <col min="14" max="14" width="3.85546875" style="94" customWidth="1"/>
-    <col min="15" max="15" width="2.5703125" style="94" customWidth="1"/>
-    <col min="16" max="16" width="4" style="94" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.28515625" style="94" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.7109375" style="94" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="94"/>
+    <col min="1" max="1" width="1.7109375" style="93" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" style="93" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" style="93" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="93" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" style="93" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" style="93" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="93" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="93" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="93" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="93" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" style="93" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.85546875" style="166" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" style="93" customWidth="1"/>
+    <col min="14" max="14" width="3.85546875" style="93" customWidth="1"/>
+    <col min="15" max="15" width="2.5703125" style="93" customWidth="1"/>
+    <col min="16" max="16" width="4" style="93" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.28515625" style="93" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.7109375" style="93" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="93"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="194" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="165"/>
-      <c r="L1" s="166"/>
-      <c r="M1" s="166"/>
-      <c r="N1" s="194"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="164"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="193"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="107"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="96" t="s">
+      <c r="A2" s="106"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="95" t="s">
         <v>164</v>
       </c>
-      <c r="K2" s="96" t="str">
+      <c r="K2" s="95" t="str">
         <f>Currency&amp;"_YC"&amp;$J$2&amp;"RH"</f>
         <v>EUR_YC6MRH</v>
       </c>
-      <c r="L2" s="96" t="str">
+      <c r="L2" s="95" t="str">
         <f>Discounting</f>
         <v>EurYC</v>
       </c>
-      <c r="M2" s="117"/>
-      <c r="N2" s="188"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="187"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="107"/>
-      <c r="B3" s="114" t="s">
+      <c r="A3" s="106"/>
+      <c r="B3" s="113" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114" t="s">
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113" t="s">
         <v>195</v>
       </c>
-      <c r="G3" s="114" t="s">
+      <c r="G3" s="113" t="s">
         <v>194</v>
       </c>
-      <c r="H3" s="114" t="s">
+      <c r="H3" s="113" t="s">
         <v>193</v>
       </c>
-      <c r="I3" s="114" t="s">
+      <c r="I3" s="113" t="s">
         <v>192</v>
       </c>
-      <c r="J3" s="114" t="s">
+      <c r="J3" s="113" t="s">
         <v>174</v>
       </c>
-      <c r="K3" s="193" t="str">
+      <c r="K3" s="192" t="str">
         <f>K2&amp;"_Swaps.xml"</f>
         <v>EUR_YC6MRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="192">
+      <c r="L3" s="191">
         <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
         <v>38</v>
       </c>
-      <c r="M3" s="171" t="str">
+      <c r="M3" s="170" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
-      <c r="N3" s="170"/>
+      <c r="N3" s="169"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="118"/>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="191" t="str">
+      <c r="A4" s="117"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="190" t="str">
         <f>$K$2&amp;"_"&amp;$D6&amp;$E6&amp;"_"&amp;FamilyName&amp;$J$2</f>
         <v>EUR_YC6MRH_AB6E_ibor6M</v>
       </c>
-      <c r="L4" s="190" t="str">
+      <c r="L4" s="189" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>EUR_YC6MRH_AB6E_ibor6M#0000</v>
-      </c>
-      <c r="M4" s="189" t="str">
+        <v>EUR_YC6MRH_AB6E_ibor6M#0001</v>
+      </c>
+      <c r="M4" s="188" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
         <v/>
       </c>
-      <c r="N4" s="188"/>
-    </row>
-    <row r="5" spans="1:18" s="115" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="118"/>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="188"/>
+      <c r="N4" s="187"/>
+    </row>
+    <row r="5" spans="1:18" s="114" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="117"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="187"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="107"/>
-      <c r="B6" s="177" t="s">
+      <c r="A6" s="106"/>
+      <c r="B6" s="176" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="177" t="s">
+      <c r="C6" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="177" t="str">
+      <c r="D6" s="176" t="str">
         <f t="array" ref="D6:D42">VLOOKUP(Currency,Conventions,2)</f>
         <v>AB</v>
       </c>
-      <c r="E6" s="177" t="str">
+      <c r="E6" s="176" t="str">
         <f t="array" ref="E6:E42">VLOOKUP(Currency,Conventions,3)</f>
         <v>6E</v>
       </c>
-      <c r="F6" s="187" t="str">
+      <c r="F6" s="186" t="str">
         <f t="shared" ref="F6:F42" si="0">IF(UPPER(LEFT($D6))="A","Annual",IF(UPPER(LEFT($D6))="S","Semiannual","--"))</f>
         <v>Annual</v>
       </c>
-      <c r="G6" s="187" t="s">
+      <c r="G6" s="186" t="s">
         <v>188</v>
       </c>
-      <c r="H6" s="187" t="str">
+      <c r="H6" s="186" t="str">
         <f t="shared" ref="H6:H42" si="1">IF(UPPER(RIGHT($D6))="B",BondBasisDayCounter,IF(UPPER(RIGHT($D6))="M",MoneyMarketDayCounter,"--"))</f>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I6" s="175">
-        <v>0</v>
-      </c>
-      <c r="J6" s="173" t="str">
+      <c r="I6" s="174">
+        <v>0</v>
+      </c>
+      <c r="J6" s="172" t="str">
         <f t="shared" ref="J6:J42" si="2">Currency&amp;$D6&amp;$E6&amp;$C6&amp;QuoteSuffix</f>
         <v>EURAB6E1Y_Quote</v>
       </c>
-      <c r="K6" s="173" t="str">
+      <c r="K6" s="172" t="str">
         <f t="shared" ref="K6:K42" si="3">$K$2&amp;"_"&amp;$D6&amp;$E6&amp;$C6</f>
         <v>EUR_YC6MRH_AB6E1Y</v>
       </c>
-      <c r="L6" s="172" t="str">
+      <c r="L6" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E1Y#0000</v>
-      </c>
-      <c r="M6" s="171" t="str">
+        <v>EUR_YC6MRH_AB6E1Y#0001</v>
+      </c>
+      <c r="M6" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
         <v/>
       </c>
-      <c r="N6" s="170"/>
-      <c r="P6" s="186" t="s">
+      <c r="N6" s="169"/>
+      <c r="P6" s="185" t="s">
         <v>113</v>
       </c>
-      <c r="Q6" s="185" t="s">
+      <c r="Q6" s="184" t="s">
         <v>110</v>
       </c>
-      <c r="R6" s="184" t="s">
+      <c r="R6" s="183" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="107"/>
-      <c r="B7" s="177" t="s">
+      <c r="A7" s="106"/>
+      <c r="B7" s="176" t="s">
         <v>186</v>
       </c>
-      <c r="C7" s="177" t="s">
+      <c r="C7" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="177" t="str">
+      <c r="D7" s="176" t="str">
         <v>AB</v>
       </c>
-      <c r="E7" s="177" t="str">
+      <c r="E7" s="176" t="str">
         <v>6E</v>
       </c>
-      <c r="F7" s="176" t="str">
+      <c r="F7" s="175" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G7" s="176" t="s">
+      <c r="G7" s="175" t="s">
         <v>188</v>
       </c>
-      <c r="H7" s="176" t="str">
+      <c r="H7" s="175" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I7" s="175">
-        <v>0</v>
-      </c>
-      <c r="J7" s="174" t="str">
+      <c r="I7" s="174">
+        <v>0</v>
+      </c>
+      <c r="J7" s="173" t="str">
         <f t="shared" si="2"/>
         <v>EURAB6E15M_Quote</v>
       </c>
-      <c r="K7" s="173" t="str">
+      <c r="K7" s="172" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC6MRH_AB6E15M</v>
       </c>
-      <c r="L7" s="172" t="str">
+      <c r="L7" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E15M#0000</v>
-      </c>
-      <c r="M7" s="171" t="str">
+        <v>EUR_YC6MRH_AB6E15M#0001</v>
+      </c>
+      <c r="M7" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
         <v/>
       </c>
-      <c r="N7" s="170"/>
-      <c r="P7" s="183" t="s">
+      <c r="N7" s="169"/>
+      <c r="P7" s="182" t="s">
         <v>111</v>
       </c>
-      <c r="Q7" s="182" t="s">
+      <c r="Q7" s="181" t="s">
         <v>110</v>
       </c>
-      <c r="R7" s="181" t="s">
+      <c r="R7" s="180" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="107"/>
-      <c r="B8" s="177" t="s">
+      <c r="A8" s="106"/>
+      <c r="B8" s="176" t="s">
         <v>186</v>
       </c>
-      <c r="C8" s="177" t="s">
+      <c r="C8" s="176" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="177" t="str">
+      <c r="D8" s="176" t="str">
         <v>AB</v>
       </c>
-      <c r="E8" s="177" t="str">
+      <c r="E8" s="176" t="str">
         <v>6E</v>
       </c>
-      <c r="F8" s="176" t="str">
+      <c r="F8" s="175" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G8" s="176" t="s">
+      <c r="G8" s="175" t="s">
         <v>188</v>
       </c>
-      <c r="H8" s="176" t="str">
+      <c r="H8" s="175" t="str">
         <f>IF(UPPER(RIGHT($D8))="B",BondBasisDayCounter,IF(UPPER(RIGHT($D8))="M",MoneyMarketDayCounter,"--"))</f>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I8" s="175">
-        <v>0</v>
-      </c>
-      <c r="J8" s="174" t="str">
+      <c r="I8" s="174">
+        <v>0</v>
+      </c>
+      <c r="J8" s="173" t="str">
         <f t="shared" si="2"/>
         <v>EURAB6E18M_Quote</v>
       </c>
-      <c r="K8" s="173" t="str">
+      <c r="K8" s="172" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC6MRH_AB6E18M</v>
       </c>
-      <c r="L8" s="172" t="str">
+      <c r="L8" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E18M#0000</v>
-      </c>
-      <c r="M8" s="171" t="str">
+        <v>EUR_YC6MRH_AB6E18M#0001</v>
+      </c>
+      <c r="M8" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
         <v/>
       </c>
-      <c r="N8" s="170"/>
-      <c r="P8" s="183" t="s">
+      <c r="N8" s="169"/>
+      <c r="P8" s="182" t="s">
         <v>108</v>
       </c>
-      <c r="Q8" s="182" t="s">
+      <c r="Q8" s="181" t="s">
         <v>190</v>
       </c>
-      <c r="R8" s="181" t="s">
+      <c r="R8" s="180" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="107"/>
-      <c r="B9" s="177" t="s">
+      <c r="A9" s="106"/>
+      <c r="B9" s="176" t="s">
         <v>186</v>
       </c>
-      <c r="C9" s="177" t="s">
+      <c r="C9" s="176" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="177" t="str">
+      <c r="D9" s="176" t="str">
         <v>AB</v>
       </c>
-      <c r="E9" s="177" t="str">
+      <c r="E9" s="176" t="str">
         <v>6E</v>
       </c>
-      <c r="F9" s="176" t="str">
+      <c r="F9" s="175" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G9" s="176" t="s">
+      <c r="G9" s="175" t="s">
         <v>188</v>
       </c>
-      <c r="H9" s="176" t="str">
+      <c r="H9" s="175" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I9" s="175">
-        <v>0</v>
-      </c>
-      <c r="J9" s="174" t="str">
+      <c r="I9" s="174">
+        <v>0</v>
+      </c>
+      <c r="J9" s="173" t="str">
         <f t="shared" si="2"/>
         <v>EURAB6E21M_Quote</v>
       </c>
-      <c r="K9" s="173" t="str">
+      <c r="K9" s="172" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC6MRH_AB6E21M</v>
       </c>
-      <c r="L9" s="172" t="str">
+      <c r="L9" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E21M#0000</v>
-      </c>
-      <c r="M9" s="171" t="str">
+        <v>EUR_YC6MRH_AB6E21M#0001</v>
+      </c>
+      <c r="M9" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
         <v/>
       </c>
-      <c r="N9" s="170"/>
-      <c r="P9" s="183" t="s">
+      <c r="N9" s="169"/>
+      <c r="P9" s="182" t="s">
         <v>106</v>
       </c>
-      <c r="Q9" s="182" t="s">
+      <c r="Q9" s="181" t="s">
         <v>190</v>
       </c>
-      <c r="R9" s="181" t="s">
+      <c r="R9" s="180" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="107"/>
-      <c r="B10" s="177" t="s">
+      <c r="A10" s="106"/>
+      <c r="B10" s="176" t="s">
         <v>186</v>
       </c>
-      <c r="C10" s="177" t="s">
+      <c r="C10" s="176" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="177" t="str">
+      <c r="D10" s="176" t="str">
         <v>AB</v>
       </c>
-      <c r="E10" s="177" t="str">
+      <c r="E10" s="176" t="str">
         <v>6E</v>
       </c>
-      <c r="F10" s="176" t="str">
+      <c r="F10" s="175" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G10" s="176" t="s">
+      <c r="G10" s="175" t="s">
         <v>188</v>
       </c>
-      <c r="H10" s="176" t="str">
+      <c r="H10" s="175" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I10" s="175">
-        <v>0</v>
-      </c>
-      <c r="J10" s="174" t="str">
+      <c r="I10" s="174">
+        <v>0</v>
+      </c>
+      <c r="J10" s="173" t="str">
         <f t="shared" si="2"/>
         <v>EURAB6E2Y_Quote</v>
       </c>
-      <c r="K10" s="173" t="str">
+      <c r="K10" s="172" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC6MRH_AB6E2Y</v>
       </c>
-      <c r="L10" s="172" t="str">
+      <c r="L10" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E2Y#0000</v>
-      </c>
-      <c r="M10" s="171" t="str">
+        <v>EUR_YC6MRH_AB6E2Y#0001</v>
+      </c>
+      <c r="M10" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
         <v/>
       </c>
-      <c r="N10" s="170"/>
-      <c r="P10" s="180" t="s">
+      <c r="N10" s="169"/>
+      <c r="P10" s="179" t="s">
         <v>104</v>
       </c>
-      <c r="Q10" s="179" t="s">
+      <c r="Q10" s="178" t="s">
         <v>103</v>
       </c>
-      <c r="R10" s="178" t="s">
+      <c r="R10" s="177" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="107"/>
-      <c r="B11" s="177" t="s">
+      <c r="A11" s="106"/>
+      <c r="B11" s="176" t="s">
         <v>186</v>
       </c>
-      <c r="C11" s="177" t="s">
+      <c r="C11" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="177" t="str">
+      <c r="D11" s="176" t="str">
         <v>AB</v>
       </c>
-      <c r="E11" s="177" t="str">
+      <c r="E11" s="176" t="str">
         <v>6E</v>
       </c>
-      <c r="F11" s="176" t="str">
+      <c r="F11" s="175" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G11" s="176" t="s">
+      <c r="G11" s="175" t="s">
         <v>188</v>
       </c>
-      <c r="H11" s="176" t="str">
+      <c r="H11" s="175" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I11" s="175">
-        <v>0</v>
-      </c>
-      <c r="J11" s="174" t="str">
+      <c r="I11" s="174">
+        <v>0</v>
+      </c>
+      <c r="J11" s="173" t="str">
         <f t="shared" si="2"/>
         <v>EURAB6E3Y_Quote</v>
       </c>
-      <c r="K11" s="173" t="str">
+      <c r="K11" s="172" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC6MRH_AB6E3Y</v>
       </c>
-      <c r="L11" s="172" t="str">
+      <c r="L11" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E3Y#0000</v>
-      </c>
-      <c r="M11" s="171" t="str">
+        <v>EUR_YC6MRH_AB6E3Y#0001</v>
+      </c>
+      <c r="M11" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
         <v/>
       </c>
-      <c r="N11" s="170"/>
+      <c r="N11" s="169"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="107"/>
-      <c r="B12" s="177" t="s">
+      <c r="A12" s="106"/>
+      <c r="B12" s="176" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="177" t="s">
+      <c r="C12" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="177" t="str">
+      <c r="D12" s="176" t="str">
         <v>AB</v>
       </c>
-      <c r="E12" s="177" t="str">
+      <c r="E12" s="176" t="str">
         <v>6E</v>
       </c>
-      <c r="F12" s="176" t="str">
+      <c r="F12" s="175" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G12" s="176" t="s">
+      <c r="G12" s="175" t="s">
         <v>188</v>
       </c>
-      <c r="H12" s="176" t="str">
+      <c r="H12" s="175" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I12" s="175">
-        <v>0</v>
-      </c>
-      <c r="J12" s="174" t="str">
+      <c r="I12" s="174">
+        <v>0</v>
+      </c>
+      <c r="J12" s="173" t="str">
         <f t="shared" si="2"/>
         <v>EURAB6E4Y_Quote</v>
       </c>
-      <c r="K12" s="173" t="str">
+      <c r="K12" s="172" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC6MRH_AB6E4Y</v>
       </c>
-      <c r="L12" s="172" t="str">
+      <c r="L12" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E4Y#0000</v>
-      </c>
-      <c r="M12" s="171" t="str">
+        <v>EUR_YC6MRH_AB6E4Y#0001</v>
+      </c>
+      <c r="M12" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
         <v/>
       </c>
-      <c r="N12" s="170"/>
+      <c r="N12" s="169"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="107"/>
-      <c r="B13" s="177" t="s">
+      <c r="A13" s="106"/>
+      <c r="B13" s="176" t="s">
         <v>186</v>
       </c>
-      <c r="C13" s="177" t="s">
+      <c r="C13" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="177" t="str">
+      <c r="D13" s="176" t="str">
         <v>AB</v>
       </c>
-      <c r="E13" s="177" t="str">
+      <c r="E13" s="176" t="str">
         <v>6E</v>
       </c>
-      <c r="F13" s="176" t="str">
+      <c r="F13" s="175" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G13" s="176" t="s">
+      <c r="G13" s="175" t="s">
         <v>188</v>
       </c>
-      <c r="H13" s="176" t="str">
+      <c r="H13" s="175" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I13" s="175">
-        <v>0</v>
-      </c>
-      <c r="J13" s="174" t="str">
+      <c r="I13" s="174">
+        <v>0</v>
+      </c>
+      <c r="J13" s="173" t="str">
         <f t="shared" si="2"/>
         <v>EURAB6E5Y_Quote</v>
       </c>
-      <c r="K13" s="173" t="str">
+      <c r="K13" s="172" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC6MRH_AB6E5Y</v>
       </c>
-      <c r="L13" s="172" t="str">
+      <c r="L13" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E5Y#0000</v>
-      </c>
-      <c r="M13" s="171" t="str">
+        <v>EUR_YC6MRH_AB6E5Y#0001</v>
+      </c>
+      <c r="M13" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
         <v/>
       </c>
-      <c r="N13" s="170"/>
+      <c r="N13" s="169"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="107"/>
-      <c r="B14" s="177" t="s">
+      <c r="A14" s="106"/>
+      <c r="B14" s="176" t="s">
         <v>186</v>
       </c>
-      <c r="C14" s="177" t="s">
+      <c r="C14" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="177" t="str">
+      <c r="D14" s="176" t="str">
         <v>AB</v>
       </c>
-      <c r="E14" s="177" t="str">
+      <c r="E14" s="176" t="str">
         <v>6E</v>
       </c>
-      <c r="F14" s="176" t="str">
+      <c r="F14" s="175" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G14" s="176" t="s">
+      <c r="G14" s="175" t="s">
         <v>188</v>
       </c>
-      <c r="H14" s="176" t="str">
+      <c r="H14" s="175" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I14" s="175">
-        <v>0</v>
-      </c>
-      <c r="J14" s="174" t="str">
+      <c r="I14" s="174">
+        <v>0</v>
+      </c>
+      <c r="J14" s="173" t="str">
         <f t="shared" si="2"/>
         <v>EURAB6E6Y_Quote</v>
       </c>
-      <c r="K14" s="173" t="str">
+      <c r="K14" s="172" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC6MRH_AB6E6Y</v>
       </c>
-      <c r="L14" s="172" t="str">
+      <c r="L14" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E6Y#0000</v>
-      </c>
-      <c r="M14" s="171" t="str">
+        <v>EUR_YC6MRH_AB6E6Y#0001</v>
+      </c>
+      <c r="M14" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
         <v/>
       </c>
-      <c r="N14" s="170"/>
+      <c r="N14" s="169"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="107"/>
-      <c r="B15" s="177" t="s">
+      <c r="A15" s="106"/>
+      <c r="B15" s="176" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="177" t="s">
+      <c r="C15" s="176" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="177" t="str">
+      <c r="D15" s="176" t="str">
         <v>AB</v>
       </c>
-      <c r="E15" s="177" t="str">
+      <c r="E15" s="176" t="str">
         <v>6E</v>
       </c>
-      <c r="F15" s="176" t="str">
+      <c r="F15" s="175" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G15" s="176" t="s">
+      <c r="G15" s="175" t="s">
         <v>188</v>
       </c>
-      <c r="H15" s="176" t="str">
+      <c r="H15" s="175" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I15" s="175">
-        <v>0</v>
-      </c>
-      <c r="J15" s="174" t="str">
+      <c r="I15" s="174">
+        <v>0</v>
+      </c>
+      <c r="J15" s="173" t="str">
         <f t="shared" si="2"/>
         <v>EURAB6E7Y_Quote</v>
       </c>
-      <c r="K15" s="173" t="str">
+      <c r="K15" s="172" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC6MRH_AB6E7Y</v>
       </c>
-      <c r="L15" s="172" t="str">
+      <c r="L15" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E7Y#0000</v>
-      </c>
-      <c r="M15" s="171" t="str">
+        <v>EUR_YC6MRH_AB6E7Y#0001</v>
+      </c>
+      <c r="M15" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
         <v/>
       </c>
-      <c r="N15" s="170"/>
+      <c r="N15" s="169"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="107"/>
-      <c r="B16" s="177" t="s">
+      <c r="A16" s="106"/>
+      <c r="B16" s="176" t="s">
         <v>186</v>
       </c>
-      <c r="C16" s="177" t="s">
+      <c r="C16" s="176" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="177" t="str">
+      <c r="D16" s="176" t="str">
         <v>AB</v>
       </c>
-      <c r="E16" s="177" t="str">
+      <c r="E16" s="176" t="str">
         <v>6E</v>
       </c>
-      <c r="F16" s="176" t="str">
+      <c r="F16" s="175" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G16" s="176" t="s">
+      <c r="G16" s="175" t="s">
         <v>188</v>
       </c>
-      <c r="H16" s="176" t="str">
+      <c r="H16" s="175" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I16" s="175">
-        <v>0</v>
-      </c>
-      <c r="J16" s="174" t="str">
+      <c r="I16" s="174">
+        <v>0</v>
+      </c>
+      <c r="J16" s="173" t="str">
         <f t="shared" si="2"/>
         <v>EURAB6E8Y_Quote</v>
       </c>
-      <c r="K16" s="173" t="str">
+      <c r="K16" s="172" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC6MRH_AB6E8Y</v>
       </c>
-      <c r="L16" s="172" t="str">
+      <c r="L16" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E8Y#0000</v>
-      </c>
-      <c r="M16" s="171" t="str">
+        <v>EUR_YC6MRH_AB6E8Y#0001</v>
+      </c>
+      <c r="M16" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
         <v/>
       </c>
-      <c r="N16" s="170"/>
+      <c r="N16" s="169"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="107"/>
-      <c r="B17" s="177" t="s">
+      <c r="A17" s="106"/>
+      <c r="B17" s="176" t="s">
         <v>186</v>
       </c>
-      <c r="C17" s="177" t="s">
+      <c r="C17" s="176" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="177" t="str">
+      <c r="D17" s="176" t="str">
         <v>AB</v>
       </c>
-      <c r="E17" s="177" t="str">
+      <c r="E17" s="176" t="str">
         <v>6E</v>
       </c>
-      <c r="F17" s="176" t="str">
+      <c r="F17" s="175" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G17" s="176" t="s">
+      <c r="G17" s="175" t="s">
         <v>188</v>
       </c>
-      <c r="H17" s="176" t="str">
+      <c r="H17" s="175" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I17" s="175">
-        <v>0</v>
-      </c>
-      <c r="J17" s="174" t="str">
+      <c r="I17" s="174">
+        <v>0</v>
+      </c>
+      <c r="J17" s="173" t="str">
         <f t="shared" si="2"/>
         <v>EURAB6E9Y_Quote</v>
       </c>
-      <c r="K17" s="173" t="str">
+      <c r="K17" s="172" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC6MRH_AB6E9Y</v>
       </c>
-      <c r="L17" s="172" t="str">
+      <c r="L17" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E9Y#0000</v>
-      </c>
-      <c r="M17" s="171" t="str">
+        <v>EUR_YC6MRH_AB6E9Y#0001</v>
+      </c>
+      <c r="M17" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
         <v/>
       </c>
-      <c r="N17" s="170"/>
+      <c r="N17" s="169"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="107"/>
-      <c r="B18" s="177" t="s">
+      <c r="A18" s="106"/>
+      <c r="B18" s="176" t="s">
         <v>186</v>
       </c>
-      <c r="C18" s="177" t="s">
+      <c r="C18" s="176" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="177" t="str">
+      <c r="D18" s="176" t="str">
         <v>AB</v>
       </c>
-      <c r="E18" s="177" t="str">
+      <c r="E18" s="176" t="str">
         <v>6E</v>
       </c>
-      <c r="F18" s="176" t="str">
+      <c r="F18" s="175" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G18" s="176" t="s">
+      <c r="G18" s="175" t="s">
         <v>188</v>
       </c>
-      <c r="H18" s="176" t="str">
+      <c r="H18" s="175" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I18" s="175">
-        <v>0</v>
-      </c>
-      <c r="J18" s="174" t="str">
+      <c r="I18" s="174">
+        <v>0</v>
+      </c>
+      <c r="J18" s="173" t="str">
         <f t="shared" si="2"/>
         <v>EURAB6E10Y_Quote</v>
       </c>
-      <c r="K18" s="173" t="str">
+      <c r="K18" s="172" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC6MRH_AB6E10Y</v>
       </c>
-      <c r="L18" s="172" t="str">
+      <c r="L18" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E10Y#0000</v>
-      </c>
-      <c r="M18" s="171" t="str">
+        <v>EUR_YC6MRH_AB6E10Y#0001</v>
+      </c>
+      <c r="M18" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
         <v/>
       </c>
-      <c r="N18" s="170"/>
+      <c r="N18" s="169"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="107"/>
-      <c r="B19" s="177" t="s">
+      <c r="A19" s="106"/>
+      <c r="B19" s="176" t="s">
         <v>186</v>
       </c>
-      <c r="C19" s="177" t="s">
+      <c r="C19" s="176" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="177" t="str">
+      <c r="D19" s="176" t="str">
         <v>AB</v>
       </c>
-      <c r="E19" s="177" t="str">
+      <c r="E19" s="176" t="str">
         <v>6E</v>
       </c>
-      <c r="F19" s="176" t="str">
+      <c r="F19" s="175" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G19" s="176" t="s">
+      <c r="G19" s="175" t="s">
         <v>188</v>
       </c>
-      <c r="H19" s="176" t="str">
+      <c r="H19" s="175" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I19" s="175">
-        <v>0</v>
-      </c>
-      <c r="J19" s="174" t="str">
+      <c r="I19" s="174">
+        <v>0</v>
+      </c>
+      <c r="J19" s="173" t="str">
         <f t="shared" si="2"/>
         <v>EURAB6E11Y_Quote</v>
       </c>
-      <c r="K19" s="173" t="str">
+      <c r="K19" s="172" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC6MRH_AB6E11Y</v>
       </c>
-      <c r="L19" s="172" t="str">
+      <c r="L19" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E11Y#0000</v>
-      </c>
-      <c r="M19" s="171" t="str">
+        <v>EUR_YC6MRH_AB6E11Y#0001</v>
+      </c>
+      <c r="M19" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
         <v/>
       </c>
-      <c r="N19" s="170"/>
+      <c r="N19" s="169"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="107"/>
-      <c r="B20" s="177" t="s">
+      <c r="A20" s="106"/>
+      <c r="B20" s="176" t="s">
         <v>186</v>
       </c>
-      <c r="C20" s="177" t="s">
+      <c r="C20" s="176" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="177" t="str">
+      <c r="D20" s="176" t="str">
         <v>AB</v>
       </c>
-      <c r="E20" s="177" t="str">
+      <c r="E20" s="176" t="str">
         <v>6E</v>
       </c>
-      <c r="F20" s="176" t="str">
+      <c r="F20" s="175" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G20" s="176" t="s">
+      <c r="G20" s="175" t="s">
         <v>188</v>
       </c>
-      <c r="H20" s="176" t="str">
+      <c r="H20" s="175" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I20" s="175">
-        <v>0</v>
-      </c>
-      <c r="J20" s="174" t="str">
+      <c r="I20" s="174">
+        <v>0</v>
+      </c>
+      <c r="J20" s="173" t="str">
         <f t="shared" si="2"/>
         <v>EURAB6E12Y_Quote</v>
       </c>
-      <c r="K20" s="173" t="str">
+      <c r="K20" s="172" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC6MRH_AB6E12Y</v>
       </c>
-      <c r="L20" s="172" t="str">
+      <c r="L20" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E12Y#0000</v>
-      </c>
-      <c r="M20" s="171" t="str">
+        <v>EUR_YC6MRH_AB6E12Y#0001</v>
+      </c>
+      <c r="M20" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
         <v/>
       </c>
-      <c r="N20" s="170"/>
+      <c r="N20" s="169"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="107"/>
-      <c r="B21" s="177" t="s">
+      <c r="A21" s="106"/>
+      <c r="B21" s="176" t="s">
         <v>186</v>
       </c>
-      <c r="C21" s="177" t="s">
+      <c r="C21" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="177" t="str">
+      <c r="D21" s="176" t="str">
         <v>AB</v>
       </c>
-      <c r="E21" s="177" t="str">
+      <c r="E21" s="176" t="str">
         <v>6E</v>
       </c>
-      <c r="F21" s="176" t="str">
+      <c r="F21" s="175" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G21" s="176" t="s">
+      <c r="G21" s="175" t="s">
         <v>188</v>
       </c>
-      <c r="H21" s="176" t="str">
+      <c r="H21" s="175" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I21" s="175">
-        <v>0</v>
-      </c>
-      <c r="J21" s="174" t="str">
+      <c r="I21" s="174">
+        <v>0</v>
+      </c>
+      <c r="J21" s="173" t="str">
         <f t="shared" si="2"/>
         <v>EURAB6E13Y_Quote</v>
       </c>
-      <c r="K21" s="173" t="str">
+      <c r="K21" s="172" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC6MRH_AB6E13Y</v>
       </c>
-      <c r="L21" s="172" t="str">
+      <c r="L21" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E13Y#0000</v>
-      </c>
-      <c r="M21" s="171" t="str">
+        <v>EUR_YC6MRH_AB6E13Y#0001</v>
+      </c>
+      <c r="M21" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
         <v/>
       </c>
-      <c r="N21" s="170"/>
+      <c r="N21" s="169"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="107"/>
-      <c r="B22" s="177" t="s">
+      <c r="A22" s="106"/>
+      <c r="B22" s="176" t="s">
         <v>186</v>
       </c>
-      <c r="C22" s="177" t="s">
+      <c r="C22" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="177" t="str">
+      <c r="D22" s="176" t="str">
         <v>AB</v>
       </c>
-      <c r="E22" s="177" t="str">
+      <c r="E22" s="176" t="str">
         <v>6E</v>
       </c>
-      <c r="F22" s="176" t="str">
+      <c r="F22" s="175" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G22" s="176" t="s">
+      <c r="G22" s="175" t="s">
         <v>188</v>
       </c>
-      <c r="H22" s="176" t="str">
+      <c r="H22" s="175" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I22" s="175">
-        <v>0</v>
-      </c>
-      <c r="J22" s="174" t="str">
+      <c r="I22" s="174">
+        <v>0</v>
+      </c>
+      <c r="J22" s="173" t="str">
         <f t="shared" si="2"/>
         <v>EURAB6E14Y_Quote</v>
       </c>
-      <c r="K22" s="173" t="str">
+      <c r="K22" s="172" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC6MRH_AB6E14Y</v>
       </c>
-      <c r="L22" s="172" t="str">
+      <c r="L22" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E14Y#0000</v>
-      </c>
-      <c r="M22" s="171" t="str">
+        <v>EUR_YC6MRH_AB6E14Y#0001</v>
+      </c>
+      <c r="M22" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
         <v/>
       </c>
-      <c r="N22" s="170"/>
+      <c r="N22" s="169"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="107"/>
-      <c r="B23" s="177" t="s">
+      <c r="A23" s="106"/>
+      <c r="B23" s="176" t="s">
         <v>186</v>
       </c>
-      <c r="C23" s="177" t="s">
+      <c r="C23" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="177" t="str">
+      <c r="D23" s="176" t="str">
         <v>AB</v>
       </c>
-      <c r="E23" s="177" t="str">
+      <c r="E23" s="176" t="str">
         <v>6E</v>
       </c>
-      <c r="F23" s="176" t="str">
+      <c r="F23" s="175" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G23" s="176" t="s">
+      <c r="G23" s="175" t="s">
         <v>188</v>
       </c>
-      <c r="H23" s="176" t="str">
+      <c r="H23" s="175" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I23" s="175">
-        <v>0</v>
-      </c>
-      <c r="J23" s="174" t="str">
+      <c r="I23" s="174">
+        <v>0</v>
+      </c>
+      <c r="J23" s="173" t="str">
         <f t="shared" si="2"/>
         <v>EURAB6E15Y_Quote</v>
       </c>
-      <c r="K23" s="173" t="str">
+      <c r="K23" s="172" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC6MRH_AB6E15Y</v>
       </c>
-      <c r="L23" s="172" t="str">
+      <c r="L23" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E15Y#0000</v>
-      </c>
-      <c r="M23" s="171" t="str">
+        <v>EUR_YC6MRH_AB6E15Y#0001</v>
+      </c>
+      <c r="M23" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
         <v/>
       </c>
-      <c r="N23" s="170"/>
+      <c r="N23" s="169"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="107"/>
-      <c r="B24" s="177" t="s">
+      <c r="A24" s="106"/>
+      <c r="B24" s="176" t="s">
         <v>186</v>
       </c>
-      <c r="C24" s="177" t="s">
+      <c r="C24" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="177" t="str">
+      <c r="D24" s="176" t="str">
         <v>AB</v>
       </c>
-      <c r="E24" s="177" t="str">
+      <c r="E24" s="176" t="str">
         <v>6E</v>
       </c>
-      <c r="F24" s="176" t="str">
+      <c r="F24" s="175" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G24" s="176" t="s">
+      <c r="G24" s="175" t="s">
         <v>188</v>
       </c>
-      <c r="H24" s="176" t="str">
+      <c r="H24" s="175" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I24" s="175">
-        <v>0</v>
-      </c>
-      <c r="J24" s="174" t="str">
+      <c r="I24" s="174">
+        <v>0</v>
+      </c>
+      <c r="J24" s="173" t="str">
         <f t="shared" si="2"/>
         <v>EURAB6E16Y_Quote</v>
       </c>
-      <c r="K24" s="173" t="str">
+      <c r="K24" s="172" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC6MRH_AB6E16Y</v>
       </c>
-      <c r="L24" s="172" t="str">
+      <c r="L24" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E16Y#0000</v>
-      </c>
-      <c r="M24" s="171" t="str">
+        <v>EUR_YC6MRH_AB6E16Y#0001</v>
+      </c>
+      <c r="M24" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
         <v/>
       </c>
-      <c r="N24" s="170"/>
+      <c r="N24" s="169"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="107"/>
-      <c r="B25" s="177" t="s">
+      <c r="A25" s="106"/>
+      <c r="B25" s="176" t="s">
         <v>186</v>
       </c>
-      <c r="C25" s="177" t="s">
+      <c r="C25" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="177" t="str">
+      <c r="D25" s="176" t="str">
         <v>AB</v>
       </c>
-      <c r="E25" s="177" t="str">
+      <c r="E25" s="176" t="str">
         <v>6E</v>
       </c>
-      <c r="F25" s="176" t="str">
+      <c r="F25" s="175" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G25" s="176" t="s">
+      <c r="G25" s="175" t="s">
         <v>188</v>
       </c>
-      <c r="H25" s="176" t="str">
+      <c r="H25" s="175" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I25" s="175">
-        <v>0</v>
-      </c>
-      <c r="J25" s="174" t="str">
+      <c r="I25" s="174">
+        <v>0</v>
+      </c>
+      <c r="J25" s="173" t="str">
         <f t="shared" si="2"/>
         <v>EURAB6E17Y_Quote</v>
       </c>
-      <c r="K25" s="173" t="str">
+      <c r="K25" s="172" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC6MRH_AB6E17Y</v>
       </c>
-      <c r="L25" s="172" t="str">
+      <c r="L25" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E17Y#0000</v>
-      </c>
-      <c r="M25" s="171" t="str">
+        <v>EUR_YC6MRH_AB6E17Y#0001</v>
+      </c>
+      <c r="M25" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
         <v/>
       </c>
-      <c r="N25" s="170"/>
+      <c r="N25" s="169"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="107"/>
-      <c r="B26" s="177" t="s">
+      <c r="A26" s="106"/>
+      <c r="B26" s="176" t="s">
         <v>186</v>
       </c>
-      <c r="C26" s="177" t="s">
+      <c r="C26" s="176" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="177" t="str">
+      <c r="D26" s="176" t="str">
         <v>AB</v>
       </c>
-      <c r="E26" s="177" t="str">
+      <c r="E26" s="176" t="str">
         <v>6E</v>
       </c>
-      <c r="F26" s="176" t="str">
+      <c r="F26" s="175" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G26" s="176" t="s">
+      <c r="G26" s="175" t="s">
         <v>188</v>
       </c>
-      <c r="H26" s="176" t="str">
+      <c r="H26" s="175" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I26" s="175">
-        <v>0</v>
-      </c>
-      <c r="J26" s="174" t="str">
+      <c r="I26" s="174">
+        <v>0</v>
+      </c>
+      <c r="J26" s="173" t="str">
         <f t="shared" si="2"/>
         <v>EURAB6E18Y_Quote</v>
       </c>
-      <c r="K26" s="173" t="str">
+      <c r="K26" s="172" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC6MRH_AB6E18Y</v>
       </c>
-      <c r="L26" s="172" t="str">
+      <c r="L26" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E18Y#0000</v>
-      </c>
-      <c r="M26" s="171" t="str">
+        <v>EUR_YC6MRH_AB6E18Y#0001</v>
+      </c>
+      <c r="M26" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
         <v/>
       </c>
-      <c r="N26" s="170"/>
+      <c r="N26" s="169"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="107"/>
-      <c r="B27" s="177" t="s">
+      <c r="A27" s="106"/>
+      <c r="B27" s="176" t="s">
         <v>186</v>
       </c>
-      <c r="C27" s="177" t="s">
+      <c r="C27" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="177" t="str">
+      <c r="D27" s="176" t="str">
         <v>AB</v>
       </c>
-      <c r="E27" s="177" t="str">
+      <c r="E27" s="176" t="str">
         <v>6E</v>
       </c>
-      <c r="F27" s="176" t="str">
+      <c r="F27" s="175" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G27" s="176" t="s">
+      <c r="G27" s="175" t="s">
         <v>188</v>
       </c>
-      <c r="H27" s="176" t="str">
+      <c r="H27" s="175" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I27" s="175">
-        <v>0</v>
-      </c>
-      <c r="J27" s="174" t="str">
+      <c r="I27" s="174">
+        <v>0</v>
+      </c>
+      <c r="J27" s="173" t="str">
         <f t="shared" si="2"/>
         <v>EURAB6E19Y_Quote</v>
       </c>
-      <c r="K27" s="173" t="str">
+      <c r="K27" s="172" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC6MRH_AB6E19Y</v>
       </c>
-      <c r="L27" s="172" t="str">
+      <c r="L27" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E19Y#0000</v>
-      </c>
-      <c r="M27" s="171" t="str">
+        <v>EUR_YC6MRH_AB6E19Y#0001</v>
+      </c>
+      <c r="M27" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
         <v/>
       </c>
-      <c r="N27" s="170"/>
+      <c r="N27" s="169"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="107"/>
-      <c r="B28" s="177" t="s">
+      <c r="A28" s="106"/>
+      <c r="B28" s="176" t="s">
         <v>186</v>
       </c>
-      <c r="C28" s="177" t="s">
+      <c r="C28" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="177" t="str">
+      <c r="D28" s="176" t="str">
         <v>AB</v>
       </c>
-      <c r="E28" s="177" t="str">
+      <c r="E28" s="176" t="str">
         <v>6E</v>
       </c>
-      <c r="F28" s="176" t="str">
+      <c r="F28" s="175" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G28" s="176" t="s">
+      <c r="G28" s="175" t="s">
         <v>188</v>
       </c>
-      <c r="H28" s="176" t="str">
+      <c r="H28" s="175" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I28" s="175">
-        <v>0</v>
-      </c>
-      <c r="J28" s="174" t="str">
+      <c r="I28" s="174">
+        <v>0</v>
+      </c>
+      <c r="J28" s="173" t="str">
         <f t="shared" si="2"/>
         <v>EURAB6E20Y_Quote</v>
       </c>
-      <c r="K28" s="173" t="str">
+      <c r="K28" s="172" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC6MRH_AB6E20Y</v>
       </c>
-      <c r="L28" s="172" t="str">
+      <c r="L28" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E20Y#0000</v>
-      </c>
-      <c r="M28" s="171" t="str">
+        <v>EUR_YC6MRH_AB6E20Y#0001</v>
+      </c>
+      <c r="M28" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
         <v/>
       </c>
-      <c r="N28" s="170"/>
+      <c r="N28" s="169"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="107"/>
-      <c r="B29" s="177" t="s">
+      <c r="A29" s="106"/>
+      <c r="B29" s="176" t="s">
         <v>186</v>
       </c>
-      <c r="C29" s="177" t="s">
+      <c r="C29" s="176" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="177" t="str">
+      <c r="D29" s="176" t="str">
         <v>AB</v>
       </c>
-      <c r="E29" s="177" t="str">
+      <c r="E29" s="176" t="str">
         <v>6E</v>
       </c>
-      <c r="F29" s="176" t="str">
+      <c r="F29" s="175" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G29" s="176" t="s">
+      <c r="G29" s="175" t="s">
         <v>188</v>
       </c>
-      <c r="H29" s="176" t="str">
+      <c r="H29" s="175" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I29" s="175">
-        <v>0</v>
-      </c>
-      <c r="J29" s="174" t="str">
+      <c r="I29" s="174">
+        <v>0</v>
+      </c>
+      <c r="J29" s="173" t="str">
         <f t="shared" si="2"/>
         <v>EURAB6E21Y_Quote</v>
       </c>
-      <c r="K29" s="173" t="str">
+      <c r="K29" s="172" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC6MRH_AB6E21Y</v>
       </c>
-      <c r="L29" s="172" t="str">
+      <c r="L29" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E21Y#0000</v>
-      </c>
-      <c r="M29" s="171" t="str">
+        <v>EUR_YC6MRH_AB6E21Y#0001</v>
+      </c>
+      <c r="M29" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
         <v/>
       </c>
-      <c r="N29" s="170"/>
+      <c r="N29" s="169"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="107"/>
-      <c r="B30" s="177" t="s">
+      <c r="A30" s="106"/>
+      <c r="B30" s="176" t="s">
         <v>186</v>
       </c>
-      <c r="C30" s="177" t="s">
+      <c r="C30" s="176" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="177" t="str">
+      <c r="D30" s="176" t="str">
         <v>AB</v>
       </c>
-      <c r="E30" s="177" t="str">
+      <c r="E30" s="176" t="str">
         <v>6E</v>
       </c>
-      <c r="F30" s="176" t="str">
+      <c r="F30" s="175" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G30" s="176" t="s">
+      <c r="G30" s="175" t="s">
         <v>188</v>
       </c>
-      <c r="H30" s="176" t="str">
+      <c r="H30" s="175" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I30" s="175">
-        <v>0</v>
-      </c>
-      <c r="J30" s="174" t="str">
+      <c r="I30" s="174">
+        <v>0</v>
+      </c>
+      <c r="J30" s="173" t="str">
         <f t="shared" si="2"/>
         <v>EURAB6E22Y_Quote</v>
       </c>
-      <c r="K30" s="173" t="str">
+      <c r="K30" s="172" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC6MRH_AB6E22Y</v>
       </c>
-      <c r="L30" s="172" t="str">
+      <c r="L30" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E22Y#0000</v>
-      </c>
-      <c r="M30" s="171" t="str">
+        <v>EUR_YC6MRH_AB6E22Y#0001</v>
+      </c>
+      <c r="M30" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
         <v/>
       </c>
-      <c r="N30" s="170"/>
+      <c r="N30" s="169"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="107"/>
-      <c r="B31" s="177" t="s">
+      <c r="A31" s="106"/>
+      <c r="B31" s="176" t="s">
         <v>186</v>
       </c>
-      <c r="C31" s="177" t="s">
+      <c r="C31" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="177" t="str">
+      <c r="D31" s="176" t="str">
         <v>AB</v>
       </c>
-      <c r="E31" s="177" t="str">
+      <c r="E31" s="176" t="str">
         <v>6E</v>
       </c>
-      <c r="F31" s="176" t="str">
+      <c r="F31" s="175" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G31" s="176" t="s">
+      <c r="G31" s="175" t="s">
         <v>188</v>
       </c>
-      <c r="H31" s="176" t="str">
+      <c r="H31" s="175" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I31" s="175">
-        <v>0</v>
-      </c>
-      <c r="J31" s="174" t="str">
+      <c r="I31" s="174">
+        <v>0</v>
+      </c>
+      <c r="J31" s="173" t="str">
         <f t="shared" si="2"/>
         <v>EURAB6E23Y_Quote</v>
       </c>
-      <c r="K31" s="173" t="str">
+      <c r="K31" s="172" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC6MRH_AB6E23Y</v>
       </c>
-      <c r="L31" s="172" t="str">
+      <c r="L31" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E23Y#0000</v>
-      </c>
-      <c r="M31" s="171" t="str">
+        <v>EUR_YC6MRH_AB6E23Y#0001</v>
+      </c>
+      <c r="M31" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
         <v/>
       </c>
-      <c r="N31" s="170"/>
+      <c r="N31" s="169"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="107"/>
-      <c r="B32" s="177" t="s">
+      <c r="A32" s="106"/>
+      <c r="B32" s="176" t="s">
         <v>186</v>
       </c>
-      <c r="C32" s="177" t="s">
+      <c r="C32" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="177" t="str">
+      <c r="D32" s="176" t="str">
         <v>AB</v>
       </c>
-      <c r="E32" s="177" t="str">
+      <c r="E32" s="176" t="str">
         <v>6E</v>
       </c>
-      <c r="F32" s="176" t="str">
+      <c r="F32" s="175" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G32" s="176" t="s">
+      <c r="G32" s="175" t="s">
         <v>188</v>
       </c>
-      <c r="H32" s="176" t="str">
+      <c r="H32" s="175" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I32" s="175">
-        <v>0</v>
-      </c>
-      <c r="J32" s="174" t="str">
+      <c r="I32" s="174">
+        <v>0</v>
+      </c>
+      <c r="J32" s="173" t="str">
         <f t="shared" si="2"/>
         <v>EURAB6E24Y_Quote</v>
       </c>
-      <c r="K32" s="173" t="str">
+      <c r="K32" s="172" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC6MRH_AB6E24Y</v>
       </c>
-      <c r="L32" s="172" t="str">
+      <c r="L32" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E24Y#0000</v>
-      </c>
-      <c r="M32" s="171" t="str">
+        <v>EUR_YC6MRH_AB6E24Y#0001</v>
+      </c>
+      <c r="M32" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
         <v/>
       </c>
-      <c r="N32" s="170"/>
+      <c r="N32" s="169"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="107"/>
-      <c r="B33" s="177" t="s">
+      <c r="A33" s="106"/>
+      <c r="B33" s="176" t="s">
         <v>186</v>
       </c>
-      <c r="C33" s="177" t="s">
+      <c r="C33" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="177" t="str">
+      <c r="D33" s="176" t="str">
         <v>AB</v>
       </c>
-      <c r="E33" s="177" t="str">
+      <c r="E33" s="176" t="str">
         <v>6E</v>
       </c>
-      <c r="F33" s="176" t="str">
+      <c r="F33" s="175" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G33" s="176" t="s">
+      <c r="G33" s="175" t="s">
         <v>188</v>
       </c>
-      <c r="H33" s="176" t="str">
+      <c r="H33" s="175" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I33" s="175">
-        <v>0</v>
-      </c>
-      <c r="J33" s="174" t="str">
+      <c r="I33" s="174">
+        <v>0</v>
+      </c>
+      <c r="J33" s="173" t="str">
         <f t="shared" si="2"/>
         <v>EURAB6E25Y_Quote</v>
       </c>
-      <c r="K33" s="173" t="str">
+      <c r="K33" s="172" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC6MRH_AB6E25Y</v>
       </c>
-      <c r="L33" s="172" t="str">
+      <c r="L33" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E25Y#0000</v>
-      </c>
-      <c r="M33" s="171" t="str">
+        <v>EUR_YC6MRH_AB6E25Y#0001</v>
+      </c>
+      <c r="M33" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
         <v/>
       </c>
-      <c r="N33" s="170"/>
+      <c r="N33" s="169"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="107"/>
-      <c r="B34" s="177" t="s">
+      <c r="A34" s="106"/>
+      <c r="B34" s="176" t="s">
         <v>186</v>
       </c>
-      <c r="C34" s="177" t="s">
+      <c r="C34" s="176" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="177" t="str">
+      <c r="D34" s="176" t="str">
         <v>AB</v>
       </c>
-      <c r="E34" s="177" t="str">
+      <c r="E34" s="176" t="str">
         <v>6E</v>
       </c>
-      <c r="F34" s="176" t="str">
+      <c r="F34" s="175" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G34" s="176" t="s">
+      <c r="G34" s="175" t="s">
         <v>188</v>
       </c>
-      <c r="H34" s="176" t="str">
+      <c r="H34" s="175" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I34" s="175">
-        <v>0</v>
-      </c>
-      <c r="J34" s="174" t="str">
+      <c r="I34" s="174">
+        <v>0</v>
+      </c>
+      <c r="J34" s="173" t="str">
         <f t="shared" si="2"/>
         <v>EURAB6E26Y_Quote</v>
       </c>
-      <c r="K34" s="173" t="str">
+      <c r="K34" s="172" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC6MRH_AB6E26Y</v>
       </c>
-      <c r="L34" s="172" t="str">
+      <c r="L34" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E26Y#0000</v>
-      </c>
-      <c r="M34" s="171" t="str">
+        <v>EUR_YC6MRH_AB6E26Y#0001</v>
+      </c>
+      <c r="M34" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
         <v/>
       </c>
-      <c r="N34" s="170"/>
+      <c r="N34" s="169"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="107"/>
-      <c r="B35" s="177" t="s">
+      <c r="A35" s="106"/>
+      <c r="B35" s="176" t="s">
         <v>186</v>
       </c>
-      <c r="C35" s="177" t="s">
+      <c r="C35" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="177" t="str">
+      <c r="D35" s="176" t="str">
         <v>AB</v>
       </c>
-      <c r="E35" s="177" t="str">
+      <c r="E35" s="176" t="str">
         <v>6E</v>
       </c>
-      <c r="F35" s="176" t="str">
+      <c r="F35" s="175" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G35" s="176" t="s">
+      <c r="G35" s="175" t="s">
         <v>188</v>
       </c>
-      <c r="H35" s="176" t="str">
+      <c r="H35" s="175" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I35" s="175">
-        <v>0</v>
-      </c>
-      <c r="J35" s="174" t="str">
+      <c r="I35" s="174">
+        <v>0</v>
+      </c>
+      <c r="J35" s="173" t="str">
         <f t="shared" si="2"/>
         <v>EURAB6E27Y_Quote</v>
       </c>
-      <c r="K35" s="173" t="str">
+      <c r="K35" s="172" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC6MRH_AB6E27Y</v>
       </c>
-      <c r="L35" s="172" t="str">
+      <c r="L35" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E27Y#0000</v>
-      </c>
-      <c r="M35" s="171" t="str">
+        <v>EUR_YC6MRH_AB6E27Y#0001</v>
+      </c>
+      <c r="M35" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
         <v/>
       </c>
-      <c r="N35" s="170"/>
+      <c r="N35" s="169"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="107"/>
-      <c r="B36" s="177" t="s">
+      <c r="A36" s="106"/>
+      <c r="B36" s="176" t="s">
         <v>186</v>
       </c>
-      <c r="C36" s="177" t="s">
+      <c r="C36" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="177" t="str">
+      <c r="D36" s="176" t="str">
         <v>AB</v>
       </c>
-      <c r="E36" s="177" t="str">
+      <c r="E36" s="176" t="str">
         <v>6E</v>
       </c>
-      <c r="F36" s="176" t="str">
+      <c r="F36" s="175" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G36" s="176" t="s">
+      <c r="G36" s="175" t="s">
         <v>188</v>
       </c>
-      <c r="H36" s="176" t="str">
+      <c r="H36" s="175" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I36" s="175">
-        <v>0</v>
-      </c>
-      <c r="J36" s="174" t="str">
+      <c r="I36" s="174">
+        <v>0</v>
+      </c>
+      <c r="J36" s="173" t="str">
         <f t="shared" si="2"/>
         <v>EURAB6E28Y_Quote</v>
       </c>
-      <c r="K36" s="173" t="str">
+      <c r="K36" s="172" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC6MRH_AB6E28Y</v>
       </c>
-      <c r="L36" s="172" t="str">
+      <c r="L36" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E28Y#0000</v>
-      </c>
-      <c r="M36" s="171" t="str">
+        <v>EUR_YC6MRH_AB6E28Y#0001</v>
+      </c>
+      <c r="M36" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
         <v/>
       </c>
-      <c r="N36" s="170"/>
+      <c r="N36" s="169"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="107"/>
-      <c r="B37" s="177" t="s">
+      <c r="A37" s="106"/>
+      <c r="B37" s="176" t="s">
         <v>186</v>
       </c>
-      <c r="C37" s="177" t="s">
+      <c r="C37" s="176" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="177" t="str">
+      <c r="D37" s="176" t="str">
         <v>AB</v>
       </c>
-      <c r="E37" s="177" t="str">
+      <c r="E37" s="176" t="str">
         <v>6E</v>
       </c>
-      <c r="F37" s="176" t="str">
+      <c r="F37" s="175" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G37" s="176" t="s">
+      <c r="G37" s="175" t="s">
         <v>188</v>
       </c>
-      <c r="H37" s="176" t="str">
+      <c r="H37" s="175" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I37" s="175">
-        <v>0</v>
-      </c>
-      <c r="J37" s="174" t="str">
+      <c r="I37" s="174">
+        <v>0</v>
+      </c>
+      <c r="J37" s="173" t="str">
         <f t="shared" si="2"/>
         <v>EURAB6E29Y_Quote</v>
       </c>
-      <c r="K37" s="173" t="str">
+      <c r="K37" s="172" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC6MRH_AB6E29Y</v>
       </c>
-      <c r="L37" s="172" t="str">
+      <c r="L37" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E29Y#0000</v>
-      </c>
-      <c r="M37" s="171" t="str">
+        <v>EUR_YC6MRH_AB6E29Y#0001</v>
+      </c>
+      <c r="M37" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
         <v/>
       </c>
-      <c r="N37" s="170"/>
+      <c r="N37" s="169"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="107"/>
-      <c r="B38" s="177" t="s">
+      <c r="A38" s="106"/>
+      <c r="B38" s="176" t="s">
         <v>186</v>
       </c>
-      <c r="C38" s="177" t="s">
+      <c r="C38" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="177" t="str">
+      <c r="D38" s="176" t="str">
         <v>AB</v>
       </c>
-      <c r="E38" s="177" t="str">
+      <c r="E38" s="176" t="str">
         <v>6E</v>
       </c>
-      <c r="F38" s="176" t="str">
+      <c r="F38" s="175" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G38" s="176" t="s">
+      <c r="G38" s="175" t="s">
         <v>188</v>
       </c>
-      <c r="H38" s="176" t="str">
+      <c r="H38" s="175" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I38" s="175">
-        <v>0</v>
-      </c>
-      <c r="J38" s="174" t="str">
+      <c r="I38" s="174">
+        <v>0</v>
+      </c>
+      <c r="J38" s="173" t="str">
         <f t="shared" si="2"/>
         <v>EURAB6E30Y_Quote</v>
       </c>
-      <c r="K38" s="173" t="str">
+      <c r="K38" s="172" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC6MRH_AB6E30Y</v>
       </c>
-      <c r="L38" s="172" t="str">
+      <c r="L38" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E30Y#0000</v>
-      </c>
-      <c r="M38" s="171" t="str">
+        <v>EUR_YC6MRH_AB6E30Y#0001</v>
+      </c>
+      <c r="M38" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
         <v/>
       </c>
-      <c r="N38" s="170"/>
+      <c r="N38" s="169"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="107"/>
-      <c r="B39" s="177" t="s">
+      <c r="A39" s="106"/>
+      <c r="B39" s="176" t="s">
         <v>186</v>
       </c>
-      <c r="C39" s="177" t="s">
+      <c r="C39" s="176" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="177" t="str">
+      <c r="D39" s="176" t="str">
         <v>AB</v>
       </c>
-      <c r="E39" s="177" t="str">
+      <c r="E39" s="176" t="str">
         <v>6E</v>
       </c>
-      <c r="F39" s="176" t="str">
+      <c r="F39" s="175" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G39" s="176" t="s">
+      <c r="G39" s="175" t="s">
         <v>188</v>
       </c>
-      <c r="H39" s="176" t="str">
+      <c r="H39" s="175" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I39" s="175">
-        <v>0</v>
-      </c>
-      <c r="J39" s="174" t="str">
+      <c r="I39" s="174">
+        <v>0</v>
+      </c>
+      <c r="J39" s="173" t="str">
         <f t="shared" si="2"/>
         <v>EURAB6E35Y_Quote</v>
       </c>
-      <c r="K39" s="173" t="str">
+      <c r="K39" s="172" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC6MRH_AB6E35Y</v>
       </c>
-      <c r="L39" s="172" t="str">
+      <c r="L39" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E35Y#0000</v>
-      </c>
-      <c r="M39" s="171" t="str">
+        <v>EUR_YC6MRH_AB6E35Y#0001</v>
+      </c>
+      <c r="M39" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
         <v/>
       </c>
-      <c r="N39" s="170"/>
+      <c r="N39" s="169"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="107"/>
-      <c r="B40" s="177" t="s">
+      <c r="A40" s="106"/>
+      <c r="B40" s="176" t="s">
         <v>186</v>
       </c>
-      <c r="C40" s="177" t="s">
+      <c r="C40" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="177" t="str">
+      <c r="D40" s="176" t="str">
         <v>AB</v>
       </c>
-      <c r="E40" s="177" t="str">
+      <c r="E40" s="176" t="str">
         <v>6E</v>
       </c>
-      <c r="F40" s="176" t="str">
+      <c r="F40" s="175" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G40" s="176" t="s">
+      <c r="G40" s="175" t="s">
         <v>188</v>
       </c>
-      <c r="H40" s="176" t="str">
+      <c r="H40" s="175" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I40" s="175">
-        <v>0</v>
-      </c>
-      <c r="J40" s="174" t="str">
+      <c r="I40" s="174">
+        <v>0</v>
+      </c>
+      <c r="J40" s="173" t="str">
         <f t="shared" si="2"/>
         <v>EURAB6E40Y_Quote</v>
       </c>
-      <c r="K40" s="173" t="str">
+      <c r="K40" s="172" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC6MRH_AB6E40Y</v>
       </c>
-      <c r="L40" s="172" t="str">
+      <c r="L40" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E40Y#0000</v>
-      </c>
-      <c r="M40" s="171" t="str">
+        <v>EUR_YC6MRH_AB6E40Y#0001</v>
+      </c>
+      <c r="M40" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
         <v/>
       </c>
-      <c r="N40" s="170"/>
+      <c r="N40" s="169"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="107"/>
-      <c r="B41" s="177" t="s">
+      <c r="A41" s="106"/>
+      <c r="B41" s="176" t="s">
         <v>186</v>
       </c>
-      <c r="C41" s="177" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" s="177" t="str">
+      <c r="C41" s="176" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="176" t="str">
         <v>AB</v>
       </c>
-      <c r="E41" s="177" t="str">
+      <c r="E41" s="176" t="str">
         <v>6E</v>
       </c>
-      <c r="F41" s="176" t="str">
+      <c r="F41" s="175" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G41" s="176" t="s">
+      <c r="G41" s="175" t="s">
         <v>188</v>
       </c>
-      <c r="H41" s="176" t="str">
+      <c r="H41" s="175" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I41" s="175">
-        <v>0</v>
-      </c>
-      <c r="J41" s="174" t="str">
+      <c r="I41" s="174">
+        <v>0</v>
+      </c>
+      <c r="J41" s="173" t="str">
         <f t="shared" si="2"/>
         <v>EURAB6E50Y_Quote</v>
       </c>
-      <c r="K41" s="173" t="str">
+      <c r="K41" s="172" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC6MRH_AB6E50Y</v>
       </c>
-      <c r="L41" s="172" t="str">
+      <c r="L41" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E50Y#0000</v>
-      </c>
-      <c r="M41" s="171" t="str">
+        <v>EUR_YC6MRH_AB6E50Y#0001</v>
+      </c>
+      <c r="M41" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
         <v/>
       </c>
-      <c r="N41" s="170"/>
+      <c r="N41" s="169"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="107"/>
-      <c r="B42" s="177" t="s">
+      <c r="A42" s="106"/>
+      <c r="B42" s="176" t="s">
         <v>186</v>
       </c>
-      <c r="C42" s="177" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="177" t="str">
+      <c r="C42" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="176" t="str">
         <v>AB</v>
       </c>
-      <c r="E42" s="177" t="str">
+      <c r="E42" s="176" t="str">
         <v>6E</v>
       </c>
-      <c r="F42" s="176" t="str">
+      <c r="F42" s="175" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G42" s="176" t="s">
+      <c r="G42" s="175" t="s">
         <v>188</v>
       </c>
-      <c r="H42" s="176" t="str">
+      <c r="H42" s="175" t="str">
         <f t="shared" si="1"/>
         <v>30/360 (Bond Basis)</v>
       </c>
-      <c r="I42" s="175">
-        <v>0</v>
-      </c>
-      <c r="J42" s="174" t="str">
+      <c r="I42" s="174">
+        <v>0</v>
+      </c>
+      <c r="J42" s="173" t="str">
         <f t="shared" si="2"/>
         <v>EURAB6E60Y_Quote</v>
       </c>
-      <c r="K42" s="173" t="str">
+      <c r="K42" s="172" t="str">
         <f t="shared" si="3"/>
         <v>EUR_YC6MRH_AB6E60Y</v>
       </c>
-      <c r="L42" s="172" t="str">
+      <c r="L42" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E60Y#0000</v>
-      </c>
-      <c r="M42" s="171" t="str">
+        <v>EUR_YC6MRH_AB6E60Y#0001</v>
+      </c>
+      <c r="M42" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>
         <v/>
       </c>
-      <c r="N42" s="170"/>
+      <c r="N42" s="169"/>
     </row>
     <row r="43" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="99"/>
+      <c r="A43" s="98"/>
       <c r="B43" s="91"/>
       <c r="C43" s="91"/>
       <c r="D43" s="91"/>
@@ -16482,9 +16482,9 @@
       <c r="I43" s="91"/>
       <c r="J43" s="91"/>
       <c r="K43" s="91"/>
-      <c r="L43" s="169"/>
-      <c r="M43" s="169"/>
-      <c r="N43" s="168"/>
+      <c r="L43" s="168"/>
+      <c r="M43" s="168"/>
+      <c r="N43" s="167"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/QuantLibXL/Data2/XLS/EUR_YC6MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR_YC6MBootstrapping.xlsx
@@ -1020,7 +1020,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1077,12 +1077,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1489,43 +1495,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -1542,6 +1511,17 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1864,10 +1844,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1928,17 +1908,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1979,7 +1959,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1"/>
@@ -2004,22 +1984,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2037,7 +2012,12 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="4"/>
@@ -2356,39 +2336,40 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="2.7109375" style="195" customWidth="1"/>
-    <col min="3" max="3" width="18" style="195" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="195" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="195" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="2.7109375" style="195" customWidth="1"/>
-    <col min="8" max="9" width="8" style="195"/>
-    <col min="10" max="11" width="2.7109375" style="195" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="195" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="53.7109375" style="195" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" style="195" customWidth="1"/>
-    <col min="15" max="16384" width="8" style="195"/>
+    <col min="1" max="2" width="2.7109375" style="196" customWidth="1"/>
+    <col min="3" max="3" width="18" style="196" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="196" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="196" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="2.7109375" style="196" customWidth="1"/>
+    <col min="8" max="8" width="4" style="196" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.28515625" style="196" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="2.7109375" style="196" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="196" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="53.7109375" style="196" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="196" customWidth="1"/>
+    <col min="15" max="16384" width="8" style="196"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="195" t="str">
+      <c r="B1" s="196" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Dec  5 2013 11:03:51</v>
-      </c>
-    </row>
-    <row r="2" spans="2:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="203" t="s">
+        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Feb  7 2014 15:33:58</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="198" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="205"/>
-      <c r="K2" s="203" t="s">
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="200"/>
+      <c r="K2" s="198" t="s">
         <v>184</v>
       </c>
-      <c r="L2" s="204"/>
-      <c r="M2" s="204"/>
-      <c r="N2" s="206"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="201"/>
     </row>
     <row r="3" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="61"/>
@@ -2411,10 +2392,10 @@
       </c>
       <c r="E4" s="58"/>
       <c r="F4" s="57"/>
-      <c r="H4" s="198" t="s">
+      <c r="H4" s="207" t="s">
         <v>113</v>
       </c>
-      <c r="I4" s="199"/>
+      <c r="I4" s="208"/>
       <c r="K4" s="132"/>
       <c r="L4" s="131" t="s">
         <v>183</v>
@@ -2434,10 +2415,10 @@
       </c>
       <c r="E5" s="58"/>
       <c r="F5" s="57"/>
-      <c r="H5" s="196" t="s">
+      <c r="H5" s="209" t="s">
         <v>111</v>
       </c>
-      <c r="I5" s="197" t="s">
+      <c r="I5" s="210" t="s">
         <v>110</v>
       </c>
       <c r="K5" s="132"/>
@@ -2446,7 +2427,7 @@
       </c>
       <c r="M5" s="133" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\XML\</v>
+        <v>C:\Users\erik\Documents\repos\quantlib\QuantLibXL\Data2\XML\</v>
       </c>
       <c r="N5" s="130"/>
     </row>
@@ -2461,10 +2442,10 @@
       </c>
       <c r="E6" s="58"/>
       <c r="F6" s="57"/>
-      <c r="H6" s="196" t="s">
+      <c r="H6" s="209" t="s">
         <v>108</v>
       </c>
-      <c r="I6" s="197"/>
+      <c r="I6" s="210"/>
       <c r="K6" s="132"/>
       <c r="L6" s="131" t="s">
         <v>181</v>
@@ -2485,10 +2466,10 @@
       </c>
       <c r="E7" s="58"/>
       <c r="F7" s="57"/>
-      <c r="H7" s="196" t="s">
+      <c r="H7" s="209" t="s">
         <v>106</v>
       </c>
-      <c r="I7" s="197"/>
+      <c r="I7" s="210"/>
       <c r="K7" s="129"/>
       <c r="L7" s="128"/>
       <c r="M7" s="128"/>
@@ -2505,18 +2486,18 @@
       </c>
       <c r="E8" s="58"/>
       <c r="F8" s="57"/>
-      <c r="H8" s="200" t="s">
+      <c r="H8" s="211" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="201" t="s">
+      <c r="I8" s="212" t="s">
         <v>103</v>
       </c>
-      <c r="K8" s="202"/>
-      <c r="L8" s="202"/>
-      <c r="M8" s="202"/>
-      <c r="N8" s="202"/>
-    </row>
-    <row r="9" spans="2:14" ht="18" x14ac:dyDescent="0.25">
+      <c r="K8" s="197"/>
+      <c r="L8" s="197"/>
+      <c r="M8" s="197"/>
+      <c r="N8" s="197"/>
+    </row>
+    <row r="9" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="61"/>
       <c r="C9" s="88" t="s">
         <v>102</v>
@@ -2527,12 +2508,12 @@
       </c>
       <c r="E9" s="58"/>
       <c r="F9" s="57"/>
-      <c r="K9" s="203" t="s">
+      <c r="K9" s="198" t="s">
         <v>180</v>
       </c>
-      <c r="L9" s="204"/>
-      <c r="M9" s="204"/>
-      <c r="N9" s="206"/>
+      <c r="L9" s="199"/>
+      <c r="M9" s="199"/>
+      <c r="N9" s="201"/>
     </row>
     <row r="10" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="61"/>
@@ -2555,7 +2536,7 @@
         <v>100</v>
       </c>
       <c r="D11" s="86">
-        <v>41663.628009259257</v>
+        <v>41684.58452546296</v>
       </c>
       <c r="E11" s="58"/>
       <c r="F11" s="57"/>
@@ -2609,7 +2590,7 @@
       </c>
       <c r="D14" s="83" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D22),NA(),D20:E20),IF(ISERROR(D22),NA(),D21:E21),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_EURYC6M#0003</v>
+        <v>_EURYC6M#0000</v>
       </c>
       <c r="E14" s="58"/>
       <c r="F14" s="57"/>
@@ -2789,7 +2770,7 @@
       <c r="B27" s="61"/>
       <c r="C27" s="65">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="D27" s="64">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
@@ -2802,11 +2783,11 @@
       <c r="B28" s="61"/>
       <c r="C28" s="63">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>63576</v>
+        <v>63604</v>
       </c>
       <c r="D28" s="62">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.18985040492300714</v>
+        <v>0.1898503671165726</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="57"/>
@@ -2899,11 +2880,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B1" s="207" t="s">
+      <c r="B1" s="202" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="208"/>
-      <c r="D1" s="209"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="204"/>
       <c r="E1" s="31" t="s">
         <v>74</v>
       </c>
@@ -3033,11 +3014,11 @@
       </c>
       <c r="K4" s="11">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L4" s="10">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41661</v>
+        <v>41689</v>
       </c>
       <c r="M4" s="1">
         <v>30</v>
@@ -3072,11 +3053,11 @@
       </c>
       <c r="K5" s="11">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L5" s="10">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>41667</v>
+        <v>41695</v>
       </c>
       <c r="M5" s="1">
         <v>40</v>
@@ -3111,11 +3092,11 @@
       </c>
       <c r="K6" s="11">
         <f>_xll.qlRateHelperEarliestDate($E6,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L6" s="10">
         <f>_xll.qlRateHelperLatestDate($E6,Trigger)</f>
-        <v>41674</v>
+        <v>41702</v>
       </c>
       <c r="M6" s="1">
         <v>50</v>
@@ -3150,11 +3131,11 @@
       </c>
       <c r="K7" s="11">
         <f>_xll.qlRateHelperEarliestDate($E7,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L7" s="10">
         <f>_xll.qlRateHelperLatestDate($E7,Trigger)</f>
-        <v>41681</v>
+        <v>41709</v>
       </c>
       <c r="M7" s="1">
         <v>60</v>
@@ -3189,11 +3170,11 @@
       </c>
       <c r="K8" s="11">
         <f>_xll.qlRateHelperEarliestDate($E8,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L8" s="10">
         <f>_xll.qlRateHelperLatestDate($E8,Trigger)</f>
-        <v>41691</v>
+        <v>41716</v>
       </c>
       <c r="M8" s="1">
         <v>70</v>
@@ -3228,11 +3209,11 @@
       </c>
       <c r="K9" s="11">
         <f>_xll.qlRateHelperEarliestDate($E9,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L9" s="10">
         <f>_xll.qlRateHelperLatestDate($E9,Trigger)</f>
-        <v>41719</v>
+        <v>41751</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
@@ -3261,11 +3242,11 @@
       </c>
       <c r="K10" s="11">
         <f>_xll.qlRateHelperEarliestDate($E10,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L10" s="10">
         <f>_xll.qlRateHelperLatestDate($E10,Trigger)</f>
-        <v>41751</v>
+        <v>41778</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
@@ -3294,11 +3275,11 @@
       </c>
       <c r="K11" s="11">
         <f>_xll.qlRateHelperEarliestDate($E11,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L11" s="10">
         <f>_xll.qlRateHelperLatestDate($E11,Trigger)</f>
-        <v>41780</v>
+        <v>41808</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
@@ -3327,11 +3308,11 @@
       </c>
       <c r="K12" s="11">
         <f>_xll.qlRateHelperEarliestDate($E12,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L12" s="10">
         <f>_xll.qlRateHelperLatestDate($E12,Trigger)</f>
-        <v>41813</v>
+        <v>41838</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
@@ -3360,11 +3341,11 @@
       </c>
       <c r="K13" s="11">
         <f>_xll.qlRateHelperEarliestDate($E13,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L13" s="10">
         <f>_xll.qlRateHelperLatestDate($E13,Trigger)</f>
-        <v>41841</v>
+        <v>41869</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
@@ -3464,11 +3445,11 @@
       </c>
       <c r="K16" s="19">
         <f>_xll.qlRateHelperEarliestDate($E16,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L16" s="18">
         <f>_xll.qlRateHelperLatestDate($E16,Trigger)</f>
-        <v>41841</v>
+        <v>41869</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
@@ -3502,11 +3483,11 @@
       </c>
       <c r="K17" s="4">
         <f>_xll.qlRateHelperEarliestDate($E17,Trigger)</f>
-        <v>41661</v>
+        <v>41689</v>
       </c>
       <c r="L17" s="3">
         <f>_xll.qlRateHelperLatestDate($E17,Trigger)</f>
-        <v>41842</v>
+        <v>41870</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
@@ -3540,11 +3521,11 @@
       </c>
       <c r="K18" s="11">
         <f>_xll.qlRateHelperEarliestDate($E18,Trigger)</f>
-        <v>41691</v>
+        <v>41716</v>
       </c>
       <c r="L18" s="10">
         <f>_xll.qlRateHelperLatestDate($E18,Trigger)</f>
-        <v>41872</v>
+        <v>41900</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
@@ -3578,11 +3559,11 @@
       </c>
       <c r="K19" s="11">
         <f>_xll.qlRateHelperEarliestDate($E19,Trigger)</f>
-        <v>41719</v>
+        <v>41751</v>
       </c>
       <c r="L19" s="10">
         <f>_xll.qlRateHelperLatestDate($E19,Trigger)</f>
-        <v>41904</v>
+        <v>41934</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
@@ -3616,11 +3597,11 @@
       </c>
       <c r="K20" s="11">
         <f>_xll.qlRateHelperEarliestDate($E20,Trigger)</f>
-        <v>41751</v>
+        <v>41778</v>
       </c>
       <c r="L20" s="10">
         <f>_xll.qlRateHelperLatestDate($E20,Trigger)</f>
-        <v>41934</v>
+        <v>41962</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
@@ -3654,11 +3635,11 @@
       </c>
       <c r="K21" s="11">
         <f>_xll.qlRateHelperEarliestDate($E21,Trigger)</f>
-        <v>41780</v>
+        <v>41808</v>
       </c>
       <c r="L21" s="10">
         <f>_xll.qlRateHelperLatestDate($E21,Trigger)</f>
-        <v>41964</v>
+        <v>41991</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
@@ -3692,11 +3673,11 @@
       </c>
       <c r="K22" s="11">
         <f>_xll.qlRateHelperEarliestDate($E22,Trigger)</f>
-        <v>41813</v>
+        <v>41838</v>
       </c>
       <c r="L22" s="10">
         <f>_xll.qlRateHelperLatestDate($E22,Trigger)</f>
-        <v>41996</v>
+        <v>42023</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
@@ -3730,11 +3711,11 @@
       </c>
       <c r="K23" s="11">
         <f>_xll.qlRateHelperEarliestDate($E23,Trigger)</f>
-        <v>41841</v>
+        <v>41869</v>
       </c>
       <c r="L23" s="10">
         <f>_xll.qlRateHelperLatestDate($E23,Trigger)</f>
-        <v>42025</v>
+        <v>42053</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
@@ -3768,11 +3749,11 @@
       </c>
       <c r="K24" s="11">
         <f>_xll.qlRateHelperEarliestDate($E24,Trigger)</f>
-        <v>41872</v>
+        <v>41900</v>
       </c>
       <c r="L24" s="10">
         <f>_xll.qlRateHelperLatestDate($E24,Trigger)</f>
-        <v>42058</v>
+        <v>42081</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
@@ -3806,11 +3787,11 @@
       </c>
       <c r="K25" s="11">
         <f>_xll.qlRateHelperEarliestDate($E25,Trigger)</f>
-        <v>41904</v>
+        <v>41932</v>
       </c>
       <c r="L25" s="10">
         <f>_xll.qlRateHelperLatestDate($E25,Trigger)</f>
-        <v>42086</v>
+        <v>42114</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
@@ -3844,11 +3825,11 @@
       </c>
       <c r="K26" s="11">
         <f>_xll.qlRateHelperEarliestDate($E26,Trigger)</f>
-        <v>41933</v>
+        <v>41961</v>
       </c>
       <c r="L26" s="10">
         <f>_xll.qlRateHelperLatestDate($E26,Trigger)</f>
-        <v>42115</v>
+        <v>42142</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
@@ -3882,11 +3863,11 @@
       </c>
       <c r="K27" s="11">
         <f>_xll.qlRateHelperEarliestDate($E27,Trigger)</f>
-        <v>41964</v>
+        <v>41991</v>
       </c>
       <c r="L27" s="10">
         <f>_xll.qlRateHelperLatestDate($E27,Trigger)</f>
-        <v>42145</v>
+        <v>42173</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
@@ -3920,11 +3901,11 @@
       </c>
       <c r="K28" s="11">
         <f>_xll.qlRateHelperEarliestDate($E28,Trigger)</f>
-        <v>41995</v>
+        <v>42023</v>
       </c>
       <c r="L28" s="10">
         <f>_xll.qlRateHelperLatestDate($E28,Trigger)</f>
-        <v>42177</v>
+        <v>42205</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
@@ -3958,11 +3939,11 @@
       </c>
       <c r="K29" s="11">
         <f>_xll.qlRateHelperEarliestDate($E29,Trigger)</f>
-        <v>42025</v>
+        <v>42053</v>
       </c>
       <c r="L29" s="10">
         <f>_xll.qlRateHelperLatestDate($E29,Trigger)</f>
-        <v>42206</v>
+        <v>42234</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
@@ -3996,11 +3977,11 @@
       </c>
       <c r="K30" s="11">
         <f>_xll.qlRateHelperEarliestDate($E30,Trigger)</f>
-        <v>42058</v>
+        <v>42081</v>
       </c>
       <c r="L30" s="10">
         <f>_xll.qlRateHelperLatestDate($E30,Trigger)</f>
-        <v>42240</v>
+        <v>42265</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.2">
@@ -4034,11 +4015,11 @@
       </c>
       <c r="K31" s="11">
         <f>_xll.qlRateHelperEarliestDate($E31,Trigger)</f>
-        <v>42086</v>
+        <v>42114</v>
       </c>
       <c r="L31" s="10">
         <f>_xll.qlRateHelperLatestDate($E31,Trigger)</f>
-        <v>42270</v>
+        <v>42297</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
@@ -4072,11 +4053,11 @@
       </c>
       <c r="K32" s="11">
         <f>_xll.qlRateHelperEarliestDate($E32,Trigger)</f>
-        <v>42115</v>
+        <v>42142</v>
       </c>
       <c r="L32" s="10">
         <f>_xll.qlRateHelperLatestDate($E32,Trigger)</f>
-        <v>42298</v>
+        <v>42326</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -4110,11 +4091,11 @@
       </c>
       <c r="K33" s="11">
         <f>_xll.qlRateHelperEarliestDate($E33,Trigger)</f>
-        <v>42145</v>
+        <v>42173</v>
       </c>
       <c r="L33" s="10">
         <f>_xll.qlRateHelperLatestDate($E33,Trigger)</f>
-        <v>42331</v>
+        <v>42356</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -4148,11 +4129,11 @@
       </c>
       <c r="K34" s="11">
         <f>_xll.qlRateHelperEarliestDate($E34,Trigger)</f>
-        <v>42177</v>
+        <v>42205</v>
       </c>
       <c r="L34" s="10">
         <f>_xll.qlRateHelperLatestDate($E34,Trigger)</f>
-        <v>42360</v>
+        <v>42389</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -4186,11 +4167,11 @@
       </c>
       <c r="K35" s="4">
         <f>_xll.qlRateHelperEarliestDate($E35,Trigger)</f>
-        <v>42206</v>
+        <v>42234</v>
       </c>
       <c r="L35" s="3">
         <f>_xll.qlRateHelperLatestDate($E35,Trigger)</f>
-        <v>42390</v>
+        <v>42418</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6680,11 +6661,11 @@
       </c>
       <c r="K96" s="11">
         <f>_xll.qlRateHelperEarliestDate($E96,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L96" s="10">
         <f>_xll.qlRateHelperLatestDate($E96,Trigger)</f>
-        <v>42025</v>
+        <v>42053</v>
       </c>
       <c r="N96" s="17" t="e">
         <f t="shared" ref="N96:N132" si="7">IF(G96=G133,F96-F133,"--")</f>
@@ -6726,11 +6707,11 @@
       </c>
       <c r="K97" s="11">
         <f>_xll.qlRateHelperEarliestDate($E97,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L97" s="10">
         <f>_xll.qlRateHelperLatestDate($E97,Trigger)</f>
-        <v>42115</v>
+        <v>42142</v>
       </c>
       <c r="N97" s="17" t="e">
         <f t="shared" si="7"/>
@@ -6772,11 +6753,11 @@
       </c>
       <c r="K98" s="11">
         <f>_xll.qlRateHelperEarliestDate($E98,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L98" s="10">
         <f>_xll.qlRateHelperLatestDate($E98,Trigger)</f>
-        <v>42206</v>
+        <v>42234</v>
       </c>
       <c r="N98" s="17" t="e">
         <f t="shared" si="7"/>
@@ -6818,11 +6799,11 @@
       </c>
       <c r="K99" s="11">
         <f>_xll.qlRateHelperEarliestDate($E99,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L99" s="10">
         <f>_xll.qlRateHelperLatestDate($E99,Trigger)</f>
-        <v>42298</v>
+        <v>42326</v>
       </c>
       <c r="N99" s="17" t="e">
         <f t="shared" si="7"/>
@@ -6864,11 +6845,11 @@
       </c>
       <c r="K100" s="11">
         <f>_xll.qlRateHelperEarliestDate($E100,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L100" s="10">
         <f>_xll.qlRateHelperLatestDate($E100,Trigger)</f>
-        <v>42390</v>
+        <v>42418</v>
       </c>
       <c r="N100" s="17" t="e">
         <f t="shared" si="7"/>
@@ -6910,11 +6891,11 @@
       </c>
       <c r="K101" s="11">
         <f>_xll.qlRateHelperEarliestDate($E101,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L101" s="10">
         <f>_xll.qlRateHelperLatestDate($E101,Trigger)</f>
-        <v>42758</v>
+        <v>42786</v>
       </c>
       <c r="N101" s="17" t="e">
         <f t="shared" si="7"/>
@@ -6956,11 +6937,11 @@
       </c>
       <c r="K102" s="11">
         <f>_xll.qlRateHelperEarliestDate($E102,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L102" s="10">
         <f>_xll.qlRateHelperLatestDate($E102,Trigger)</f>
-        <v>43122</v>
+        <v>43150</v>
       </c>
       <c r="N102" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7002,11 +6983,11 @@
       </c>
       <c r="K103" s="11">
         <f>_xll.qlRateHelperEarliestDate($E103,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L103" s="10">
         <f>_xll.qlRateHelperLatestDate($E103,Trigger)</f>
-        <v>43486</v>
+        <v>43514</v>
       </c>
       <c r="N103" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7048,11 +7029,11 @@
       </c>
       <c r="K104" s="11">
         <f>_xll.qlRateHelperEarliestDate($E104,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L104" s="10">
         <f>_xll.qlRateHelperLatestDate($E104,Trigger)</f>
-        <v>43851</v>
+        <v>43879</v>
       </c>
       <c r="N104" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7094,11 +7075,11 @@
       </c>
       <c r="K105" s="11">
         <f>_xll.qlRateHelperEarliestDate($E105,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L105" s="10">
         <f>_xll.qlRateHelperLatestDate($E105,Trigger)</f>
-        <v>44217</v>
+        <v>44245</v>
       </c>
       <c r="N105" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7140,11 +7121,11 @@
       </c>
       <c r="K106" s="11">
         <f>_xll.qlRateHelperEarliestDate($E106,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L106" s="10">
         <f>_xll.qlRateHelperLatestDate($E106,Trigger)</f>
-        <v>44582</v>
+        <v>44610</v>
       </c>
       <c r="N106" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7186,11 +7167,11 @@
       </c>
       <c r="K107" s="11">
         <f>_xll.qlRateHelperEarliestDate($E107,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L107" s="10">
         <f>_xll.qlRateHelperLatestDate($E107,Trigger)</f>
-        <v>44949</v>
+        <v>44977</v>
       </c>
       <c r="N107" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7232,11 +7213,11 @@
       </c>
       <c r="K108" s="11">
         <f>_xll.qlRateHelperEarliestDate($E108,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L108" s="10">
         <f>_xll.qlRateHelperLatestDate($E108,Trigger)</f>
-        <v>45313</v>
+        <v>45341</v>
       </c>
       <c r="N108" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7278,11 +7259,11 @@
       </c>
       <c r="K109" s="11">
         <f>_xll.qlRateHelperEarliestDate($E109,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L109" s="10">
         <f>_xll.qlRateHelperLatestDate($E109,Trigger)</f>
-        <v>45678</v>
+        <v>45706</v>
       </c>
       <c r="N109" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7324,11 +7305,11 @@
       </c>
       <c r="K110" s="11">
         <f>_xll.qlRateHelperEarliestDate($E110,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L110" s="10">
         <f>_xll.qlRateHelperLatestDate($E110,Trigger)</f>
-        <v>46043</v>
+        <v>46071</v>
       </c>
       <c r="N110" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7370,11 +7351,11 @@
       </c>
       <c r="K111" s="11">
         <f>_xll.qlRateHelperEarliestDate($E111,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L111" s="10">
         <f>_xll.qlRateHelperLatestDate($E111,Trigger)</f>
-        <v>46408</v>
+        <v>46436</v>
       </c>
       <c r="N111" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7416,11 +7397,11 @@
       </c>
       <c r="K112" s="11">
         <f>_xll.qlRateHelperEarliestDate($E112,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L112" s="10">
         <f>_xll.qlRateHelperLatestDate($E112,Trigger)</f>
-        <v>46773</v>
+        <v>46801</v>
       </c>
       <c r="N112" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7462,11 +7443,11 @@
       </c>
       <c r="K113" s="11">
         <f>_xll.qlRateHelperEarliestDate($E113,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L113" s="10">
         <f>_xll.qlRateHelperLatestDate($E113,Trigger)</f>
-        <v>47140</v>
+        <v>47168</v>
       </c>
       <c r="N113" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7508,11 +7489,11 @@
       </c>
       <c r="K114" s="11">
         <f>_xll.qlRateHelperEarliestDate($E114,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L114" s="10">
         <f>_xll.qlRateHelperLatestDate($E114,Trigger)</f>
-        <v>47504</v>
+        <v>47532</v>
       </c>
       <c r="N114" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7554,11 +7535,11 @@
       </c>
       <c r="K115" s="11">
         <f>_xll.qlRateHelperEarliestDate($E115,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L115" s="10">
         <f>_xll.qlRateHelperLatestDate($E115,Trigger)</f>
-        <v>47869</v>
+        <v>47897</v>
       </c>
       <c r="N115" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7600,11 +7581,11 @@
       </c>
       <c r="K116" s="11">
         <f>_xll.qlRateHelperEarliestDate($E116,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L116" s="10">
         <f>_xll.qlRateHelperLatestDate($E116,Trigger)</f>
-        <v>48234</v>
+        <v>48262</v>
       </c>
       <c r="N116" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7646,11 +7627,11 @@
       </c>
       <c r="K117" s="11">
         <f>_xll.qlRateHelperEarliestDate($E117,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L117" s="10">
         <f>_xll.qlRateHelperLatestDate($E117,Trigger)</f>
-        <v>48600</v>
+        <v>48628</v>
       </c>
       <c r="N117" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7692,11 +7673,11 @@
       </c>
       <c r="K118" s="11">
         <f>_xll.qlRateHelperEarliestDate($E118,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L118" s="10">
         <f>_xll.qlRateHelperLatestDate($E118,Trigger)</f>
-        <v>48967</v>
+        <v>48995</v>
       </c>
       <c r="N118" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7738,11 +7719,11 @@
       </c>
       <c r="K119" s="11">
         <f>_xll.qlRateHelperEarliestDate($E119,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L119" s="10">
         <f>_xll.qlRateHelperLatestDate($E119,Trigger)</f>
-        <v>49331</v>
+        <v>49359</v>
       </c>
       <c r="N119" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7784,11 +7765,11 @@
       </c>
       <c r="K120" s="11">
         <f>_xll.qlRateHelperEarliestDate($E120,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L120" s="10">
         <f>_xll.qlRateHelperLatestDate($E120,Trigger)</f>
-        <v>49695</v>
+        <v>49723</v>
       </c>
       <c r="N120" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7830,11 +7811,11 @@
       </c>
       <c r="K121" s="11">
         <f>_xll.qlRateHelperEarliestDate($E121,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L121" s="10">
         <f>_xll.qlRateHelperLatestDate($E121,Trigger)</f>
-        <v>50061</v>
+        <v>50089</v>
       </c>
       <c r="N121" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7876,11 +7857,11 @@
       </c>
       <c r="K122" s="11">
         <f>_xll.qlRateHelperEarliestDate($E122,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L122" s="10">
         <f>_xll.qlRateHelperLatestDate($E122,Trigger)</f>
-        <v>50426</v>
+        <v>50454</v>
       </c>
       <c r="N122" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7922,11 +7903,11 @@
       </c>
       <c r="K123" s="11">
         <f>_xll.qlRateHelperEarliestDate($E123,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L123" s="10">
         <f>_xll.qlRateHelperLatestDate($E123,Trigger)</f>
-        <v>50791</v>
+        <v>50819</v>
       </c>
       <c r="N123" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7968,11 +7949,11 @@
       </c>
       <c r="K124" s="11">
         <f>_xll.qlRateHelperEarliestDate($E124,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L124" s="10">
         <f>_xll.qlRateHelperLatestDate($E124,Trigger)</f>
-        <v>51158</v>
+        <v>51186</v>
       </c>
       <c r="N124" s="17" t="e">
         <f t="shared" si="7"/>
@@ -8014,11 +7995,11 @@
       </c>
       <c r="K125" s="11">
         <f>_xll.qlRateHelperEarliestDate($E125,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L125" s="10">
         <f>_xll.qlRateHelperLatestDate($E125,Trigger)</f>
-        <v>51522</v>
+        <v>51550</v>
       </c>
       <c r="N125" s="17" t="e">
         <f t="shared" si="7"/>
@@ -8060,11 +8041,11 @@
       </c>
       <c r="K126" s="11">
         <f>_xll.qlRateHelperEarliestDate($E126,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L126" s="10">
         <f>_xll.qlRateHelperLatestDate($E126,Trigger)</f>
-        <v>51887</v>
+        <v>51915</v>
       </c>
       <c r="N126" s="17" t="e">
         <f t="shared" si="7"/>
@@ -8106,11 +8087,11 @@
       </c>
       <c r="K127" s="11">
         <f>_xll.qlRateHelperEarliestDate($E127,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L127" s="10">
         <f>_xll.qlRateHelperLatestDate($E127,Trigger)</f>
-        <v>52252</v>
+        <v>52280</v>
       </c>
       <c r="N127" s="17" t="e">
         <f t="shared" si="7"/>
@@ -8152,11 +8133,11 @@
       </c>
       <c r="K128" s="11">
         <f>_xll.qlRateHelperEarliestDate($E128,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L128" s="10">
         <f>_xll.qlRateHelperLatestDate($E128,Trigger)</f>
-        <v>52617</v>
+        <v>52645</v>
       </c>
       <c r="N128" s="17" t="e">
         <f t="shared" si="7"/>
@@ -8198,11 +8179,11 @@
       </c>
       <c r="K129" s="11">
         <f>_xll.qlRateHelperEarliestDate($E129,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L129" s="10">
         <f>_xll.qlRateHelperLatestDate($E129,Trigger)</f>
-        <v>54444</v>
+        <v>54472</v>
       </c>
       <c r="N129" s="17" t="e">
         <f t="shared" si="7"/>
@@ -8244,11 +8225,11 @@
       </c>
       <c r="K130" s="11">
         <f>_xll.qlRateHelperEarliestDate($E130,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L130" s="10">
         <f>_xll.qlRateHelperLatestDate($E130,Trigger)</f>
-        <v>56270</v>
+        <v>56298</v>
       </c>
       <c r="N130" s="17" t="e">
         <f t="shared" si="7"/>
@@ -8290,11 +8271,11 @@
       </c>
       <c r="K131" s="11">
         <f>_xll.qlRateHelperEarliestDate($E131,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L131" s="10">
         <f>_xll.qlRateHelperLatestDate($E131,Trigger)</f>
-        <v>59922</v>
+        <v>59950</v>
       </c>
       <c r="N131" s="17" t="e">
         <f t="shared" si="7"/>
@@ -8336,11 +8317,11 @@
       </c>
       <c r="K132" s="4">
         <f>_xll.qlRateHelperEarliestDate($E132,Trigger)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="L132" s="3">
         <f>_xll.qlRateHelperLatestDate($E132,Trigger)</f>
-        <v>63576</v>
+        <v>63604</v>
       </c>
       <c r="N132" s="17" t="e">
         <f t="shared" si="7"/>
@@ -9933,15 +9914,15 @@
     <col min="9" max="9" width="12" style="32" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="32"/>
     <col min="11" max="11" width="19.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="212" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="195" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="205" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="211"/>
+      <c r="B1" s="206"/>
       <c r="D1" s="53" t="s">
         <v>83</v>
       </c>
@@ -9982,11 +9963,11 @@
       </c>
       <c r="G2" s="40">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H2" s="39">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41661</v>
+        <v>41689</v>
       </c>
       <c r="I2" s="34">
         <v>0.99998683906210151</v>
@@ -9994,7 +9975,7 @@
       <c r="K2" s="97" t="s">
         <v>206</v>
       </c>
-      <c r="L2" s="212">
+      <c r="L2" s="195">
         <v>4.738E-3</v>
       </c>
     </row>
@@ -10018,11 +9999,11 @@
       </c>
       <c r="G3" s="40">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H3" s="39">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41667</v>
+        <v>41695</v>
       </c>
       <c r="I3" s="34">
         <v>0.99991773732326028</v>
@@ -10030,7 +10011,7 @@
       <c r="K3" s="97" t="s">
         <v>116</v>
       </c>
-      <c r="L3" s="212">
+      <c r="L3" s="195">
         <v>4.2310000000000004E-3</v>
       </c>
     </row>
@@ -10054,11 +10035,11 @@
       </c>
       <c r="G4" s="40">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H4" s="39">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41674</v>
+        <v>41702</v>
       </c>
       <c r="I4" s="34">
         <v>0.99983105632455893</v>
@@ -10066,7 +10047,7 @@
       <c r="K4" s="97" t="s">
         <v>117</v>
       </c>
-      <c r="L4" s="212">
+      <c r="L4" s="195">
         <v>4.3449999999999999E-3</v>
       </c>
     </row>
@@ -10090,11 +10071,11 @@
       </c>
       <c r="G5" s="40">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H5" s="39">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41681</v>
+        <v>41709</v>
       </c>
       <c r="I5" s="34">
         <v>0.99974992921792116</v>
@@ -10102,7 +10083,7 @@
       <c r="K5" s="97" t="s">
         <v>118</v>
       </c>
-      <c r="L5" s="212">
+      <c r="L5" s="195">
         <v>4.2880000000000001E-3</v>
       </c>
     </row>
@@ -10127,26 +10108,26 @@
       </c>
       <c r="G6" s="40">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H6" s="39">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41691</v>
+        <v>41716</v>
       </c>
       <c r="I6" s="34">
-        <v>0.99963725940626302</v>
+        <v>0.99967235183295144</v>
       </c>
       <c r="K6" s="97" t="s">
         <v>119</v>
       </c>
-      <c r="L6" s="212">
+      <c r="L6" s="195">
         <v>4.2139999999999999E-3</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_RateHelpersSelected#0003</v>
+        <v>EUR_YC6MRH_RateHelpersSelected#0000</v>
       </c>
       <c r="B7" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -10165,19 +10146,19 @@
       </c>
       <c r="G7" s="40">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H7" s="39">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41719</v>
+        <v>41751</v>
       </c>
       <c r="I7" s="34">
-        <v>0.9993123038070626</v>
+        <v>0.99926571457129021</v>
       </c>
       <c r="K7" s="97" t="s">
         <v>120</v>
       </c>
-      <c r="L7" s="212">
+      <c r="L7" s="195">
         <v>4.1989999999999996E-3</v>
       </c>
     </row>
@@ -10195,19 +10176,19 @@
       </c>
       <c r="G8" s="40">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H8" s="39">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>41751</v>
+        <v>41778</v>
       </c>
       <c r="I8" s="34">
-        <v>0.99894349516077352</v>
+        <v>0.99895509297275054</v>
       </c>
       <c r="K8" s="97" t="s">
         <v>121</v>
       </c>
-      <c r="L8" s="212">
+      <c r="L8" s="195">
         <v>4.1840000000000002E-3</v>
       </c>
     </row>
@@ -10225,11 +10206,11 @@
       </c>
       <c r="G9" s="40">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H9" s="39">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>41780</v>
+        <v>41808</v>
       </c>
       <c r="I9" s="34">
         <v>0.99862223419089469</v>
@@ -10237,7 +10218,7 @@
       <c r="K9" s="97" t="s">
         <v>122</v>
       </c>
-      <c r="L9" s="212">
+      <c r="L9" s="195">
         <v>4.1390000000000003E-3</v>
       </c>
     </row>
@@ -10255,19 +10236,19 @@
       </c>
       <c r="G10" s="40">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H10" s="39">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>41813</v>
+        <v>41838</v>
       </c>
       <c r="I10" s="34">
-        <v>0.99825841341549493</v>
+        <v>0.99829250386318402</v>
       </c>
       <c r="K10" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="L10" s="212">
+      <c r="L10" s="195">
         <v>4.1050000000000001E-3</v>
       </c>
     </row>
@@ -10285,19 +10266,19 @@
       </c>
       <c r="G11" s="40">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41691</v>
+        <v>41716</v>
       </c>
       <c r="H11" s="39">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>41872</v>
+        <v>41900</v>
       </c>
       <c r="I11" s="34">
-        <v>0.99762090129459646</v>
+        <v>0.99762256999247356</v>
       </c>
       <c r="K11" s="97" t="s">
         <v>124</v>
       </c>
-      <c r="L11" s="212">
+      <c r="L11" s="195">
         <v>4.0200000000000001E-3</v>
       </c>
     </row>
@@ -10315,19 +10296,19 @@
       </c>
       <c r="G12" s="40">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41719</v>
+        <v>41751</v>
       </c>
       <c r="H12" s="39">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>41904</v>
+        <v>41934</v>
       </c>
       <c r="I12" s="34">
-        <v>0.99726237559057163</v>
+        <v>0.99723799730997853</v>
       </c>
       <c r="K12" s="97" t="s">
         <v>125</v>
       </c>
-      <c r="L12" s="212">
+      <c r="L12" s="195">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
@@ -10345,19 +10326,19 @@
       </c>
       <c r="G13" s="40">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41751</v>
+        <v>41778</v>
       </c>
       <c r="H13" s="39">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>41934</v>
+        <v>41962</v>
       </c>
       <c r="I13" s="34">
-        <v>0.99691137440000699</v>
+        <v>0.99691186671791954</v>
       </c>
       <c r="K13" s="97" t="s">
         <v>126</v>
       </c>
-      <c r="L13" s="212">
+      <c r="L13" s="195">
         <v>4.0099999999999997E-3</v>
       </c>
     </row>
@@ -10375,19 +10356,19 @@
       </c>
       <c r="G14" s="40">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41780</v>
+        <v>41808</v>
       </c>
       <c r="H14" s="39">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>41964</v>
+        <v>41991</v>
       </c>
       <c r="I14" s="34">
-        <v>0.99656952243446073</v>
+        <v>0.99658065566922727</v>
       </c>
       <c r="K14" s="97" t="s">
         <v>127</v>
       </c>
-      <c r="L14" s="212">
+      <c r="L14" s="195">
         <v>4.0299999999999997E-3</v>
       </c>
     </row>
@@ -10405,19 +10386,19 @@
       </c>
       <c r="G15" s="40">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41813</v>
+        <v>41838</v>
       </c>
       <c r="H15" s="39">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>41996</v>
+        <v>42023</v>
       </c>
       <c r="I15" s="34">
-        <v>0.99620747128397036</v>
+        <v>0.9962191228138193</v>
       </c>
       <c r="K15" s="97" t="s">
         <v>128</v>
       </c>
-      <c r="L15" s="212">
+      <c r="L15" s="195">
         <v>4.0499999999999998E-3</v>
       </c>
     </row>
@@ -10435,19 +10416,19 @@
       </c>
       <c r="G16" s="40">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41841</v>
+        <v>41869</v>
       </c>
       <c r="H16" s="39">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>42025</v>
+        <v>42053</v>
       </c>
       <c r="I16" s="34">
-        <v>0.99584865747760454</v>
+        <v>0.99585152135113342</v>
       </c>
       <c r="K16" s="97" t="s">
         <v>129</v>
       </c>
-      <c r="L16" s="212">
+      <c r="L16" s="195">
         <v>4.1399999999999996E-3</v>
       </c>
     </row>
@@ -10465,19 +10446,19 @@
       </c>
       <c r="G17" s="40">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41872</v>
+        <v>41900</v>
       </c>
       <c r="H17" s="39">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>42058</v>
+        <v>42081</v>
       </c>
       <c r="I17" s="34">
-        <v>0.99545561941310312</v>
+        <v>0.9955153681433655</v>
       </c>
       <c r="K17" s="97" t="s">
         <v>207</v>
       </c>
-      <c r="L17" s="212">
+      <c r="L17" s="195">
         <v>4.2100000000000002E-3</v>
       </c>
     </row>
@@ -10495,19 +10476,19 @@
       </c>
       <c r="G18" s="40">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41904</v>
+        <v>41932</v>
       </c>
       <c r="H18" s="39">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>42086</v>
+        <v>42114</v>
       </c>
       <c r="I18" s="34">
-        <v>0.99509914062542315</v>
+        <v>0.99509787034515229</v>
       </c>
       <c r="K18" s="97" t="s">
         <v>208</v>
       </c>
-      <c r="L18" s="212">
+      <c r="L18" s="195">
         <v>4.3E-3</v>
       </c>
     </row>
@@ -10525,19 +10506,19 @@
       </c>
       <c r="G19" s="40">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41933</v>
+        <v>41961</v>
       </c>
       <c r="H19" s="39">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>42115</v>
+        <v>42142</v>
       </c>
       <c r="I19" s="34">
-        <v>0.99469530526874739</v>
+        <v>0.99470796796371896</v>
       </c>
       <c r="K19" s="97" t="s">
         <v>209</v>
       </c>
-      <c r="L19" s="212">
+      <c r="L19" s="195">
         <v>4.4299999999999999E-3</v>
       </c>
     </row>
@@ -10555,19 +10536,19 @@
       </c>
       <c r="G20" s="40">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41964</v>
+        <v>41991</v>
       </c>
       <c r="H20" s="39">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>42145</v>
+        <v>42173</v>
       </c>
       <c r="I20" s="34">
-        <v>0.99428495940703676</v>
+        <v>0.99428347417808061</v>
       </c>
       <c r="K20" s="97" t="s">
         <v>210</v>
       </c>
-      <c r="L20" s="212">
+      <c r="L20" s="195">
         <v>4.5700000000000003E-3</v>
       </c>
     </row>
@@ -10585,19 +10566,19 @@
       </c>
       <c r="G21" s="40">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41995</v>
+        <v>42023</v>
       </c>
       <c r="H21" s="39">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>42177</v>
+        <v>42205</v>
       </c>
       <c r="I21" s="34">
-        <v>0.99385787109866508</v>
+        <v>0.99385760671164958</v>
       </c>
       <c r="K21" s="97" t="s">
         <v>211</v>
       </c>
-      <c r="L21" s="212">
+      <c r="L21" s="195">
         <v>4.7000000000000002E-3</v>
       </c>
     </row>
@@ -10615,19 +10596,19 @@
       </c>
       <c r="G22" s="40">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>42025</v>
+        <v>42053</v>
       </c>
       <c r="H22" s="39">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>42206</v>
+        <v>42234</v>
       </c>
       <c r="I22" s="34">
-        <v>0.99341126774268307</v>
+        <v>0.99341412460673717</v>
       </c>
       <c r="K22" s="97" t="s">
         <v>130</v>
       </c>
-      <c r="L22" s="212">
+      <c r="L22" s="195">
         <v>4.8799999999999998E-3</v>
       </c>
     </row>
@@ -10645,19 +10626,19 @@
       </c>
       <c r="G23" s="40">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>42058</v>
+        <v>42081</v>
       </c>
       <c r="H23" s="39">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>42240</v>
+        <v>42265</v>
       </c>
       <c r="I23" s="34">
-        <v>0.99290561714258896</v>
+        <v>0.99293726170652641</v>
       </c>
       <c r="K23" s="97" t="s">
         <v>212</v>
       </c>
-      <c r="L23" s="212">
+      <c r="L23" s="195">
         <v>5.0800000000000003E-3</v>
       </c>
     </row>
@@ -10675,19 +10656,19 @@
       </c>
       <c r="G24" s="40">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>42086</v>
+        <v>42114</v>
       </c>
       <c r="H24" s="39">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>42270</v>
+        <v>42297</v>
       </c>
       <c r="I24" s="34">
-        <v>0.99243610374703572</v>
+        <v>0.99244927135223104</v>
       </c>
       <c r="K24" s="97" t="s">
         <v>213</v>
       </c>
-      <c r="L24" s="212">
+      <c r="L24" s="195">
         <v>5.2500000000000003E-3</v>
       </c>
     </row>
@@ -10705,19 +10686,19 @@
       </c>
       <c r="G25" s="40">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>42115</v>
+        <v>42142</v>
       </c>
       <c r="H25" s="39">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>42298</v>
+        <v>42326</v>
       </c>
       <c r="I25" s="34">
-        <v>0.9919270847569619</v>
+        <v>0.99192462745906873</v>
       </c>
       <c r="K25" s="97" t="s">
         <v>214</v>
       </c>
-      <c r="L25" s="212">
+      <c r="L25" s="195">
         <v>5.4900000000000001E-3</v>
       </c>
     </row>
@@ -10735,19 +10716,19 @@
       </c>
       <c r="G26" s="40">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>42145</v>
+        <v>42173</v>
       </c>
       <c r="H26" s="39">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>42331</v>
+        <v>42356</v>
       </c>
       <c r="I26" s="34">
-        <v>0.99135006753211075</v>
+        <v>0.99139578610211343</v>
       </c>
       <c r="K26" s="97" t="s">
         <v>215</v>
       </c>
-      <c r="L26" s="212">
+      <c r="L26" s="195">
         <v>5.7299999999999999E-3</v>
       </c>
     </row>
@@ -10765,19 +10746,19 @@
       </c>
       <c r="G27" s="40">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>42177</v>
+        <v>42205</v>
       </c>
       <c r="H27" s="39">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>42360</v>
+        <v>42389</v>
       </c>
       <c r="I27" s="34">
-        <v>0.9908458648106182</v>
+        <v>0.9908291923313568</v>
       </c>
       <c r="K27" s="97" t="s">
         <v>216</v>
       </c>
-      <c r="L27" s="212">
+      <c r="L27" s="195">
         <v>5.9800000000000001E-3</v>
       </c>
     </row>
@@ -10795,19 +10776,19 @@
       </c>
       <c r="G28" s="40">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>42206</v>
+        <v>42234</v>
       </c>
       <c r="H28" s="39">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>42390</v>
+        <v>42418</v>
       </c>
       <c r="I28" s="34">
-        <v>0.990227795405764</v>
+        <v>0.99023064311475018</v>
       </c>
       <c r="K28" s="97" t="s">
         <v>131</v>
       </c>
-      <c r="L28" s="212">
+      <c r="L28" s="195">
         <v>6.2899999999999996E-3</v>
       </c>
     </row>
@@ -10825,19 +10806,19 @@
       </c>
       <c r="G29" s="40">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H29" s="39">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>42758</v>
+        <v>42786</v>
       </c>
       <c r="I29" s="34">
-        <v>0.98038540427791165</v>
+        <v>0.980385366829997</v>
       </c>
       <c r="K29" s="97" t="s">
         <v>132</v>
       </c>
-      <c r="L29" s="212">
+      <c r="L29" s="195">
         <v>6.6E-3</v>
       </c>
     </row>
@@ -10855,19 +10836,19 @@
       </c>
       <c r="G30" s="40">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H30" s="39">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>43122</v>
+        <v>43150</v>
       </c>
       <c r="I30" s="34">
-        <v>0.96510249206137433</v>
+        <v>0.96510244217491004</v>
       </c>
       <c r="K30" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="L30" s="212">
+      <c r="L30" s="195">
         <v>8.8699999999999994E-3</v>
       </c>
     </row>
@@ -10885,19 +10866,19 @@
       </c>
       <c r="G31" s="40">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H31" s="39">
         <f>_xll.qlRateHelperLatestDate($D31)</f>
-        <v>43486</v>
+        <v>43514</v>
       </c>
       <c r="I31" s="34">
-        <v>0.94537669566900995</v>
+        <v>0.94537663337397515</v>
       </c>
       <c r="K31" s="97" t="s">
         <v>134</v>
       </c>
-      <c r="L31" s="212">
+      <c r="L31" s="195">
         <v>1.12E-2</v>
       </c>
     </row>
@@ -10915,19 +10896,19 @@
       </c>
       <c r="G32" s="40">
         <f>_xll.qlRateHelperEarliestDate($D32)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H32" s="39">
         <f>_xll.qlRateHelperLatestDate($D32)</f>
-        <v>43851</v>
+        <v>43879</v>
       </c>
       <c r="I32" s="34">
-        <v>0.9223456801823614</v>
+        <v>0.92234560669047982</v>
       </c>
       <c r="K32" s="97" t="s">
         <v>135</v>
       </c>
-      <c r="L32" s="212">
+      <c r="L32" s="195">
         <v>1.3390000000000001E-2</v>
       </c>
     </row>
@@ -10945,19 +10926,19 @@
       </c>
       <c r="G33" s="40">
         <f>_xll.qlRateHelperEarliestDate($D33)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H33" s="39">
         <f>_xll.qlRateHelperLatestDate($D33)</f>
-        <v>44217</v>
+        <v>44245</v>
       </c>
       <c r="I33" s="34">
-        <v>0.89694287646551596</v>
+        <v>0.89694279327677917</v>
       </c>
       <c r="K33" s="97" t="s">
         <v>136</v>
       </c>
-      <c r="L33" s="212">
+      <c r="L33" s="195">
         <v>1.5389999999999999E-2</v>
       </c>
     </row>
@@ -10975,19 +10956,19 @@
       </c>
       <c r="G34" s="40">
         <f>_xll.qlRateHelperEarliestDate($D34)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H34" s="39">
         <f>_xll.qlRateHelperLatestDate($D34)</f>
-        <v>44582</v>
+        <v>44610</v>
       </c>
       <c r="I34" s="34">
-        <v>0.86993522520339461</v>
+        <v>0.86993513385525456</v>
       </c>
       <c r="K34" s="97" t="s">
         <v>137</v>
       </c>
-      <c r="L34" s="212">
+      <c r="L34" s="195">
         <v>1.719E-2</v>
       </c>
     </row>
@@ -11005,19 +10986,19 @@
       </c>
       <c r="G35" s="40">
         <f>_xll.qlRateHelperEarliestDate($D35)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H35" s="39">
         <f>_xll.qlRateHelperLatestDate($D35)</f>
-        <v>44949</v>
+        <v>44977</v>
       </c>
       <c r="I35" s="34">
-        <v>0.84192154487940507</v>
+        <v>0.84192144688045123</v>
       </c>
       <c r="K35" s="97" t="s">
         <v>138</v>
       </c>
-      <c r="L35" s="212">
+      <c r="L35" s="195">
         <v>1.8790000000000001E-2</v>
       </c>
     </row>
@@ -11035,19 +11016,19 @@
       </c>
       <c r="G36" s="40">
         <f>_xll.qlRateHelperEarliestDate($D36)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H36" s="39">
         <f>_xll.qlRateHelperLatestDate($D36)</f>
-        <v>45313</v>
+        <v>45341</v>
       </c>
       <c r="I36" s="34">
-        <v>0.81366889524954911</v>
+        <v>0.81366879197707176</v>
       </c>
       <c r="K36" s="97" t="s">
         <v>139</v>
       </c>
-      <c r="L36" s="212">
+      <c r="L36" s="195">
         <v>2.0199999999999999E-2</v>
       </c>
     </row>
@@ -11065,19 +11046,19 @@
       </c>
       <c r="G37" s="40">
         <f>_xll.qlRateHelperEarliestDate($D37)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H37" s="39">
         <f>_xll.qlRateHelperLatestDate($D37)</f>
-        <v>45678</v>
+        <v>45706</v>
       </c>
       <c r="I37" s="34">
-        <v>0.78563370569704971</v>
+        <v>0.78563359847758474</v>
       </c>
       <c r="K37" s="97" t="s">
         <v>140</v>
       </c>
-      <c r="L37" s="212">
+      <c r="L37" s="195">
         <v>2.1420000000000002E-2</v>
       </c>
     </row>
@@ -11095,19 +11076,19 @@
       </c>
       <c r="G38" s="40">
         <f>_xll.qlRateHelperEarliestDate($D38)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H38" s="39">
         <f>_xll.qlRateHelperLatestDate($D38)</f>
-        <v>46043</v>
+        <v>46071</v>
       </c>
       <c r="I38" s="34">
-        <v>0.75809124376806403</v>
+        <v>0.75809113376452242</v>
       </c>
       <c r="K38" s="96" t="s">
         <v>141</v>
       </c>
-      <c r="L38" s="212">
+      <c r="L38" s="195">
         <v>2.247E-2</v>
       </c>
     </row>
@@ -11125,19 +11106,19 @@
       </c>
       <c r="G39" s="40">
         <f>_xll.qlRateHelperEarliestDate($D39)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H39" s="39">
         <f>_xll.qlRateHelperLatestDate($D39)</f>
-        <v>46408</v>
+        <v>46436</v>
       </c>
       <c r="I39" s="34">
-        <v>0.73142357825260551</v>
+        <v>0.73142346650248613</v>
       </c>
       <c r="K39" s="96" t="s">
         <v>142</v>
       </c>
-      <c r="L39" s="212">
+      <c r="L39" s="195">
         <v>2.3359999999999999E-2</v>
       </c>
     </row>
@@ -11155,19 +11136,19 @@
       </c>
       <c r="G40" s="40">
         <f>_xll.qlRateHelperEarliestDate($D40)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H40" s="39">
         <f>_xll.qlRateHelperLatestDate($D40)</f>
-        <v>46773</v>
+        <v>46801</v>
       </c>
       <c r="I40" s="34">
-        <v>0.70590332222411623</v>
+        <v>0.7059032096470742</v>
       </c>
       <c r="K40" s="96" t="s">
         <v>143</v>
       </c>
-      <c r="L40" s="212">
+      <c r="L40" s="195">
         <v>2.41E-2</v>
       </c>
     </row>
@@ -11185,19 +11166,19 @@
       </c>
       <c r="G41" s="40">
         <f>_xll.qlRateHelperEarliestDate($D41)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H41" s="39">
         <f>_xll.qlRateHelperLatestDate($D41)</f>
-        <v>47140</v>
+        <v>47168</v>
       </c>
       <c r="I41" s="34">
-        <v>0.68169673198362724</v>
+        <v>0.68169661939256143</v>
       </c>
       <c r="K41" s="96" t="s">
         <v>144</v>
       </c>
-      <c r="L41" s="212">
+      <c r="L41" s="195">
         <v>2.47E-2</v>
       </c>
     </row>
@@ -11215,19 +11196,19 @@
       </c>
       <c r="G42" s="40">
         <f>_xll.qlRateHelperEarliestDate($D42)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H42" s="39">
         <f>_xll.qlRateHelperLatestDate($D42)</f>
-        <v>47504</v>
+        <v>47532</v>
       </c>
       <c r="I42" s="34">
-        <v>0.65896444754411376</v>
+        <v>0.6589643355765552</v>
       </c>
       <c r="K42" s="96" t="s">
         <v>145</v>
       </c>
-      <c r="L42" s="212">
+      <c r="L42" s="195">
         <v>2.5180000000000001E-2</v>
       </c>
     </row>
@@ -11245,19 +11226,19 @@
       </c>
       <c r="G43" s="40">
         <f>_xll.qlRateHelperEarliestDate($D43)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H43" s="39">
         <f>_xll.qlRateHelperLatestDate($D43)</f>
-        <v>47869</v>
+        <v>47897</v>
       </c>
       <c r="I43" s="34">
-        <v>0.63766096468556832</v>
+        <v>0.63766085390322425</v>
       </c>
       <c r="K43" s="96" t="s">
         <v>146</v>
       </c>
-      <c r="L43" s="212">
+      <c r="L43" s="195">
         <v>2.555E-2</v>
       </c>
     </row>
@@ -11275,19 +11256,19 @@
       </c>
       <c r="G44" s="40">
         <f>_xll.qlRateHelperEarliestDate($D44)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H44" s="39">
         <f>_xll.qlRateHelperLatestDate($D44)</f>
-        <v>48234</v>
+        <v>48262</v>
       </c>
       <c r="I44" s="34">
-        <v>0.61773405529414882</v>
+        <v>0.61773394611777721</v>
       </c>
       <c r="K44" s="96" t="s">
         <v>147</v>
       </c>
-      <c r="L44" s="212">
+      <c r="L44" s="195">
         <v>2.5829999999999999E-2</v>
       </c>
     </row>
@@ -11305,19 +11286,19 @@
       </c>
       <c r="G45" s="40">
         <f>_xll.qlRateHelperEarliestDate($D45)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H45" s="39">
         <f>_xll.qlRateHelperLatestDate($D45)</f>
-        <v>48600</v>
+        <v>48628</v>
       </c>
       <c r="I45" s="34">
-        <v>0.59887745146455451</v>
+        <v>0.59887734415374982</v>
       </c>
       <c r="K45" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="L45" s="212">
+      <c r="L45" s="195">
         <v>2.605E-2</v>
       </c>
     </row>
@@ -11335,19 +11316,19 @@
       </c>
       <c r="G46" s="40">
         <f>_xll.qlRateHelperEarliestDate($D46)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H46" s="39">
         <f>_xll.qlRateHelperLatestDate($D46)</f>
-        <v>48967</v>
+        <v>48995</v>
       </c>
       <c r="I46" s="34">
-        <v>0.58109853588409155</v>
+        <v>0.5810984306867214</v>
       </c>
       <c r="K46" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="L46" s="212">
+      <c r="L46" s="195">
         <v>2.6210000000000001E-2</v>
       </c>
     </row>
@@ -11365,19 +11346,19 @@
       </c>
       <c r="G47" s="40">
         <f>_xll.qlRateHelperEarliestDate($D47)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H47" s="39">
         <f>_xll.qlRateHelperLatestDate($D47)</f>
-        <v>49331</v>
+        <v>49359</v>
       </c>
       <c r="I47" s="34">
-        <v>0.56403982045336454</v>
+        <v>0.5640397174019478</v>
       </c>
       <c r="K47" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="L47" s="212">
+      <c r="L47" s="195">
         <v>2.6349999999999998E-2</v>
       </c>
     </row>
@@ -11395,19 +11376,19 @@
       </c>
       <c r="G48" s="40">
         <f>_xll.qlRateHelperEarliestDate($D48)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H48" s="39">
         <f>_xll.qlRateHelperLatestDate($D48)</f>
-        <v>49695</v>
+        <v>49723</v>
       </c>
       <c r="I48" s="34">
-        <v>0.54809928222698401</v>
+        <v>0.54809918147994097</v>
       </c>
       <c r="K48" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="L48" s="212">
+      <c r="L48" s="195">
         <v>2.6440000000000002E-2</v>
       </c>
     </row>
@@ -11425,19 +11406,19 @@
       </c>
       <c r="G49" s="40">
         <f>_xll.qlRateHelperEarliestDate($D49)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H49" s="39">
         <f>_xll.qlRateHelperLatestDate($D49)</f>
-        <v>50061</v>
+        <v>50089</v>
       </c>
       <c r="I49" s="34">
-        <v>0.53260721448795245</v>
+        <v>0.5326071160467386</v>
       </c>
       <c r="K49" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="L49" s="212">
+      <c r="L49" s="195">
         <v>2.6519999999999998E-2</v>
       </c>
     </row>
@@ -11455,19 +11436,19 @@
       </c>
       <c r="G50" s="40">
         <f>_xll.qlRateHelperEarliestDate($D50)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H50" s="39">
         <f>_xll.qlRateHelperLatestDate($D50)</f>
-        <v>50426</v>
+        <v>50454</v>
       </c>
       <c r="I50" s="34">
-        <v>0.51796371058035118</v>
+        <v>0.51796361450622874</v>
       </c>
       <c r="K50" s="96" t="s">
         <v>153</v>
       </c>
-      <c r="L50" s="212">
+      <c r="L50" s="195">
         <v>2.657E-2</v>
       </c>
     </row>
@@ -11485,19 +11466,19 @@
       </c>
       <c r="G51" s="40">
         <f>_xll.qlRateHelperEarliestDate($D51)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H51" s="39">
         <f>_xll.qlRateHelperLatestDate($D51)</f>
-        <v>50791</v>
+        <v>50819</v>
       </c>
       <c r="I51" s="34">
-        <v>0.5040127087459042</v>
+        <v>0.50401261505547035</v>
       </c>
       <c r="K51" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="L51" s="212">
+      <c r="L51" s="195">
         <v>2.6599999999999999E-2</v>
       </c>
     </row>
@@ -11515,19 +11496,19 @@
       </c>
       <c r="G52" s="40">
         <f>_xll.qlRateHelperEarliestDate($D52)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H52" s="39">
         <f>_xll.qlRateHelperLatestDate($D52)</f>
-        <v>51158</v>
+        <v>51186</v>
       </c>
       <c r="I52" s="34">
-        <v>0.49069627813070649</v>
+        <v>0.49069618684758903</v>
       </c>
       <c r="K52" s="96" t="s">
         <v>155</v>
       </c>
-      <c r="L52" s="212">
+      <c r="L52" s="195">
         <v>2.6610000000000002E-2</v>
       </c>
     </row>
@@ -11545,19 +11526,19 @@
       </c>
       <c r="G53" s="40">
         <f>_xll.qlRateHelperEarliestDate($D53)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H53" s="39">
         <f>_xll.qlRateHelperLatestDate($D53)</f>
-        <v>51522</v>
+        <v>51550</v>
       </c>
       <c r="I53" s="34">
-        <v>0.47785505052678057</v>
+        <v>0.47785496156438168</v>
       </c>
       <c r="K53" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="L53" s="212">
+      <c r="L53" s="195">
         <v>2.6620000000000001E-2</v>
       </c>
     </row>
@@ -11575,19 +11556,19 @@
       </c>
       <c r="G54" s="40">
         <f>_xll.qlRateHelperEarliestDate($D54)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H54" s="39">
         <f>_xll.qlRateHelperLatestDate($D54)</f>
-        <v>51887</v>
+        <v>51915</v>
       </c>
       <c r="I54" s="34">
-        <v>0.46565998591593555</v>
+        <v>0.46565989929201851</v>
       </c>
       <c r="K54" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="L54" s="212">
+      <c r="L54" s="195">
         <v>2.6610000000000002E-2</v>
       </c>
     </row>
@@ -11605,19 +11586,19 @@
       </c>
       <c r="G55" s="40">
         <f>_xll.qlRateHelperEarliestDate($D55)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H55" s="39">
         <f>_xll.qlRateHelperLatestDate($D55)</f>
-        <v>52252</v>
+        <v>52280</v>
       </c>
       <c r="I55" s="34">
-        <v>0.45378997674865779</v>
+        <v>0.45378989240094347</v>
       </c>
       <c r="K55" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="L55" s="212">
+      <c r="L55" s="195">
         <v>2.6599999999999999E-2</v>
       </c>
     </row>
@@ -11635,19 +11616,19 @@
       </c>
       <c r="G56" s="40">
         <f>_xll.qlRateHelperEarliestDate($D56)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H56" s="39">
         <f>_xll.qlRateHelperLatestDate($D56)</f>
-        <v>52617</v>
+        <v>52645</v>
       </c>
       <c r="I56" s="34">
-        <v>0.44203192747774961</v>
+        <v>0.44203184531555001</v>
       </c>
       <c r="K56" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="L56" s="212">
+      <c r="L56" s="195">
         <v>2.6599999999999999E-2</v>
       </c>
     </row>
@@ -11665,19 +11646,19 @@
       </c>
       <c r="G57" s="40">
         <f>_xll.qlRateHelperEarliestDate($D57)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H57" s="39">
         <f>_xll.qlRateHelperLatestDate($D57)</f>
-        <v>54444</v>
+        <v>54472</v>
       </c>
       <c r="I57" s="34">
-        <v>0.38592490754601755</v>
+        <v>0.3859248352874623</v>
       </c>
       <c r="K57" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="L57" s="212">
+      <c r="L57" s="195">
         <v>2.6679999999999999E-2</v>
       </c>
     </row>
@@ -11695,19 +11676,19 @@
       </c>
       <c r="G58" s="40">
         <f>_xll.qlRateHelperEarliestDate($D58)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H58" s="39">
         <f>_xll.qlRateHelperLatestDate($D58)</f>
-        <v>56270</v>
+        <v>56298</v>
       </c>
       <c r="I58" s="34">
-        <v>0.33464542124090019</v>
+        <v>0.33464535754547325</v>
       </c>
       <c r="K58" s="96" t="s">
         <v>161</v>
       </c>
-      <c r="L58" s="212">
+      <c r="L58" s="195">
         <v>2.6839999999999999E-2</v>
       </c>
     </row>
@@ -11725,19 +11706,19 @@
       </c>
       <c r="G59" s="40">
         <f>_xll.qlRateHelperEarliestDate($D59)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H59" s="39">
         <f>_xll.qlRateHelperLatestDate($D59)</f>
-        <v>59922</v>
+        <v>59950</v>
       </c>
       <c r="I59" s="34">
-        <v>0.25227183065744541</v>
+        <v>0.25227178149373297</v>
       </c>
       <c r="K59" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="L59" s="212">
+      <c r="L59" s="195">
         <v>2.7029999999999998E-2</v>
       </c>
     </row>
@@ -11755,19 +11736,19 @@
       </c>
       <c r="G60" s="40">
         <f>_xll.qlRateHelperEarliestDate($D60)</f>
-        <v>41660</v>
+        <v>41688</v>
       </c>
       <c r="H60" s="39">
         <f>_xll.qlRateHelperLatestDate($D60)</f>
-        <v>63576</v>
+        <v>63604</v>
       </c>
       <c r="I60" s="34">
-        <v>0.18985040492300714</v>
+        <v>0.1898503671165726</v>
       </c>
       <c r="K60" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="L60" s="212">
+      <c r="L60" s="195">
         <v>2.716E-2</v>
       </c>
     </row>
@@ -13447,7 +13428,7 @@
       </c>
       <c r="F3" s="107" t="str">
         <f>_xll.qlDepositRateHelper2(E3,D3,"1d",2,"target","following",FALSE,"act/360",Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_SND#0001</v>
+        <v>EUR_YC6MRH_SND#0000</v>
       </c>
       <c r="G3" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -13474,7 +13455,7 @@
       </c>
       <c r="F4" s="101" t="str">
         <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_SWD#0001</v>
+        <v>EUR_YC6MRH_SWD#0000</v>
       </c>
       <c r="G4" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -13501,7 +13482,7 @@
       </c>
       <c r="F5" s="101" t="str">
         <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_2WD#0001</v>
+        <v>EUR_YC6MRH_2WD#0000</v>
       </c>
       <c r="G5" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -13528,7 +13509,7 @@
       </c>
       <c r="F6" s="101" t="str">
         <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_3WD#0001</v>
+        <v>EUR_YC6MRH_3WD#0000</v>
       </c>
       <c r="G6" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -13555,7 +13536,7 @@
       </c>
       <c r="F7" s="101" t="str">
         <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_1MD#0001</v>
+        <v>EUR_YC6MRH_1MD#0000</v>
       </c>
       <c r="G7" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -13582,7 +13563,7 @@
       </c>
       <c r="F8" s="101" t="str">
         <f>_xll.qlDepositRateHelper(E8,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_2MD#0001</v>
+        <v>EUR_YC6MRH_2MD#0000</v>
       </c>
       <c r="G8" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -13609,7 +13590,7 @@
       </c>
       <c r="F9" s="101" t="str">
         <f>_xll.qlDepositRateHelper(E9,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_3MD#0001</v>
+        <v>EUR_YC6MRH_3MD#0000</v>
       </c>
       <c r="G9" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -13636,7 +13617,7 @@
       </c>
       <c r="F10" s="101" t="str">
         <f>_xll.qlDepositRateHelper(E10,D10,C10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_4MD#0001</v>
+        <v>EUR_YC6MRH_4MD#0000</v>
       </c>
       <c r="G10" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -13663,7 +13644,7 @@
       </c>
       <c r="F11" s="101" t="str">
         <f>_xll.qlDepositRateHelper(E11,D11,C11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_5MD#0001</v>
+        <v>EUR_YC6MRH_5MD#0000</v>
       </c>
       <c r="G11" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -13690,7 +13671,7 @@
       </c>
       <c r="F12" s="101" t="str">
         <f>_xll.qlDepositRateHelper(E12,D12,C12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_6MD#0001</v>
+        <v>EUR_YC6MRH_6MD#0000</v>
       </c>
       <c r="G12" s="100" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -13816,7 +13797,7 @@
       </c>
       <c r="I3" s="145" t="str">
         <f>_xll.qlFraRateHelper(H3,G3,B3,E3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_T6F1#0001</v>
+        <v>EUR_YC6MRH_T6F1#0000</v>
       </c>
       <c r="J3" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
@@ -13853,7 +13834,7 @@
       </c>
       <c r="I4" s="150" t="str">
         <f>_xll.qlFraRateHelper(H4,G4,B4,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_TOM6F1#0001</v>
+        <v>EUR_YC6MRH_TOM6F1#0000</v>
       </c>
       <c r="J4" s="149" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
@@ -13891,7 +13872,7 @@
       </c>
       <c r="I5" s="145" t="str">
         <f>_xll.qlFraRateHelper(H5,G5,B5,E5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_1x7F#0001</v>
+        <v>EUR_YC6MRH_1x7F#0000</v>
       </c>
       <c r="J5" s="144" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -13929,7 +13910,7 @@
       </c>
       <c r="I6" s="140" t="str">
         <f>_xll.qlFraRateHelper(H6,G6,B6,E6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_2x8F#0001</v>
+        <v>EUR_YC6MRH_2x8F#0000</v>
       </c>
       <c r="J6" s="139" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -13967,7 +13948,7 @@
       </c>
       <c r="I7" s="140" t="str">
         <f>_xll.qlFraRateHelper(H7,G7,B7,E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_3x9F#0001</v>
+        <v>EUR_YC6MRH_3x9F#0000</v>
       </c>
       <c r="J7" s="139" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -14005,7 +13986,7 @@
       </c>
       <c r="I8" s="140" t="str">
         <f>_xll.qlFraRateHelper(H8,G8,B8,E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_4x10F#0001</v>
+        <v>EUR_YC6MRH_4x10F#0000</v>
       </c>
       <c r="J8" s="139" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -14043,7 +14024,7 @@
       </c>
       <c r="I9" s="140" t="str">
         <f>_xll.qlFraRateHelper(H9,G9,B9,E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_5x11F#0001</v>
+        <v>EUR_YC6MRH_5x11F#0000</v>
       </c>
       <c r="J9" s="139" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -14081,7 +14062,7 @@
       </c>
       <c r="I10" s="140" t="str">
         <f>_xll.qlFraRateHelper(H10,G10,B10,E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_6x12F#0001</v>
+        <v>EUR_YC6MRH_6x12F#0000</v>
       </c>
       <c r="J10" s="139" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -14119,7 +14100,7 @@
       </c>
       <c r="I11" s="140" t="str">
         <f>_xll.qlFraRateHelper(H11,G11,B11,E11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_7x13F#0001</v>
+        <v>EUR_YC6MRH_7x13F#0000</v>
       </c>
       <c r="J11" s="139" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -14157,7 +14138,7 @@
       </c>
       <c r="I12" s="140" t="str">
         <f>_xll.qlFraRateHelper(H12,G12,B12,E12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_8x14F#0001</v>
+        <v>EUR_YC6MRH_8x14F#0000</v>
       </c>
       <c r="J12" s="139" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -14195,7 +14176,7 @@
       </c>
       <c r="I13" s="140" t="str">
         <f>_xll.qlFraRateHelper(H13,G13,B13,E13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_9x15F#0001</v>
+        <v>EUR_YC6MRH_9x15F#0000</v>
       </c>
       <c r="J13" s="139" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -14233,7 +14214,7 @@
       </c>
       <c r="I14" s="140" t="str">
         <f>_xll.qlFraRateHelper(H14,G14,B14,E14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_10x16F#0001</v>
+        <v>EUR_YC6MRH_10x16F#0000</v>
       </c>
       <c r="J14" s="139" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
@@ -14271,7 +14252,7 @@
       </c>
       <c r="I15" s="140" t="str">
         <f>_xll.qlFraRateHelper(H15,G15,B15,E15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_11x17F#0001</v>
+        <v>EUR_YC6MRH_11x17F#0000</v>
       </c>
       <c r="J15" s="139" t="str">
         <f>_xll.ohRangeRetrieveError(I15)</f>
@@ -14309,7 +14290,7 @@
       </c>
       <c r="I16" s="140" t="str">
         <f>_xll.qlFraRateHelper(H16,G16,B16,E16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_12x18F#0001</v>
+        <v>EUR_YC6MRH_12x18F#0000</v>
       </c>
       <c r="J16" s="139" t="str">
         <f>_xll.ohRangeRetrieveError(I16)</f>
@@ -14347,7 +14328,7 @@
       </c>
       <c r="I17" s="140" t="str">
         <f>_xll.qlFraRateHelper(H17,G17,B17,E17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_13x19F#0001</v>
+        <v>EUR_YC6MRH_13x19F#0000</v>
       </c>
       <c r="J17" s="139" t="str">
         <f>_xll.ohRangeRetrieveError(I17)</f>
@@ -14385,7 +14366,7 @@
       </c>
       <c r="I18" s="140" t="str">
         <f>_xll.qlFraRateHelper(H18,G18,B18,E18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_14x20F#0001</v>
+        <v>EUR_YC6MRH_14x20F#0000</v>
       </c>
       <c r="J18" s="139" t="str">
         <f>_xll.ohRangeRetrieveError(I18)</f>
@@ -14423,7 +14404,7 @@
       </c>
       <c r="I19" s="140" t="str">
         <f>_xll.qlFraRateHelper(H19,G19,B19,E19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_15x21F#0001</v>
+        <v>EUR_YC6MRH_15x21F#0000</v>
       </c>
       <c r="J19" s="139" t="str">
         <f>_xll.ohRangeRetrieveError(I19)</f>
@@ -14461,7 +14442,7 @@
       </c>
       <c r="I20" s="140" t="str">
         <f>_xll.qlFraRateHelper(H20,G20,B20,E20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_16x22F#0001</v>
+        <v>EUR_YC6MRH_16x22F#0000</v>
       </c>
       <c r="J20" s="139" t="str">
         <f>_xll.ohRangeRetrieveError(I20)</f>
@@ -14499,7 +14480,7 @@
       </c>
       <c r="I21" s="140" t="str">
         <f>_xll.qlFraRateHelper(H21,G21,B21,E21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_17x23F#0001</v>
+        <v>EUR_YC6MRH_17x23F#0000</v>
       </c>
       <c r="J21" s="139" t="str">
         <f>_xll.ohRangeRetrieveError(I21)</f>
@@ -14537,7 +14518,7 @@
       </c>
       <c r="I22" s="140" t="str">
         <f>_xll.qlFraRateHelper(H22,G22,B22,E22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_18x24F#0001</v>
+        <v>EUR_YC6MRH_18x24F#0000</v>
       </c>
       <c r="J22" s="139" t="str">
         <f>_xll.ohRangeRetrieveError(I22)</f>
@@ -14697,7 +14678,7 @@
       </c>
       <c r="L4" s="189" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>EUR_YC6MRH_AB6E_ibor6M#0001</v>
+        <v>EUR_YC6MRH_AB6E_ibor6M#0000</v>
       </c>
       <c r="M4" s="188" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -14761,7 +14742,7 @@
       </c>
       <c r="L6" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E1Y#0001</v>
+        <v>EUR_YC6MRH_AB6E1Y#0000</v>
       </c>
       <c r="M6" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -14816,7 +14797,7 @@
       </c>
       <c r="L7" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E15M#0001</v>
+        <v>EUR_YC6MRH_AB6E15M#0000</v>
       </c>
       <c r="M7" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -14871,7 +14852,7 @@
       </c>
       <c r="L8" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E18M#0001</v>
+        <v>EUR_YC6MRH_AB6E18M#0000</v>
       </c>
       <c r="M8" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -14926,7 +14907,7 @@
       </c>
       <c r="L9" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E21M#0001</v>
+        <v>EUR_YC6MRH_AB6E21M#0000</v>
       </c>
       <c r="M9" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -14981,7 +14962,7 @@
       </c>
       <c r="L10" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E2Y#0001</v>
+        <v>EUR_YC6MRH_AB6E2Y#0000</v>
       </c>
       <c r="M10" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -15036,7 +15017,7 @@
       </c>
       <c r="L11" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E3Y#0001</v>
+        <v>EUR_YC6MRH_AB6E3Y#0000</v>
       </c>
       <c r="M11" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -15082,7 +15063,7 @@
       </c>
       <c r="L12" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E4Y#0001</v>
+        <v>EUR_YC6MRH_AB6E4Y#0000</v>
       </c>
       <c r="M12" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -15128,7 +15109,7 @@
       </c>
       <c r="L13" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E5Y#0001</v>
+        <v>EUR_YC6MRH_AB6E5Y#0000</v>
       </c>
       <c r="M13" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -15174,7 +15155,7 @@
       </c>
       <c r="L14" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E6Y#0001</v>
+        <v>EUR_YC6MRH_AB6E6Y#0000</v>
       </c>
       <c r="M14" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -15220,7 +15201,7 @@
       </c>
       <c r="L15" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E7Y#0001</v>
+        <v>EUR_YC6MRH_AB6E7Y#0000</v>
       </c>
       <c r="M15" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -15266,7 +15247,7 @@
       </c>
       <c r="L16" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E8Y#0001</v>
+        <v>EUR_YC6MRH_AB6E8Y#0000</v>
       </c>
       <c r="M16" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -15312,7 +15293,7 @@
       </c>
       <c r="L17" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E9Y#0001</v>
+        <v>EUR_YC6MRH_AB6E9Y#0000</v>
       </c>
       <c r="M17" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -15358,7 +15339,7 @@
       </c>
       <c r="L18" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E10Y#0001</v>
+        <v>EUR_YC6MRH_AB6E10Y#0000</v>
       </c>
       <c r="M18" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -15404,7 +15385,7 @@
       </c>
       <c r="L19" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E11Y#0001</v>
+        <v>EUR_YC6MRH_AB6E11Y#0000</v>
       </c>
       <c r="M19" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -15450,7 +15431,7 @@
       </c>
       <c r="L20" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E12Y#0001</v>
+        <v>EUR_YC6MRH_AB6E12Y#0000</v>
       </c>
       <c r="M20" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -15496,7 +15477,7 @@
       </c>
       <c r="L21" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E13Y#0001</v>
+        <v>EUR_YC6MRH_AB6E13Y#0000</v>
       </c>
       <c r="M21" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -15542,7 +15523,7 @@
       </c>
       <c r="L22" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E14Y#0001</v>
+        <v>EUR_YC6MRH_AB6E14Y#0000</v>
       </c>
       <c r="M22" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -15588,7 +15569,7 @@
       </c>
       <c r="L23" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E15Y#0001</v>
+        <v>EUR_YC6MRH_AB6E15Y#0000</v>
       </c>
       <c r="M23" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -15634,7 +15615,7 @@
       </c>
       <c r="L24" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E16Y#0001</v>
+        <v>EUR_YC6MRH_AB6E16Y#0000</v>
       </c>
       <c r="M24" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -15680,7 +15661,7 @@
       </c>
       <c r="L25" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E17Y#0001</v>
+        <v>EUR_YC6MRH_AB6E17Y#0000</v>
       </c>
       <c r="M25" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -15726,7 +15707,7 @@
       </c>
       <c r="L26" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E18Y#0001</v>
+        <v>EUR_YC6MRH_AB6E18Y#0000</v>
       </c>
       <c r="M26" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -15772,7 +15753,7 @@
       </c>
       <c r="L27" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E19Y#0001</v>
+        <v>EUR_YC6MRH_AB6E19Y#0000</v>
       </c>
       <c r="M27" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -15818,7 +15799,7 @@
       </c>
       <c r="L28" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E20Y#0001</v>
+        <v>EUR_YC6MRH_AB6E20Y#0000</v>
       </c>
       <c r="M28" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -15864,7 +15845,7 @@
       </c>
       <c r="L29" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E21Y#0001</v>
+        <v>EUR_YC6MRH_AB6E21Y#0000</v>
       </c>
       <c r="M29" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -15910,7 +15891,7 @@
       </c>
       <c r="L30" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E22Y#0001</v>
+        <v>EUR_YC6MRH_AB6E22Y#0000</v>
       </c>
       <c r="M30" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -15956,7 +15937,7 @@
       </c>
       <c r="L31" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E23Y#0001</v>
+        <v>EUR_YC6MRH_AB6E23Y#0000</v>
       </c>
       <c r="M31" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -16002,7 +15983,7 @@
       </c>
       <c r="L32" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E24Y#0001</v>
+        <v>EUR_YC6MRH_AB6E24Y#0000</v>
       </c>
       <c r="M32" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -16048,7 +16029,7 @@
       </c>
       <c r="L33" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E25Y#0001</v>
+        <v>EUR_YC6MRH_AB6E25Y#0000</v>
       </c>
       <c r="M33" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -16094,7 +16075,7 @@
       </c>
       <c r="L34" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E26Y#0001</v>
+        <v>EUR_YC6MRH_AB6E26Y#0000</v>
       </c>
       <c r="M34" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -16140,7 +16121,7 @@
       </c>
       <c r="L35" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E27Y#0001</v>
+        <v>EUR_YC6MRH_AB6E27Y#0000</v>
       </c>
       <c r="M35" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -16186,7 +16167,7 @@
       </c>
       <c r="L36" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E28Y#0001</v>
+        <v>EUR_YC6MRH_AB6E28Y#0000</v>
       </c>
       <c r="M36" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -16232,7 +16213,7 @@
       </c>
       <c r="L37" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E29Y#0001</v>
+        <v>EUR_YC6MRH_AB6E29Y#0000</v>
       </c>
       <c r="M37" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -16278,7 +16259,7 @@
       </c>
       <c r="L38" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E30Y#0001</v>
+        <v>EUR_YC6MRH_AB6E30Y#0000</v>
       </c>
       <c r="M38" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -16324,7 +16305,7 @@
       </c>
       <c r="L39" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E35Y#0001</v>
+        <v>EUR_YC6MRH_AB6E35Y#0000</v>
       </c>
       <c r="M39" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -16370,7 +16351,7 @@
       </c>
       <c r="L40" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E40Y#0001</v>
+        <v>EUR_YC6MRH_AB6E40Y#0000</v>
       </c>
       <c r="M40" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -16416,7 +16397,7 @@
       </c>
       <c r="L41" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E50Y#0001</v>
+        <v>EUR_YC6MRH_AB6E50Y#0000</v>
       </c>
       <c r="M41" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -16462,7 +16443,7 @@
       </c>
       <c r="L42" s="171" t="str">
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_AB6E60Y#0001</v>
+        <v>EUR_YC6MRH_AB6E60Y#0000</v>
       </c>
       <c r="M42" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>

--- a/QuantLibXL/Data2/XLS/EUR_YC6MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR_YC6MBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="15300" windowHeight="7725"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="15300" windowHeight="7725" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
@@ -1785,6 +1785,12 @@
     <xf numFmtId="169" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="169" fontId="2" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1809,12 +1815,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -2129,8 +2129,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2156,19 +2156,19 @@
       </c>
     </row>
     <row r="2" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="197" t="s">
+      <c r="B2" s="199" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="198"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="198"/>
-      <c r="F2" s="199"/>
-      <c r="K2" s="197" t="s">
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="201"/>
+      <c r="K2" s="199" t="s">
         <v>125</v>
       </c>
-      <c r="L2" s="198"/>
-      <c r="M2" s="198"/>
-      <c r="N2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="202"/>
     </row>
     <row r="3" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="29"/>
@@ -2200,7 +2200,7 @@
         <v>124</v>
       </c>
       <c r="M4" s="90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="95"/>
     </row>
@@ -2224,10 +2224,7 @@
       <c r="L5" s="96" t="s">
         <v>123</v>
       </c>
-      <c r="M5" s="98" t="str">
-        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\Projects\quantlib\QuantLibXL\Data2\XML\</v>
-      </c>
+      <c r="M5" s="98"/>
       <c r="N5" s="95"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
@@ -2307,12 +2304,12 @@
       </c>
       <c r="E9" s="27"/>
       <c r="F9" s="26"/>
-      <c r="K9" s="197" t="s">
+      <c r="K9" s="199" t="s">
         <v>121</v>
       </c>
-      <c r="L9" s="198"/>
-      <c r="M9" s="198"/>
-      <c r="N9" s="200"/>
+      <c r="L9" s="200"/>
+      <c r="M9" s="200"/>
+      <c r="N9" s="202"/>
     </row>
     <row r="10" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="29"/>
@@ -2334,9 +2331,7 @@
       <c r="C11" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="54">
-        <v>41733.635659722226</v>
-      </c>
+      <c r="D11" s="54"/>
       <c r="E11" s="27"/>
       <c r="F11" s="26"/>
       <c r="K11" s="89"/>
@@ -2389,7 +2384,7 @@
       </c>
       <c r="D14" s="51" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_EURYC6M#0002</v>
+        <v>_EURYC6M#0001</v>
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="26"/>
@@ -2554,7 +2549,7 @@
       <c r="B27" s="29"/>
       <c r="C27" s="33">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="D27" s="32">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
@@ -2567,21 +2562,21 @@
       <c r="B28" s="29"/>
       <c r="C28" s="31">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>63653</v>
+        <v>63654</v>
       </c>
       <c r="D28" s="30">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.21204487763249871</v>
+        <v>0.21093935966807603</v>
       </c>
       <c r="E28" s="27"/>
       <c r="F28" s="26"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="29"/>
-      <c r="C29" s="206" t="s">
+      <c r="C29" s="197" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="207" t="str">
+      <c r="D29" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(Selected!I1)</f>
         <v/>
       </c>
@@ -2651,8 +2646,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:N165"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2676,11 +2671,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B1" s="201" t="s">
+      <c r="B1" s="203" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="202"/>
-      <c r="D1" s="203"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="205"/>
       <c r="E1" s="169" t="s">
         <v>63</v>
       </c>
@@ -2718,7 +2713,7 @@
       </c>
       <c r="F2" s="173">
         <f>_xll.qlRateHelperQuoteValue($E2,Trigger)</f>
-        <v>4.8760000000000001E-3</v>
+        <v>5.0850000000000001E-3</v>
       </c>
       <c r="G2" s="173"/>
       <c r="H2" s="174" t="b">
@@ -2732,11 +2727,11 @@
       </c>
       <c r="K2" s="191">
         <f>_xll.qlRateHelperEarliestDate($E2,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L2" s="192">
         <f>_xll.qlRateHelperLatestDate($E2,Trigger)</f>
-        <v>41738</v>
+        <v>41740</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
@@ -2751,7 +2746,7 @@
       </c>
       <c r="F3" s="173">
         <f>_xll.qlRateHelperQuoteValue($E3,Trigger)</f>
-        <v>4.5820000000000001E-3</v>
+        <v>4.6560000000000004E-3</v>
       </c>
       <c r="G3" s="173"/>
       <c r="H3" s="174" t="b">
@@ -2765,11 +2760,11 @@
       </c>
       <c r="K3" s="191">
         <f>_xll.qlRateHelperEarliestDate($E3,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L3" s="192">
         <f>_xll.qlRateHelperLatestDate($E3,Trigger)</f>
-        <v>41744</v>
+        <v>41746</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
@@ -2784,7 +2779,7 @@
       </c>
       <c r="F4" s="173">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
-        <v>4.7499999999999999E-3</v>
+        <v>4.797E-3</v>
       </c>
       <c r="G4" s="173"/>
       <c r="H4" s="174" t="b">
@@ -2798,11 +2793,11 @@
       </c>
       <c r="K4" s="191">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L4" s="192">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41751</v>
+        <v>41753</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
@@ -2817,7 +2812,7 @@
       </c>
       <c r="F5" s="173">
         <f>_xll.qlRateHelperQuoteValue($E5,Trigger)</f>
-        <v>4.6680000000000003E-3</v>
+        <v>4.7980000000000002E-3</v>
       </c>
       <c r="G5" s="173"/>
       <c r="H5" s="174" t="b">
@@ -2831,11 +2826,11 @@
       </c>
       <c r="K5" s="191">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L5" s="192">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>41758</v>
+        <v>41761</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
@@ -2850,7 +2845,7 @@
       </c>
       <c r="F6" s="173">
         <f>_xll.qlRateHelperQuoteValue($E6,Trigger)</f>
-        <v>4.6179999999999997E-3</v>
+        <v>4.6899999999999997E-3</v>
       </c>
       <c r="G6" s="173"/>
       <c r="H6" s="174" t="b">
@@ -2864,11 +2859,11 @@
       </c>
       <c r="K6" s="191">
         <f>_xll.qlRateHelperEarliestDate($E6,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L6" s="192">
         <f>_xll.qlRateHelperLatestDate($E6,Trigger)</f>
-        <v>41767</v>
+        <v>41771</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
@@ -2883,7 +2878,7 @@
       </c>
       <c r="F7" s="173">
         <f>_xll.qlRateHelperQuoteValue($E7,Trigger)</f>
-        <v>4.4140000000000004E-3</v>
+        <v>4.5539999999999999E-3</v>
       </c>
       <c r="G7" s="173"/>
       <c r="H7" s="174" t="b">
@@ -2897,11 +2892,11 @@
       </c>
       <c r="K7" s="191">
         <f>_xll.qlRateHelperEarliestDate($E7,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L7" s="192">
         <f>_xll.qlRateHelperLatestDate($E7,Trigger)</f>
-        <v>41799</v>
+        <v>41800</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
@@ -2916,7 +2911,7 @@
       </c>
       <c r="F8" s="173">
         <f>_xll.qlRateHelperQuoteValue($E8,Trigger)</f>
-        <v>4.3470000000000002E-3</v>
+        <v>4.4580000000000002E-3</v>
       </c>
       <c r="G8" s="173"/>
       <c r="H8" s="174" t="b">
@@ -2930,11 +2925,11 @@
       </c>
       <c r="K8" s="191">
         <f>_xll.qlRateHelperEarliestDate($E8,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L8" s="192">
         <f>_xll.qlRateHelperLatestDate($E8,Trigger)</f>
-        <v>41828</v>
+        <v>41830</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
@@ -2949,7 +2944,7 @@
       </c>
       <c r="F9" s="173">
         <f>_xll.qlRateHelperQuoteValue($E9,Trigger)</f>
-        <v>4.3109999999999997E-3</v>
+        <v>4.3620000000000004E-3</v>
       </c>
       <c r="G9" s="173"/>
       <c r="H9" s="174" t="b">
@@ -2963,11 +2958,11 @@
       </c>
       <c r="K9" s="191">
         <f>_xll.qlRateHelperEarliestDate($E9,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L9" s="192">
         <f>_xll.qlRateHelperLatestDate($E9,Trigger)</f>
-        <v>41859</v>
+        <v>41862</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
@@ -2982,7 +2977,7 @@
       </c>
       <c r="F10" s="173">
         <f>_xll.qlRateHelperQuoteValue($E10,Trigger)</f>
-        <v>4.2859999999999999E-3</v>
+        <v>4.3059999999999999E-3</v>
       </c>
       <c r="G10" s="173"/>
       <c r="H10" s="174" t="b">
@@ -2996,11 +2991,11 @@
       </c>
       <c r="K10" s="191">
         <f>_xll.qlRateHelperEarliestDate($E10,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L10" s="192">
         <f>_xll.qlRateHelperLatestDate($E10,Trigger)</f>
-        <v>41890</v>
+        <v>41892</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
@@ -3015,7 +3010,7 @@
       </c>
       <c r="F11" s="173">
         <f>_xll.qlRateHelperQuoteValue($E11,Trigger)</f>
-        <v>4.2700000000000004E-3</v>
+        <v>4.2599999999999999E-3</v>
       </c>
       <c r="G11" s="173"/>
       <c r="H11" s="174" t="b">
@@ -3029,11 +3024,11 @@
       </c>
       <c r="K11" s="191">
         <f>_xll.qlRateHelperEarliestDate($E11,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L11" s="192">
         <f>_xll.qlRateHelperLatestDate($E11,Trigger)</f>
-        <v>41920</v>
+        <v>41922</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
@@ -3067,11 +3062,11 @@
       </c>
       <c r="K12" s="193">
         <f>_xll.qlRateHelperEarliestDate($E12,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L12" s="194">
         <f>_xll.qlRateHelperLatestDate($E12,Trigger)</f>
-        <v>41920</v>
+        <v>41922</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
@@ -3105,11 +3100,11 @@
       </c>
       <c r="K13" s="195">
         <f>_xll.qlRateHelperEarliestDate($E13,Trigger)</f>
-        <v>41738</v>
+        <v>41740</v>
       </c>
       <c r="L13" s="196">
         <f>_xll.qlRateHelperLatestDate($E13,Trigger)</f>
-        <v>41921</v>
+        <v>41925</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
@@ -3129,7 +3124,7 @@
       </c>
       <c r="F14" s="173">
         <f>_xll.qlRateHelperQuoteValue($E14,Trigger)</f>
-        <v>4.2500000000000003E-3</v>
+        <v>4.15E-3</v>
       </c>
       <c r="G14" s="173"/>
       <c r="H14" s="174" t="b">
@@ -3143,11 +3138,11 @@
       </c>
       <c r="K14" s="191">
         <f>_xll.qlRateHelperEarliestDate($E14,Trigger)</f>
-        <v>41767</v>
+        <v>41771</v>
       </c>
       <c r="L14" s="192">
         <f>_xll.qlRateHelperLatestDate($E14,Trigger)</f>
-        <v>41953</v>
+        <v>41955</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
@@ -3167,7 +3162,7 @@
       </c>
       <c r="F15" s="173">
         <f>_xll.qlRateHelperQuoteValue($E15,Trigger)</f>
-        <v>4.1200000000000004E-3</v>
+        <v>3.9900000000000005E-3</v>
       </c>
       <c r="G15" s="173"/>
       <c r="H15" s="174" t="b">
@@ -3181,11 +3176,11 @@
       </c>
       <c r="K15" s="191">
         <f>_xll.qlRateHelperEarliestDate($E15,Trigger)</f>
-        <v>41799</v>
+        <v>41800</v>
       </c>
       <c r="L15" s="192">
         <f>_xll.qlRateHelperLatestDate($E15,Trigger)</f>
-        <v>41982</v>
+        <v>41983</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
@@ -3205,7 +3200,7 @@
       </c>
       <c r="F16" s="173">
         <f>_xll.qlRateHelperQuoteValue($E16,Trigger)</f>
-        <v>4.1099999999999999E-3</v>
+        <v>3.98E-3</v>
       </c>
       <c r="G16" s="173"/>
       <c r="H16" s="174" t="b">
@@ -3219,11 +3214,11 @@
       </c>
       <c r="K16" s="191">
         <f>_xll.qlRateHelperEarliestDate($E16,Trigger)</f>
-        <v>41828</v>
+        <v>41830</v>
       </c>
       <c r="L16" s="192">
         <f>_xll.qlRateHelperLatestDate($E16,Trigger)</f>
-        <v>42012</v>
+        <v>42016</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -3243,7 +3238,7 @@
       </c>
       <c r="F17" s="173">
         <f>_xll.qlRateHelperQuoteValue($E17,Trigger)</f>
-        <v>4.0600000000000002E-3</v>
+        <v>3.9399999999999999E-3</v>
       </c>
       <c r="G17" s="173"/>
       <c r="H17" s="174" t="b">
@@ -3257,11 +3252,11 @@
       </c>
       <c r="K17" s="191">
         <f>_xll.qlRateHelperEarliestDate($E17,Trigger)</f>
-        <v>41859</v>
+        <v>41862</v>
       </c>
       <c r="L17" s="192">
         <f>_xll.qlRateHelperLatestDate($E17,Trigger)</f>
-        <v>42044</v>
+        <v>42046</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -3281,7 +3276,7 @@
       </c>
       <c r="F18" s="173">
         <f>_xll.qlRateHelperQuoteValue($E18,Trigger)</f>
-        <v>4.0100000000000005E-3</v>
+        <v>3.9100000000000003E-3</v>
       </c>
       <c r="G18" s="173"/>
       <c r="H18" s="174" t="b">
@@ -3295,11 +3290,11 @@
       </c>
       <c r="K18" s="191">
         <f>_xll.qlRateHelperEarliestDate($E18,Trigger)</f>
-        <v>41890</v>
+        <v>41892</v>
       </c>
       <c r="L18" s="192">
         <f>_xll.qlRateHelperLatestDate($E18,Trigger)</f>
-        <v>42072</v>
+        <v>42073</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -3319,7 +3314,7 @@
       </c>
       <c r="F19" s="173">
         <f>_xll.qlRateHelperQuoteValue($E19,Trigger)</f>
-        <v>4.0300000000000006E-3</v>
+        <v>3.9399999999999999E-3</v>
       </c>
       <c r="G19" s="173"/>
       <c r="H19" s="174" t="b">
@@ -3333,11 +3328,11 @@
       </c>
       <c r="K19" s="191">
         <f>_xll.qlRateHelperEarliestDate($E19,Trigger)</f>
-        <v>41920</v>
+        <v>41922</v>
       </c>
       <c r="L19" s="192">
         <f>_xll.qlRateHelperLatestDate($E19,Trigger)</f>
-        <v>42102</v>
+        <v>42104</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -3357,7 +3352,7 @@
       </c>
       <c r="F20" s="173">
         <f>_xll.qlRateHelperQuoteValue($E20,Trigger)</f>
-        <v>4.0899999999999999E-3</v>
+        <v>4.0300000000000006E-3</v>
       </c>
       <c r="G20" s="173"/>
       <c r="H20" s="174" t="b">
@@ -3395,7 +3390,7 @@
       </c>
       <c r="F21" s="173">
         <f>_xll.qlRateHelperQuoteValue($E21,Trigger)</f>
-        <v>4.1600000000000005E-3</v>
+        <v>4.1200000000000004E-3</v>
       </c>
       <c r="G21" s="173"/>
       <c r="H21" s="174" t="b">
@@ -3409,11 +3404,11 @@
       </c>
       <c r="K21" s="191">
         <f>_xll.qlRateHelperEarliestDate($E21,Trigger)</f>
-        <v>41981</v>
+        <v>41983</v>
       </c>
       <c r="L21" s="192">
         <f>_xll.qlRateHelperLatestDate($E21,Trigger)</f>
-        <v>42163</v>
+        <v>42165</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -3433,7 +3428,7 @@
       </c>
       <c r="F22" s="173">
         <f>_xll.qlRateHelperQuoteValue($E22,Trigger)</f>
-        <v>4.2300000000000003E-3</v>
+        <v>4.2100000000000002E-3</v>
       </c>
       <c r="G22" s="173"/>
       <c r="H22" s="174" t="b">
@@ -3447,11 +3442,11 @@
       </c>
       <c r="K22" s="191">
         <f>_xll.qlRateHelperEarliestDate($E22,Trigger)</f>
-        <v>42012</v>
+        <v>42016</v>
       </c>
       <c r="L22" s="192">
         <f>_xll.qlRateHelperLatestDate($E22,Trigger)</f>
-        <v>42193</v>
+        <v>42198</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -3471,7 +3466,7 @@
       </c>
       <c r="F23" s="173">
         <f>_xll.qlRateHelperQuoteValue($E23,Trigger)</f>
-        <v>4.3699999999999998E-3</v>
+        <v>4.3499999999999997E-3</v>
       </c>
       <c r="G23" s="173"/>
       <c r="H23" s="174" t="b">
@@ -3485,7 +3480,7 @@
       </c>
       <c r="K23" s="191">
         <f>_xll.qlRateHelperEarliestDate($E23,Trigger)</f>
-        <v>42044</v>
+        <v>42045</v>
       </c>
       <c r="L23" s="192">
         <f>_xll.qlRateHelperLatestDate($E23,Trigger)</f>
@@ -3523,11 +3518,11 @@
       </c>
       <c r="K24" s="191">
         <f>_xll.qlRateHelperEarliestDate($E24,Trigger)</f>
-        <v>42072</v>
+        <v>42073</v>
       </c>
       <c r="L24" s="192">
         <f>_xll.qlRateHelperLatestDate($E24,Trigger)</f>
-        <v>42256</v>
+        <v>42257</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -3547,7 +3542,7 @@
       </c>
       <c r="F25" s="173">
         <f>_xll.qlRateHelperQuoteValue($E25,Trigger)</f>
-        <v>4.6299999999999996E-3</v>
+        <v>4.64E-3</v>
       </c>
       <c r="G25" s="173"/>
       <c r="H25" s="174" t="b">
@@ -3561,11 +3556,11 @@
       </c>
       <c r="K25" s="191">
         <f>_xll.qlRateHelperEarliestDate($E25,Trigger)</f>
-        <v>42102</v>
+        <v>42104</v>
       </c>
       <c r="L25" s="192">
         <f>_xll.qlRateHelperLatestDate($E25,Trigger)</f>
-        <v>42285</v>
+        <v>42289</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -3599,11 +3594,11 @@
       </c>
       <c r="K26" s="191">
         <f>_xll.qlRateHelperEarliestDate($E26,Trigger)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="L26" s="192">
         <f>_xll.qlRateHelperLatestDate($E26,Trigger)</f>
-        <v>42317</v>
+        <v>42319</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -3637,11 +3632,11 @@
       </c>
       <c r="K27" s="191">
         <f>_xll.qlRateHelperEarliestDate($E27,Trigger)</f>
-        <v>42163</v>
+        <v>42165</v>
       </c>
       <c r="L27" s="192">
         <f>_xll.qlRateHelperLatestDate($E27,Trigger)</f>
-        <v>42346</v>
+        <v>42348</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -3675,11 +3670,11 @@
       </c>
       <c r="K28" s="191">
         <f>_xll.qlRateHelperEarliestDate($E28,Trigger)</f>
-        <v>42193</v>
+        <v>42195</v>
       </c>
       <c r="L28" s="192">
         <f>_xll.qlRateHelperLatestDate($E28,Trigger)</f>
-        <v>42377</v>
+        <v>42380</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -3699,7 +3694,7 @@
       </c>
       <c r="F29" s="173">
         <f>_xll.qlRateHelperQuoteValue($E29,Trigger)</f>
-        <v>5.3500000000000006E-3</v>
+        <v>5.3200000000000001E-3</v>
       </c>
       <c r="G29" s="173"/>
       <c r="H29" s="174" t="b">
@@ -3737,7 +3732,7 @@
       </c>
       <c r="F30" s="173">
         <f>_xll.qlRateHelperQuoteValue($E30,Trigger)</f>
-        <v>5.5299999999999993E-3</v>
+        <v>5.5000000000000005E-3</v>
       </c>
       <c r="G30" s="173"/>
       <c r="H30" s="174" t="b">
@@ -3751,11 +3746,11 @@
       </c>
       <c r="K30" s="191">
         <f>_xll.qlRateHelperEarliestDate($E30,Trigger)</f>
-        <v>42255</v>
+        <v>42257</v>
       </c>
       <c r="L30" s="192">
         <f>_xll.qlRateHelperLatestDate($E30,Trigger)</f>
-        <v>42437</v>
+        <v>42439</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -3775,7 +3770,7 @@
       </c>
       <c r="F31" s="183">
         <f>_xll.qlRateHelperQuoteValue($E31,Trigger)</f>
-        <v>5.7600000000000004E-3</v>
+        <v>5.7299999999999999E-3</v>
       </c>
       <c r="G31" s="183"/>
       <c r="H31" s="174" t="b">
@@ -3789,11 +3784,11 @@
       </c>
       <c r="K31" s="195">
         <f>_xll.qlRateHelperEarliestDate($E31,Trigger)</f>
-        <v>42285</v>
+        <v>42289</v>
       </c>
       <c r="L31" s="196">
         <f>_xll.qlRateHelperLatestDate($E31,Trigger)</f>
-        <v>42468</v>
+        <v>42472</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6266,7 +6261,7 @@
       </c>
       <c r="F92" s="173">
         <f>_xll.qlRateHelperQuoteValue($E92,Trigger)</f>
-        <v>4.2100000000000002E-3</v>
+        <v>4.15E-3</v>
       </c>
       <c r="G92" s="173">
         <f>_xll.qlSwapRateHelperSpread($E92,Trigger)</f>
@@ -6283,11 +6278,11 @@
       </c>
       <c r="K92" s="191">
         <f>_xll.qlRateHelperEarliestDate($E92,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L92" s="192">
         <f>_xll.qlRateHelperLatestDate($E92,Trigger)</f>
-        <v>42102</v>
+        <v>42104</v>
       </c>
       <c r="N92" s="189" t="e">
         <f t="shared" ref="N92:N128" si="7">IF(G92=G129,F92-F129,"--")</f>
@@ -6312,7 +6307,7 @@
       </c>
       <c r="F93" s="173">
         <f>_xll.qlRateHelperQuoteValue($E93,Trigger)</f>
-        <v>4.0400000000000002E-3</v>
+        <v>3.98E-3</v>
       </c>
       <c r="G93" s="173">
         <f>_xll.qlSwapRateHelperSpread($E93,Trigger)</f>
@@ -6329,11 +6324,11 @@
       </c>
       <c r="K93" s="191">
         <f>_xll.qlRateHelperEarliestDate($E93,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L93" s="192">
         <f>_xll.qlRateHelperLatestDate($E93,Trigger)</f>
-        <v>42193</v>
+        <v>42195</v>
       </c>
       <c r="N93" s="189" t="e">
         <f t="shared" si="7"/>
@@ -6358,7 +6353,7 @@
       </c>
       <c r="F94" s="173">
         <f>_xll.qlRateHelperQuoteValue($E94,Trigger)</f>
-        <v>4.3899999999999998E-3</v>
+        <v>4.3499999999999997E-3</v>
       </c>
       <c r="G94" s="173">
         <f>_xll.qlSwapRateHelperSpread($E94,Trigger)</f>
@@ -6375,11 +6370,11 @@
       </c>
       <c r="K94" s="191">
         <f>_xll.qlRateHelperEarliestDate($E94,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L94" s="192">
         <f>_xll.qlRateHelperLatestDate($E94,Trigger)</f>
-        <v>42285</v>
+        <v>42289</v>
       </c>
       <c r="N94" s="189" t="e">
         <f t="shared" si="7"/>
@@ -6404,7 +6399,7 @@
       </c>
       <c r="F95" s="173">
         <f>_xll.qlRateHelperQuoteValue($E95,Trigger)</f>
-        <v>4.3899999999999998E-3</v>
+        <v>4.3499999999999997E-3</v>
       </c>
       <c r="G95" s="173">
         <f>_xll.qlSwapRateHelperSpread($E95,Trigger)</f>
@@ -6421,11 +6416,11 @@
       </c>
       <c r="K95" s="191">
         <f>_xll.qlRateHelperEarliestDate($E95,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L95" s="192">
         <f>_xll.qlRateHelperLatestDate($E95,Trigger)</f>
-        <v>42377</v>
+        <v>42380</v>
       </c>
       <c r="N95" s="189" t="e">
         <f t="shared" si="7"/>
@@ -6450,7 +6445,7 @@
       </c>
       <c r="F96" s="173">
         <f>_xll.qlRateHelperQuoteValue($E96,Trigger)</f>
-        <v>4.7399999999999994E-3</v>
+        <v>4.7199999999999994E-3</v>
       </c>
       <c r="G96" s="173">
         <f>_xll.qlSwapRateHelperSpread($E96,Trigger)</f>
@@ -6467,11 +6462,11 @@
       </c>
       <c r="K96" s="191">
         <f>_xll.qlRateHelperEarliestDate($E96,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L96" s="192">
         <f>_xll.qlRateHelperLatestDate($E96,Trigger)</f>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="N96" s="189" t="e">
         <f t="shared" si="7"/>
@@ -6496,7 +6491,7 @@
       </c>
       <c r="F97" s="173">
         <f>_xll.qlRateHelperQuoteValue($E97,Trigger)</f>
-        <v>6.0099999999999997E-3</v>
+        <v>5.9299999999999995E-3</v>
       </c>
       <c r="G97" s="173">
         <f>_xll.qlSwapRateHelperSpread($E97,Trigger)</f>
@@ -6513,7 +6508,7 @@
       </c>
       <c r="K97" s="191">
         <f>_xll.qlRateHelperEarliestDate($E97,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L97" s="192">
         <f>_xll.qlRateHelperLatestDate($E97,Trigger)</f>
@@ -6542,7 +6537,7 @@
       </c>
       <c r="F98" s="173">
         <f>_xll.qlRateHelperQuoteValue($E98,Trigger)</f>
-        <v>7.77E-3</v>
+        <v>7.5900000000000004E-3</v>
       </c>
       <c r="G98" s="173">
         <f>_xll.qlSwapRateHelperSpread($E98,Trigger)</f>
@@ -6559,11 +6554,11 @@
       </c>
       <c r="K98" s="191">
         <f>_xll.qlRateHelperEarliestDate($E98,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L98" s="192">
         <f>_xll.qlRateHelperLatestDate($E98,Trigger)</f>
-        <v>43199</v>
+        <v>43200</v>
       </c>
       <c r="N98" s="189" t="e">
         <f t="shared" si="7"/>
@@ -6588,7 +6583,7 @@
       </c>
       <c r="F99" s="173">
         <f>_xll.qlRateHelperQuoteValue($E99,Trigger)</f>
-        <v>9.6499999999999989E-3</v>
+        <v>9.41E-3</v>
       </c>
       <c r="G99" s="173">
         <f>_xll.qlSwapRateHelperSpread($E99,Trigger)</f>
@@ -6605,11 +6600,11 @@
       </c>
       <c r="K99" s="191">
         <f>_xll.qlRateHelperEarliestDate($E99,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L99" s="192">
         <f>_xll.qlRateHelperLatestDate($E99,Trigger)</f>
-        <v>43563</v>
+        <v>43565</v>
       </c>
       <c r="N99" s="189" t="e">
         <f t="shared" si="7"/>
@@ -6634,7 +6629,7 @@
       </c>
       <c r="F100" s="173">
         <f>_xll.qlRateHelperQuoteValue($E100,Trigger)</f>
-        <v>1.153E-2</v>
+        <v>1.1270000000000001E-2</v>
       </c>
       <c r="G100" s="173">
         <f>_xll.qlSwapRateHelperSpread($E100,Trigger)</f>
@@ -6651,11 +6646,11 @@
       </c>
       <c r="K100" s="191">
         <f>_xll.qlRateHelperEarliestDate($E100,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L100" s="192">
         <f>_xll.qlRateHelperLatestDate($E100,Trigger)</f>
-        <v>43929</v>
+        <v>43935</v>
       </c>
       <c r="N100" s="189" t="e">
         <f t="shared" si="7"/>
@@ -6680,7 +6675,7 @@
       </c>
       <c r="F101" s="173">
         <f>_xll.qlRateHelperQuoteValue($E101,Trigger)</f>
-        <v>1.3349999999999999E-2</v>
+        <v>1.306E-2</v>
       </c>
       <c r="G101" s="173">
         <f>_xll.qlSwapRateHelperSpread($E101,Trigger)</f>
@@ -6697,11 +6692,11 @@
       </c>
       <c r="K101" s="191">
         <f>_xll.qlRateHelperEarliestDate($E101,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L101" s="192">
         <f>_xll.qlRateHelperLatestDate($E101,Trigger)</f>
-        <v>44294</v>
+        <v>44298</v>
       </c>
       <c r="N101" s="189" t="e">
         <f t="shared" si="7"/>
@@ -6726,7 +6721,7 @@
       </c>
       <c r="F102" s="173">
         <f>_xll.qlRateHelperQuoteValue($E102,Trigger)</f>
-        <v>1.5030000000000002E-2</v>
+        <v>1.473E-2</v>
       </c>
       <c r="G102" s="173">
         <f>_xll.qlSwapRateHelperSpread($E102,Trigger)</f>
@@ -6743,11 +6738,11 @@
       </c>
       <c r="K102" s="191">
         <f>_xll.qlRateHelperEarliestDate($E102,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L102" s="192">
         <f>_xll.qlRateHelperLatestDate($E102,Trigger)</f>
-        <v>44659</v>
+        <v>44662</v>
       </c>
       <c r="N102" s="189" t="e">
         <f t="shared" si="7"/>
@@ -6772,7 +6767,7 @@
       </c>
       <c r="F103" s="173">
         <f>_xll.qlRateHelperQuoteValue($E103,Trigger)</f>
-        <v>1.6559999999999998E-2</v>
+        <v>1.6250000000000001E-2</v>
       </c>
       <c r="G103" s="173">
         <f>_xll.qlSwapRateHelperSpread($E103,Trigger)</f>
@@ -6789,7 +6784,7 @@
       </c>
       <c r="K103" s="191">
         <f>_xll.qlRateHelperEarliestDate($E103,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L103" s="192">
         <f>_xll.qlRateHelperLatestDate($E103,Trigger)</f>
@@ -6818,7 +6813,7 @@
       </c>
       <c r="F104" s="173">
         <f>_xll.qlRateHelperQuoteValue($E104,Trigger)</f>
-        <v>1.7920000000000002E-2</v>
+        <v>1.7610000000000001E-2</v>
       </c>
       <c r="G104" s="173">
         <f>_xll.qlSwapRateHelperSpread($E104,Trigger)</f>
@@ -6835,11 +6830,11 @@
       </c>
       <c r="K104" s="191">
         <f>_xll.qlRateHelperEarliestDate($E104,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L104" s="192">
         <f>_xll.qlRateHelperLatestDate($E104,Trigger)</f>
-        <v>45390</v>
+        <v>45392</v>
       </c>
       <c r="N104" s="189" t="e">
         <f t="shared" si="7"/>
@@ -6864,7 +6859,7 @@
       </c>
       <c r="F105" s="173">
         <f>_xll.qlRateHelperQuoteValue($E105,Trigger)</f>
-        <v>1.9130000000000001E-2</v>
+        <v>1.883E-2</v>
       </c>
       <c r="G105" s="173">
         <f>_xll.qlSwapRateHelperSpread($E105,Trigger)</f>
@@ -6881,11 +6876,11 @@
       </c>
       <c r="K105" s="191">
         <f>_xll.qlRateHelperEarliestDate($E105,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L105" s="192">
         <f>_xll.qlRateHelperLatestDate($E105,Trigger)</f>
-        <v>45755</v>
+        <v>45757</v>
       </c>
       <c r="N105" s="189" t="e">
         <f t="shared" si="7"/>
@@ -6910,7 +6905,7 @@
       </c>
       <c r="F106" s="173">
         <f>_xll.qlRateHelperQuoteValue($E106,Trigger)</f>
-        <v>2.0179999999999997E-2</v>
+        <v>1.9889999999999998E-2</v>
       </c>
       <c r="G106" s="173">
         <f>_xll.qlSwapRateHelperSpread($E106,Trigger)</f>
@@ -6927,11 +6922,11 @@
       </c>
       <c r="K106" s="191">
         <f>_xll.qlRateHelperEarliestDate($E106,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L106" s="192">
         <f>_xll.qlRateHelperLatestDate($E106,Trigger)</f>
-        <v>46120</v>
+        <v>46122</v>
       </c>
       <c r="N106" s="189" t="e">
         <f t="shared" si="7"/>
@@ -6956,7 +6951,7 @@
       </c>
       <c r="F107" s="173">
         <f>_xll.qlRateHelperQuoteValue($E107,Trigger)</f>
-        <v>2.1080000000000002E-2</v>
+        <v>2.0799999999999999E-2</v>
       </c>
       <c r="G107" s="173">
         <f>_xll.qlSwapRateHelperSpread($E107,Trigger)</f>
@@ -6973,11 +6968,11 @@
       </c>
       <c r="K107" s="191">
         <f>_xll.qlRateHelperEarliestDate($E107,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L107" s="192">
         <f>_xll.qlRateHelperLatestDate($E107,Trigger)</f>
-        <v>46485</v>
+        <v>46489</v>
       </c>
       <c r="N107" s="189" t="e">
         <f t="shared" si="7"/>
@@ -7002,7 +6997,7 @@
       </c>
       <c r="F108" s="173">
         <f>_xll.qlRateHelperQuoteValue($E108,Trigger)</f>
-        <v>2.1840000000000002E-2</v>
+        <v>2.1579999999999998E-2</v>
       </c>
       <c r="G108" s="173">
         <f>_xll.qlSwapRateHelperSpread($E108,Trigger)</f>
@@ -7019,7 +7014,7 @@
       </c>
       <c r="K108" s="191">
         <f>_xll.qlRateHelperEarliestDate($E108,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L108" s="192">
         <f>_xll.qlRateHelperLatestDate($E108,Trigger)</f>
@@ -7048,7 +7043,7 @@
       </c>
       <c r="F109" s="173">
         <f>_xll.qlRateHelperQuoteValue($E109,Trigger)</f>
-        <v>2.2480000000000003E-2</v>
+        <v>2.222E-2</v>
       </c>
       <c r="G109" s="173">
         <f>_xll.qlSwapRateHelperSpread($E109,Trigger)</f>
@@ -7065,11 +7060,11 @@
       </c>
       <c r="K109" s="191">
         <f>_xll.qlRateHelperEarliestDate($E109,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L109" s="192">
         <f>_xll.qlRateHelperLatestDate($E109,Trigger)</f>
-        <v>47217</v>
+        <v>47218</v>
       </c>
       <c r="N109" s="189" t="e">
         <f t="shared" si="7"/>
@@ -7094,7 +7089,7 @@
       </c>
       <c r="F110" s="173">
         <f>_xll.qlRateHelperQuoteValue($E110,Trigger)</f>
-        <v>2.299E-2</v>
+        <v>2.2749999999999999E-2</v>
       </c>
       <c r="G110" s="173">
         <f>_xll.qlSwapRateHelperSpread($E110,Trigger)</f>
@@ -7111,11 +7106,11 @@
       </c>
       <c r="K110" s="191">
         <f>_xll.qlRateHelperEarliestDate($E110,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L110" s="192">
         <f>_xll.qlRateHelperLatestDate($E110,Trigger)</f>
-        <v>47581</v>
+        <v>47583</v>
       </c>
       <c r="N110" s="189" t="e">
         <f t="shared" si="7"/>
@@ -7140,7 +7135,7 @@
       </c>
       <c r="F111" s="173">
         <f>_xll.qlRateHelperQuoteValue($E111,Trigger)</f>
-        <v>2.341E-2</v>
+        <v>2.3170000000000003E-2</v>
       </c>
       <c r="G111" s="173">
         <f>_xll.qlSwapRateHelperSpread($E111,Trigger)</f>
@@ -7157,11 +7152,11 @@
       </c>
       <c r="K111" s="191">
         <f>_xll.qlRateHelperEarliestDate($E111,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L111" s="192">
         <f>_xll.qlRateHelperLatestDate($E111,Trigger)</f>
-        <v>47946</v>
+        <v>47948</v>
       </c>
       <c r="N111" s="189" t="e">
         <f t="shared" si="7"/>
@@ -7186,7 +7181,7 @@
       </c>
       <c r="F112" s="173">
         <f>_xll.qlRateHelperQuoteValue($E112,Trigger)</f>
-        <v>2.3740000000000001E-2</v>
+        <v>2.3519999999999999E-2</v>
       </c>
       <c r="G112" s="173">
         <f>_xll.qlSwapRateHelperSpread($E112,Trigger)</f>
@@ -7203,11 +7198,11 @@
       </c>
       <c r="K112" s="191">
         <f>_xll.qlRateHelperEarliestDate($E112,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L112" s="192">
         <f>_xll.qlRateHelperLatestDate($E112,Trigger)</f>
-        <v>48312</v>
+        <v>48316</v>
       </c>
       <c r="N112" s="189" t="e">
         <f t="shared" si="7"/>
@@ -7232,7 +7227,7 @@
       </c>
       <c r="F113" s="173">
         <f>_xll.qlRateHelperQuoteValue($E113,Trigger)</f>
-        <v>2.4E-2</v>
+        <v>2.3789999999999999E-2</v>
       </c>
       <c r="G113" s="173">
         <f>_xll.qlSwapRateHelperSpread($E113,Trigger)</f>
@@ -7249,11 +7244,11 @@
       </c>
       <c r="K113" s="191">
         <f>_xll.qlRateHelperEarliestDate($E113,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L113" s="192">
         <f>_xll.qlRateHelperLatestDate($E113,Trigger)</f>
-        <v>48677</v>
+        <v>48680</v>
       </c>
       <c r="N113" s="189" t="e">
         <f t="shared" si="7"/>
@@ -7278,7 +7273,7 @@
       </c>
       <c r="F114" s="173">
         <f>_xll.qlRateHelperQuoteValue($E114,Trigger)</f>
-        <v>2.4209999999999999E-2</v>
+        <v>2.4009999999999997E-2</v>
       </c>
       <c r="G114" s="173">
         <f>_xll.qlSwapRateHelperSpread($E114,Trigger)</f>
@@ -7295,7 +7290,7 @@
       </c>
       <c r="K114" s="191">
         <f>_xll.qlRateHelperEarliestDate($E114,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L114" s="192">
         <f>_xll.qlRateHelperLatestDate($E114,Trigger)</f>
@@ -7324,7 +7319,7 @@
       </c>
       <c r="F115" s="173">
         <f>_xll.qlRateHelperQuoteValue($E115,Trigger)</f>
-        <v>2.4380000000000002E-2</v>
+        <v>2.419E-2</v>
       </c>
       <c r="G115" s="173">
         <f>_xll.qlSwapRateHelperSpread($E115,Trigger)</f>
@@ -7341,11 +7336,11 @@
       </c>
       <c r="K115" s="191">
         <f>_xll.qlRateHelperEarliestDate($E115,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L115" s="192">
         <f>_xll.qlRateHelperLatestDate($E115,Trigger)</f>
-        <v>49408</v>
+        <v>49409</v>
       </c>
       <c r="N115" s="189" t="e">
         <f t="shared" si="7"/>
@@ -7370,7 +7365,7 @@
       </c>
       <c r="F116" s="173">
         <f>_xll.qlRateHelperQuoteValue($E116,Trigger)</f>
-        <v>2.4510000000000001E-2</v>
+        <v>2.4340000000000001E-2</v>
       </c>
       <c r="G116" s="173">
         <f>_xll.qlSwapRateHelperSpread($E116,Trigger)</f>
@@ -7387,11 +7382,11 @@
       </c>
       <c r="K116" s="191">
         <f>_xll.qlRateHelperEarliestDate($E116,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L116" s="192">
         <f>_xll.qlRateHelperLatestDate($E116,Trigger)</f>
-        <v>49773</v>
+        <v>49775</v>
       </c>
       <c r="N116" s="189" t="e">
         <f t="shared" si="7"/>
@@ -7416,7 +7411,7 @@
       </c>
       <c r="F117" s="173">
         <f>_xll.qlRateHelperQuoteValue($E117,Trigger)</f>
-        <v>2.461E-2</v>
+        <v>2.445E-2</v>
       </c>
       <c r="G117" s="173">
         <f>_xll.qlSwapRateHelperSpread($E117,Trigger)</f>
@@ -7433,11 +7428,11 @@
       </c>
       <c r="K117" s="191">
         <f>_xll.qlRateHelperEarliestDate($E117,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L117" s="192">
         <f>_xll.qlRateHelperLatestDate($E117,Trigger)</f>
-        <v>50138</v>
+        <v>50140</v>
       </c>
       <c r="N117" s="189" t="e">
         <f t="shared" si="7"/>
@@ -7462,7 +7457,7 @@
       </c>
       <c r="F118" s="173">
         <f>_xll.qlRateHelperQuoteValue($E118,Trigger)</f>
-        <v>2.469E-2</v>
+        <v>2.4540000000000003E-2</v>
       </c>
       <c r="G118" s="173">
         <f>_xll.qlSwapRateHelperSpread($E118,Trigger)</f>
@@ -7479,11 +7474,11 @@
       </c>
       <c r="K118" s="191">
         <f>_xll.qlRateHelperEarliestDate($E118,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L118" s="192">
         <f>_xll.qlRateHelperLatestDate($E118,Trigger)</f>
-        <v>50503</v>
+        <v>50507</v>
       </c>
       <c r="N118" s="189" t="e">
         <f t="shared" si="7"/>
@@ -7508,7 +7503,7 @@
       </c>
       <c r="F119" s="173">
         <f>_xll.qlRateHelperQuoteValue($E119,Trigger)</f>
-        <v>2.4750000000000001E-2</v>
+        <v>2.461E-2</v>
       </c>
       <c r="G119" s="173">
         <f>_xll.qlSwapRateHelperSpread($E119,Trigger)</f>
@@ -7525,7 +7520,7 @@
       </c>
       <c r="K119" s="191">
         <f>_xll.qlRateHelperEarliestDate($E119,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L119" s="192">
         <f>_xll.qlRateHelperLatestDate($E119,Trigger)</f>
@@ -7554,7 +7549,7 @@
       </c>
       <c r="F120" s="173">
         <f>_xll.qlRateHelperQuoteValue($E120,Trigger)</f>
-        <v>2.479E-2</v>
+        <v>2.4660000000000001E-2</v>
       </c>
       <c r="G120" s="173">
         <f>_xll.qlSwapRateHelperSpread($E120,Trigger)</f>
@@ -7571,11 +7566,11 @@
       </c>
       <c r="K120" s="191">
         <f>_xll.qlRateHelperEarliestDate($E120,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L120" s="192">
         <f>_xll.qlRateHelperLatestDate($E120,Trigger)</f>
-        <v>51235</v>
+        <v>51236</v>
       </c>
       <c r="N120" s="189" t="e">
         <f t="shared" si="7"/>
@@ -7600,7 +7595,7 @@
       </c>
       <c r="F121" s="173">
         <f>_xll.qlRateHelperQuoteValue($E121,Trigger)</f>
-        <v>2.4820000000000002E-2</v>
+        <v>2.4700000000000003E-2</v>
       </c>
       <c r="G121" s="173">
         <f>_xll.qlSwapRateHelperSpread($E121,Trigger)</f>
@@ -7617,11 +7612,11 @@
       </c>
       <c r="K121" s="191">
         <f>_xll.qlRateHelperEarliestDate($E121,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L121" s="192">
         <f>_xll.qlRateHelperLatestDate($E121,Trigger)</f>
-        <v>51599</v>
+        <v>51601</v>
       </c>
       <c r="N121" s="189" t="e">
         <f t="shared" si="7"/>
@@ -7646,7 +7641,7 @@
       </c>
       <c r="F122" s="173">
         <f>_xll.qlRateHelperQuoteValue($E122,Trigger)</f>
-        <v>2.4840000000000001E-2</v>
+        <v>2.4729999999999999E-2</v>
       </c>
       <c r="G122" s="173">
         <f>_xll.qlSwapRateHelperSpread($E122,Trigger)</f>
@@ -7663,11 +7658,11 @@
       </c>
       <c r="K122" s="191">
         <f>_xll.qlRateHelperEarliestDate($E122,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L122" s="192">
         <f>_xll.qlRateHelperLatestDate($E122,Trigger)</f>
-        <v>51964</v>
+        <v>51966</v>
       </c>
       <c r="N122" s="189" t="e">
         <f t="shared" si="7"/>
@@ -7692,7 +7687,7 @@
       </c>
       <c r="F123" s="173">
         <f>_xll.qlRateHelperQuoteValue($E123,Trigger)</f>
-        <v>2.4859999999999997E-2</v>
+        <v>2.4760000000000001E-2</v>
       </c>
       <c r="G123" s="173">
         <f>_xll.qlSwapRateHelperSpread($E123,Trigger)</f>
@@ -7709,11 +7704,11 @@
       </c>
       <c r="K123" s="191">
         <f>_xll.qlRateHelperEarliestDate($E123,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L123" s="192">
         <f>_xll.qlRateHelperLatestDate($E123,Trigger)</f>
-        <v>52329</v>
+        <v>52331</v>
       </c>
       <c r="N123" s="189" t="e">
         <f t="shared" si="7"/>
@@ -7738,7 +7733,7 @@
       </c>
       <c r="F124" s="173">
         <f>_xll.qlRateHelperQuoteValue($E124,Trigger)</f>
-        <v>2.487E-2</v>
+        <v>2.4780000000000003E-2</v>
       </c>
       <c r="G124" s="173">
         <f>_xll.qlSwapRateHelperSpread($E124,Trigger)</f>
@@ -7755,11 +7750,11 @@
       </c>
       <c r="K124" s="191">
         <f>_xll.qlRateHelperEarliestDate($E124,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L124" s="192">
         <f>_xll.qlRateHelperLatestDate($E124,Trigger)</f>
-        <v>52695</v>
+        <v>52698</v>
       </c>
       <c r="N124" s="189" t="e">
         <f t="shared" si="7"/>
@@ -7784,7 +7779,7 @@
       </c>
       <c r="F125" s="173">
         <f>_xll.qlRateHelperQuoteValue($E125,Trigger)</f>
-        <v>2.496E-2</v>
+        <v>2.4929999999999997E-2</v>
       </c>
       <c r="G125" s="173">
         <f>_xll.qlSwapRateHelperSpread($E125,Trigger)</f>
@@ -7801,11 +7796,11 @@
       </c>
       <c r="K125" s="191">
         <f>_xll.qlRateHelperEarliestDate($E125,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L125" s="192">
         <f>_xll.qlRateHelperLatestDate($E125,Trigger)</f>
-        <v>54521</v>
+        <v>54525</v>
       </c>
       <c r="N125" s="189" t="e">
         <f t="shared" si="7"/>
@@ -7830,7 +7825,7 @@
       </c>
       <c r="F126" s="173">
         <f>_xll.qlRateHelperQuoteValue($E126,Trigger)</f>
-        <v>2.512E-2</v>
+        <v>2.511E-2</v>
       </c>
       <c r="G126" s="173">
         <f>_xll.qlSwapRateHelperSpread($E126,Trigger)</f>
@@ -7847,11 +7842,11 @@
       </c>
       <c r="K126" s="191">
         <f>_xll.qlRateHelperEarliestDate($E126,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L126" s="192">
         <f>_xll.qlRateHelperLatestDate($E126,Trigger)</f>
-        <v>56347</v>
+        <v>56349</v>
       </c>
       <c r="N126" s="189" t="e">
         <f t="shared" si="7"/>
@@ -7876,7 +7871,7 @@
       </c>
       <c r="F127" s="173">
         <f>_xll.qlRateHelperQuoteValue($E127,Trigger)</f>
-        <v>2.5249999999999998E-2</v>
+        <v>2.5270000000000001E-2</v>
       </c>
       <c r="G127" s="173">
         <f>_xll.qlSwapRateHelperSpread($E127,Trigger)</f>
@@ -7893,11 +7888,11 @@
       </c>
       <c r="K127" s="191">
         <f>_xll.qlRateHelperEarliestDate($E127,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L127" s="192">
         <f>_xll.qlRateHelperLatestDate($E127,Trigger)</f>
-        <v>60000</v>
+        <v>60002</v>
       </c>
       <c r="N127" s="189" t="e">
         <f t="shared" si="7"/>
@@ -7922,7 +7917,7 @@
       </c>
       <c r="F128" s="183">
         <f>_xll.qlRateHelperQuoteValue($E128,Trigger)</f>
-        <v>2.538E-2</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="G128" s="183">
         <f>_xll.qlSwapRateHelperSpread($E128,Trigger)</f>
@@ -7939,11 +7934,11 @@
       </c>
       <c r="K128" s="195">
         <f>_xll.qlRateHelperEarliestDate($E128,Trigger)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="L128" s="196">
         <f>_xll.qlRateHelperLatestDate($E128,Trigger)</f>
-        <v>63653</v>
+        <v>63654</v>
       </c>
       <c r="N128" s="189" t="e">
         <f t="shared" si="7"/>
@@ -9520,8 +9515,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -9538,10 +9533,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="206" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="205"/>
+      <c r="B1" s="207"/>
       <c r="D1" s="22" t="s">
         <v>72</v>
       </c>
@@ -9573,7 +9568,7 @@
       </c>
       <c r="E2" s="10">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>4.8760000000000001E-3</v>
+        <v>5.0850000000000001E-3</v>
       </c>
       <c r="F2" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -9581,14 +9576,14 @@
       </c>
       <c r="G2" s="9">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H2" s="8">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41738</v>
+        <v>41740</v>
       </c>
       <c r="I2" s="3">
-        <v>0.99998645573900502</v>
+        <v>0.99998587519951287</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -9603,7 +9598,7 @@
       </c>
       <c r="E3" s="10">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>4.5820000000000001E-3</v>
+        <v>4.6560000000000004E-3</v>
       </c>
       <c r="F3" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -9611,14 +9606,14 @@
       </c>
       <c r="G3" s="9">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H3" s="8">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41744</v>
+        <v>41746</v>
       </c>
       <c r="I3" s="3">
-        <v>0.99991091349266836</v>
+        <v>0.99990947486220916</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -9633,7 +9628,7 @@
       </c>
       <c r="E4" s="10">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>4.7499999999999999E-3</v>
+        <v>4.797E-3</v>
       </c>
       <c r="F4" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -9641,14 +9636,14 @@
       </c>
       <c r="G4" s="9">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H4" s="8">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41751</v>
+        <v>41753</v>
       </c>
       <c r="I4" s="3">
-        <v>0.99981531189376005</v>
+        <v>0.99981348479440091</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -9663,7 +9658,7 @@
       </c>
       <c r="E5" s="10">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>4.6680000000000003E-3</v>
+        <v>4.7980000000000002E-3</v>
       </c>
       <c r="F5" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -9671,14 +9666,14 @@
       </c>
       <c r="G5" s="9">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H5" s="8">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41758</v>
+        <v>41761</v>
       </c>
       <c r="I5" s="3">
-        <v>0.99972777412705183</v>
+        <v>0.99970687483644383</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -9694,7 +9689,7 @@
       </c>
       <c r="E6" s="10">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>4.6179999999999997E-3</v>
+        <v>4.6899999999999997E-3</v>
       </c>
       <c r="F6" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -9702,20 +9697,20 @@
       </c>
       <c r="G6" s="9">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H6" s="8">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41767</v>
+        <v>41771</v>
       </c>
       <c r="I6" s="3">
-        <v>0.99961531470632958</v>
+        <v>0.99958328483503334</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>EUR_YC6MRH_RateHelpersSelected#0002</v>
+        <v>EUR_YC6MRH_RateHelpersSelected#0001</v>
       </c>
       <c r="B7" s="12" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -9726,7 +9721,7 @@
       </c>
       <c r="E7" s="10">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>4.4140000000000004E-3</v>
+        <v>4.5539999999999999E-3</v>
       </c>
       <c r="F7" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -9734,14 +9729,14 @@
       </c>
       <c r="G7" s="9">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H7" s="8">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41799</v>
+        <v>41800</v>
       </c>
       <c r="I7" s="3">
-        <v>0.99924038855928832</v>
+        <v>0.99922894498460257</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -9750,7 +9745,7 @@
       </c>
       <c r="E8" s="10">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>4.3470000000000002E-3</v>
+        <v>4.4580000000000002E-3</v>
       </c>
       <c r="F8" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -9758,14 +9753,14 @@
       </c>
       <c r="G8" s="9">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H8" s="8">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>41828</v>
+        <v>41830</v>
       </c>
       <c r="I8" s="3">
-        <v>0.99890238109109752</v>
+        <v>0.99887438510333337</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -9774,7 +9769,7 @@
       </c>
       <c r="E9" s="10">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>4.3109999999999997E-3</v>
+        <v>4.3620000000000004E-3</v>
       </c>
       <c r="F9" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -9782,14 +9777,14 @@
       </c>
       <c r="G9" s="9">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H9" s="8">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>41859</v>
+        <v>41862</v>
       </c>
       <c r="I9" s="3">
-        <v>0.99854118126123637</v>
+        <v>0.99851186783776802</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -9798,7 +9793,7 @@
       </c>
       <c r="E10" s="10">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>4.2859999999999999E-3</v>
+        <v>4.3059999999999999E-3</v>
       </c>
       <c r="F10" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -9806,14 +9801,14 @@
       </c>
       <c r="G10" s="9">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H10" s="8">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>41890</v>
+        <v>41892</v>
       </c>
       <c r="I10" s="3">
-        <v>0.99818176201140807</v>
+        <v>0.99817329296520907</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -9822,7 +9817,7 @@
       </c>
       <c r="E11" s="10">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>4.2500000000000003E-3</v>
+        <v>4.15E-3</v>
       </c>
       <c r="F11" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -9830,14 +9825,14 @@
       </c>
       <c r="G11" s="9">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41767</v>
+        <v>41771</v>
       </c>
       <c r="H11" s="8">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>41953</v>
+        <v>41955</v>
       </c>
       <c r="I11" s="3">
-        <v>0.99742513534663102</v>
+        <v>0.9974675453416364</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -9846,7 +9841,7 @@
       </c>
       <c r="E12" s="10">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>4.1200000000000004E-3</v>
+        <v>3.9900000000000005E-3</v>
       </c>
       <c r="F12" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -9854,14 +9849,14 @@
       </c>
       <c r="G12" s="9">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41799</v>
+        <v>41800</v>
       </c>
       <c r="H12" s="8">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>41982</v>
+        <v>41983</v>
       </c>
       <c r="I12" s="3">
-        <v>0.99715201984572466</v>
+        <v>0.99720636118253414</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -9870,7 +9865,7 @@
       </c>
       <c r="E13" s="10">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>4.1099999999999999E-3</v>
+        <v>3.98E-3</v>
       </c>
       <c r="F13" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -9878,14 +9873,14 @@
       </c>
       <c r="G13" s="9">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41828</v>
+        <v>41830</v>
       </c>
       <c r="H13" s="8">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>42012</v>
+        <v>42016</v>
       </c>
       <c r="I13" s="3">
-        <v>0.99680841887251925</v>
+        <v>0.99682458148877751</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -9894,7 +9889,7 @@
       </c>
       <c r="E14" s="10">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>4.0600000000000002E-3</v>
+        <v>3.9399999999999999E-3</v>
       </c>
       <c r="F14" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -9902,14 +9897,14 @@
       </c>
       <c r="G14" s="9">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41859</v>
+        <v>41862</v>
       </c>
       <c r="H14" s="8">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>42044</v>
+        <v>42046</v>
       </c>
       <c r="I14" s="3">
-        <v>0.99646217365392675</v>
+        <v>0.99650512795564938</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -9918,7 +9913,7 @@
       </c>
       <c r="E15" s="10">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>4.0100000000000005E-3</v>
+        <v>3.9100000000000003E-3</v>
       </c>
       <c r="F15" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -9926,14 +9921,14 @@
       </c>
       <c r="G15" s="9">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41890</v>
+        <v>41892</v>
       </c>
       <c r="H15" s="8">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>42072</v>
+        <v>42073</v>
       </c>
       <c r="I15" s="3">
-        <v>0.99616226438974986</v>
+        <v>0.99621487288828758</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -9942,7 +9937,7 @@
       </c>
       <c r="E16" s="10">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>4.0300000000000006E-3</v>
+        <v>3.9399999999999999E-3</v>
       </c>
       <c r="F16" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -9950,14 +9945,14 @@
       </c>
       <c r="G16" s="9">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41920</v>
+        <v>41922</v>
       </c>
       <c r="H16" s="8">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>42102</v>
+        <v>42104</v>
       </c>
       <c r="I16" s="3">
-        <v>0.99577624193784164</v>
+        <v>0.99583785813794845</v>
       </c>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.2">
@@ -9966,7 +9961,7 @@
       </c>
       <c r="E17" s="10">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>4.0899999999999999E-3</v>
+        <v>4.0300000000000006E-3</v>
       </c>
       <c r="F17" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -9981,7 +9976,7 @@
         <v>42135</v>
       </c>
       <c r="I17" s="3">
-        <v>0.99536699289615316</v>
+        <v>0.99545859816111559</v>
       </c>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.2">
@@ -9990,7 +9985,7 @@
       </c>
       <c r="E18" s="10">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>4.1600000000000005E-3</v>
+        <v>4.1200000000000004E-3</v>
       </c>
       <c r="F18" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -9998,14 +9993,14 @@
       </c>
       <c r="G18" s="9">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41981</v>
+        <v>41983</v>
       </c>
       <c r="H18" s="8">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>42163</v>
+        <v>42165</v>
       </c>
       <c r="I18" s="3">
-        <v>0.99506946113674388</v>
+        <v>0.99513360844654086</v>
       </c>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.2">
@@ -10014,7 +10009,7 @@
       </c>
       <c r="E19" s="10">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>4.2300000000000003E-3</v>
+        <v>4.2100000000000002E-3</v>
       </c>
       <c r="F19" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -10022,14 +10017,14 @@
       </c>
       <c r="G19" s="9">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>42012</v>
+        <v>42016</v>
       </c>
       <c r="H19" s="8">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>42193</v>
+        <v>42198</v>
       </c>
       <c r="I19" s="3">
-        <v>0.99469295562913507</v>
+        <v>0.99470745718920117</v>
       </c>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.2">
@@ -10038,7 +10033,7 @@
       </c>
       <c r="E20" s="10">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>4.3699999999999998E-3</v>
+        <v>4.3499999999999997E-3</v>
       </c>
       <c r="F20" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -10046,14 +10041,14 @@
       </c>
       <c r="G20" s="9">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>42044</v>
+        <v>42045</v>
       </c>
       <c r="H20" s="8">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
         <v>42226</v>
       </c>
       <c r="I20" s="3">
-        <v>0.99426556483632422</v>
+        <v>0.99434075256906196</v>
       </c>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.2">
@@ -10070,14 +10065,14 @@
       </c>
       <c r="G21" s="9">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>42072</v>
+        <v>42073</v>
       </c>
       <c r="H21" s="8">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>42256</v>
+        <v>42257</v>
       </c>
       <c r="I21" s="3">
-        <v>0.99388648520229994</v>
+        <v>0.9939389735142673</v>
       </c>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.2">
@@ -10086,7 +10081,7 @@
       </c>
       <c r="E22" s="10">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>4.6299999999999996E-3</v>
+        <v>4.64E-3</v>
       </c>
       <c r="F22" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -10094,14 +10089,14 @@
       </c>
       <c r="G22" s="9">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>42102</v>
+        <v>42104</v>
       </c>
       <c r="H22" s="8">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>42285</v>
+        <v>42289</v>
       </c>
       <c r="I22" s="3">
-        <v>0.99343810257691834</v>
+        <v>0.99346898653228366</v>
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.2">
@@ -10118,14 +10113,14 @@
       </c>
       <c r="G23" s="9">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>42132</v>
+        <v>42135</v>
       </c>
       <c r="H23" s="8">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>42317</v>
+        <v>42319</v>
       </c>
       <c r="I23" s="3">
-        <v>0.99295649226337479</v>
+        <v>0.99302744629980777</v>
       </c>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.2">
@@ -10142,14 +10137,14 @@
       </c>
       <c r="G24" s="9">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>42163</v>
+        <v>42165</v>
       </c>
       <c r="H24" s="8">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>42346</v>
+        <v>42348</v>
       </c>
       <c r="I24" s="3">
-        <v>0.99257693502341082</v>
+        <v>0.99264092165211892</v>
       </c>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.2">
@@ -10166,14 +10161,14 @@
       </c>
       <c r="G25" s="9">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>42193</v>
+        <v>42195</v>
       </c>
       <c r="H25" s="8">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>42377</v>
+        <v>42380</v>
       </c>
       <c r="I25" s="3">
-        <v>0.99208663381026807</v>
+        <v>0.99212713791915186</v>
       </c>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.2">
@@ -10182,7 +10177,7 @@
       </c>
       <c r="E26" s="10">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>5.3500000000000006E-3</v>
+        <v>5.3200000000000001E-3</v>
       </c>
       <c r="F26" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -10197,7 +10192,7 @@
         <v>42410</v>
       </c>
       <c r="I26" s="3">
-        <v>0.9915542149219666</v>
+        <v>0.99164436136779599</v>
       </c>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.2">
@@ -10206,7 +10201,7 @@
       </c>
       <c r="E27" s="10">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>5.5299999999999993E-3</v>
+        <v>5.5000000000000005E-3</v>
       </c>
       <c r="F27" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -10214,14 +10209,14 @@
       </c>
       <c r="G27" s="9">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>42255</v>
+        <v>42257</v>
       </c>
       <c r="H27" s="8">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>42437</v>
+        <v>42439</v>
       </c>
       <c r="I27" s="3">
-        <v>0.99112948084553321</v>
+        <v>0.99118293429972881</v>
       </c>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.2">
@@ -10230,7 +10225,7 @@
       </c>
       <c r="E28" s="10">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>5.7600000000000004E-3</v>
+        <v>5.7299999999999999E-3</v>
       </c>
       <c r="F28" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -10238,14 +10233,14 @@
       </c>
       <c r="G28" s="9">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>42285</v>
+        <v>42289</v>
       </c>
       <c r="H28" s="8">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>42468</v>
+        <v>42472</v>
       </c>
       <c r="I28" s="3">
-        <v>0.99053780787545898</v>
+        <v>0.99058366396506936</v>
       </c>
     </row>
     <row r="29" spans="4:9" x14ac:dyDescent="0.2">
@@ -10254,7 +10249,7 @@
       </c>
       <c r="E29" s="10">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>6.0099999999999997E-3</v>
+        <v>5.9299999999999995E-3</v>
       </c>
       <c r="F29" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -10262,14 +10257,14 @@
       </c>
       <c r="G29" s="9">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H29" s="8">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
         <v>42835</v>
       </c>
       <c r="I29" s="3">
-        <v>0.98209918859968237</v>
+        <v>0.98237782661425121</v>
       </c>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.2">
@@ -10278,7 +10273,7 @@
       </c>
       <c r="E30" s="10">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>7.77E-3</v>
+        <v>7.5900000000000004E-3</v>
       </c>
       <c r="F30" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
@@ -10286,14 +10281,14 @@
       </c>
       <c r="G30" s="9">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H30" s="8">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>43199</v>
+        <v>43200</v>
       </c>
       <c r="I30" s="3">
-        <v>0.96937954144528649</v>
+        <v>0.9701101936290385</v>
       </c>
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.2">
@@ -10302,7 +10297,7 @@
       </c>
       <c r="E31" s="10">
         <f>_xll.qlRateHelperRate($D31)</f>
-        <v>9.6499999999999989E-3</v>
+        <v>9.41E-3</v>
       </c>
       <c r="F31" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
@@ -10310,14 +10305,14 @@
       </c>
       <c r="G31" s="9">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H31" s="8">
         <f>_xll.qlRateHelperLatestDate($D31)</f>
-        <v>43563</v>
+        <v>43565</v>
       </c>
       <c r="I31" s="3">
-        <v>0.95285383903508425</v>
+        <v>0.95401401500079974</v>
       </c>
     </row>
     <row r="32" spans="4:9" x14ac:dyDescent="0.2">
@@ -10326,7 +10321,7 @@
       </c>
       <c r="E32" s="10">
         <f>_xll.qlRateHelperRate($D32)</f>
-        <v>1.153E-2</v>
+        <v>1.1270000000000001E-2</v>
       </c>
       <c r="F32" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D32)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D32)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D32)),_xll.qlSwapRateHelperSpread($D32))</f>
@@ -10334,14 +10329,14 @@
       </c>
       <c r="G32" s="9">
         <f>_xll.qlRateHelperEarliestDate($D32)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H32" s="8">
         <f>_xll.qlRateHelperLatestDate($D32)</f>
-        <v>43929</v>
+        <v>43935</v>
       </c>
       <c r="I32" s="3">
-        <v>0.93298219421757234</v>
+        <v>0.9343456821249525</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.2">
@@ -10350,7 +10345,7 @@
       </c>
       <c r="E33" s="10">
         <f>_xll.qlRateHelperRate($D33)</f>
-        <v>1.3349999999999999E-2</v>
+        <v>1.306E-2</v>
       </c>
       <c r="F33" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D33)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D33)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D33)),_xll.qlSwapRateHelperSpread($D33))</f>
@@ -10358,14 +10353,14 @@
       </c>
       <c r="G33" s="9">
         <f>_xll.qlRateHelperEarliestDate($D33)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H33" s="8">
         <f>_xll.qlRateHelperLatestDate($D33)</f>
-        <v>44294</v>
+        <v>44298</v>
       </c>
       <c r="I33" s="3">
-        <v>0.91033841361792867</v>
+        <v>0.91215786616436112</v>
       </c>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.2">
@@ -10374,7 +10369,7 @@
       </c>
       <c r="E34" s="10">
         <f>_xll.qlRateHelperRate($D34)</f>
-        <v>1.5030000000000002E-2</v>
+        <v>1.473E-2</v>
       </c>
       <c r="F34" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D34)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D34)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D34)),_xll.qlSwapRateHelperSpread($D34))</f>
@@ -10382,14 +10377,14 @@
       </c>
       <c r="G34" s="9">
         <f>_xll.qlRateHelperEarliestDate($D34)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H34" s="8">
         <f>_xll.qlRateHelperLatestDate($D34)</f>
-        <v>44659</v>
+        <v>44662</v>
       </c>
       <c r="I34" s="3">
-        <v>0.88584109749556073</v>
+        <v>0.88798209121000493</v>
       </c>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.2">
@@ -10398,7 +10393,7 @@
       </c>
       <c r="E35" s="10">
         <f>_xll.qlRateHelperRate($D35)</f>
-        <v>1.6559999999999998E-2</v>
+        <v>1.6250000000000001E-2</v>
       </c>
       <c r="F35" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D35)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D35)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D35)),_xll.qlSwapRateHelperSpread($D35))</f>
@@ -10406,14 +10401,14 @@
       </c>
       <c r="G35" s="9">
         <f>_xll.qlRateHelperEarliestDate($D35)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H35" s="8">
         <f>_xll.qlRateHelperLatestDate($D35)</f>
         <v>45027</v>
       </c>
       <c r="I35" s="3">
-        <v>0.85996849041081891</v>
+        <v>0.86251641846702098</v>
       </c>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.2">
@@ -10422,7 +10417,7 @@
       </c>
       <c r="E36" s="10">
         <f>_xll.qlRateHelperRate($D36)</f>
-        <v>1.7920000000000002E-2</v>
+        <v>1.7610000000000001E-2</v>
       </c>
       <c r="F36" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D36)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D36)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D36)),_xll.qlSwapRateHelperSpread($D36))</f>
@@ -10430,14 +10425,14 @@
       </c>
       <c r="G36" s="9">
         <f>_xll.qlRateHelperEarliestDate($D36)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H36" s="8">
         <f>_xll.qlRateHelperLatestDate($D36)</f>
-        <v>45390</v>
+        <v>45392</v>
       </c>
       <c r="I36" s="3">
-        <v>0.83376461696245396</v>
+        <v>0.83643581318273375</v>
       </c>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.2">
@@ -10446,7 +10441,7 @@
       </c>
       <c r="E37" s="10">
         <f>_xll.qlRateHelperRate($D37)</f>
-        <v>1.9130000000000001E-2</v>
+        <v>1.883E-2</v>
       </c>
       <c r="F37" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D37)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D37)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D37)),_xll.qlSwapRateHelperSpread($D37))</f>
@@ -10454,14 +10449,14 @@
       </c>
       <c r="G37" s="9">
         <f>_xll.qlRateHelperEarliestDate($D37)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H37" s="8">
         <f>_xll.qlRateHelperLatestDate($D37)</f>
-        <v>45755</v>
+        <v>45757</v>
       </c>
       <c r="I37" s="3">
-        <v>0.80721212104006701</v>
+        <v>0.80996933138982108</v>
       </c>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.2">
@@ -10470,7 +10465,7 @@
       </c>
       <c r="E38" s="10">
         <f>_xll.qlRateHelperRate($D38)</f>
-        <v>2.0179999999999997E-2</v>
+        <v>1.9889999999999998E-2</v>
       </c>
       <c r="F38" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D38)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D38)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D38)),_xll.qlSwapRateHelperSpread($D38))</f>
@@ -10478,14 +10473,14 @@
       </c>
       <c r="G38" s="9">
         <f>_xll.qlRateHelperEarliestDate($D38)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H38" s="8">
         <f>_xll.qlRateHelperLatestDate($D38)</f>
-        <v>46120</v>
+        <v>46122</v>
       </c>
       <c r="I38" s="3">
-        <v>0.78097963053272834</v>
+        <v>0.7837949701529201</v>
       </c>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.2">
@@ -10494,7 +10489,7 @@
       </c>
       <c r="E39" s="10">
         <f>_xll.qlRateHelperRate($D39)</f>
-        <v>2.1080000000000002E-2</v>
+        <v>2.0799999999999999E-2</v>
       </c>
       <c r="F39" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D39)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D39)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D39)),_xll.qlSwapRateHelperSpread($D39))</f>
@@ -10502,14 +10497,14 @@
       </c>
       <c r="G39" s="9">
         <f>_xll.qlRateHelperEarliestDate($D39)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H39" s="8">
         <f>_xll.qlRateHelperLatestDate($D39)</f>
-        <v>46485</v>
+        <v>46489</v>
       </c>
       <c r="I39" s="3">
-        <v>0.75539065188390142</v>
+        <v>0.75814978561449142</v>
       </c>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.2">
@@ -10518,7 +10513,7 @@
       </c>
       <c r="E40" s="10">
         <f>_xll.qlRateHelperRate($D40)</f>
-        <v>2.1840000000000002E-2</v>
+        <v>2.1579999999999998E-2</v>
       </c>
       <c r="F40" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D40)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D40)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D40)),_xll.qlSwapRateHelperSpread($D40))</f>
@@ -10526,14 +10521,14 @@
       </c>
       <c r="G40" s="9">
         <f>_xll.qlRateHelperEarliestDate($D40)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H40" s="8">
         <f>_xll.qlRateHelperLatestDate($D40)</f>
         <v>46853</v>
       </c>
       <c r="I40" s="3">
-        <v>0.73061737486749068</v>
+        <v>0.73343557310756968</v>
       </c>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.2">
@@ -10542,7 +10537,7 @@
       </c>
       <c r="E41" s="10">
         <f>_xll.qlRateHelperRate($D41)</f>
-        <v>2.2480000000000003E-2</v>
+        <v>2.222E-2</v>
       </c>
       <c r="F41" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D41)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D41)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D41)),_xll.qlSwapRateHelperSpread($D41))</f>
@@ -10550,14 +10545,14 @@
       </c>
       <c r="G41" s="9">
         <f>_xll.qlRateHelperEarliestDate($D41)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H41" s="8">
         <f>_xll.qlRateHelperLatestDate($D41)</f>
-        <v>47217</v>
+        <v>47218</v>
       </c>
       <c r="I41" s="3">
-        <v>0.70695472277110771</v>
+        <v>0.70983983118352667</v>
       </c>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.2">
@@ -10566,7 +10561,7 @@
       </c>
       <c r="E42" s="10">
         <f>_xll.qlRateHelperRate($D42)</f>
-        <v>2.299E-2</v>
+        <v>2.2749999999999999E-2</v>
       </c>
       <c r="F42" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D42)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D42)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D42)),_xll.qlSwapRateHelperSpread($D42))</f>
@@ -10574,14 +10569,14 @@
       </c>
       <c r="G42" s="9">
         <f>_xll.qlRateHelperEarliestDate($D42)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H42" s="8">
         <f>_xll.qlRateHelperLatestDate($D42)</f>
-        <v>47581</v>
+        <v>47583</v>
       </c>
       <c r="I42" s="3">
-        <v>0.68467628550329318</v>
+        <v>0.68735330620078483</v>
       </c>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.2">
@@ -10590,7 +10585,7 @@
       </c>
       <c r="E43" s="10">
         <f>_xll.qlRateHelperRate($D43)</f>
-        <v>2.341E-2</v>
+        <v>2.3170000000000003E-2</v>
       </c>
       <c r="F43" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D43)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D43)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D43)),_xll.qlSwapRateHelperSpread($D43))</f>
@@ -10598,14 +10593,14 @@
       </c>
       <c r="G43" s="9">
         <f>_xll.qlRateHelperEarliestDate($D43)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H43" s="8">
         <f>_xll.qlRateHelperLatestDate($D43)</f>
-        <v>47946</v>
+        <v>47948</v>
       </c>
       <c r="I43" s="3">
-        <v>0.66344183755223229</v>
+        <v>0.66620556271242581</v>
       </c>
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.2">
@@ -10614,7 +10609,7 @@
       </c>
       <c r="E44" s="10">
         <f>_xll.qlRateHelperRate($D44)</f>
-        <v>2.3740000000000001E-2</v>
+        <v>2.3519999999999999E-2</v>
       </c>
       <c r="F44" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D44)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D44)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D44)),_xll.qlSwapRateHelperSpread($D44))</f>
@@ -10622,14 +10617,14 @@
       </c>
       <c r="G44" s="9">
         <f>_xll.qlRateHelperEarliestDate($D44)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H44" s="8">
         <f>_xll.qlRateHelperLatestDate($D44)</f>
-        <v>48312</v>
+        <v>48316</v>
       </c>
       <c r="I44" s="3">
-        <v>0.64346937688497108</v>
+        <v>0.64593847346540101</v>
       </c>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.2">
@@ -10638,7 +10633,7 @@
       </c>
       <c r="E45" s="10">
         <f>_xll.qlRateHelperRate($D45)</f>
-        <v>2.4E-2</v>
+        <v>2.3789999999999999E-2</v>
       </c>
       <c r="F45" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D45)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D45)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D45)),_xll.qlSwapRateHelperSpread($D45))</f>
@@ -10646,14 +10641,14 @@
       </c>
       <c r="G45" s="9">
         <f>_xll.qlRateHelperEarliestDate($D45)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H45" s="8">
         <f>_xll.qlRateHelperLatestDate($D45)</f>
-        <v>48677</v>
+        <v>48680</v>
       </c>
       <c r="I45" s="3">
-        <v>0.62461248149538717</v>
+        <v>0.62704017313106497</v>
       </c>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.2">
@@ -10662,7 +10657,7 @@
       </c>
       <c r="E46" s="10">
         <f>_xll.qlRateHelperRate($D46)</f>
-        <v>2.4209999999999999E-2</v>
+        <v>2.4009999999999997E-2</v>
       </c>
       <c r="F46" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D46)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D46)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D46)),_xll.qlSwapRateHelperSpread($D46))</f>
@@ -10670,14 +10665,14 @@
       </c>
       <c r="G46" s="9">
         <f>_xll.qlRateHelperEarliestDate($D46)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H46" s="8">
         <f>_xll.qlRateHelperLatestDate($D46)</f>
         <v>49045</v>
       </c>
       <c r="I46" s="3">
-        <v>0.60655257295594456</v>
+        <v>0.60900377607946521</v>
       </c>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.2">
@@ -10686,7 +10681,7 @@
       </c>
       <c r="E47" s="10">
         <f>_xll.qlRateHelperRate($D47)</f>
-        <v>2.4380000000000002E-2</v>
+        <v>2.419E-2</v>
       </c>
       <c r="F47" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D47)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D47)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D47)),_xll.qlSwapRateHelperSpread($D47))</f>
@@ -10694,14 +10689,14 @@
       </c>
       <c r="G47" s="9">
         <f>_xll.qlRateHelperEarliestDate($D47)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H47" s="8">
         <f>_xll.qlRateHelperLatestDate($D47)</f>
-        <v>49408</v>
+        <v>49409</v>
       </c>
       <c r="I47" s="3">
-        <v>0.5895235092326836</v>
+        <v>0.59182506163524162</v>
       </c>
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.2">
@@ -10710,7 +10705,7 @@
       </c>
       <c r="E48" s="10">
         <f>_xll.qlRateHelperRate($D48)</f>
-        <v>2.4510000000000001E-2</v>
+        <v>2.4340000000000001E-2</v>
       </c>
       <c r="F48" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D48)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D48)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D48)),_xll.qlSwapRateHelperSpread($D48))</f>
@@ -10718,14 +10713,14 @@
       </c>
       <c r="G48" s="9">
         <f>_xll.qlRateHelperEarliestDate($D48)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H48" s="8">
         <f>_xll.qlRateHelperLatestDate($D48)</f>
-        <v>49773</v>
+        <v>49775</v>
       </c>
       <c r="I48" s="3">
-        <v>0.5733426038453252</v>
+        <v>0.57531598226565395</v>
       </c>
     </row>
     <row r="49" spans="4:9" x14ac:dyDescent="0.2">
@@ -10734,7 +10729,7 @@
       </c>
       <c r="E49" s="10">
         <f>_xll.qlRateHelperRate($D49)</f>
-        <v>2.461E-2</v>
+        <v>2.445E-2</v>
       </c>
       <c r="F49" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D49)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D49)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D49)),_xll.qlSwapRateHelperSpread($D49))</f>
@@ -10742,14 +10737,14 @@
       </c>
       <c r="G49" s="9">
         <f>_xll.qlRateHelperEarliestDate($D49)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H49" s="8">
         <f>_xll.qlRateHelperLatestDate($D49)</f>
-        <v>50138</v>
+        <v>50140</v>
       </c>
       <c r="I49" s="3">
-        <v>0.55788864825405071</v>
+        <v>0.55973071533842977</v>
       </c>
     </row>
     <row r="50" spans="4:9" x14ac:dyDescent="0.2">
@@ -10758,7 +10753,7 @@
       </c>
       <c r="E50" s="10">
         <f>_xll.qlRateHelperRate($D50)</f>
-        <v>2.469E-2</v>
+        <v>2.4540000000000003E-2</v>
       </c>
       <c r="F50" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D50)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D50)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D50)),_xll.qlSwapRateHelperSpread($D50))</f>
@@ -10766,14 +10761,14 @@
       </c>
       <c r="G50" s="9">
         <f>_xll.qlRateHelperEarliestDate($D50)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H50" s="8">
         <f>_xll.qlRateHelperLatestDate($D50)</f>
-        <v>50503</v>
+        <v>50507</v>
       </c>
       <c r="I50" s="3">
-        <v>0.54305655864979263</v>
+        <v>0.54468495560034391</v>
       </c>
     </row>
     <row r="51" spans="4:9" x14ac:dyDescent="0.2">
@@ -10782,7 +10777,7 @@
       </c>
       <c r="E51" s="10">
         <f>_xll.qlRateHelperRate($D51)</f>
-        <v>2.4750000000000001E-2</v>
+        <v>2.461E-2</v>
       </c>
       <c r="F51" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D51)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D51)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D51)),_xll.qlSwapRateHelperSpread($D51))</f>
@@ -10790,14 +10785,14 @@
       </c>
       <c r="G51" s="9">
         <f>_xll.qlRateHelperEarliestDate($D51)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H51" s="8">
         <f>_xll.qlRateHelperLatestDate($D51)</f>
         <v>50872</v>
       </c>
       <c r="I51" s="3">
-        <v>0.52872494624193134</v>
+        <v>0.53034699851870082</v>
       </c>
     </row>
     <row r="52" spans="4:9" x14ac:dyDescent="0.2">
@@ -10806,7 +10801,7 @@
       </c>
       <c r="E52" s="10">
         <f>_xll.qlRateHelperRate($D52)</f>
-        <v>2.479E-2</v>
+        <v>2.4660000000000001E-2</v>
       </c>
       <c r="F52" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D52)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D52)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D52)),_xll.qlSwapRateHelperSpread($D52))</f>
@@ -10814,14 +10809,14 @@
       </c>
       <c r="G52" s="9">
         <f>_xll.qlRateHelperEarliestDate($D52)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H52" s="8">
         <f>_xll.qlRateHelperLatestDate($D52)</f>
-        <v>51235</v>
+        <v>51236</v>
       </c>
       <c r="I52" s="3">
-        <v>0.51530231028273155</v>
+        <v>0.5167304245590455</v>
       </c>
     </row>
     <row r="53" spans="4:9" x14ac:dyDescent="0.2">
@@ -10830,7 +10825,7 @@
       </c>
       <c r="E53" s="10">
         <f>_xll.qlRateHelperRate($D53)</f>
-        <v>2.4820000000000002E-2</v>
+        <v>2.4700000000000003E-2</v>
       </c>
       <c r="F53" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D53)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D53)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D53)),_xll.qlSwapRateHelperSpread($D53))</f>
@@ -10838,14 +10833,14 @@
       </c>
       <c r="G53" s="9">
         <f>_xll.qlRateHelperEarliestDate($D53)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H53" s="8">
         <f>_xll.qlRateHelperLatestDate($D53)</f>
-        <v>51599</v>
+        <v>51601</v>
       </c>
       <c r="I53" s="3">
-        <v>0.50228838090981442</v>
+        <v>0.50351695206856939</v>
       </c>
     </row>
     <row r="54" spans="4:9" x14ac:dyDescent="0.2">
@@ -10854,7 +10849,7 @@
       </c>
       <c r="E54" s="10">
         <f>_xll.qlRateHelperRate($D54)</f>
-        <v>2.4840000000000001E-2</v>
+        <v>2.4729999999999999E-2</v>
       </c>
       <c r="F54" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D54)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D54)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D54)),_xll.qlSwapRateHelperSpread($D54))</f>
@@ -10862,14 +10857,14 @@
       </c>
       <c r="G54" s="9">
         <f>_xll.qlRateHelperEarliestDate($D54)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H54" s="8">
         <f>_xll.qlRateHelperLatestDate($D54)</f>
-        <v>51964</v>
+        <v>51966</v>
       </c>
       <c r="I54" s="3">
-        <v>0.48972569443651937</v>
+        <v>0.49078256895836819</v>
       </c>
     </row>
     <row r="55" spans="4:9" x14ac:dyDescent="0.2">
@@ -10878,7 +10873,7 @@
       </c>
       <c r="E55" s="10">
         <f>_xll.qlRateHelperRate($D55)</f>
-        <v>2.4859999999999997E-2</v>
+        <v>2.4760000000000001E-2</v>
       </c>
       <c r="F55" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D55)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D55)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D55)),_xll.qlSwapRateHelperSpread($D55))</f>
@@ -10886,14 +10881,14 @@
       </c>
       <c r="G55" s="9">
         <f>_xll.qlRateHelperEarliestDate($D55)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H55" s="8">
         <f>_xll.qlRateHelperLatestDate($D55)</f>
-        <v>52329</v>
+        <v>52331</v>
       </c>
       <c r="I55" s="3">
-        <v>0.4774488463234402</v>
+        <v>0.47832742885623952</v>
       </c>
     </row>
     <row r="56" spans="4:9" x14ac:dyDescent="0.2">
@@ -10902,7 +10897,7 @@
       </c>
       <c r="E56" s="10">
         <f>_xll.qlRateHelperRate($D56)</f>
-        <v>2.487E-2</v>
+        <v>2.4780000000000003E-2</v>
       </c>
       <c r="F56" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D56)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D56)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D56)),_xll.qlSwapRateHelperSpread($D56))</f>
@@ -10910,14 +10905,14 @@
       </c>
       <c r="G56" s="9">
         <f>_xll.qlRateHelperEarliestDate($D56)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H56" s="8">
         <f>_xll.qlRateHelperLatestDate($D56)</f>
-        <v>52695</v>
+        <v>52698</v>
       </c>
       <c r="I56" s="3">
-        <v>0.46566047796353471</v>
+        <v>0.46632382377762588</v>
       </c>
     </row>
     <row r="57" spans="4:9" x14ac:dyDescent="0.2">
@@ -10926,7 +10921,7 @@
       </c>
       <c r="E57" s="10">
         <f>_xll.qlRateHelperRate($D57)</f>
-        <v>2.496E-2</v>
+        <v>2.4929999999999997E-2</v>
       </c>
       <c r="F57" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D57)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D57)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D57)),_xll.qlSwapRateHelperSpread($D57))</f>
@@ -10934,14 +10929,14 @@
       </c>
       <c r="G57" s="9">
         <f>_xll.qlRateHelperEarliestDate($D57)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H57" s="8">
         <f>_xll.qlRateHelperLatestDate($D57)</f>
-        <v>54521</v>
+        <v>54525</v>
       </c>
       <c r="I57" s="3">
-        <v>0.40985205129931612</v>
+        <v>0.40927939508942746</v>
       </c>
     </row>
     <row r="58" spans="4:9" x14ac:dyDescent="0.2">
@@ -10950,7 +10945,7 @@
       </c>
       <c r="E58" s="10">
         <f>_xll.qlRateHelperRate($D58)</f>
-        <v>2.512E-2</v>
+        <v>2.511E-2</v>
       </c>
       <c r="F58" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D58)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D58)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D58)),_xll.qlSwapRateHelperSpread($D58))</f>
@@ -10958,14 +10953,14 @@
       </c>
       <c r="G58" s="9">
         <f>_xll.qlRateHelperEarliestDate($D58)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H58" s="8">
         <f>_xll.qlRateHelperLatestDate($D58)</f>
-        <v>56347</v>
+        <v>56349</v>
       </c>
       <c r="I58" s="3">
-        <v>0.35856023318015795</v>
+        <v>0.35768576144781605</v>
       </c>
     </row>
     <row r="59" spans="4:9" x14ac:dyDescent="0.2">
@@ -10974,7 +10969,7 @@
       </c>
       <c r="E59" s="10">
         <f>_xll.qlRateHelperRate($D59)</f>
-        <v>2.5249999999999998E-2</v>
+        <v>2.5270000000000001E-2</v>
       </c>
       <c r="F59" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D59)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D59)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D59)),_xll.qlSwapRateHelperSpread($D59))</f>
@@ -10982,14 +10977,14 @@
       </c>
       <c r="G59" s="9">
         <f>_xll.qlRateHelperEarliestDate($D59)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H59" s="8">
         <f>_xll.qlRateHelperLatestDate($D59)</f>
-        <v>60000</v>
+        <v>60002</v>
       </c>
       <c r="I59" s="3">
-        <v>0.27661183114364246</v>
+        <v>0.2752129483929433</v>
       </c>
     </row>
     <row r="60" spans="4:9" x14ac:dyDescent="0.2">
@@ -10998,7 +10993,7 @@
       </c>
       <c r="E60" s="10">
         <f>_xll.qlRateHelperRate($D60)</f>
-        <v>2.538E-2</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="F60" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D60)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D60)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D60)),_xll.qlSwapRateHelperSpread($D60))</f>
@@ -11006,14 +11001,14 @@
       </c>
       <c r="G60" s="9">
         <f>_xll.qlRateHelperEarliestDate($D60)</f>
-        <v>41737</v>
+        <v>41739</v>
       </c>
       <c r="H60" s="8">
         <f>_xll.qlRateHelperLatestDate($D60)</f>
-        <v>63653</v>
+        <v>63654</v>
       </c>
       <c r="I60" s="3">
-        <v>0.21204487763249871</v>
+        <v>0.21093935966807603</v>
       </c>
     </row>
     <row r="61" spans="4:9" x14ac:dyDescent="0.2">
@@ -12622,7 +12617,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12698,12 +12693,12 @@
         <f>$J$1&amp;"_Deposits.xml"</f>
         <v>EUR_YC6MRH_Deposits.xml</v>
       </c>
-      <c r="K2" s="76">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(K3:K12,SerializationPath&amp;J2,FileOverwrite,Serialize),"---")</f>
-        <v>10</v>
+      <c r="K2" s="76" t="str">
+        <f>IF(Serialize,_xll.ohObjectSave(K3:K12,SerializationPath&amp;J2,FileOverwrite,Serialize),"---")</f>
+        <v>---</v>
       </c>
       <c r="L2" s="75" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(K2)</f>
+        <f>_xll.ohRangeRetrieveError(K2)</f>
         <v/>
       </c>
       <c r="M2" s="66"/>
@@ -13187,7 +13182,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13244,12 +13241,12 @@
         <f>$H$1&amp;"_FRAs.xml"</f>
         <v>EUR_YC6MRH_FRAs.xml</v>
       </c>
-      <c r="I2" s="119">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I22,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>20</v>
+      <c r="I2" s="119" t="str">
+        <f>IF(Serialize,_xll.ohObjectSave(I3:I22,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
+        <v>---</v>
       </c>
       <c r="J2" s="118" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
+        <f>_xll.ohRangeRetrieveError(I2)</f>
         <v/>
       </c>
       <c r="K2" s="66"/>
@@ -14044,7 +14041,7 @@
   <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14139,12 +14136,12 @@
         <f>K2&amp;"_Swaps.xml"</f>
         <v>EUR_YC6MRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="156">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>38</v>
+      <c r="L3" s="156" t="str">
+        <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>---</v>
       </c>
       <c r="M3" s="135" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
+        <f>_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="134"/>

--- a/QuantLibXL/Data2/XLS/EUR_YC6MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR_YC6MBootstrapping.xlsx
@@ -2152,7 +2152,7 @@
     <row r="1" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="160" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Mar  3 2014 10:58:57</v>
+        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Apr 18 2014 11:20:01</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2549,7 +2549,7 @@
       <c r="B27" s="29"/>
       <c r="C27" s="33">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41739</v>
+        <v>41752</v>
       </c>
       <c r="D27" s="32">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
@@ -2562,11 +2562,11 @@
       <c r="B28" s="29"/>
       <c r="C28" s="31">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>63654</v>
+        <v>63668</v>
       </c>
       <c r="D28" s="30">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.21093935966807603</v>
+        <v>0.21750757142630334</v>
       </c>
       <c r="E28" s="27"/>
       <c r="F28" s="26"/>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="F2" s="173">
         <f>_xll.qlRateHelperQuoteValue($E2,Trigger)</f>
-        <v>5.0850000000000001E-3</v>
+        <v>5.0670000000000003E-3</v>
       </c>
       <c r="G2" s="173"/>
       <c r="H2" s="174" t="b">
@@ -2727,11 +2727,11 @@
       </c>
       <c r="K2" s="191">
         <f>_xll.qlRateHelperEarliestDate($E2,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L2" s="192">
         <f>_xll.qlRateHelperLatestDate($E2,Trigger)</f>
-        <v>41740</v>
+        <v>41754</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="F3" s="173">
         <f>_xll.qlRateHelperQuoteValue($E3,Trigger)</f>
-        <v>4.6560000000000004E-3</v>
+        <v>4.8789999999999997E-3</v>
       </c>
       <c r="G3" s="173"/>
       <c r="H3" s="174" t="b">
@@ -2760,11 +2760,11 @@
       </c>
       <c r="K3" s="191">
         <f>_xll.qlRateHelperEarliestDate($E3,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L3" s="192">
         <f>_xll.qlRateHelperLatestDate($E3,Trigger)</f>
-        <v>41746</v>
+        <v>41761</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="F4" s="173">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
-        <v>4.797E-3</v>
+        <v>4.9300000000000004E-3</v>
       </c>
       <c r="G4" s="173"/>
       <c r="H4" s="174" t="b">
@@ -2793,11 +2793,11 @@
       </c>
       <c r="K4" s="191">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L4" s="192">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41753</v>
+        <v>41767</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="F5" s="173">
         <f>_xll.qlRateHelperQuoteValue($E5,Trigger)</f>
-        <v>4.7980000000000002E-3</v>
+        <v>4.8339999999999998E-3</v>
       </c>
       <c r="G5" s="173"/>
       <c r="H5" s="174" t="b">
@@ -2826,11 +2826,11 @@
       </c>
       <c r="K5" s="191">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L5" s="192">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>41761</v>
+        <v>41774</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
@@ -2845,7 +2845,7 @@
       </c>
       <c r="F6" s="173">
         <f>_xll.qlRateHelperQuoteValue($E6,Trigger)</f>
-        <v>4.6899999999999997E-3</v>
+        <v>4.7689999999999998E-3</v>
       </c>
       <c r="G6" s="173"/>
       <c r="H6" s="174" t="b">
@@ -2859,11 +2859,11 @@
       </c>
       <c r="K6" s="191">
         <f>_xll.qlRateHelperEarliestDate($E6,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L6" s="192">
         <f>_xll.qlRateHelperLatestDate($E6,Trigger)</f>
-        <v>41771</v>
+        <v>41785</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="F7" s="173">
         <f>_xll.qlRateHelperQuoteValue($E7,Trigger)</f>
-        <v>4.5539999999999999E-3</v>
+        <v>4.64E-3</v>
       </c>
       <c r="G7" s="173"/>
       <c r="H7" s="174" t="b">
@@ -2892,11 +2892,11 @@
       </c>
       <c r="K7" s="191">
         <f>_xll.qlRateHelperEarliestDate($E7,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L7" s="192">
         <f>_xll.qlRateHelperLatestDate($E7,Trigger)</f>
-        <v>41800</v>
+        <v>41814</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
@@ -2911,7 +2911,7 @@
       </c>
       <c r="F8" s="173">
         <f>_xll.qlRateHelperQuoteValue($E8,Trigger)</f>
-        <v>4.4580000000000002E-3</v>
+        <v>4.5149999999999999E-3</v>
       </c>
       <c r="G8" s="173"/>
       <c r="H8" s="174" t="b">
@@ -2925,11 +2925,11 @@
       </c>
       <c r="K8" s="191">
         <f>_xll.qlRateHelperEarliestDate($E8,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L8" s="192">
         <f>_xll.qlRateHelperLatestDate($E8,Trigger)</f>
-        <v>41830</v>
+        <v>41844</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
@@ -2944,7 +2944,7 @@
       </c>
       <c r="F9" s="173">
         <f>_xll.qlRateHelperQuoteValue($E9,Trigger)</f>
-        <v>4.3620000000000004E-3</v>
+        <v>4.3959999999999997E-3</v>
       </c>
       <c r="G9" s="173"/>
       <c r="H9" s="174" t="b">
@@ -2958,11 +2958,11 @@
       </c>
       <c r="K9" s="191">
         <f>_xll.qlRateHelperEarliestDate($E9,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L9" s="192">
         <f>_xll.qlRateHelperLatestDate($E9,Trigger)</f>
-        <v>41862</v>
+        <v>41876</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
@@ -2977,7 +2977,7 @@
       </c>
       <c r="F10" s="173">
         <f>_xll.qlRateHelperQuoteValue($E10,Trigger)</f>
-        <v>4.3059999999999999E-3</v>
+        <v>4.3340000000000002E-3</v>
       </c>
       <c r="G10" s="173"/>
       <c r="H10" s="174" t="b">
@@ -2991,11 +2991,11 @@
       </c>
       <c r="K10" s="191">
         <f>_xll.qlRateHelperEarliestDate($E10,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L10" s="192">
         <f>_xll.qlRateHelperLatestDate($E10,Trigger)</f>
-        <v>41892</v>
+        <v>41906</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
@@ -3024,11 +3024,11 @@
       </c>
       <c r="K11" s="191">
         <f>_xll.qlRateHelperEarliestDate($E11,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L11" s="192">
         <f>_xll.qlRateHelperLatestDate($E11,Trigger)</f>
-        <v>41922</v>
+        <v>41936</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
@@ -3062,11 +3062,11 @@
       </c>
       <c r="K12" s="193">
         <f>_xll.qlRateHelperEarliestDate($E12,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L12" s="194">
         <f>_xll.qlRateHelperLatestDate($E12,Trigger)</f>
-        <v>41922</v>
+        <v>41936</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
@@ -3100,11 +3100,11 @@
       </c>
       <c r="K13" s="195">
         <f>_xll.qlRateHelperEarliestDate($E13,Trigger)</f>
-        <v>41740</v>
+        <v>41754</v>
       </c>
       <c r="L13" s="196">
         <f>_xll.qlRateHelperLatestDate($E13,Trigger)</f>
-        <v>41925</v>
+        <v>41939</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
@@ -3124,7 +3124,7 @@
       </c>
       <c r="F14" s="173">
         <f>_xll.qlRateHelperQuoteValue($E14,Trigger)</f>
-        <v>4.15E-3</v>
+        <v>4.1400000000000005E-3</v>
       </c>
       <c r="G14" s="173"/>
       <c r="H14" s="174" t="b">
@@ -3138,11 +3138,11 @@
       </c>
       <c r="K14" s="191">
         <f>_xll.qlRateHelperEarliestDate($E14,Trigger)</f>
-        <v>41771</v>
+        <v>41785</v>
       </c>
       <c r="L14" s="192">
         <f>_xll.qlRateHelperLatestDate($E14,Trigger)</f>
-        <v>41955</v>
+        <v>41969</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="F15" s="173">
         <f>_xll.qlRateHelperQuoteValue($E15,Trigger)</f>
-        <v>3.9900000000000005E-3</v>
+        <v>3.9399999999999999E-3</v>
       </c>
       <c r="G15" s="173"/>
       <c r="H15" s="174" t="b">
@@ -3176,11 +3176,11 @@
       </c>
       <c r="K15" s="191">
         <f>_xll.qlRateHelperEarliestDate($E15,Trigger)</f>
-        <v>41800</v>
+        <v>41814</v>
       </c>
       <c r="L15" s="192">
         <f>_xll.qlRateHelperLatestDate($E15,Trigger)</f>
-        <v>41983</v>
+        <v>41997</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
@@ -3200,7 +3200,7 @@
       </c>
       <c r="F16" s="173">
         <f>_xll.qlRateHelperQuoteValue($E16,Trigger)</f>
-        <v>3.98E-3</v>
+        <v>3.9399999999999999E-3</v>
       </c>
       <c r="G16" s="173"/>
       <c r="H16" s="174" t="b">
@@ -3214,11 +3214,11 @@
       </c>
       <c r="K16" s="191">
         <f>_xll.qlRateHelperEarliestDate($E16,Trigger)</f>
-        <v>41830</v>
+        <v>41844</v>
       </c>
       <c r="L16" s="192">
         <f>_xll.qlRateHelperLatestDate($E16,Trigger)</f>
-        <v>42016</v>
+        <v>42030</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="F17" s="173">
         <f>_xll.qlRateHelperQuoteValue($E17,Trigger)</f>
-        <v>3.9399999999999999E-3</v>
+        <v>3.8900000000000002E-3</v>
       </c>
       <c r="G17" s="173"/>
       <c r="H17" s="174" t="b">
@@ -3252,11 +3252,11 @@
       </c>
       <c r="K17" s="191">
         <f>_xll.qlRateHelperEarliestDate($E17,Trigger)</f>
-        <v>41862</v>
+        <v>41876</v>
       </c>
       <c r="L17" s="192">
         <f>_xll.qlRateHelperLatestDate($E17,Trigger)</f>
-        <v>42046</v>
+        <v>42060</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="F18" s="173">
         <f>_xll.qlRateHelperQuoteValue($E18,Trigger)</f>
-        <v>3.9100000000000003E-3</v>
+        <v>3.8600000000000001E-3</v>
       </c>
       <c r="G18" s="173"/>
       <c r="H18" s="174" t="b">
@@ -3290,11 +3290,11 @@
       </c>
       <c r="K18" s="191">
         <f>_xll.qlRateHelperEarliestDate($E18,Trigger)</f>
-        <v>41892</v>
+        <v>41906</v>
       </c>
       <c r="L18" s="192">
         <f>_xll.qlRateHelperLatestDate($E18,Trigger)</f>
-        <v>42073</v>
+        <v>42087</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="F19" s="173">
         <f>_xll.qlRateHelperQuoteValue($E19,Trigger)</f>
-        <v>3.9399999999999999E-3</v>
+        <v>3.9199999999999999E-3</v>
       </c>
       <c r="G19" s="173"/>
       <c r="H19" s="174" t="b">
@@ -3328,11 +3328,11 @@
       </c>
       <c r="K19" s="191">
         <f>_xll.qlRateHelperEarliestDate($E19,Trigger)</f>
-        <v>41922</v>
+        <v>41936</v>
       </c>
       <c r="L19" s="192">
         <f>_xll.qlRateHelperLatestDate($E19,Trigger)</f>
-        <v>42104</v>
+        <v>42118</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="F20" s="173">
         <f>_xll.qlRateHelperQuoteValue($E20,Trigger)</f>
-        <v>4.0300000000000006E-3</v>
+        <v>4.0200000000000001E-3</v>
       </c>
       <c r="G20" s="173"/>
       <c r="H20" s="174" t="b">
@@ -3366,11 +3366,11 @@
       </c>
       <c r="K20" s="191">
         <f>_xll.qlRateHelperEarliestDate($E20,Trigger)</f>
-        <v>41953</v>
+        <v>41967</v>
       </c>
       <c r="L20" s="192">
         <f>_xll.qlRateHelperLatestDate($E20,Trigger)</f>
-        <v>42135</v>
+        <v>42149</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -3390,7 +3390,7 @@
       </c>
       <c r="F21" s="173">
         <f>_xll.qlRateHelperQuoteValue($E21,Trigger)</f>
-        <v>4.1200000000000004E-3</v>
+        <v>4.1099999999999999E-3</v>
       </c>
       <c r="G21" s="173"/>
       <c r="H21" s="174" t="b">
@@ -3404,11 +3404,11 @@
       </c>
       <c r="K21" s="191">
         <f>_xll.qlRateHelperEarliestDate($E21,Trigger)</f>
-        <v>41983</v>
+        <v>41997</v>
       </c>
       <c r="L21" s="192">
         <f>_xll.qlRateHelperLatestDate($E21,Trigger)</f>
-        <v>42165</v>
+        <v>42179</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -3442,11 +3442,11 @@
       </c>
       <c r="K22" s="191">
         <f>_xll.qlRateHelperEarliestDate($E22,Trigger)</f>
-        <v>42016</v>
+        <v>42030</v>
       </c>
       <c r="L22" s="192">
         <f>_xll.qlRateHelperLatestDate($E22,Trigger)</f>
-        <v>42198</v>
+        <v>42212</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="F23" s="173">
         <f>_xll.qlRateHelperQuoteValue($E23,Trigger)</f>
-        <v>4.3499999999999997E-3</v>
+        <v>4.3600000000000002E-3</v>
       </c>
       <c r="G23" s="173"/>
       <c r="H23" s="174" t="b">
@@ -3480,11 +3480,11 @@
       </c>
       <c r="K23" s="191">
         <f>_xll.qlRateHelperEarliestDate($E23,Trigger)</f>
-        <v>42045</v>
+        <v>42059</v>
       </c>
       <c r="L23" s="192">
         <f>_xll.qlRateHelperLatestDate($E23,Trigger)</f>
-        <v>42226</v>
+        <v>42240</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -3504,7 +3504,7 @@
       </c>
       <c r="F24" s="173">
         <f>_xll.qlRateHelperQuoteValue($E24,Trigger)</f>
-        <v>4.4799999999999996E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="G24" s="173"/>
       <c r="H24" s="174" t="b">
@@ -3518,11 +3518,11 @@
       </c>
       <c r="K24" s="191">
         <f>_xll.qlRateHelperEarliestDate($E24,Trigger)</f>
-        <v>42073</v>
+        <v>42087</v>
       </c>
       <c r="L24" s="192">
         <f>_xll.qlRateHelperLatestDate($E24,Trigger)</f>
-        <v>42257</v>
+        <v>42271</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -3542,7 +3542,7 @@
       </c>
       <c r="F25" s="173">
         <f>_xll.qlRateHelperQuoteValue($E25,Trigger)</f>
-        <v>4.64E-3</v>
+        <v>4.6600000000000001E-3</v>
       </c>
       <c r="G25" s="173"/>
       <c r="H25" s="174" t="b">
@@ -3556,11 +3556,11 @@
       </c>
       <c r="K25" s="191">
         <f>_xll.qlRateHelperEarliestDate($E25,Trigger)</f>
-        <v>42104</v>
+        <v>42118</v>
       </c>
       <c r="L25" s="192">
         <f>_xll.qlRateHelperLatestDate($E25,Trigger)</f>
-        <v>42289</v>
+        <v>42303</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="F26" s="173">
         <f>_xll.qlRateHelperQuoteValue($E26,Trigger)</f>
-        <v>4.79E-3</v>
+        <v>4.81E-3</v>
       </c>
       <c r="G26" s="173"/>
       <c r="H26" s="174" t="b">
@@ -3594,11 +3594,11 @@
       </c>
       <c r="K26" s="191">
         <f>_xll.qlRateHelperEarliestDate($E26,Trigger)</f>
-        <v>42135</v>
+        <v>42149</v>
       </c>
       <c r="L26" s="192">
         <f>_xll.qlRateHelperLatestDate($E26,Trigger)</f>
-        <v>42319</v>
+        <v>42333</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -3618,7 +3618,7 @@
       </c>
       <c r="F27" s="173">
         <f>_xll.qlRateHelperQuoteValue($E27,Trigger)</f>
-        <v>4.9399999999999999E-3</v>
+        <v>4.96E-3</v>
       </c>
       <c r="G27" s="173"/>
       <c r="H27" s="174" t="b">
@@ -3632,11 +3632,11 @@
       </c>
       <c r="K27" s="191">
         <f>_xll.qlRateHelperEarliestDate($E27,Trigger)</f>
-        <v>42165</v>
+        <v>42179</v>
       </c>
       <c r="L27" s="192">
         <f>_xll.qlRateHelperLatestDate($E27,Trigger)</f>
-        <v>42348</v>
+        <v>42362</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="F28" s="173">
         <f>_xll.qlRateHelperQuoteValue($E28,Trigger)</f>
-        <v>5.1400000000000005E-3</v>
+        <v>5.1700000000000001E-3</v>
       </c>
       <c r="G28" s="173"/>
       <c r="H28" s="174" t="b">
@@ -3670,11 +3670,11 @@
       </c>
       <c r="K28" s="191">
         <f>_xll.qlRateHelperEarliestDate($E28,Trigger)</f>
-        <v>42195</v>
+        <v>42209</v>
       </c>
       <c r="L28" s="192">
         <f>_xll.qlRateHelperLatestDate($E28,Trigger)</f>
-        <v>42380</v>
+        <v>42394</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="F29" s="173">
         <f>_xll.qlRateHelperQuoteValue($E29,Trigger)</f>
-        <v>5.3200000000000001E-3</v>
+        <v>5.3500000000000006E-3</v>
       </c>
       <c r="G29" s="173"/>
       <c r="H29" s="174" t="b">
@@ -3708,11 +3708,11 @@
       </c>
       <c r="K29" s="191">
         <f>_xll.qlRateHelperEarliestDate($E29,Trigger)</f>
-        <v>42226</v>
+        <v>42240</v>
       </c>
       <c r="L29" s="192">
         <f>_xll.qlRateHelperLatestDate($E29,Trigger)</f>
-        <v>42410</v>
+        <v>42424</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -3732,7 +3732,7 @@
       </c>
       <c r="F30" s="173">
         <f>_xll.qlRateHelperQuoteValue($E30,Trigger)</f>
-        <v>5.5000000000000005E-3</v>
+        <v>5.5299999999999993E-3</v>
       </c>
       <c r="G30" s="173"/>
       <c r="H30" s="174" t="b">
@@ -3746,11 +3746,11 @@
       </c>
       <c r="K30" s="191">
         <f>_xll.qlRateHelperEarliestDate($E30,Trigger)</f>
-        <v>42257</v>
+        <v>42271</v>
       </c>
       <c r="L30" s="192">
         <f>_xll.qlRateHelperLatestDate($E30,Trigger)</f>
-        <v>42439</v>
+        <v>42453</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -3770,7 +3770,7 @@
       </c>
       <c r="F31" s="183">
         <f>_xll.qlRateHelperQuoteValue($E31,Trigger)</f>
-        <v>5.7299999999999999E-3</v>
+        <v>5.7600000000000004E-3</v>
       </c>
       <c r="G31" s="183"/>
       <c r="H31" s="174" t="b">
@@ -3784,11 +3784,11 @@
       </c>
       <c r="K31" s="195">
         <f>_xll.qlRateHelperEarliestDate($E31,Trigger)</f>
-        <v>42289</v>
+        <v>42303</v>
       </c>
       <c r="L31" s="196">
         <f>_xll.qlRateHelperLatestDate($E31,Trigger)</f>
-        <v>42472</v>
+        <v>42486</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3802,11 +3802,11 @@
       </c>
       <c r="D32" s="172" t="str">
         <f t="array" ref="D32:D73">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$A32:$A73)</f>
-        <v>J4</v>
+        <v>K4</v>
       </c>
       <c r="E32" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC6MRH_IMMFRA6MJ4</v>
+        <v>EUR_YC6MRH_IMMFRA6MK4</v>
       </c>
       <c r="F32" s="186" t="e">
         <f>_xll.qlRateHelperQuoteValue($E32,Trigger)</f>
@@ -3844,11 +3844,11 @@
         <v>IMMFRA6M</v>
       </c>
       <c r="D33" s="172" t="str">
-        <v>K4</v>
+        <v>M4</v>
       </c>
       <c r="E33" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC6MRH_IMMFRA6MK4</v>
+        <v>EUR_YC6MRH_IMMFRA6MM4</v>
       </c>
       <c r="F33" s="186" t="e">
         <f>_xll.qlRateHelperQuoteValue($E33,Trigger)</f>
@@ -3886,11 +3886,11 @@
         <v>IMMFRA6M</v>
       </c>
       <c r="D34" s="172" t="str">
-        <v>M4</v>
+        <v>N4</v>
       </c>
       <c r="E34" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC6MRH_IMMFRA6MM4</v>
+        <v>EUR_YC6MRH_IMMFRA6MN4</v>
       </c>
       <c r="F34" s="186" t="e">
         <f>_xll.qlRateHelperQuoteValue($E34,Trigger)</f>
@@ -3928,11 +3928,11 @@
         <v>IMMFRA6M</v>
       </c>
       <c r="D35" s="172" t="str">
-        <v>N4</v>
+        <v>Q4</v>
       </c>
       <c r="E35" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC6MRH_IMMFRA6MN4</v>
+        <v>EUR_YC6MRH_IMMFRA6MQ4</v>
       </c>
       <c r="F35" s="186" t="e">
         <f>_xll.qlRateHelperQuoteValue($E35,Trigger)</f>
@@ -3970,11 +3970,11 @@
         <v>IMMFRA6M</v>
       </c>
       <c r="D36" s="172" t="str">
-        <v>Q4</v>
+        <v>U4</v>
       </c>
       <c r="E36" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC6MRH_IMMFRA6MQ4</v>
+        <v>EUR_YC6MRH_IMMFRA6MU4</v>
       </c>
       <c r="F36" s="186" t="e">
         <f>_xll.qlRateHelperQuoteValue($E36,Trigger)</f>
@@ -4012,11 +4012,11 @@
         <v>IMMFRA6M</v>
       </c>
       <c r="D37" s="172" t="str">
-        <v>U4</v>
+        <v>V4</v>
       </c>
       <c r="E37" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC6MRH_IMMFRA6MU4</v>
+        <v>EUR_YC6MRH_IMMFRA6MV4</v>
       </c>
       <c r="F37" s="186" t="e">
         <f>_xll.qlRateHelperQuoteValue($E37,Trigger)</f>
@@ -4054,11 +4054,11 @@
         <v>IMMFRA6M</v>
       </c>
       <c r="D38" s="172" t="str">
-        <v>V4</v>
+        <v>X4</v>
       </c>
       <c r="E38" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC6MRH_IMMFRA6MV4</v>
+        <v>EUR_YC6MRH_IMMFRA6MX4</v>
       </c>
       <c r="F38" s="186" t="e">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
@@ -4096,11 +4096,11 @@
         <v>IMMFRA6M</v>
       </c>
       <c r="D39" s="172" t="str">
-        <v>X4</v>
+        <v>Z4</v>
       </c>
       <c r="E39" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC6MRH_IMMFRA6MX4</v>
+        <v>EUR_YC6MRH_IMMFRA6MZ4</v>
       </c>
       <c r="F39" s="186" t="e">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
@@ -4138,11 +4138,11 @@
         <v>IMMFRA6M</v>
       </c>
       <c r="D40" s="172" t="str">
-        <v>Z4</v>
+        <v>F5</v>
       </c>
       <c r="E40" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC6MRH_IMMFRA6MZ4</v>
+        <v>EUR_YC6MRH_IMMFRA6MF5</v>
       </c>
       <c r="F40" s="186" t="e">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
@@ -4180,11 +4180,11 @@
         <v>IMMFRA6M</v>
       </c>
       <c r="D41" s="172" t="str">
-        <v>F5</v>
+        <v>G5</v>
       </c>
       <c r="E41" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC6MRH_IMMFRA6MF5</v>
+        <v>EUR_YC6MRH_IMMFRA6MG5</v>
       </c>
       <c r="F41" s="186" t="e">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
@@ -4222,11 +4222,11 @@
         <v>IMMFRA6M</v>
       </c>
       <c r="D42" s="172" t="str">
-        <v>G5</v>
+        <v>H5</v>
       </c>
       <c r="E42" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC6MRH_IMMFRA6MG5</v>
+        <v>EUR_YC6MRH_IMMFRA6MH5</v>
       </c>
       <c r="F42" s="186" t="e">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
@@ -4264,11 +4264,11 @@
         <v>IMMFRA6M</v>
       </c>
       <c r="D43" s="172" t="str">
-        <v>H5</v>
+        <v>J5</v>
       </c>
       <c r="E43" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>EUR_YC6MRH_IMMFRA6MH5</v>
+        <v>EUR_YC6MRH_IMMFRA6MJ5</v>
       </c>
       <c r="F43" s="186" t="e">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
@@ -6278,11 +6278,11 @@
       </c>
       <c r="K92" s="191">
         <f>_xll.qlRateHelperEarliestDate($E92,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L92" s="192">
         <f>_xll.qlRateHelperLatestDate($E92,Trigger)</f>
-        <v>42104</v>
+        <v>42118</v>
       </c>
       <c r="N92" s="189" t="e">
         <f t="shared" ref="N92:N128" si="7">IF(G92=G129,F92-F129,"--")</f>
@@ -6307,7 +6307,7 @@
       </c>
       <c r="F93" s="173">
         <f>_xll.qlRateHelperQuoteValue($E93,Trigger)</f>
-        <v>3.98E-3</v>
+        <v>3.9700000000000004E-3</v>
       </c>
       <c r="G93" s="173">
         <f>_xll.qlSwapRateHelperSpread($E93,Trigger)</f>
@@ -6324,11 +6324,11 @@
       </c>
       <c r="K93" s="191">
         <f>_xll.qlRateHelperEarliestDate($E93,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L93" s="192">
         <f>_xll.qlRateHelperLatestDate($E93,Trigger)</f>
-        <v>42195</v>
+        <v>42209</v>
       </c>
       <c r="N93" s="189" t="e">
         <f t="shared" si="7"/>
@@ -6370,11 +6370,11 @@
       </c>
       <c r="K94" s="191">
         <f>_xll.qlRateHelperEarliestDate($E94,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L94" s="192">
         <f>_xll.qlRateHelperLatestDate($E94,Trigger)</f>
-        <v>42289</v>
+        <v>42303</v>
       </c>
       <c r="N94" s="189" t="e">
         <f t="shared" si="7"/>
@@ -6416,11 +6416,11 @@
       </c>
       <c r="K95" s="191">
         <f>_xll.qlRateHelperEarliestDate($E95,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L95" s="192">
         <f>_xll.qlRateHelperLatestDate($E95,Trigger)</f>
-        <v>42380</v>
+        <v>42394</v>
       </c>
       <c r="N95" s="189" t="e">
         <f t="shared" si="7"/>
@@ -6445,7 +6445,7 @@
       </c>
       <c r="F96" s="173">
         <f>_xll.qlRateHelperQuoteValue($E96,Trigger)</f>
-        <v>4.7199999999999994E-3</v>
+        <v>4.7299999999999998E-3</v>
       </c>
       <c r="G96" s="173">
         <f>_xll.qlSwapRateHelperSpread($E96,Trigger)</f>
@@ -6462,11 +6462,11 @@
       </c>
       <c r="K96" s="191">
         <f>_xll.qlRateHelperEarliestDate($E96,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L96" s="192">
         <f>_xll.qlRateHelperLatestDate($E96,Trigger)</f>
-        <v>42471</v>
+        <v>42485</v>
       </c>
       <c r="N96" s="189" t="e">
         <f t="shared" si="7"/>
@@ -6508,11 +6508,11 @@
       </c>
       <c r="K97" s="191">
         <f>_xll.qlRateHelperEarliestDate($E97,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L97" s="192">
         <f>_xll.qlRateHelperLatestDate($E97,Trigger)</f>
-        <v>42835</v>
+        <v>42849</v>
       </c>
       <c r="N97" s="189" t="e">
         <f t="shared" si="7"/>
@@ -6537,7 +6537,7 @@
       </c>
       <c r="F98" s="173">
         <f>_xll.qlRateHelperQuoteValue($E98,Trigger)</f>
-        <v>7.5900000000000004E-3</v>
+        <v>7.6800000000000002E-3</v>
       </c>
       <c r="G98" s="173">
         <f>_xll.qlSwapRateHelperSpread($E98,Trigger)</f>
@@ -6554,11 +6554,11 @@
       </c>
       <c r="K98" s="191">
         <f>_xll.qlRateHelperEarliestDate($E98,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L98" s="192">
         <f>_xll.qlRateHelperLatestDate($E98,Trigger)</f>
-        <v>43200</v>
+        <v>43214</v>
       </c>
       <c r="N98" s="189" t="e">
         <f t="shared" si="7"/>
@@ -6583,7 +6583,7 @@
       </c>
       <c r="F99" s="173">
         <f>_xll.qlRateHelperQuoteValue($E99,Trigger)</f>
-        <v>9.41E-3</v>
+        <v>9.58E-3</v>
       </c>
       <c r="G99" s="173">
         <f>_xll.qlSwapRateHelperSpread($E99,Trigger)</f>
@@ -6600,11 +6600,11 @@
       </c>
       <c r="K99" s="191">
         <f>_xll.qlRateHelperEarliestDate($E99,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L99" s="192">
         <f>_xll.qlRateHelperLatestDate($E99,Trigger)</f>
-        <v>43565</v>
+        <v>43579</v>
       </c>
       <c r="N99" s="189" t="e">
         <f t="shared" si="7"/>
@@ -6629,7 +6629,7 @@
       </c>
       <c r="F100" s="173">
         <f>_xll.qlRateHelperQuoteValue($E100,Trigger)</f>
-        <v>1.1270000000000001E-2</v>
+        <v>1.142E-2</v>
       </c>
       <c r="G100" s="173">
         <f>_xll.qlSwapRateHelperSpread($E100,Trigger)</f>
@@ -6646,11 +6646,11 @@
       </c>
       <c r="K100" s="191">
         <f>_xll.qlRateHelperEarliestDate($E100,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L100" s="192">
         <f>_xll.qlRateHelperLatestDate($E100,Trigger)</f>
-        <v>43935</v>
+        <v>43945</v>
       </c>
       <c r="N100" s="189" t="e">
         <f t="shared" si="7"/>
@@ -6675,7 +6675,7 @@
       </c>
       <c r="F101" s="173">
         <f>_xll.qlRateHelperQuoteValue($E101,Trigger)</f>
-        <v>1.306E-2</v>
+        <v>1.3180000000000001E-2</v>
       </c>
       <c r="G101" s="173">
         <f>_xll.qlSwapRateHelperSpread($E101,Trigger)</f>
@@ -6692,11 +6692,11 @@
       </c>
       <c r="K101" s="191">
         <f>_xll.qlRateHelperEarliestDate($E101,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L101" s="192">
         <f>_xll.qlRateHelperLatestDate($E101,Trigger)</f>
-        <v>44298</v>
+        <v>44312</v>
       </c>
       <c r="N101" s="189" t="e">
         <f t="shared" si="7"/>
@@ -6721,7 +6721,7 @@
       </c>
       <c r="F102" s="173">
         <f>_xll.qlRateHelperQuoteValue($E102,Trigger)</f>
-        <v>1.473E-2</v>
+        <v>1.4830000000000001E-2</v>
       </c>
       <c r="G102" s="173">
         <f>_xll.qlSwapRateHelperSpread($E102,Trigger)</f>
@@ -6738,11 +6738,11 @@
       </c>
       <c r="K102" s="191">
         <f>_xll.qlRateHelperEarliestDate($E102,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L102" s="192">
         <f>_xll.qlRateHelperLatestDate($E102,Trigger)</f>
-        <v>44662</v>
+        <v>44676</v>
       </c>
       <c r="N102" s="189" t="e">
         <f t="shared" si="7"/>
@@ -6767,7 +6767,7 @@
       </c>
       <c r="F103" s="173">
         <f>_xll.qlRateHelperQuoteValue($E103,Trigger)</f>
-        <v>1.6250000000000001E-2</v>
+        <v>1.6330000000000001E-2</v>
       </c>
       <c r="G103" s="173">
         <f>_xll.qlSwapRateHelperSpread($E103,Trigger)</f>
@@ -6784,11 +6784,11 @@
       </c>
       <c r="K103" s="191">
         <f>_xll.qlRateHelperEarliestDate($E103,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L103" s="192">
         <f>_xll.qlRateHelperLatestDate($E103,Trigger)</f>
-        <v>45027</v>
+        <v>45040</v>
       </c>
       <c r="N103" s="189" t="e">
         <f t="shared" si="7"/>
@@ -6813,7 +6813,7 @@
       </c>
       <c r="F104" s="173">
         <f>_xll.qlRateHelperQuoteValue($E104,Trigger)</f>
-        <v>1.7610000000000001E-2</v>
+        <v>1.7680000000000001E-2</v>
       </c>
       <c r="G104" s="173">
         <f>_xll.qlSwapRateHelperSpread($E104,Trigger)</f>
@@ -6830,11 +6830,11 @@
       </c>
       <c r="K104" s="191">
         <f>_xll.qlRateHelperEarliestDate($E104,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L104" s="192">
         <f>_xll.qlRateHelperLatestDate($E104,Trigger)</f>
-        <v>45392</v>
+        <v>45406</v>
       </c>
       <c r="N104" s="189" t="e">
         <f t="shared" si="7"/>
@@ -6859,7 +6859,7 @@
       </c>
       <c r="F105" s="173">
         <f>_xll.qlRateHelperQuoteValue($E105,Trigger)</f>
-        <v>1.883E-2</v>
+        <v>1.8860000000000002E-2</v>
       </c>
       <c r="G105" s="173">
         <f>_xll.qlSwapRateHelperSpread($E105,Trigger)</f>
@@ -6876,11 +6876,11 @@
       </c>
       <c r="K105" s="191">
         <f>_xll.qlRateHelperEarliestDate($E105,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L105" s="192">
         <f>_xll.qlRateHelperLatestDate($E105,Trigger)</f>
-        <v>45757</v>
+        <v>45771</v>
       </c>
       <c r="N105" s="189" t="e">
         <f t="shared" si="7"/>
@@ -6922,11 +6922,11 @@
       </c>
       <c r="K106" s="191">
         <f>_xll.qlRateHelperEarliestDate($E106,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L106" s="192">
         <f>_xll.qlRateHelperLatestDate($E106,Trigger)</f>
-        <v>46122</v>
+        <v>46136</v>
       </c>
       <c r="N106" s="189" t="e">
         <f t="shared" si="7"/>
@@ -6951,7 +6951,7 @@
       </c>
       <c r="F107" s="173">
         <f>_xll.qlRateHelperQuoteValue($E107,Trigger)</f>
-        <v>2.0799999999999999E-2</v>
+        <v>2.077E-2</v>
       </c>
       <c r="G107" s="173">
         <f>_xll.qlSwapRateHelperSpread($E107,Trigger)</f>
@@ -6968,11 +6968,11 @@
       </c>
       <c r="K107" s="191">
         <f>_xll.qlRateHelperEarliestDate($E107,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L107" s="192">
         <f>_xll.qlRateHelperLatestDate($E107,Trigger)</f>
-        <v>46489</v>
+        <v>46503</v>
       </c>
       <c r="N107" s="189" t="e">
         <f t="shared" si="7"/>
@@ -6997,7 +6997,7 @@
       </c>
       <c r="F108" s="173">
         <f>_xll.qlRateHelperQuoteValue($E108,Trigger)</f>
-        <v>2.1579999999999998E-2</v>
+        <v>2.1520000000000001E-2</v>
       </c>
       <c r="G108" s="173">
         <f>_xll.qlSwapRateHelperSpread($E108,Trigger)</f>
@@ -7014,11 +7014,11 @@
       </c>
       <c r="K108" s="191">
         <f>_xll.qlRateHelperEarliestDate($E108,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L108" s="192">
         <f>_xll.qlRateHelperLatestDate($E108,Trigger)</f>
-        <v>46853</v>
+        <v>46867</v>
       </c>
       <c r="N108" s="189" t="e">
         <f t="shared" si="7"/>
@@ -7043,7 +7043,7 @@
       </c>
       <c r="F109" s="173">
         <f>_xll.qlRateHelperQuoteValue($E109,Trigger)</f>
-        <v>2.222E-2</v>
+        <v>2.214E-2</v>
       </c>
       <c r="G109" s="173">
         <f>_xll.qlSwapRateHelperSpread($E109,Trigger)</f>
@@ -7060,11 +7060,11 @@
       </c>
       <c r="K109" s="191">
         <f>_xll.qlRateHelperEarliestDate($E109,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L109" s="192">
         <f>_xll.qlRateHelperLatestDate($E109,Trigger)</f>
-        <v>47218</v>
+        <v>47232</v>
       </c>
       <c r="N109" s="189" t="e">
         <f t="shared" si="7"/>
@@ -7089,7 +7089,7 @@
       </c>
       <c r="F110" s="173">
         <f>_xll.qlRateHelperQuoteValue($E110,Trigger)</f>
-        <v>2.2749999999999999E-2</v>
+        <v>2.2640000000000004E-2</v>
       </c>
       <c r="G110" s="173">
         <f>_xll.qlSwapRateHelperSpread($E110,Trigger)</f>
@@ -7106,11 +7106,11 @@
       </c>
       <c r="K110" s="191">
         <f>_xll.qlRateHelperEarliestDate($E110,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L110" s="192">
         <f>_xll.qlRateHelperLatestDate($E110,Trigger)</f>
-        <v>47583</v>
+        <v>47597</v>
       </c>
       <c r="N110" s="189" t="e">
         <f t="shared" si="7"/>
@@ -7135,7 +7135,7 @@
       </c>
       <c r="F111" s="173">
         <f>_xll.qlRateHelperQuoteValue($E111,Trigger)</f>
-        <v>2.3170000000000003E-2</v>
+        <v>2.3050000000000001E-2</v>
       </c>
       <c r="G111" s="173">
         <f>_xll.qlSwapRateHelperSpread($E111,Trigger)</f>
@@ -7152,11 +7152,11 @@
       </c>
       <c r="K111" s="191">
         <f>_xll.qlRateHelperEarliestDate($E111,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L111" s="192">
         <f>_xll.qlRateHelperLatestDate($E111,Trigger)</f>
-        <v>47948</v>
+        <v>47962</v>
       </c>
       <c r="N111" s="189" t="e">
         <f t="shared" si="7"/>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="F112" s="173">
         <f>_xll.qlRateHelperQuoteValue($E112,Trigger)</f>
-        <v>2.3519999999999999E-2</v>
+        <v>2.3370000000000002E-2</v>
       </c>
       <c r="G112" s="173">
         <f>_xll.qlSwapRateHelperSpread($E112,Trigger)</f>
@@ -7198,11 +7198,11 @@
       </c>
       <c r="K112" s="191">
         <f>_xll.qlRateHelperEarliestDate($E112,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L112" s="192">
         <f>_xll.qlRateHelperLatestDate($E112,Trigger)</f>
-        <v>48316</v>
+        <v>48330</v>
       </c>
       <c r="N112" s="189" t="e">
         <f t="shared" si="7"/>
@@ -7227,7 +7227,7 @@
       </c>
       <c r="F113" s="173">
         <f>_xll.qlRateHelperQuoteValue($E113,Trigger)</f>
-        <v>2.3789999999999999E-2</v>
+        <v>2.3620000000000002E-2</v>
       </c>
       <c r="G113" s="173">
         <f>_xll.qlSwapRateHelperSpread($E113,Trigger)</f>
@@ -7244,11 +7244,11 @@
       </c>
       <c r="K113" s="191">
         <f>_xll.qlRateHelperEarliestDate($E113,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L113" s="192">
         <f>_xll.qlRateHelperLatestDate($E113,Trigger)</f>
-        <v>48680</v>
+        <v>48694</v>
       </c>
       <c r="N113" s="189" t="e">
         <f t="shared" si="7"/>
@@ -7273,7 +7273,7 @@
       </c>
       <c r="F114" s="173">
         <f>_xll.qlRateHelperQuoteValue($E114,Trigger)</f>
-        <v>2.4009999999999997E-2</v>
+        <v>2.3820000000000001E-2</v>
       </c>
       <c r="G114" s="173">
         <f>_xll.qlSwapRateHelperSpread($E114,Trigger)</f>
@@ -7290,11 +7290,11 @@
       </c>
       <c r="K114" s="191">
         <f>_xll.qlRateHelperEarliestDate($E114,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L114" s="192">
         <f>_xll.qlRateHelperLatestDate($E114,Trigger)</f>
-        <v>49045</v>
+        <v>49058</v>
       </c>
       <c r="N114" s="189" t="e">
         <f t="shared" si="7"/>
@@ -7319,7 +7319,7 @@
       </c>
       <c r="F115" s="173">
         <f>_xll.qlRateHelperQuoteValue($E115,Trigger)</f>
-        <v>2.419E-2</v>
+        <v>2.3980000000000001E-2</v>
       </c>
       <c r="G115" s="173">
         <f>_xll.qlSwapRateHelperSpread($E115,Trigger)</f>
@@ -7336,11 +7336,11 @@
       </c>
       <c r="K115" s="191">
         <f>_xll.qlRateHelperEarliestDate($E115,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L115" s="192">
         <f>_xll.qlRateHelperLatestDate($E115,Trigger)</f>
-        <v>49409</v>
+        <v>49423</v>
       </c>
       <c r="N115" s="189" t="e">
         <f t="shared" si="7"/>
@@ -7365,7 +7365,7 @@
       </c>
       <c r="F116" s="173">
         <f>_xll.qlRateHelperQuoteValue($E116,Trigger)</f>
-        <v>2.4340000000000001E-2</v>
+        <v>2.4109999999999999E-2</v>
       </c>
       <c r="G116" s="173">
         <f>_xll.qlSwapRateHelperSpread($E116,Trigger)</f>
@@ -7382,11 +7382,11 @@
       </c>
       <c r="K116" s="191">
         <f>_xll.qlRateHelperEarliestDate($E116,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L116" s="192">
         <f>_xll.qlRateHelperLatestDate($E116,Trigger)</f>
-        <v>49775</v>
+        <v>49789</v>
       </c>
       <c r="N116" s="189" t="e">
         <f t="shared" si="7"/>
@@ -7411,7 +7411,7 @@
       </c>
       <c r="F117" s="173">
         <f>_xll.qlRateHelperQuoteValue($E117,Trigger)</f>
-        <v>2.445E-2</v>
+        <v>2.4220000000000002E-2</v>
       </c>
       <c r="G117" s="173">
         <f>_xll.qlSwapRateHelperSpread($E117,Trigger)</f>
@@ -7428,11 +7428,11 @@
       </c>
       <c r="K117" s="191">
         <f>_xll.qlRateHelperEarliestDate($E117,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L117" s="192">
         <f>_xll.qlRateHelperLatestDate($E117,Trigger)</f>
-        <v>50140</v>
+        <v>50154</v>
       </c>
       <c r="N117" s="189" t="e">
         <f t="shared" si="7"/>
@@ -7457,7 +7457,7 @@
       </c>
       <c r="F118" s="173">
         <f>_xll.qlRateHelperQuoteValue($E118,Trigger)</f>
-        <v>2.4540000000000003E-2</v>
+        <v>2.4289999999999999E-2</v>
       </c>
       <c r="G118" s="173">
         <f>_xll.qlSwapRateHelperSpread($E118,Trigger)</f>
@@ -7474,11 +7474,11 @@
       </c>
       <c r="K118" s="191">
         <f>_xll.qlRateHelperEarliestDate($E118,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L118" s="192">
         <f>_xll.qlRateHelperLatestDate($E118,Trigger)</f>
-        <v>50507</v>
+        <v>50522</v>
       </c>
       <c r="N118" s="189" t="e">
         <f t="shared" si="7"/>
@@ -7503,7 +7503,7 @@
       </c>
       <c r="F119" s="173">
         <f>_xll.qlRateHelperQuoteValue($E119,Trigger)</f>
-        <v>2.461E-2</v>
+        <v>2.435E-2</v>
       </c>
       <c r="G119" s="173">
         <f>_xll.qlSwapRateHelperSpread($E119,Trigger)</f>
@@ -7520,11 +7520,11 @@
       </c>
       <c r="K119" s="191">
         <f>_xll.qlRateHelperEarliestDate($E119,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L119" s="192">
         <f>_xll.qlRateHelperLatestDate($E119,Trigger)</f>
-        <v>50872</v>
+        <v>50885</v>
       </c>
       <c r="N119" s="189" t="e">
         <f t="shared" si="7"/>
@@ -7549,7 +7549,7 @@
       </c>
       <c r="F120" s="173">
         <f>_xll.qlRateHelperQuoteValue($E120,Trigger)</f>
-        <v>2.4660000000000001E-2</v>
+        <v>2.4390000000000002E-2</v>
       </c>
       <c r="G120" s="173">
         <f>_xll.qlSwapRateHelperSpread($E120,Trigger)</f>
@@ -7566,11 +7566,11 @@
       </c>
       <c r="K120" s="191">
         <f>_xll.qlRateHelperEarliestDate($E120,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L120" s="192">
         <f>_xll.qlRateHelperLatestDate($E120,Trigger)</f>
-        <v>51236</v>
+        <v>51250</v>
       </c>
       <c r="N120" s="189" t="e">
         <f t="shared" si="7"/>
@@ -7595,7 +7595,7 @@
       </c>
       <c r="F121" s="173">
         <f>_xll.qlRateHelperQuoteValue($E121,Trigger)</f>
-        <v>2.4700000000000003E-2</v>
+        <v>2.4420000000000001E-2</v>
       </c>
       <c r="G121" s="173">
         <f>_xll.qlSwapRateHelperSpread($E121,Trigger)</f>
@@ -7612,11 +7612,11 @@
       </c>
       <c r="K121" s="191">
         <f>_xll.qlRateHelperEarliestDate($E121,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L121" s="192">
         <f>_xll.qlRateHelperLatestDate($E121,Trigger)</f>
-        <v>51601</v>
+        <v>51615</v>
       </c>
       <c r="N121" s="189" t="e">
         <f t="shared" si="7"/>
@@ -7641,7 +7641,7 @@
       </c>
       <c r="F122" s="173">
         <f>_xll.qlRateHelperQuoteValue($E122,Trigger)</f>
-        <v>2.4729999999999999E-2</v>
+        <v>2.443E-2</v>
       </c>
       <c r="G122" s="173">
         <f>_xll.qlSwapRateHelperSpread($E122,Trigger)</f>
@@ -7658,11 +7658,11 @@
       </c>
       <c r="K122" s="191">
         <f>_xll.qlRateHelperEarliestDate($E122,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L122" s="192">
         <f>_xll.qlRateHelperLatestDate($E122,Trigger)</f>
-        <v>51966</v>
+        <v>51980</v>
       </c>
       <c r="N122" s="189" t="e">
         <f t="shared" si="7"/>
@@ -7687,7 +7687,7 @@
       </c>
       <c r="F123" s="173">
         <f>_xll.qlRateHelperQuoteValue($E123,Trigger)</f>
-        <v>2.4760000000000001E-2</v>
+        <v>2.445E-2</v>
       </c>
       <c r="G123" s="173">
         <f>_xll.qlSwapRateHelperSpread($E123,Trigger)</f>
@@ -7704,11 +7704,11 @@
       </c>
       <c r="K123" s="191">
         <f>_xll.qlRateHelperEarliestDate($E123,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L123" s="192">
         <f>_xll.qlRateHelperLatestDate($E123,Trigger)</f>
-        <v>52331</v>
+        <v>52345</v>
       </c>
       <c r="N123" s="189" t="e">
         <f t="shared" si="7"/>
@@ -7733,7 +7733,7 @@
       </c>
       <c r="F124" s="173">
         <f>_xll.qlRateHelperQuoteValue($E124,Trigger)</f>
-        <v>2.4780000000000003E-2</v>
+        <v>2.4460000000000003E-2</v>
       </c>
       <c r="G124" s="173">
         <f>_xll.qlSwapRateHelperSpread($E124,Trigger)</f>
@@ -7750,11 +7750,11 @@
       </c>
       <c r="K124" s="191">
         <f>_xll.qlRateHelperEarliestDate($E124,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L124" s="192">
         <f>_xll.qlRateHelperLatestDate($E124,Trigger)</f>
-        <v>52698</v>
+        <v>52712</v>
       </c>
       <c r="N124" s="189" t="e">
         <f t="shared" si="7"/>
@@ -7779,7 +7779,7 @@
       </c>
       <c r="F125" s="173">
         <f>_xll.qlRateHelperQuoteValue($E125,Trigger)</f>
-        <v>2.4929999999999997E-2</v>
+        <v>2.4580000000000001E-2</v>
       </c>
       <c r="G125" s="173">
         <f>_xll.qlSwapRateHelperSpread($E125,Trigger)</f>
@@ -7796,11 +7796,11 @@
       </c>
       <c r="K125" s="191">
         <f>_xll.qlRateHelperEarliestDate($E125,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L125" s="192">
         <f>_xll.qlRateHelperLatestDate($E125,Trigger)</f>
-        <v>54525</v>
+        <v>54539</v>
       </c>
       <c r="N125" s="189" t="e">
         <f t="shared" si="7"/>
@@ -7825,7 +7825,7 @@
       </c>
       <c r="F126" s="173">
         <f>_xll.qlRateHelperQuoteValue($E126,Trigger)</f>
-        <v>2.511E-2</v>
+        <v>2.4729999999999999E-2</v>
       </c>
       <c r="G126" s="173">
         <f>_xll.qlSwapRateHelperSpread($E126,Trigger)</f>
@@ -7842,11 +7842,11 @@
       </c>
       <c r="K126" s="191">
         <f>_xll.qlRateHelperEarliestDate($E126,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L126" s="192">
         <f>_xll.qlRateHelperLatestDate($E126,Trigger)</f>
-        <v>56349</v>
+        <v>56363</v>
       </c>
       <c r="N126" s="189" t="e">
         <f t="shared" si="7"/>
@@ -7871,7 +7871,7 @@
       </c>
       <c r="F127" s="173">
         <f>_xll.qlRateHelperQuoteValue($E127,Trigger)</f>
-        <v>2.5270000000000001E-2</v>
+        <v>2.4849999999999997E-2</v>
       </c>
       <c r="G127" s="173">
         <f>_xll.qlSwapRateHelperSpread($E127,Trigger)</f>
@@ -7888,11 +7888,11 @@
       </c>
       <c r="K127" s="191">
         <f>_xll.qlRateHelperEarliestDate($E127,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L127" s="192">
         <f>_xll.qlRateHelperLatestDate($E127,Trigger)</f>
-        <v>60002</v>
+        <v>60016</v>
       </c>
       <c r="N127" s="189" t="e">
         <f t="shared" si="7"/>
@@ -7917,7 +7917,7 @@
       </c>
       <c r="F128" s="183">
         <f>_xll.qlRateHelperQuoteValue($E128,Trigger)</f>
-        <v>2.5399999999999999E-2</v>
+        <v>2.4980000000000002E-2</v>
       </c>
       <c r="G128" s="183">
         <f>_xll.qlSwapRateHelperSpread($E128,Trigger)</f>
@@ -7934,11 +7934,11 @@
       </c>
       <c r="K128" s="195">
         <f>_xll.qlRateHelperEarliestDate($E128,Trigger)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="L128" s="196">
         <f>_xll.qlRateHelperLatestDate($E128,Trigger)</f>
-        <v>63654</v>
+        <v>63668</v>
       </c>
       <c r="N128" s="189" t="e">
         <f t="shared" si="7"/>
@@ -9568,7 +9568,7 @@
       </c>
       <c r="E2" s="10">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>5.0850000000000001E-3</v>
+        <v>5.0670000000000003E-3</v>
       </c>
       <c r="F2" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -9576,14 +9576,14 @@
       </c>
       <c r="G2" s="9">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H2" s="8">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41740</v>
+        <v>41754</v>
       </c>
       <c r="I2" s="3">
-        <v>0.99998587519951287</v>
+        <v>0.99997168874791487</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -9598,7 +9598,7 @@
       </c>
       <c r="E3" s="10">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>4.6560000000000004E-3</v>
+        <v>4.8789999999999997E-3</v>
       </c>
       <c r="F3" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -9606,14 +9606,14 @@
       </c>
       <c r="G3" s="9">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H3" s="8">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41746</v>
+        <v>41761</v>
       </c>
       <c r="I3" s="3">
-        <v>0.99990947486220916</v>
+        <v>0.99987735442438652</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -9628,7 +9628,7 @@
       </c>
       <c r="E4" s="10">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>4.797E-3</v>
+        <v>4.9300000000000004E-3</v>
       </c>
       <c r="F4" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -9636,14 +9636,14 @@
       </c>
       <c r="G4" s="9">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H4" s="8">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41753</v>
+        <v>41767</v>
       </c>
       <c r="I4" s="3">
-        <v>0.99981348479440091</v>
+        <v>0.99979408060655228</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -9658,7 +9658,7 @@
       </c>
       <c r="E5" s="10">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>4.7980000000000002E-3</v>
+        <v>4.8339999999999998E-3</v>
       </c>
       <c r="F5" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -9666,14 +9666,14 @@
       </c>
       <c r="G5" s="9">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H5" s="8">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41761</v>
+        <v>41774</v>
       </c>
       <c r="I5" s="3">
-        <v>0.99970687483644383</v>
+        <v>0.99970386352168372</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -9689,7 +9689,7 @@
       </c>
       <c r="E6" s="10">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>4.6899999999999997E-3</v>
+        <v>4.7689999999999998E-3</v>
       </c>
       <c r="F6" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -9697,14 +9697,14 @@
       </c>
       <c r="G6" s="9">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H6" s="8">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41771</v>
+        <v>41785</v>
       </c>
       <c r="I6" s="3">
-        <v>0.99958328483503334</v>
+        <v>0.99956203789474851</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="E7" s="10">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>4.5539999999999999E-3</v>
+        <v>4.64E-3</v>
       </c>
       <c r="F7" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -9729,14 +9729,14 @@
       </c>
       <c r="G7" s="9">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H7" s="8">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41800</v>
+        <v>41814</v>
       </c>
       <c r="I7" s="3">
-        <v>0.99922894498460257</v>
+        <v>0.99920016997077798</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -9745,7 +9745,7 @@
       </c>
       <c r="E8" s="10">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>4.4580000000000002E-3</v>
+        <v>4.5149999999999999E-3</v>
       </c>
       <c r="F8" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -9753,14 +9753,14 @@
       </c>
       <c r="G8" s="9">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H8" s="8">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>41830</v>
+        <v>41844</v>
       </c>
       <c r="I8" s="3">
-        <v>0.99887438510333337</v>
+        <v>0.99884578897361642</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -9769,7 +9769,7 @@
       </c>
       <c r="E9" s="10">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>4.3620000000000004E-3</v>
+        <v>4.3959999999999997E-3</v>
       </c>
       <c r="F9" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -9777,14 +9777,14 @@
       </c>
       <c r="G9" s="9">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H9" s="8">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>41862</v>
+        <v>41876</v>
       </c>
       <c r="I9" s="3">
-        <v>0.99851186783776802</v>
+        <v>0.99848607055375449</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -9793,7 +9793,7 @@
       </c>
       <c r="E10" s="10">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>4.3059999999999999E-3</v>
+        <v>4.3340000000000002E-3</v>
       </c>
       <c r="F10" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -9801,14 +9801,14 @@
       </c>
       <c r="G10" s="9">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H10" s="8">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>41892</v>
+        <v>41906</v>
       </c>
       <c r="I10" s="3">
-        <v>0.99817329296520907</v>
+        <v>0.9981472260658053</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="E11" s="10">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>4.15E-3</v>
+        <v>4.1400000000000005E-3</v>
       </c>
       <c r="F11" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -9825,14 +9825,14 @@
       </c>
       <c r="G11" s="9">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41771</v>
+        <v>41785</v>
       </c>
       <c r="H11" s="8">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>41955</v>
+        <v>41969</v>
       </c>
       <c r="I11" s="3">
-        <v>0.9974675453416364</v>
+        <v>0.99745143066745623</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -9841,7 +9841,7 @@
       </c>
       <c r="E12" s="10">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>3.9900000000000005E-3</v>
+        <v>3.9399999999999999E-3</v>
       </c>
       <c r="F12" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -9849,14 +9849,14 @@
       </c>
       <c r="G12" s="9">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41800</v>
+        <v>41814</v>
       </c>
       <c r="H12" s="8">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>41983</v>
+        <v>41997</v>
       </c>
       <c r="I12" s="3">
-        <v>0.99720636118253414</v>
+        <v>0.99720293868508147</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="E13" s="10">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>3.98E-3</v>
+        <v>3.9399999999999999E-3</v>
       </c>
       <c r="F13" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -9873,14 +9873,14 @@
       </c>
       <c r="G13" s="9">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41830</v>
+        <v>41844</v>
       </c>
       <c r="H13" s="8">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>42016</v>
+        <v>42030</v>
       </c>
       <c r="I13" s="3">
-        <v>0.99682458148877751</v>
+        <v>0.99681660264283656</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -9889,7 +9889,7 @@
       </c>
       <c r="E14" s="10">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>3.9399999999999999E-3</v>
+        <v>3.8900000000000002E-3</v>
       </c>
       <c r="F14" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -9897,14 +9897,14 @@
       </c>
       <c r="G14" s="9">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41862</v>
+        <v>41876</v>
       </c>
       <c r="H14" s="8">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>42046</v>
+        <v>42060</v>
       </c>
       <c r="I14" s="3">
-        <v>0.99650512795564938</v>
+        <v>0.99650479757067334</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="E15" s="10">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>3.9100000000000003E-3</v>
+        <v>3.8600000000000001E-3</v>
       </c>
       <c r="F15" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -9921,14 +9921,14 @@
       </c>
       <c r="G15" s="9">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41892</v>
+        <v>41906</v>
       </c>
       <c r="H15" s="8">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>42073</v>
+        <v>42087</v>
       </c>
       <c r="I15" s="3">
-        <v>0.99621487288828758</v>
+        <v>0.99621385170571441</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -9937,7 +9937,7 @@
       </c>
       <c r="E16" s="10">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>3.9399999999999999E-3</v>
+        <v>3.9199999999999999E-3</v>
       </c>
       <c r="F16" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -9945,14 +9945,14 @@
       </c>
       <c r="G16" s="9">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41922</v>
+        <v>41936</v>
       </c>
       <c r="H16" s="8">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>42104</v>
+        <v>42118</v>
       </c>
       <c r="I16" s="3">
-        <v>0.99583785813794845</v>
+        <v>0.99582251332644001</v>
       </c>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.2">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="E17" s="10">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>4.0300000000000006E-3</v>
+        <v>4.0200000000000001E-3</v>
       </c>
       <c r="F17" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -9969,14 +9969,14 @@
       </c>
       <c r="G17" s="9">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41953</v>
+        <v>41967</v>
       </c>
       <c r="H17" s="8">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>42135</v>
+        <v>42149</v>
       </c>
       <c r="I17" s="3">
-        <v>0.99545859816111559</v>
+        <v>0.99544656957220978</v>
       </c>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.2">
@@ -9985,7 +9985,7 @@
       </c>
       <c r="E18" s="10">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>4.1200000000000004E-3</v>
+        <v>4.1099999999999999E-3</v>
       </c>
       <c r="F18" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -9993,14 +9993,14 @@
       </c>
       <c r="G18" s="9">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41983</v>
+        <v>41997</v>
       </c>
       <c r="H18" s="8">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>42165</v>
+        <v>42179</v>
       </c>
       <c r="I18" s="3">
-        <v>0.99513360844654086</v>
+        <v>0.99513521356715773</v>
       </c>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.2">
@@ -10017,14 +10017,14 @@
       </c>
       <c r="G19" s="9">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>42016</v>
+        <v>42030</v>
       </c>
       <c r="H19" s="8">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>42198</v>
+        <v>42212</v>
       </c>
       <c r="I19" s="3">
-        <v>0.99470745718920117</v>
+        <v>0.99469949528927948</v>
       </c>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.2">
@@ -10033,7 +10033,7 @@
       </c>
       <c r="E20" s="10">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>4.3499999999999997E-3</v>
+        <v>4.3600000000000002E-3</v>
       </c>
       <c r="F20" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -10041,14 +10041,14 @@
       </c>
       <c r="G20" s="9">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>42045</v>
+        <v>42059</v>
       </c>
       <c r="H20" s="8">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>42226</v>
+        <v>42240</v>
       </c>
       <c r="I20" s="3">
-        <v>0.99434075256906196</v>
+        <v>0.99433517732041132</v>
       </c>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.2">
@@ -10057,7 +10057,7 @@
       </c>
       <c r="E21" s="10">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>4.4799999999999996E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="F21" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -10065,14 +10065,14 @@
       </c>
       <c r="G21" s="9">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>42073</v>
+        <v>42087</v>
       </c>
       <c r="H21" s="8">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>42257</v>
+        <v>42271</v>
       </c>
       <c r="I21" s="3">
-        <v>0.9939389735142673</v>
+        <v>0.99392781772494709</v>
       </c>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.2">
@@ -10081,7 +10081,7 @@
       </c>
       <c r="E22" s="10">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>4.64E-3</v>
+        <v>4.6600000000000001E-3</v>
       </c>
       <c r="F22" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -10089,14 +10089,14 @@
       </c>
       <c r="G22" s="9">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>42104</v>
+        <v>42118</v>
       </c>
       <c r="H22" s="8">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>42289</v>
+        <v>42303</v>
       </c>
       <c r="I22" s="3">
-        <v>0.99346898653228366</v>
+        <v>0.9934434921193398</v>
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.2">
@@ -10105,7 +10105,7 @@
       </c>
       <c r="E23" s="10">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>4.79E-3</v>
+        <v>4.81E-3</v>
       </c>
       <c r="F23" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -10113,14 +10113,14 @@
       </c>
       <c r="G23" s="9">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>42135</v>
+        <v>42149</v>
       </c>
       <c r="H23" s="8">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>42319</v>
+        <v>42333</v>
       </c>
       <c r="I23" s="3">
-        <v>0.99302744629980777</v>
+        <v>0.99300532115710738</v>
       </c>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.2">
@@ -10129,7 +10129,7 @@
       </c>
       <c r="E24" s="10">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>4.9399999999999999E-3</v>
+        <v>4.96E-3</v>
       </c>
       <c r="F24" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -10137,14 +10137,14 @@
       </c>
       <c r="G24" s="9">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>42165</v>
+        <v>42179</v>
       </c>
       <c r="H24" s="8">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>42348</v>
+        <v>42362</v>
       </c>
       <c r="I24" s="3">
-        <v>0.99264092165211892</v>
+        <v>0.99263245626742214</v>
       </c>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.2">
@@ -10153,7 +10153,7 @@
       </c>
       <c r="E25" s="10">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>5.1400000000000005E-3</v>
+        <v>5.1700000000000001E-3</v>
       </c>
       <c r="F25" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -10161,14 +10161,14 @@
       </c>
       <c r="G25" s="9">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>42195</v>
+        <v>42209</v>
       </c>
       <c r="H25" s="8">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>42380</v>
+        <v>42394</v>
       </c>
       <c r="I25" s="3">
-        <v>0.99212713791915186</v>
+        <v>0.9921045941217469</v>
       </c>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.2">
@@ -10177,7 +10177,7 @@
       </c>
       <c r="E26" s="10">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>5.3200000000000001E-3</v>
+        <v>5.3500000000000006E-3</v>
       </c>
       <c r="F26" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -10185,14 +10185,14 @@
       </c>
       <c r="G26" s="9">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>42226</v>
+        <v>42240</v>
       </c>
       <c r="H26" s="8">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>42410</v>
+        <v>42424</v>
       </c>
       <c r="I26" s="3">
-        <v>0.99164436136779599</v>
+        <v>0.99162363757366823</v>
       </c>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.2">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="E27" s="10">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>5.5000000000000005E-3</v>
+        <v>5.5299999999999993E-3</v>
       </c>
       <c r="F27" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -10209,14 +10209,14 @@
       </c>
       <c r="G27" s="9">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>42257</v>
+        <v>42271</v>
       </c>
       <c r="H27" s="8">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>42439</v>
+        <v>42453</v>
       </c>
       <c r="I27" s="3">
-        <v>0.99118293429972881</v>
+        <v>0.9911568185815316</v>
       </c>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.2">
@@ -10225,7 +10225,7 @@
       </c>
       <c r="E28" s="10">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>5.7299999999999999E-3</v>
+        <v>5.7600000000000004E-3</v>
       </c>
       <c r="F28" s="10" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -10233,14 +10233,14 @@
       </c>
       <c r="G28" s="9">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>42289</v>
+        <v>42303</v>
       </c>
       <c r="H28" s="8">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>42472</v>
+        <v>42486</v>
       </c>
       <c r="I28" s="3">
-        <v>0.99058366396506936</v>
+        <v>0.99054318168337097</v>
       </c>
     </row>
     <row r="29" spans="4:9" x14ac:dyDescent="0.2">
@@ -10257,14 +10257,14 @@
       </c>
       <c r="G29" s="9">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H29" s="8">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>42835</v>
+        <v>42849</v>
       </c>
       <c r="I29" s="3">
-        <v>0.98237782661425121</v>
+        <v>0.98238154471906947</v>
       </c>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.2">
@@ -10273,7 +10273,7 @@
       </c>
       <c r="E30" s="10">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>7.5900000000000004E-3</v>
+        <v>7.6800000000000002E-3</v>
       </c>
       <c r="F30" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
@@ -10281,14 +10281,14 @@
       </c>
       <c r="G30" s="9">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H30" s="8">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>43200</v>
+        <v>43214</v>
       </c>
       <c r="I30" s="3">
-        <v>0.9701101936290385</v>
+        <v>0.96976350250031895</v>
       </c>
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.2">
@@ -10297,7 +10297,7 @@
       </c>
       <c r="E31" s="10">
         <f>_xll.qlRateHelperRate($D31)</f>
-        <v>9.41E-3</v>
+        <v>9.58E-3</v>
       </c>
       <c r="F31" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
@@ -10305,14 +10305,14 @@
       </c>
       <c r="G31" s="9">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H31" s="8">
         <f>_xll.qlRateHelperLatestDate($D31)</f>
-        <v>43565</v>
+        <v>43579</v>
       </c>
       <c r="I31" s="3">
-        <v>0.95401401500079974</v>
+        <v>0.9532005972426052</v>
       </c>
     </row>
     <row r="32" spans="4:9" x14ac:dyDescent="0.2">
@@ -10321,7 +10321,7 @@
       </c>
       <c r="E32" s="10">
         <f>_xll.qlRateHelperRate($D32)</f>
-        <v>1.1270000000000001E-2</v>
+        <v>1.142E-2</v>
       </c>
       <c r="F32" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D32)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D32)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D32)),_xll.qlSwapRateHelperSpread($D32))</f>
@@ -10329,14 +10329,14 @@
       </c>
       <c r="G32" s="9">
         <f>_xll.qlRateHelperEarliestDate($D32)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H32" s="8">
         <f>_xll.qlRateHelperLatestDate($D32)</f>
-        <v>43935</v>
+        <v>43945</v>
       </c>
       <c r="I32" s="3">
-        <v>0.9343456821249525</v>
+        <v>0.93361623491951851</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.2">
@@ -10345,7 +10345,7 @@
       </c>
       <c r="E33" s="10">
         <f>_xll.qlRateHelperRate($D33)</f>
-        <v>1.306E-2</v>
+        <v>1.3180000000000001E-2</v>
       </c>
       <c r="F33" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D33)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D33)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D33)),_xll.qlSwapRateHelperSpread($D33))</f>
@@ -10353,14 +10353,14 @@
       </c>
       <c r="G33" s="9">
         <f>_xll.qlRateHelperEarliestDate($D33)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H33" s="8">
         <f>_xll.qlRateHelperLatestDate($D33)</f>
-        <v>44298</v>
+        <v>44312</v>
       </c>
       <c r="I33" s="3">
-        <v>0.91215786616436112</v>
+        <v>0.91139021836012302</v>
       </c>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.2">
@@ -10369,7 +10369,7 @@
       </c>
       <c r="E34" s="10">
         <f>_xll.qlRateHelperRate($D34)</f>
-        <v>1.473E-2</v>
+        <v>1.4830000000000001E-2</v>
       </c>
       <c r="F34" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D34)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D34)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D34)),_xll.qlSwapRateHelperSpread($D34))</f>
@@ -10377,14 +10377,14 @@
       </c>
       <c r="G34" s="9">
         <f>_xll.qlRateHelperEarliestDate($D34)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H34" s="8">
         <f>_xll.qlRateHelperLatestDate($D34)</f>
-        <v>44662</v>
+        <v>44676</v>
       </c>
       <c r="I34" s="3">
-        <v>0.88798209121000493</v>
+        <v>0.88727547936956597</v>
       </c>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.2">
@@ -10393,7 +10393,7 @@
       </c>
       <c r="E35" s="10">
         <f>_xll.qlRateHelperRate($D35)</f>
-        <v>1.6250000000000001E-2</v>
+        <v>1.6330000000000001E-2</v>
       </c>
       <c r="F35" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D35)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D35)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D35)),_xll.qlSwapRateHelperSpread($D35))</f>
@@ -10401,14 +10401,14 @@
       </c>
       <c r="G35" s="9">
         <f>_xll.qlRateHelperEarliestDate($D35)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H35" s="8">
         <f>_xll.qlRateHelperLatestDate($D35)</f>
-        <v>45027</v>
+        <v>45040</v>
       </c>
       <c r="I35" s="3">
-        <v>0.86251641846702098</v>
+        <v>0.86194819643814768</v>
       </c>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.2">
@@ -10417,7 +10417,7 @@
       </c>
       <c r="E36" s="10">
         <f>_xll.qlRateHelperRate($D36)</f>
-        <v>1.7610000000000001E-2</v>
+        <v>1.7680000000000001E-2</v>
       </c>
       <c r="F36" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D36)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D36)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D36)),_xll.qlSwapRateHelperSpread($D36))</f>
@@ -10425,14 +10425,14 @@
       </c>
       <c r="G36" s="9">
         <f>_xll.qlRateHelperEarliestDate($D36)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H36" s="8">
         <f>_xll.qlRateHelperLatestDate($D36)</f>
-        <v>45392</v>
+        <v>45406</v>
       </c>
       <c r="I36" s="3">
-        <v>0.83643581318273375</v>
+        <v>0.83587524780069855</v>
       </c>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.2">
@@ -10441,7 +10441,7 @@
       </c>
       <c r="E37" s="10">
         <f>_xll.qlRateHelperRate($D37)</f>
-        <v>1.883E-2</v>
+        <v>1.8860000000000002E-2</v>
       </c>
       <c r="F37" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D37)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D37)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D37)),_xll.qlSwapRateHelperSpread($D37))</f>
@@ -10449,14 +10449,14 @@
       </c>
       <c r="G37" s="9">
         <f>_xll.qlRateHelperEarliestDate($D37)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H37" s="8">
         <f>_xll.qlRateHelperLatestDate($D37)</f>
-        <v>45757</v>
+        <v>45771</v>
       </c>
       <c r="I37" s="3">
-        <v>0.80996933138982108</v>
+        <v>0.80976749428589323</v>
       </c>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.2">
@@ -10473,14 +10473,14 @@
       </c>
       <c r="G38" s="9">
         <f>_xll.qlRateHelperEarliestDate($D38)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H38" s="8">
         <f>_xll.qlRateHelperLatestDate($D38)</f>
-        <v>46122</v>
+        <v>46136</v>
       </c>
       <c r="I38" s="3">
-        <v>0.7837949701529201</v>
+        <v>0.78390137083299927</v>
       </c>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.2">
@@ -10489,7 +10489,7 @@
       </c>
       <c r="E39" s="10">
         <f>_xll.qlRateHelperRate($D39)</f>
-        <v>2.0799999999999999E-2</v>
+        <v>2.077E-2</v>
       </c>
       <c r="F39" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D39)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D39)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D39)),_xll.qlSwapRateHelperSpread($D39))</f>
@@ -10497,14 +10497,14 @@
       </c>
       <c r="G39" s="9">
         <f>_xll.qlRateHelperEarliestDate($D39)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H39" s="8">
         <f>_xll.qlRateHelperLatestDate($D39)</f>
-        <v>46489</v>
+        <v>46503</v>
       </c>
       <c r="I39" s="3">
-        <v>0.75814978561449142</v>
+        <v>0.75860183743788856</v>
       </c>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.2">
@@ -10513,7 +10513,7 @@
       </c>
       <c r="E40" s="10">
         <f>_xll.qlRateHelperRate($D40)</f>
-        <v>2.1579999999999998E-2</v>
+        <v>2.1520000000000001E-2</v>
       </c>
       <c r="F40" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D40)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D40)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D40)),_xll.qlSwapRateHelperSpread($D40))</f>
@@ -10521,14 +10521,14 @@
       </c>
       <c r="G40" s="9">
         <f>_xll.qlRateHelperEarliestDate($D40)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H40" s="8">
         <f>_xll.qlRateHelperLatestDate($D40)</f>
-        <v>46853</v>
+        <v>46867</v>
       </c>
       <c r="I40" s="3">
-        <v>0.73343557310756968</v>
+        <v>0.7342654475487691</v>
       </c>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.2">
@@ -10537,7 +10537,7 @@
       </c>
       <c r="E41" s="10">
         <f>_xll.qlRateHelperRate($D41)</f>
-        <v>2.222E-2</v>
+        <v>2.214E-2</v>
       </c>
       <c r="F41" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D41)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D41)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D41)),_xll.qlSwapRateHelperSpread($D41))</f>
@@ -10545,14 +10545,14 @@
       </c>
       <c r="G41" s="9">
         <f>_xll.qlRateHelperEarliestDate($D41)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H41" s="8">
         <f>_xll.qlRateHelperLatestDate($D41)</f>
-        <v>47218</v>
+        <v>47232</v>
       </c>
       <c r="I41" s="3">
-        <v>0.70983983118352667</v>
+        <v>0.71095104435474143</v>
       </c>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.2">
@@ -10561,7 +10561,7 @@
       </c>
       <c r="E42" s="10">
         <f>_xll.qlRateHelperRate($D42)</f>
-        <v>2.2749999999999999E-2</v>
+        <v>2.2640000000000004E-2</v>
       </c>
       <c r="F42" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D42)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D42)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D42)),_xll.qlSwapRateHelperSpread($D42))</f>
@@ -10569,14 +10569,14 @@
       </c>
       <c r="G42" s="9">
         <f>_xll.qlRateHelperEarliestDate($D42)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H42" s="8">
         <f>_xll.qlRateHelperLatestDate($D42)</f>
-        <v>47583</v>
+        <v>47597</v>
       </c>
       <c r="I42" s="3">
-        <v>0.68735330620078483</v>
+        <v>0.68889578919377314</v>
       </c>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.2">
@@ -10585,7 +10585,7 @@
       </c>
       <c r="E43" s="10">
         <f>_xll.qlRateHelperRate($D43)</f>
-        <v>2.3170000000000003E-2</v>
+        <v>2.3050000000000001E-2</v>
       </c>
       <c r="F43" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D43)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D43)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D43)),_xll.qlSwapRateHelperSpread($D43))</f>
@@ -10593,14 +10593,14 @@
       </c>
       <c r="G43" s="9">
         <f>_xll.qlRateHelperEarliestDate($D43)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H43" s="8">
         <f>_xll.qlRateHelperLatestDate($D43)</f>
-        <v>47948</v>
+        <v>47962</v>
       </c>
       <c r="I43" s="3">
-        <v>0.66620556271242581</v>
+        <v>0.66792625073530631</v>
       </c>
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.2">
@@ -10609,7 +10609,7 @@
       </c>
       <c r="E44" s="10">
         <f>_xll.qlRateHelperRate($D44)</f>
-        <v>2.3519999999999999E-2</v>
+        <v>2.3370000000000002E-2</v>
       </c>
       <c r="F44" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D44)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D44)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D44)),_xll.qlSwapRateHelperSpread($D44))</f>
@@ -10617,14 +10617,14 @@
       </c>
       <c r="G44" s="9">
         <f>_xll.qlRateHelperEarliestDate($D44)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H44" s="8">
         <f>_xll.qlRateHelperLatestDate($D44)</f>
-        <v>48316</v>
+        <v>48330</v>
       </c>
       <c r="I44" s="3">
-        <v>0.64593847346540101</v>
+        <v>0.64813537798018017</v>
       </c>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.2">
@@ -10633,7 +10633,7 @@
       </c>
       <c r="E45" s="10">
         <f>_xll.qlRateHelperRate($D45)</f>
-        <v>2.3789999999999999E-2</v>
+        <v>2.3620000000000002E-2</v>
       </c>
       <c r="F45" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D45)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D45)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D45)),_xll.qlSwapRateHelperSpread($D45))</f>
@@ -10641,14 +10641,14 @@
       </c>
       <c r="G45" s="9">
         <f>_xll.qlRateHelperEarliestDate($D45)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H45" s="8">
         <f>_xll.qlRateHelperLatestDate($D45)</f>
-        <v>48680</v>
+        <v>48694</v>
       </c>
       <c r="I45" s="3">
-        <v>0.62704017313106497</v>
+        <v>0.62958239992671738</v>
       </c>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.2">
@@ -10657,7 +10657,7 @@
       </c>
       <c r="E46" s="10">
         <f>_xll.qlRateHelperRate($D46)</f>
-        <v>2.4009999999999997E-2</v>
+        <v>2.3820000000000001E-2</v>
       </c>
       <c r="F46" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D46)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D46)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D46)),_xll.qlSwapRateHelperSpread($D46))</f>
@@ -10665,14 +10665,14 @@
       </c>
       <c r="G46" s="9">
         <f>_xll.qlRateHelperEarliestDate($D46)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H46" s="8">
         <f>_xll.qlRateHelperLatestDate($D46)</f>
-        <v>49045</v>
+        <v>49058</v>
       </c>
       <c r="I46" s="3">
-        <v>0.60900377607946521</v>
+        <v>0.61194349456909281</v>
       </c>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.2">
@@ -10681,7 +10681,7 @@
       </c>
       <c r="E47" s="10">
         <f>_xll.qlRateHelperRate($D47)</f>
-        <v>2.419E-2</v>
+        <v>2.3980000000000001E-2</v>
       </c>
       <c r="F47" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D47)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D47)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D47)),_xll.qlSwapRateHelperSpread($D47))</f>
@@ -10689,14 +10689,14 @@
       </c>
       <c r="G47" s="9">
         <f>_xll.qlRateHelperEarliestDate($D47)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H47" s="8">
         <f>_xll.qlRateHelperLatestDate($D47)</f>
-        <v>49409</v>
+        <v>49423</v>
       </c>
       <c r="I47" s="3">
-        <v>0.59182506163524162</v>
+        <v>0.59509431202784546</v>
       </c>
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.2">
@@ -10705,7 +10705,7 @@
       </c>
       <c r="E48" s="10">
         <f>_xll.qlRateHelperRate($D48)</f>
-        <v>2.4340000000000001E-2</v>
+        <v>2.4109999999999999E-2</v>
       </c>
       <c r="F48" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D48)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D48)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D48)),_xll.qlSwapRateHelperSpread($D48))</f>
@@ -10713,14 +10713,14 @@
       </c>
       <c r="G48" s="9">
         <f>_xll.qlRateHelperEarliestDate($D48)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H48" s="8">
         <f>_xll.qlRateHelperLatestDate($D48)</f>
-        <v>49775</v>
+        <v>49789</v>
       </c>
       <c r="I48" s="3">
-        <v>0.57531598226565395</v>
+        <v>0.57896319700537324</v>
       </c>
     </row>
     <row r="49" spans="4:9" x14ac:dyDescent="0.2">
@@ -10729,7 +10729,7 @@
       </c>
       <c r="E49" s="10">
         <f>_xll.qlRateHelperRate($D49)</f>
-        <v>2.445E-2</v>
+        <v>2.4220000000000002E-2</v>
       </c>
       <c r="F49" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D49)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D49)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D49)),_xll.qlSwapRateHelperSpread($D49))</f>
@@ -10737,14 +10737,14 @@
       </c>
       <c r="G49" s="9">
         <f>_xll.qlRateHelperEarliestDate($D49)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H49" s="8">
         <f>_xll.qlRateHelperLatestDate($D49)</f>
-        <v>50140</v>
+        <v>50154</v>
       </c>
       <c r="I49" s="3">
-        <v>0.55973071533842977</v>
+        <v>0.56341596972986618</v>
       </c>
     </row>
     <row r="50" spans="4:9" x14ac:dyDescent="0.2">
@@ -10753,7 +10753,7 @@
       </c>
       <c r="E50" s="10">
         <f>_xll.qlRateHelperRate($D50)</f>
-        <v>2.4540000000000003E-2</v>
+        <v>2.4289999999999999E-2</v>
       </c>
       <c r="F50" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D50)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D50)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D50)),_xll.qlSwapRateHelperSpread($D50))</f>
@@ -10761,14 +10761,14 @@
       </c>
       <c r="G50" s="9">
         <f>_xll.qlRateHelperEarliestDate($D50)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H50" s="8">
         <f>_xll.qlRateHelperLatestDate($D50)</f>
-        <v>50507</v>
+        <v>50522</v>
       </c>
       <c r="I50" s="3">
-        <v>0.54468495560034391</v>
+        <v>0.5487281677646717</v>
       </c>
     </row>
     <row r="51" spans="4:9" x14ac:dyDescent="0.2">
@@ -10777,7 +10777,7 @@
       </c>
       <c r="E51" s="10">
         <f>_xll.qlRateHelperRate($D51)</f>
-        <v>2.461E-2</v>
+        <v>2.435E-2</v>
       </c>
       <c r="F51" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D51)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D51)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D51)),_xll.qlSwapRateHelperSpread($D51))</f>
@@ -10785,14 +10785,14 @@
       </c>
       <c r="G51" s="9">
         <f>_xll.qlRateHelperEarliestDate($D51)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H51" s="8">
         <f>_xll.qlRateHelperLatestDate($D51)</f>
-        <v>50872</v>
+        <v>50885</v>
       </c>
       <c r="I51" s="3">
-        <v>0.53034699851870082</v>
+        <v>0.53467715929793203</v>
       </c>
     </row>
     <row r="52" spans="4:9" x14ac:dyDescent="0.2">
@@ -10801,7 +10801,7 @@
       </c>
       <c r="E52" s="10">
         <f>_xll.qlRateHelperRate($D52)</f>
-        <v>2.4660000000000001E-2</v>
+        <v>2.4390000000000002E-2</v>
       </c>
       <c r="F52" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D52)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D52)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D52)),_xll.qlSwapRateHelperSpread($D52))</f>
@@ -10809,14 +10809,14 @@
       </c>
       <c r="G52" s="9">
         <f>_xll.qlRateHelperEarliestDate($D52)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H52" s="8">
         <f>_xll.qlRateHelperLatestDate($D52)</f>
-        <v>51236</v>
+        <v>51250</v>
       </c>
       <c r="I52" s="3">
-        <v>0.5167304245590455</v>
+        <v>0.52124244716505175</v>
       </c>
     </row>
     <row r="53" spans="4:9" x14ac:dyDescent="0.2">
@@ -10825,7 +10825,7 @@
       </c>
       <c r="E53" s="10">
         <f>_xll.qlRateHelperRate($D53)</f>
-        <v>2.4700000000000003E-2</v>
+        <v>2.4420000000000001E-2</v>
       </c>
       <c r="F53" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D53)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D53)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D53)),_xll.qlSwapRateHelperSpread($D53))</f>
@@ -10833,14 +10833,14 @@
       </c>
       <c r="G53" s="9">
         <f>_xll.qlRateHelperEarliestDate($D53)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H53" s="8">
         <f>_xll.qlRateHelperLatestDate($D53)</f>
-        <v>51601</v>
+        <v>51615</v>
       </c>
       <c r="I53" s="3">
-        <v>0.50351695206856939</v>
+        <v>0.5082475581922361</v>
       </c>
     </row>
     <row r="54" spans="4:9" x14ac:dyDescent="0.2">
@@ -10849,7 +10849,7 @@
       </c>
       <c r="E54" s="10">
         <f>_xll.qlRateHelperRate($D54)</f>
-        <v>2.4729999999999999E-2</v>
+        <v>2.443E-2</v>
       </c>
       <c r="F54" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D54)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D54)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D54)),_xll.qlSwapRateHelperSpread($D54))</f>
@@ -10857,14 +10857,14 @@
       </c>
       <c r="G54" s="9">
         <f>_xll.qlRateHelperEarliestDate($D54)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H54" s="8">
         <f>_xll.qlRateHelperLatestDate($D54)</f>
-        <v>51966</v>
+        <v>51980</v>
       </c>
       <c r="I54" s="3">
-        <v>0.49078256895836819</v>
+        <v>0.49593256694399801</v>
       </c>
     </row>
     <row r="55" spans="4:9" x14ac:dyDescent="0.2">
@@ -10873,7 +10873,7 @@
       </c>
       <c r="E55" s="10">
         <f>_xll.qlRateHelperRate($D55)</f>
-        <v>2.4760000000000001E-2</v>
+        <v>2.445E-2</v>
       </c>
       <c r="F55" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D55)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D55)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D55)),_xll.qlSwapRateHelperSpread($D55))</f>
@@ -10881,14 +10881,14 @@
       </c>
       <c r="G55" s="9">
         <f>_xll.qlRateHelperEarliestDate($D55)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H55" s="8">
         <f>_xll.qlRateHelperLatestDate($D55)</f>
-        <v>52331</v>
+        <v>52345</v>
       </c>
       <c r="I55" s="3">
-        <v>0.47832742885623952</v>
+        <v>0.48369687687025531</v>
       </c>
     </row>
     <row r="56" spans="4:9" x14ac:dyDescent="0.2">
@@ -10897,7 +10897,7 @@
       </c>
       <c r="E56" s="10">
         <f>_xll.qlRateHelperRate($D56)</f>
-        <v>2.4780000000000003E-2</v>
+        <v>2.4460000000000003E-2</v>
       </c>
       <c r="F56" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D56)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D56)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D56)),_xll.qlSwapRateHelperSpread($D56))</f>
@@ -10905,14 +10905,14 @@
       </c>
       <c r="G56" s="9">
         <f>_xll.qlRateHelperEarliestDate($D56)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H56" s="8">
         <f>_xll.qlRateHelperLatestDate($D56)</f>
-        <v>52698</v>
+        <v>52712</v>
       </c>
       <c r="I56" s="3">
-        <v>0.46632382377762588</v>
+        <v>0.47191370262810145</v>
       </c>
     </row>
     <row r="57" spans="4:9" x14ac:dyDescent="0.2">
@@ -10921,7 +10921,7 @@
       </c>
       <c r="E57" s="10">
         <f>_xll.qlRateHelperRate($D57)</f>
-        <v>2.4929999999999997E-2</v>
+        <v>2.4580000000000001E-2</v>
       </c>
       <c r="F57" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D57)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D57)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D57)),_xll.qlSwapRateHelperSpread($D57))</f>
@@ -10929,14 +10929,14 @@
       </c>
       <c r="G57" s="9">
         <f>_xll.qlRateHelperEarliestDate($D57)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H57" s="8">
         <f>_xll.qlRateHelperLatestDate($D57)</f>
-        <v>54525</v>
+        <v>54539</v>
       </c>
       <c r="I57" s="3">
-        <v>0.40927939508942746</v>
+        <v>0.41551808005182428</v>
       </c>
     </row>
     <row r="58" spans="4:9" x14ac:dyDescent="0.2">
@@ -10945,7 +10945,7 @@
       </c>
       <c r="E58" s="10">
         <f>_xll.qlRateHelperRate($D58)</f>
-        <v>2.511E-2</v>
+        <v>2.4729999999999999E-2</v>
       </c>
       <c r="F58" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D58)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D58)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D58)),_xll.qlSwapRateHelperSpread($D58))</f>
@@ -10953,14 +10953,14 @@
       </c>
       <c r="G58" s="9">
         <f>_xll.qlRateHelperEarliestDate($D58)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H58" s="8">
         <f>_xll.qlRateHelperLatestDate($D58)</f>
-        <v>56349</v>
+        <v>56363</v>
       </c>
       <c r="I58" s="3">
-        <v>0.35768576144781605</v>
+        <v>0.36451830432411719</v>
       </c>
     </row>
     <row r="59" spans="4:9" x14ac:dyDescent="0.2">
@@ -10969,7 +10969,7 @@
       </c>
       <c r="E59" s="10">
         <f>_xll.qlRateHelperRate($D59)</f>
-        <v>2.5270000000000001E-2</v>
+        <v>2.4849999999999997E-2</v>
       </c>
       <c r="F59" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D59)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D59)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D59)),_xll.qlSwapRateHelperSpread($D59))</f>
@@ -10977,14 +10977,14 @@
       </c>
       <c r="G59" s="9">
         <f>_xll.qlRateHelperEarliestDate($D59)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H59" s="8">
         <f>_xll.qlRateHelperLatestDate($D59)</f>
-        <v>60002</v>
+        <v>60016</v>
       </c>
       <c r="I59" s="3">
-        <v>0.2752129483929433</v>
+        <v>0.28254688262967204</v>
       </c>
     </row>
     <row r="60" spans="4:9" x14ac:dyDescent="0.2">
@@ -10993,7 +10993,7 @@
       </c>
       <c r="E60" s="10">
         <f>_xll.qlRateHelperRate($D60)</f>
-        <v>2.5399999999999999E-2</v>
+        <v>2.4980000000000002E-2</v>
       </c>
       <c r="F60" s="10">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D60)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D60)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D60)),_xll.qlSwapRateHelperSpread($D60))</f>
@@ -11001,14 +11001,14 @@
       </c>
       <c r="G60" s="9">
         <f>_xll.qlRateHelperEarliestDate($D60)</f>
-        <v>41739</v>
+        <v>41753</v>
       </c>
       <c r="H60" s="8">
         <f>_xll.qlRateHelperLatestDate($D60)</f>
-        <v>63654</v>
+        <v>63668</v>
       </c>
       <c r="I60" s="3">
-        <v>0.21093935966807603</v>
+        <v>0.21750757142630334</v>
       </c>
     </row>
     <row r="61" spans="4:9" x14ac:dyDescent="0.2">
